--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF8A2936-37AB-43D0-B5A7-A353222D42D7}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E4EF4DB-26A3-426D-AAA7-B179C0FD8676}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="12870" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="949">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Sin información</t>
   </si>
   <si>
-    <t>Fondo Adaptacion</t>
-  </si>
-  <si>
     <t>01/01/1601</t>
   </si>
   <si>
@@ -512,6 +509,9 @@
     <t>C 045 DE 2013</t>
   </si>
   <si>
+    <t>Fondo Adaptacion</t>
+  </si>
+  <si>
     <t>Unión Temporal Colombo Canadiense La Mojana</t>
   </si>
   <si>
@@ -1193,7 +1193,7 @@
     <t>La carpeta "SHAPES MOJANAS" agrupa información geográfica en formato shapefile (.shp) que complementa la información contenida en las carpetas "CARTOGRAFIA Y GEOGRAFÍA", "DATO SOCIECONOMICO Y PREDIALES", "GEOMORFOLOGIA E HIDROLOGIA" e "INFRAESTRUCTURA Y PROYECTOS",  brindando un conjunto de datos geoespaciales que representan diferentes aspectos de la región de la Mojana.  Estos shapefiles,  al ser un formato vectorial,  permiten visualizar y analizar elementos como límites,  puntos,  líneas y áreas,  facilitando la gestión y el análisis de la información para la planificación,  la gestión de riesgos y el desarrollo sostenible de la región.</t>
   </si>
   <si>
-    <t>Region de la Mojana</t>
+    <t>Región de la Mojana</t>
   </si>
   <si>
     <t>Población de La Mojana</t>
@@ -1323,7 +1323,7 @@
     <t>2013-C-0287</t>
   </si>
   <si>
-    <t>Contrato 287 de 2013 PARA REALIZAR LE DIAGNÓSTICO PREDIAL YDE TENENCIA DE AL TIERRA PARA ONCE (11) MUNICIPIOS DE LA REGION DE LA MOJANA, ASI COMO UNA ACTUALIZACIÓN DE LOS VALORES COMERCIALES DE LOS PREDIOS CON LAS ZONAS GEOECONOMICAS EN ESOS MUNICIPIOS</t>
+    <t>Contrato 287 de 2013 PARA REALIZAR LE DIAGNÓSTICO PREDIAL Y DE TENENCIA DE LA TIERRA PARA ONCE (11) MUNICIPIOS DE LA REGION DE LA MOJANA, ASI COMO UNA ACTUALIZACIÓN DE LOS VALORES COMERCIALES DE LOS PREDIOS CON LAS ZONAS GEOECONOMICAS EN ESOS MUNICIPIOS</t>
   </si>
   <si>
     <t>Realizar el diagnóstico predial y de tenencia de la tierra para once (11) municipios de la region de la Mojana, asi como una actualizacion de los valores comerciales de los predios con las zonas geoeconómicas en esos municipios</t>
@@ -1386,7 +1386,7 @@
     <t>P0030</t>
   </si>
   <si>
-    <t>Realizar la evaluación geotécnica y estructural de 28 obras de protección hidráulica localizadas en los once (11) municipios que conforman el núcleo de la región de la Mojana, que permita tener un diagnostico detallado de las condiciones actuales de las citadas estructuras para: (i) conocer su vida útil remanente, (ii) su capacidad de regulación hídrica en su estado actual, (iii) el tipo y el costo de las intervenciones requeridas a nivel de diseño básico, tanto para reforzar como para sustituir la estructura analizada, de manera que no fallen frente a los escenarios de amenaza indicados por la coordinación Técnica para la Mojana y (iv) determinar índices paramétricos que permitan cuantificar el costo de intervenir estructuras similares a las estudiadas</t>
+    <t>Realizar la evaluación geotécnica y estructural de 28 obras de protección hidráulica localizadas en los once (11) municipios que conforman el núcleo de la región de la Mojana, que permita tener un diagnóstico detallado de las condiciones actuales de las citadas estructuras para: (i) conocer su vida útil remanente, (ii) su capacidad de regulación hídrica en su estado actual, (iii) el tipo y el costo de las intervenciones requeridas a nivel de diseño básico, tanto para reforzar como para sustituir la estructura analizada, de manera que no fallen frente a los escenarios de amenaza indicados por la coordinación Técnica para la Mojana y (iv) determinar índices paramétricos que permitan cuantificar el costo de intervenir estructuras similares a las estudiadas</t>
   </si>
   <si>
     <t>SUELOS INGENIERIA S.A.S</t>
@@ -1401,7 +1401,7 @@
     <t>Información de contratación, facturas, presupuesto e información sensible del proyecto Evaluación Geotécnica y estructural de 28 obras de protección hidráulica localizadas en los once municipios que conformas el núcleo de la región de La Mojana, contiene Informes de caracterización, estabilidad y diseño de: diques marginales, muros, espigones y protecciones de orilla. Ubicados en zona rural y cascos urbanos de Nechí, San Jacinto, Ayapel, Sucre, Achí, Magangué, El Retiro, Tacasaluma, San Benito Abad y Pinillos. La información relacionada a los productos e informes se encuentra descrita y organizada en el P0012</t>
   </si>
   <si>
-    <t>Este proyecto contiene productos duplicados en folios escaneados del P0012, por lo tanto se colocaron en la carpeta eliminar. Adicionalmente cuenta con la informaciónd e contratación, información sensible, estudios previos y facturas del proyecto.</t>
+    <t>Este proyecto contiene productos duplicados en folios escaneados del P0012, por lo tanto se colocaron en la carpeta eliminar. Adicionalmente cuenta con la información e contratación, información sensible, estudios previos y facturas del proyecto.</t>
   </si>
   <si>
     <t xml:space="preserve"> Presupuestos, Costos directos, Contratación, Estudios previos, Infraestructura.</t>
@@ -1839,9 +1839,6 @@
   </si>
   <si>
     <t>Este proyecto aborda la generación de un modelo de terreno continuo para la modelación hidrodinámica de 1.100.000 hectáreas en la región de la Mojana, mediante los modelos digitales de terreno continuo de los bloques 3 y 4, y los modelos digitales de terreno continuo integrado de los bloques 3 y 4 y 1,2,3 y 4.</t>
-  </si>
-  <si>
-    <t>Región de la Mojana</t>
   </si>
   <si>
     <t>La carpeta contiene los documentos contractuales para la ejecución del contrato (Estudio previo, contrato, Acta de liquidación entre otros). Además, contiene  La Carpeta DTM, está posee un conjunto de datos que representa un Modelo Digital de Terreno (MDT) continuo de alta precisión (RMSW &lt; 10cm) para la región de la Mojana y La carpeta "MOSAICO RGB"  contiene un mosaico de imágenes RGB de alta resolución que representan la región de la Mojana. Se evidencio que estas carpetas mencionadas anteriormente se encuentran duplicadas en la carpeta Productos del proyecto P0007</t>
@@ -2172,13 +2169,13 @@
     <t>IDEAM</t>
   </si>
   <si>
-    <t>La carpeta contiene una colección de datos geoespaciales y ambientales clave sobre la región de la Mojana, organizados en diversos formatos como GeoTIFF, HDF, XML, shapefiles y más. Estos archivos proporcionan información detallada sobre la clasificación del suelo, modelos de terreno, eventos de inundación históricos y datos de profundidad, facilitando la planificación territorial, la gestión ambiental y el análisis de riesgos. Además, incluye capas de visualización para SIG y archivos adicionales en Excel y PowerPoint.</t>
+    <t>La carpeta contiene una colección de datos geoespaciales y ambientales clave sobre la región de la Mojana, organizados en diversos formatos como GeoTIFF, HDF, XML, shapefiles y más. Estos archivos proporcionan información detallada sobre la clasificación del suelo, modelos de terreno, eventos de inundación históricos y datos de profundidad, facilitando la planificación territorial, la gestión ambiental y el análisis de riesgos.  Incluye capas de visualización para SIG y archivos adicionales en Excel y PowerPoint. Finalmente, incluye un modelo hidráulico desarrollado en HEC-RAS que no está asociado a ningún informe explicativo del modelo.</t>
   </si>
   <si>
     <t>Los datos no están asociados a ningún proyecto en específico. Se infiere que el financiador y ejecutor es el IDEAM por el nombre de la carpeta y porque algunas presentaciones de powerpoint incluyen información del IDEAM. Por otro lado, las diferentes carpetas de  información geográfica no están relacionadas a informes que proporcionen contexto sobre la producción o el uso de los datos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cobertura del suelo, gestión ambienta, inundación, hidrología, profundidad, planificación territorial, información geográfica, </t>
+    <t xml:space="preserve">Cobertura del suelo, gestión ambiental, inundación, hidrología, profundidad, planificación territorial, información geográfica, </t>
   </si>
   <si>
     <t>s3:\\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0054</t>
@@ -2214,7 +2211,7 @@
     <t>Cinco (5) municipios de los departamentos Bolívar, Antioquia y Sucre: Achí, Guaranda, Magangué, Nechí y San Jacinto del Cauca. Específicamente los sitios Ciénaga Ciritongo, Ciénaga Corrales, Ciénaga Culebras, Ciénaga El Floral, Ciénaga El Sapo, Ciénaga Granada, Ciénaga Hoyo Grande, Ciénaga La Raya, Ciénaga Las Culebras, Ciénaga Nueva, Río Cauca y Río Nechí</t>
   </si>
   <si>
-    <t>No se logra ubicar ningún documento correspondiente al proyecto (informes, contratos, términos de referencia, etc), solo se encuentra la base de datos del monitoreo de peces</t>
+    <t>No se logra ubicar ningún documento correspondiente al proyecto (informes, contratos, términos de referencia, etc.), solo se encuentra la base de datos del monitoreo de peces.</t>
   </si>
   <si>
     <t>Biodiversidad, Peces, Monitoreo, Hábitat, Taxonomía, Cuenca del río Cauca, Ciénagas, Especies, Ictiofauna</t>
@@ -2242,6 +2239,9 @@
   </si>
   <si>
     <t xml:space="preserve">Región de la Mojana </t>
+  </si>
+  <si>
+    <t>No se logra ubicar ningún documento correspondiente al proyecto.</t>
   </si>
   <si>
     <t>Cronogramas, presupuestos, Mojana</t>
@@ -3395,7 +3395,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -3694,22 +3694,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T67" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="U71" sqref="U71"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="2" topLeftCell="T50" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U58" sqref="U58"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="25.85546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="23.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
@@ -4129,10 +4127,10 @@
         <v>94</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>94</v>
@@ -4147,7 +4145,7 @@
         <v>94</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P6" s="29">
         <v>42005</v>
@@ -4156,54 +4154,54 @@
         <v>9999</v>
       </c>
       <c r="R6" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="T6" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="U6" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="V6" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="W6" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="X6" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -4233,10 +4231,10 @@
         <v>112</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>113</v>
@@ -4248,7 +4246,7 @@
         <v>115</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="39" customFormat="1">
@@ -4277,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J8" s="35" t="s">
         <v>121</v>
@@ -4322,7 +4320,7 @@
         <v>129</v>
       </c>
       <c r="X8" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -4381,10 +4379,10 @@
         <v>139</v>
       </c>
       <c r="S9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>140</v>
@@ -4396,7 +4394,7 @@
         <v>142</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -4532,7 +4530,7 @@
         <v>162</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>163</v>
@@ -4647,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>185</v>
@@ -4680,7 +4678,7 @@
         <v>71</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>29</v>
@@ -4692,7 +4690,7 @@
         <v>189</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -4721,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>158</v>
@@ -4754,7 +4752,7 @@
         <v>71</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>197</v>
@@ -4766,7 +4764,7 @@
         <v>199</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -4813,7 +4811,7 @@
         <v>52</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P15" s="9">
         <v>2017</v>
@@ -4840,7 +4838,7 @@
         <v>209</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -4903,7 +4901,7 @@
         <v>71</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>29</v>
@@ -4915,7 +4913,7 @@
         <v>221</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -4962,7 +4960,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P17" s="9">
         <v>41022</v>
@@ -4977,7 +4975,7 @@
         <v>71</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>231</v>
@@ -4989,7 +4987,7 @@
         <v>233</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:24" customFormat="1">
@@ -5122,10 +5120,10 @@
         <v>256</v>
       </c>
       <c r="S19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>257</v>
@@ -5137,7 +5135,7 @@
         <v>259</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -5332,10 +5330,10 @@
         <v>29</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7">
         <v>9999</v>
@@ -5388,7 +5386,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>306</v>
@@ -5433,7 +5431,7 @@
         <v>312</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:24" customFormat="1">
@@ -5462,7 +5460,7 @@
         <v>29</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>319</v>
@@ -5496,7 +5494,7 @@
         <v>71</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U24" s="7" t="s">
         <v>321</v>
@@ -5508,7 +5506,7 @@
         <v>323</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:24" customFormat="1">
@@ -5530,14 +5528,14 @@
       <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>52</v>
+      <c r="G25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>52</v>
@@ -5555,10 +5553,10 @@
         <v>9999</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="15">
         <v>9999</v>
@@ -5656,7 +5654,7 @@
         <v>340</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -5829,7 +5827,7 @@
         <v>29</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>171</v>
@@ -5977,7 +5975,7 @@
         <v>29</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>392</v>
@@ -6010,7 +6008,7 @@
         <v>71</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>396</v>
@@ -6158,7 +6156,7 @@
         <v>416</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>417</v>
@@ -6306,7 +6304,7 @@
         <v>162</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U35" s="7" t="s">
         <v>163</v>
@@ -6381,7 +6379,7 @@
         <v>71</v>
       </c>
       <c r="T36" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U36" s="7" t="s">
         <v>29</v>
@@ -6527,7 +6525,7 @@
         <v>162</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U38" s="15" t="s">
         <v>455</v>
@@ -6586,10 +6584,10 @@
         <v>52</v>
       </c>
       <c r="O39" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q39" s="26">
         <v>9999</v>
@@ -6601,7 +6599,7 @@
         <v>448</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U39" s="26" t="s">
         <v>461</v>
@@ -6660,10 +6658,10 @@
         <v>52</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q40" s="7">
         <v>9999</v>
@@ -7046,45 +7044,45 @@
         <v>540</v>
       </c>
       <c r="S45" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="T45" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="U45" s="40" t="s">
         <v>541</v>
       </c>
-      <c r="T45" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="U45" s="40" t="s">
+      <c r="V45" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="V45" s="40" t="s">
+      <c r="W45" s="40" t="s">
         <v>543</v>
       </c>
-      <c r="W45" s="40" t="s">
+      <c r="X45" s="40" t="s">
         <v>544</v>
-      </c>
-      <c r="X45" s="40" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>29</v>
@@ -7093,7 +7091,7 @@
         <v>65</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>29</v>
@@ -7108,31 +7106,31 @@
         <v>2296632732</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q46" s="7">
         <v>9999</v>
       </c>
       <c r="R46" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="S46" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="S46" s="7" t="s">
-        <v>553</v>
-      </c>
       <c r="T46" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>527</v>
       </c>
       <c r="V46" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="W46" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="W46" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="X46" s="7" t="s">
         <v>273</v>
@@ -7140,25 +7138,25 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="F47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>29</v>
@@ -7167,16 +7165,16 @@
         <v>65</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="N47" s="8">
         <v>1837306186</v>
@@ -7191,22 +7189,22 @@
         <v>16.5</v>
       </c>
       <c r="R47" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="S47" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="S47" s="7" t="s">
+      <c r="T47" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>527</v>
       </c>
       <c r="V47" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="W47" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="W47" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="X47" s="7" t="s">
         <v>273</v>
@@ -7214,25 +7212,25 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="E48" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="F48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>571</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>29</v>
@@ -7241,16 +7239,16 @@
         <v>65</v>
       </c>
       <c r="J48" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="L48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="15" t="s">
         <v>574</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>575</v>
       </c>
       <c r="N48" s="16">
         <v>2066969459</v>
@@ -7265,22 +7263,22 @@
         <v>15</v>
       </c>
       <c r="R48" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="S48" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="S48" s="15" t="s">
+      <c r="T48" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="T48" s="15" t="s">
+      <c r="U48" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="U48" s="15" t="s">
+      <c r="V48" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="V48" s="15" t="s">
+      <c r="W48" s="15" t="s">
         <v>580</v>
-      </c>
-      <c r="W48" s="15" t="s">
-        <v>581</v>
       </c>
       <c r="X48" s="15" t="s">
         <v>273</v>
@@ -7288,17 +7286,17 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>585</v>
-      </c>
       <c r="E49" s="7" t="s">
         <v>52</v>
       </c>
@@ -7306,7 +7304,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>29</v>
@@ -7315,7 +7313,7 @@
         <v>65</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>29</v>
@@ -7330,31 +7328,31 @@
         <v>2583711824</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q49" s="7">
         <v>9999</v>
       </c>
       <c r="R49" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="S49" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="S49" s="7" t="s">
+      <c r="T49" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="T49" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>527</v>
       </c>
       <c r="V49" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="W49" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="W49" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>273</v>
@@ -7362,34 +7360,34 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="E50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="15" t="s">
+      <c r="H50" s="15" t="s">
         <v>596</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>65</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>52</v>
@@ -7404,60 +7402,60 @@
         <v>273434700</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q50" s="15">
         <v>9999</v>
       </c>
       <c r="R50" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="S50" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="S50" s="15" t="s">
+      <c r="T50" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="T50" s="15" t="s">
+      <c r="U50" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="U50" s="30" t="s">
+      <c r="V50" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="V50" s="15" t="s">
+      <c r="W50" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="W50" s="15" t="s">
+      <c r="X50" s="30" t="s">
         <v>603</v>
-      </c>
-      <c r="X50" s="30" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="C51" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="F51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="30" t="s">
         <v>608</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>609</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>65</v>
@@ -7487,42 +7485,42 @@
         <v>24</v>
       </c>
       <c r="R51" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S51" s="15" t="s">
         <v>86</v>
       </c>
       <c r="T51" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U51" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="V51" s="30" t="s">
         <v>611</v>
       </c>
-      <c r="V51" s="30" t="s">
+      <c r="W51" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="W51" s="15" t="s">
+      <c r="X51" s="30" t="s">
         <v>613</v>
-      </c>
-      <c r="X51" s="30" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="E52" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>619</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>29</v>
@@ -7534,10 +7532,10 @@
         <v>9999</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K52" s="15" t="s">
         <v>52</v>
@@ -7555,48 +7553,48 @@
         <v>43899</v>
       </c>
       <c r="P52" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q52" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="Q52" s="15" t="s">
+      <c r="R52" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="R52" s="15" t="s">
+      <c r="S52" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="S52" s="15" t="s">
+      <c r="T52" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="U52" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="T52" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="U52" s="15" t="s">
+      <c r="V52" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="V52" s="15" t="s">
+      <c r="W52" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="W52" s="15" t="s">
-        <v>627</v>
-      </c>
       <c r="X52" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="E53" s="15" t="s">
         <v>631</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>632</v>
       </c>
       <c r="F53" s="15">
         <v>9999</v>
@@ -7635,7 +7633,7 @@
         <v>10</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S53" s="15" t="s">
         <v>416</v>
@@ -7644,13 +7642,13 @@
         <v>427</v>
       </c>
       <c r="U53" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="V53" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="V53" s="15" t="s">
+      <c r="W53" s="15" t="s">
         <v>635</v>
-      </c>
-      <c r="W53" s="15" t="s">
-        <v>636</v>
       </c>
       <c r="X53" s="15" t="s">
         <v>470</v>
@@ -7658,10 +7656,10 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>637</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>638</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>52</v>
@@ -7709,22 +7707,22 @@
         <v>9999</v>
       </c>
       <c r="R54" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U54" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="S54" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="T54" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="U54" s="15" t="s">
+      <c r="V54" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="V54" s="15" t="s">
+      <c r="W54" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>642</v>
       </c>
       <c r="X54" s="15" t="s">
         <v>367</v>
@@ -7732,13 +7730,13 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>644</v>
-      </c>
       <c r="C55" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D55" s="15">
         <v>9999</v>
@@ -7756,13 +7754,17 @@
         <v>9999</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+        <v>644</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="M55" s="15">
         <v>9999</v>
       </c>
@@ -7779,22 +7781,22 @@
         <v>9999</v>
       </c>
       <c r="R55" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U55" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="S55" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="T55" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="U55" s="15" t="s">
+      <c r="V55" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="V55" s="15" t="s">
+      <c r="W55" s="15" t="s">
         <v>648</v>
-      </c>
-      <c r="W55" s="15" t="s">
-        <v>649</v>
       </c>
       <c r="X55" s="15" t="s">
         <v>470</v>
@@ -7802,40 +7804,40 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="D56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>29</v>
@@ -7847,28 +7849,28 @@
         <v>40186</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q56" s="7">
         <v>9999</v>
       </c>
       <c r="R56" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="S56" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="S56" s="7" t="s">
+      <c r="T56" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="U56" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="T56" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="U56" s="7" t="s">
+      <c r="V56" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="V56" s="7" t="s">
+      <c r="W56" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="W56" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="X56" s="7" t="s">
         <v>273</v>
@@ -7876,31 +7878,31 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="D57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="15" t="s">
         <v>665</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>666</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>65</v>
@@ -7921,21 +7923,23 @@
         <v>45327</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Q57" s="15">
         <v>9999</v>
       </c>
       <c r="R57" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="S57" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="S57" s="15" t="s">
+      <c r="T57" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U57" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="T57" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="U57" s="15"/>
       <c r="V57" s="15" t="s">
         <v>670</v>
       </c>
@@ -7990,10 +7994,10 @@
         <v>29</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q58" s="15">
         <v>9999</v>
@@ -8002,10 +8006,10 @@
         <v>674</v>
       </c>
       <c r="S58" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T58" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U58" s="15" t="s">
         <v>675</v>
@@ -8064,10 +8068,10 @@
         <v>52</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q59" s="15">
         <v>9999</v>
@@ -8363,7 +8367,7 @@
         <v>737</v>
       </c>
       <c r="P63" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q63" s="15">
         <v>8</v>
@@ -8434,10 +8438,10 @@
         <v>9999</v>
       </c>
       <c r="O64" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P64" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q64" s="15">
         <v>9999</v>
@@ -8730,10 +8734,10 @@
         <v>14598223097.280001</v>
       </c>
       <c r="O68" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P68" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q68" s="15">
         <v>12</v>
@@ -8878,10 +8882,10 @@
         <v>16782892881</v>
       </c>
       <c r="O70" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q70" s="15">
         <v>15</v>
@@ -9201,7 +9205,7 @@
         <v>870</v>
       </c>
       <c r="X74" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -9275,7 +9279,7 @@
         <v>880</v>
       </c>
       <c r="X75" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -9396,10 +9400,10 @@
         <v>9999</v>
       </c>
       <c r="O77" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P77" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q77" s="15">
         <v>9999</v>
@@ -9559,7 +9563,7 @@
         <v>893</v>
       </c>
       <c r="T79" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U79" s="15" t="s">
         <v>909</v>
@@ -9571,7 +9575,7 @@
         <v>911</v>
       </c>
       <c r="X79" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1">
@@ -9633,7 +9637,7 @@
         <v>893</v>
       </c>
       <c r="T80" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U80" s="15" t="s">
         <v>916</v>
@@ -9645,7 +9649,7 @@
         <v>918</v>
       </c>
       <c r="X80" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -9692,10 +9696,10 @@
         <v>9999</v>
       </c>
       <c r="O81" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P81" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q81" s="15">
         <v>9999</v>
@@ -9766,10 +9770,10 @@
         <v>9999</v>
       </c>
       <c r="O82" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P82" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q82" s="15">
         <v>9999</v>
@@ -9840,10 +9844,10 @@
         <v>9999</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P83" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q83" s="15">
         <v>9999</v>
@@ -9871,16 +9875,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1048572" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="P0011"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X83">
-      <sortCondition ref="A1:A1048572"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A26:A28">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E4EF4DB-26A3-426D-AAA7-B179C0FD8676}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F764CBB-2C9C-4447-92D3-11131483E77E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="12870" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="945">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -336,17 +336,13 @@
 Cuenca hidrogeológica (12,785km2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Once (11) municipios de la Mojana
-Corporaciones de la region
-Universidades de la region
-Cabildo Indigena
-Comunidad </t>
+    <t xml:space="preserve">Once (11) municipios de la Mojana, Corporaciones de la región, Universidades de la región, Cabildo Indigena, Comunidad </t>
   </si>
   <si>
     <t xml:space="preserve">Es importante considerar que el objetivo principal del proyecto PNUD – PUJ, 2022 era la construcción del Modelo Hidrogeológico Numérico, en este marco se construyeron diferentes modelos que corresponden a insumos para este. Por tanto, los modelos superficiales (hidrología e hidrodinámica) enfatizan en detallar la interacción entre el agua superficial y subterránea, el primero con la recarga y el segundo en los niveles de ríos y ciénaga. </t>
   </si>
   <si>
-    <t>Aguas subterráneas,  Caracterización hidrogeológica del acuífero, Modelo conceptual hidrogeológico,  Modelo Numérico Hidrogeológico, Vulnerabilidad a la contaminación de los acuíferos, Gestión y adaptación hídrica regional, Modelacion hidrodinámica, Modelación hidrogeológica, Modelación Hidraúlica, herramienta para la toma de decisiónes.</t>
+    <t>Aguas subterráneas,  caracterización hidrogeológica del acuífero, modelo conceptual hidrogeológico,  modelo numérico hidrogeológico, vulnerabilidad a la contaminación de los acuíferos, gestión y adaptación hídrica regional, modelacion hidrodinámica, modelación hidrogeológica, modelación Hidraúlica, herramienta para la toma de decisiónes.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002</t>
@@ -401,7 +397,7 @@
     <t>Se nombra que el consultor debe ejecutar un modelo en HEC-HMS, pero no se encontró el anexo correspondiente.</t>
   </si>
   <si>
-    <t>Hidrología, Hidráulica, Geología, Geotecnia, Estructuras, Protección Por Municipio, Modelación Hidráulica, Socavación, Oferta Ambiental, Afectaciones Sociales, Afectaciones Energéticas, Afectaciones Recreación, Criterios Socio-Económicos, Criterios Ambientales, Evaluación económica,  Obras civiles, SOBEK, Arqueologia, Social, Ambiental, Predial, HEC-HMS, HEC-RAS, SCS-CN.</t>
+    <t>Hidrología, hidráulica, geología, geotecnia, estructuras, protección por municipio, modelación hidráulica, socavación, oferta ambiental, afectaciones sociales, afectaciones energéticas, afectaciones recreación, criterios socio-económicos, criterios ambientales, evaluación económica,  obras civiles, SOBEK, arqueologia, social, ambiental, predial, HEC-HMS, HEC-RAS, SCS-CN.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003</t>
@@ -434,6 +430,9 @@
     <t>117,213,238.00 USD</t>
   </si>
   <si>
+    <t>01/01/1601</t>
+  </si>
+  <si>
     <t>Tras la fuerte afectación de la región de la Mojana debido al fenómeno de la niña entre el   2010 y 2011, el proyecto buscaba promover la rehabilitación de los ecosistemas afectados y la adptación de las comunidades a eventos climáticos extremos. Para esto, en los municipios de Ayapel, San Marcos y San Benito Abad, se c se construyeron acuerdos de conservación para la rehabilitación de humedales y de relictos de bosques. Lo anterior,  busca contribuir a mejorar las condiciones socio-ecosistémicas en la región, contribuyendo en la rehabilitación del servicio de provisión y regulación hídrica, de la  fauna local, el aumento en la disponibilidad de especies de flora de múltiples usos (maderables, frutales o fibras) y reducir el riesgo de inundaciones y sequias.</t>
   </si>
   <si>
@@ -462,9 +461,6 @@
   </si>
   <si>
     <t>Sin información</t>
-  </si>
-  <si>
-    <t>01/01/1601</t>
   </si>
   <si>
     <t>Cada municipio cuenta con un conjunto de datos cartográficos que ofrece una representación detallada de su territorio y sus características, lo cual es esencial para la planificación y gestión territorial. Esta información está organizada en diferentes niveles de detalle y abarca diversos aspectos:
@@ -552,6 +548,9 @@
     <t>UNIÓN TEMPORAL DTM LA MOJANA 2014 (Ingenieria Civil y Geodesia SAS - INCIGE SAS,  ISATECH CORPORATION SAS)</t>
   </si>
   <si>
+    <t>ISATECH Corporation S.A.S</t>
+  </si>
+  <si>
     <t>UTMI (UNION TEMPORAL MERRICK-INCOPLAN)</t>
   </si>
   <si>
@@ -564,13 +563,13 @@
     <t>22/04/2015</t>
   </si>
   <si>
-    <t>El Modelo de Elevación Digital de 1m*1m está compuesto por un levantamiento LIDAR integrando la batimetría suministrada por el contrato 045 de 2013. Dentro de los estandares requeridos para el desarrollo del producto es garantizar un RMSW &lt; 10cm.</t>
+    <t>Este proyecto aborda la generación de un modelo de terreno continuo para la modelación hidrodinámica de 1.100.000 hectáreas en la región de la Mojana, mediante los modelos digitales de terreno continuo de los bloques 3 y 4, y los modelos digitales de terreno continuo integrado de los bloques 3 y 4 y 1,2,3 y 4.</t>
   </si>
   <si>
     <t>El entregable consiste únicamente en el archivo geográfico y no se incluye informe metodológico a pesar de estar incluido en el contrato la entrega de un Informe Final.</t>
   </si>
   <si>
-    <t>Modelo de Elevación Digital, DTM, Raster, Mosaico, Batimetría, LIDAR, topografía, Mapa de Elevación, Terreno, Relieve terrestres, Datos espaciales,  Insumo modelación.</t>
+    <t>Modelo de Elevación Digital, DTM, raster, mosaico, batimetría, LIDAR, topografía, mapa de elevación, terreno, relieve terrestres, datos espaciales,  insumo modelación.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0007</t>
@@ -796,7 +795,7 @@
     <t>IDEAM, 2017</t>
   </si>
   <si>
-    <t>MAPAS DE INUNDACIÓN PARA 7 CASCOS URBANOS DE LA MOJANA</t>
+    <t>Mapas de Inundación para 7 cascos urbanos de La Mojana</t>
   </si>
   <si>
     <t>Generar mapas de inundación con información de profundidad, velocidad y amenaza para los cascos urbanos de Ayapel, Caimito, Magangue, Majagual, San Benito de Abad, San Marcos y Sucre.</t>
@@ -828,10 +827,10 @@
     <t>CORPOICA, 2013</t>
   </si>
   <si>
-    <t>REDUCCIÓN DEL RIESGO Y ADAPTACIÓN AL CAMBIO CLIMÁTICO</t>
-  </si>
-  <si>
-    <t>Aunar esfuerzos entre EL FONDO y CORPOICA para ejecutar el proyecto “Reducción del riesgo y adaptación al cambio climático” de acuerdo con la estructuración técnica y financiera definida como resultado del Convenio 015 de 2012, celebrado entre las mismas partes, con el propósito general de contribuir a la reactivación económica de las zonas afectadas por la emergencia generada por el fenómeno de La Niña 2010-2011, mediante el empoderamiento de los servicios locales de transferencia de tecnología y de las comunidades rurales afectadas por dicho fenómeno con información agroclimática y tecnologías de manejo que les permita mejorar la capacidad y productividad de sus sistemas de producción al enfrentar el riesgo de eventos climáticos extremos.</t>
+    <t>Reducción del riesgo y adaptación al cambio climático</t>
+  </si>
+  <si>
+    <t>Aunar esfuerzos entre El Fondo y CORPOICA para ejecutar el proyecto “Reducción del riesgo y adaptación al cambio climático” de acuerdo con la estructuración técnica y financiera definida como resultado del Convenio 015 de 2012, celebrado entre las mismas partes, con el propósito general de contribuir a la reactivación económica de las zonas afectadas por la emergencia generada por el fenómeno de La Niña 2010-2011, mediante el empoderamiento de los servicios locales de transferencia de tecnología y de las comunidades rurales afectadas por dicho fenómeno con información agroclimática y tecnologías de manejo que les permita mejorar la capacidad y productividad de sus sistemas de producción al enfrentar el riesgo de eventos climáticos extremos.</t>
   </si>
   <si>
     <t>CV 002 de 2013</t>
@@ -1029,7 +1028,7 @@
     <t>YATI,</t>
   </si>
   <si>
-    <t>ESTUDIOS  Y DISEÑO TÉCNICOS DE DETALLE A NIVEL DE FASE III, DE LA VÍA YATÍ- LA BODEGA DEL K6+700 AL K9+000 CÓDICO 7802 DEPARTAMENTO DE BOLÍVAR</t>
+    <t>Estudios y diseño técnico de detalle a nivel de fase III, de la vía Yatí- La bodega del K6+700 al K9+000 Código 7802 departamento de Bolivar</t>
   </si>
   <si>
     <t>Realizar el estudio y diseño de detalle a nivel de fase III, de la vía Yatí-La Bodega del K6+700 AL K9+000 CÓDICO 7802 Departamento de Bolivar</t>
@@ -1044,16 +1043,13 @@
     <t>Consorcio Caribe Vial</t>
   </si>
   <si>
-    <t>DESCONODICO</t>
-  </si>
-  <si>
     <t>El proyecto aborda el estudio y diseño a nivel de fase III de la carretera Yatí- La Bodega Departamento de Bolivar. El proyecto  consta de 15 volumnes con sus respectvos anexos,  donde el Volumen I relaciona el estudio de transporte,  el Volumen II contiene el estudio de trazado y diseño geométrico, señalización y seguridad víal,  el Volumen III expone la geología para ingenieria, el Volumen IV contiene el estudio de suelos para el diseño de fundaciones y otras estructuras de contención, el Volumen V presenta el estudio de estabilidad y estabilización de talues, el Voluman VI  relaciona el estudio geotécnico y diseño del pavimento,  Volumen VII muestra el estudio de hidrología, hidráulica y socavación, el Volumen VIII contiene estudios y diseños de estructuras, Volumen IX el estudio y diseño de tuneles (No aplica para el proyecto), el Volumen X, muestra el estudio de urbanismo y paisajismo, El Volumen XI expone la gestión predial, el Volumen XIIcontiene el estudio de impacto ambiental, el Volumen XIII aborda el estudio de cantidades de obra, análisis de precios unitarios y presupuesto para la estructuración del pliego de condiciones , el Volumen XIV contiene la evalución socioeconómica del proyecto, por último el  Volumen XV contiene el informe fianl ejecutivo</t>
   </si>
   <si>
     <t>Yatí, La Bodega</t>
   </si>
   <si>
-    <t>Municipio de Magnagüe desde Yatí hasta Isla Grande</t>
+    <t>Municipio de Magangué desde Yatí hasta Isla Grande</t>
   </si>
   <si>
     <t>No se encontro informacion sobre el contrato (presupuesto,  fecha de inicio y terminación), Además solo se relacionaron 3 volumnes (III, IV, VII) de los 15 que contiene el proyecto.</t>
@@ -1229,7 +1225,7 @@
     <t>La carpeta no proporciona un contexto claro de los datos. No se especifica el año correspondiente a la mancha de inundación, ni si esta fue obtenida mediante un modelo hidrodinámico (no se indican los caudales) o a través de imágenes satelitales. Es importante que durante la etapa de aprovechamiento de la información, esta se maneje con precaución debido a la falta de sustento y definición de origen de los datos.</t>
   </si>
   <si>
-    <t>Predios, Inundación, Caregato, Bolivar, Córdoba, Sucre, Municipios, Código Catastral</t>
+    <t>Predios, inundación, Caregato, Bolivar, Córdoba, Sucre, municipios, código catastral</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0025</t>
@@ -1443,10 +1439,10 @@
     <t>2013-C-0045</t>
   </si>
   <si>
-    <t>Estudios previos para la contratación de la elaboración de la topografía y batimetría que incluye: (I) Levantamiento y elaboración de la red geodésica en el área de estucio, (II) levantamiento topográfico con tecnología lidar, (III) levantamiento batimétrico, (IV) toma de fotografias digitales áereas (V) elaboración de la cartografía base y construcción de una base de datos geográfica con la identificación de los elementos expuestos, y (VI) construcción de un modelo digital de terreno a partir de los datos batimétricos en la region de la Mojana, afectada por el fenómeno de la niña 2010-2011.</t>
-  </si>
-  <si>
-    <t>Contratar la  la elaboración de la topografía y batimetría que incluye: (I) Levantamiento y elaboración de la red geodésica en el área de estucio, (II) levantamiento topográfico con tecnología lidar, (III) levantamiento batimétrico, (IV) toma de fotografias digitales áereas (V) elaboración de la cartografía base y construcción de una base de datos geográfica con la identificación de los elementos expuestos, y (VI) construcción de un modelo digital de terreno a partir de los datos batimétricos en la region de la Mojana, afectada por el fenómeno de la niña 2010-2011.</t>
+    <t>Estudios previos para la contratación de la elaboración de la topografía y batimetría que incluye: (I) Levantamiento y elaboración de la red geodésica en el área de estudio, (II) levantamiento topográfico con tecnología LIDAR, (III) levantamiento batimétrico, (IV) toma de fotografías digitales aéreas (V) elaboración de la cartografía base y construcción de una base de datos geográfica con la identificación de los elementos expuestos, y (VI) construcción de un modelo digital de terreno a partir de los datos batimétricos en la región de la Mojana, afectada por el fenómeno de la niña 2010-2011.</t>
+  </si>
+  <si>
+    <t>Contratar la elaboración de la topografía y batimetría que incluye: (I) Levantamiento y elaboración de la red geodésica en el área de estudio, (II) levantamiento topográfico con tecnología LIDAR, (III) levantamiento batimétrico, (IV) toma de fotografïas digitales aéreas (V) elaboración de la cartografía base y construcción de una base de datos geográfica con la identificación de los elementos expuestos, y (VI) construcción de un modelo digital de terreno a partir de los datos batimétricos en la región de la Mojana, afectada por el fenómeno de la niña 2010-2011.</t>
   </si>
   <si>
     <t>Union temporal Colombo Canadiense La Mojana</t>
@@ -1455,7 +1451,7 @@
     <t>21/03/2013</t>
   </si>
   <si>
-    <t>21/01/2014</t>
+    <t>23/06/2014</t>
   </si>
   <si>
     <t>Generar el DTM de alta presición de la Mojana.</t>
@@ -1467,6 +1463,9 @@
     <t>Solo se encuentra el folio resultado de las entregas del proyecto. No se encuentran los datos o los modelos utilizados.</t>
   </si>
   <si>
+    <t>Modelo de Elevación Digital, DTM, raster, mosaico, batimetría, LIDAR, topografía, mapa de elevación, terreno, relieve terrestre, datos espaciales,  insumo modelación.</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0032</t>
   </si>
   <si>
@@ -1476,13 +1475,10 @@
     <t>HIDROCERON, 2013</t>
   </si>
   <si>
-    <t>Contrato n0 286 DE 2013</t>
-  </si>
-  <si>
-    <t>El consultor se compromete a recopilar, analizar y desarrollar una caracterización hidrológica conceptual de la region, que conprenda un análisis de las interaciiones de los cuerpos de agua superficial y subsuperficial de esta manera que estas variables constituyan a la obtención de los productos establecidos en el Convenio de Asociación No 012 de 2014.</t>
-  </si>
-  <si>
-    <t>286, 2013</t>
+    <t>Contrato No. 286 de 2013</t>
+  </si>
+  <si>
+    <t>El consultor se compromete a recopilar, analizar y desarrollar una caracterización hidrológica conceptual de la región, que comprenda un análisis de las interacciones de los cuerpos de agua superficial y subsuperficial de esta manera que estas variables constituyan a la obtención de los productos establecidos en el Convenio de Asociación No 012 de 2014.</t>
   </si>
   <si>
     <t>HIDROCERON LTDA</t>
@@ -1491,13 +1487,13 @@
     <t>14/12/2014</t>
   </si>
   <si>
-    <t>El proyecto búsca recopilar los estudios geoeléctricos, geo físicos e información hidrogeológica, realizar balances hidrológicos, articular las variables de infiltración y recarga, definición ded áreas de recarga y flujos subsuperficiales a escala regional.</t>
+    <t>El proyecto búsca recopilar los estudios geoeléctricos, geo físicos e información hidrogeológica, realizar balances hidrológicos, articular las variables de infiltración y recarga, definición de áreas de recarga y flujos subsuperficiales a escala regional.</t>
   </si>
   <si>
     <t>Municipios: Nechí, Magangué, Achí, San Jacinto del Cauca, Ayapel, San Marcos, Guaranda, Majagual, Sucre, Caimito y San Benito Abad. (11,000km2)</t>
   </si>
   <si>
-    <t>Hidrogeologia, pozos, subsuperficial, recarga hídrica, descarga hídrica.</t>
+    <t>Hidrogeología, pozos, subsuperficial, recarga hídrica, descarga hídrica.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0033</t>
@@ -1784,10 +1780,10 @@
     <t>Consorcio Pomcas 2014</t>
   </si>
   <si>
-    <t>14/09/2024</t>
-  </si>
-  <si>
-    <t>13/07/2017</t>
+    <t>14/09/2015</t>
+  </si>
+  <si>
+    <t>30/09/2020</t>
   </si>
   <si>
     <t>El proyecto busca actualizar los Planes de Ordenación y Manejo de las Cuencas Hidrográficas del Río Canalete, Río Los Córdobas y Otros Arroyos  del Río Medio y Bajo Sinú</t>
@@ -1823,28 +1819,7 @@
     <t>Contrato No. 131 de 2014</t>
   </si>
   <si>
-    <t xml:space="preserve">Fondo Adaptación </t>
-  </si>
-  <si>
-    <t>Ingeniería Civil y Geodesia S.A.S</t>
-  </si>
-  <si>
-    <t>Isatech Coprporation S.A.S</t>
-  </si>
-  <si>
-    <t>Unión Temporal M-I</t>
-  </si>
-  <si>
-    <t>9 meses</t>
-  </si>
-  <si>
-    <t>Este proyecto aborda la generación de un modelo de terreno continuo para la modelación hidrodinámica de 1.100.000 hectáreas en la región de la Mojana, mediante los modelos digitales de terreno continuo de los bloques 3 y 4, y los modelos digitales de terreno continuo integrado de los bloques 3 y 4 y 1,2,3 y 4.</t>
-  </si>
-  <si>
     <t>La carpeta contiene los documentos contractuales para la ejecución del contrato (Estudio previo, contrato, Acta de liquidación entre otros). Además, contiene  La Carpeta DTM, está posee un conjunto de datos que representa un Modelo Digital de Terreno (MDT) continuo de alta precisión (RMSW &lt; 10cm) para la región de la Mojana y La carpeta "MOSAICO RGB"  contiene un mosaico de imágenes RGB de alta resolución que representan la región de la Mojana. Se evidencio que estas carpetas mencionadas anteriormente se encuentran duplicadas en la carpeta Productos del proyecto P0007</t>
-  </si>
-  <si>
-    <t>Modelación, Hidródinamica, Mojana</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0044</t>
@@ -2044,6 +2019,9 @@
   <si>
     <t xml:space="preserve">El alcance del objeto contractual se en marca en dos etapas: 1. Etapa de Actualización y Complementación de la Factibilidad: consiste en la ampliación del análisis del manejo de dinámicas hídricas teniendo en cuenta los nuevos eventos hidráulicos presentados y las condiciones biofísicas, ecosistémicas y socioeconómicas como la regulación hídrica y especialmente la armonización de la mejor alternativa definida con soluciones basadas en la naturaleza, teniendo como marco el ordenamiento alrededor del agua. Esta etapa incluye el análisis y recopilación de la información existente relacionada con el objeto del contrato, la generación de información primaria en el marco del presente proceso, como insumo para la realización del diagnóstico de las condiciones actuales de los diferentes componentes biofísicos, ecosistémicos, socieconómicos del territorio con enfoque de gestión del riesgo y adaptabilidad al campo climático regional, integrando a gran escala la gestión hídrica y la gestión del territorio para la definición de unidades de intervención integral (UII), y finalmente la definición de la mejor solución que evidencien las condiciones actuales del territorio, el comportamiento hídrico de la Mojana como eje estructural y que esté encaminada a la reconexión del sistema Río Cauca-Río Magdalena-Río San Jorge. para el desarrollo de este diagnóstico el consultor deberá ejecutar las actividades y generar los productos establecidos en los Apéndices del proyecto. Etapa 2: El alcance de la Etapa de Diseño de Detalle consiste en elaborar los diseños de detalle de la alternativa definida en la Etapa de Actualización de la Factibilidad de las medidas de recuperación de las dinámicas hídricas naturales de la región de La Mojana. El diseño de detalle incluye todos los componentes necesarios para la ejecución de la exploración de campo de detalle, diseños técnicos, requerimientos de permisos y/o trámites ambientales, estrategia de participación, estudios previos y especificaciones técnicas para construcción, cantidades de obra, precios unitarios, presupuesto y programación, plan de intervención por fases.
 </t>
+  </si>
+  <si>
+    <t>DESCONODICO</t>
   </si>
   <si>
     <t>El proyecto aborda  actualizar y complementar la factibilidad y elaborar el diseño de detalles de las medidas de recuperación de las dinámicas hídricas naturales de la Región de la Mojana en el contexto actual de cambio climático y reducción del riesgo</t>
@@ -2493,7 +2471,7 @@
     <t>P0064</t>
   </si>
   <si>
-    <t>Vivienda-BancoAgrario</t>
+    <t>Vivienda Banco Agrario</t>
   </si>
   <si>
     <t>187-0160-Banco Agrario - Bolivar-Magangué-V2</t>
@@ -2505,13 +2483,13 @@
     <t>2012-CV-0009</t>
   </si>
   <si>
-    <t>El contratista se compromete a la entrega de informes de obra mensuales a travez del Banco agrário, informes de ejecución financiera del proyecto y el listado de las 2577 familias beneficiarias.</t>
+    <t>El contratista se compromete a la entrega de informes de obra mensuales a travez del Banco Agrario, informes de ejecución financiera del proyecto y el listado de las 2577 familias beneficiarias.</t>
   </si>
   <si>
     <t>Banco Agrario</t>
   </si>
   <si>
-    <t>Sebastian Gonzales, Fondo Adaptación</t>
+    <t>Sociedad Colombiana de Arquitectos S.C.A.</t>
   </si>
   <si>
     <t>15/05/2012</t>
@@ -2520,13 +2498,13 @@
     <t>30/04/2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrega de 2577 viviendas </t>
-  </si>
-  <si>
-    <t>2577 Familias</t>
-  </si>
-  <si>
-    <t>Vivienda, Sociedad de Arquitectos de Colombia, Contrato, Folio</t>
+    <t>Entrega de 2577 viviendas  en zonas rurales del departamento de Bolivar</t>
+  </si>
+  <si>
+    <t>2577 familias registradas como damnificadas del fenómeno de La Niña 2010-2011</t>
+  </si>
+  <si>
+    <t>Vivienda, Sociedad de Arquitectos de Colombia, contrato, folio</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0064</t>
@@ -2535,19 +2513,19 @@
     <t>P0065</t>
   </si>
   <si>
-    <t>Vivienda Operador</t>
+    <t>Vivienda Operador Zonal COMFAMA</t>
   </si>
   <si>
     <t>187-0456-VIVIENDA AYAPEL-PROYECTO DE AYAPEL - URBANIZACION ALICANTE-001-V2</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar las funciones de OPERADOR ZONAL en Antioquia, Cordoba y Sucre. En desarrollo de dicho objeto, COMFAMA se obliga para con EL FONDO ADAPTACION a desarrollar todas las actividades necesarias para proveer de soluciones de vivienda en Antioquia, Cordoba y Sucre, en el marco del “PROGRAMA NACIONAL DE REUBICACION Y RECONSTRUCCION DE VIVIENDAS PARA LA ATENCION DE HOGARES DAMNIFICADOS Y/O LOCALIZADOS EN ZONAS DE ALTO RIESGO NO MITIGABLE AFECTADAS POR LOS EVENTOS DERIVADOS DEL FENOMENO DE LA NINA 2010-2011” teniendo en cuenta los resultados de la verificacion del Registro Unico de Damnificados. Asi mismo y en cumplimiento de las funciones propias de dicha gestion, COMFAMA podra realizar la interventoria de los proyectos de construccion y reconstruccion de vivienda, cuya ejecucion se contrate con terceros diferentes a dicho OPERADOR ZONAL </t>
+    <t>Realizar las funciones de OPERADOR ZONAL en Antioquia, Córdoba y Sucre. En desarrollo de dicho objeto, COMFAMA se obliga para con EL FONDO ADAPTACIÓN a desarrollar todas las actividades necesarias para proveer de soluciones de vivienda en Antioquia, Córdoba y Sucre, en el marco del “PROGRAMA NACIONAL DE REUBICACIÓN Y RECONSTRUCCIÓN DE VIVIENDAS PARA LA ATENCIÓN DE HOGARES DAMNIFICADOS Y/O LOCALIZADOS EN ZONAS DE ALTO RIESGO NO MITIGABLE AFECTADAS POR LOS EVENTOS DERIVADOS DEL FENOMENO DE LA NIÑA 2010-2011” teniendo en cuenta los resultados de la verificación del Registro Único de Damnificados. Así mismo y en cumplimiento de las funciones propias de dicha gestión, COMFAMA podrá realizar la interventoría de los proyectos de construcción y reconstrucción de vivienda, cuya ejecución se contrate con terceros diferentes a dicho OPERADOR ZONAL</t>
   </si>
   <si>
     <t>2012-C-0094-14-16893</t>
   </si>
   <si>
-    <t>caja de compensación familiar de antioquia - comfama</t>
+    <t>Caja de Compensación Familiar de Antioquia - COMFAMA</t>
   </si>
   <si>
     <t>21/12/2012</t>
@@ -2683,7 +2661,7 @@
     <t>P0076</t>
   </si>
   <si>
-    <t>Reubicación sucre</t>
+    <t>Reubicación Sucre - Mojana Zona 2</t>
   </si>
   <si>
     <t>187-1133-Reubicacion Sucre Mojana Zona 2 -CAIMITO-V2</t>
@@ -2695,7 +2673,13 @@
     <t>2016-C-0227</t>
   </si>
   <si>
-    <t>Juan Ignacio Pupo Garcia</t>
+    <t>Juan Ignacio Pupo Garcia JIPG</t>
+  </si>
+  <si>
+    <t>20/02/2017</t>
+  </si>
+  <si>
+    <t>19/05/2018</t>
   </si>
   <si>
     <t>Reubicación de 325 viviendas en los municipios de Caimito, San Benito Abad y San Marcos.</t>
@@ -2716,19 +2700,19 @@
     <t>P0079</t>
   </si>
   <si>
-    <t>Reubicación Cordoba</t>
-  </si>
-  <si>
-    <t>187-1134 Reubicación Córdoba Sucre Mojana-Guaranda - V2</t>
-  </si>
-  <si>
-    <t>“(…) EL CONTRATISTA se compromete a realizar las obras necesarias para la “REUBICACION DE VIVIENDAS EN LOS MUNICIPIOS DE AYAPEL, DEPARTAMENTO DE CORDOBA, GUARANDA Y MAJAGUAL, DEPARTAMENTO DE SUCRE.” de conformidad con los Términos y Condiciones Contractuales - TCC y los documentos que lo conforman, los cuales, junto con la propuesta del CONTRATISTA forman parte integral de este contrato y prevalecen en su orden (1. Contrato y 2. TCC) para todos los efectos, sobre esta última.</t>
+    <t>Reubicación Córdoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187-1134 Reubicación de viviendas en los municipios de Ayapel departamento de Córdoba, Guaranda y Majagual departamento de Sucre </t>
+  </si>
+  <si>
+    <t>“(…) EL CONTRATISTA se compromete a realizar las obras necesarias para la “REUBICACIÓN DE VIVIENDAS EN LOS MUNICIPIOS DE AYAPEL, DEPARTAMENTO DE CÓRDOBA, GUARANDA Y MAJAGUAL, DEPARTAMENTO DE SUCRE.” de conformidad con los Términos y Condiciones Contractuales - TCC y los documentos que lo conforman, los cuales, junto con la propuesta del CONTRATISTA forman parte integral de este contrato y prevalecen en su orden (1. Contrato y 2. TCC) para todos los efectos, sobre esta última.</t>
   </si>
   <si>
     <t>2016-C-0237</t>
   </si>
   <si>
-    <t>Consorcio obra vip Sucre</t>
+    <t>Consorcio obra VIP Sucre</t>
   </si>
   <si>
     <t>GTA Ingenieria SAS</t>
@@ -2794,7 +2778,7 @@
     <t>P0084</t>
   </si>
   <si>
-    <t>Vivienda sucre sucre</t>
+    <t>Vivienda Sucre Sucre</t>
   </si>
   <si>
     <t>187-1140-Directas Sucre Sucre Grupo 3-V2</t>
@@ -2970,21 +2954,17 @@
     <t>P0092</t>
   </si>
   <si>
-    <t>LA MOJANA 2030, 2023</t>
-  </si>
-  <si>
-    <t>LA MOJANA 2030: UN PAÍS POSIBLE. Propuestas para ordenarla alrededor del agua</t>
-  </si>
-  <si>
-    <t>Este artículo invita a pensar en la construcción de una región que aproveche sus particularidades culturales y ambientales, y presenta algunas propuestas para hacer más efectivas las acciones con una visión prospectiva que ordene La Mojana alrededor del agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Proyecto propone una serie de intervenciones y estrategias para la planificación y gestión del territorio de La Mojana. El enfoque principal del documento es reordenar el territorio de La Mojana alrededor del agua, con el fin de mitigar los riesgos de desastres, restaurar la resiliencia climática y promover un desarrollo sostenible, productivo y competitivo. Dentro de las principales conclusiones se tiene:_x000D_
-_x000D_
-•	El desarrollo integral de La Mojana debe centrarse en la gestión del agua como eje transversal, articulando a las entidades territoriales y sectoriales en un esfuerzo conjunto. La propuesta de 2030 se basa en ordenar el territorio alrededor del agua, garantizando la sostenibilidad ambiental y la competitividad económica._x000D_
-_x000D_
-•	Es esencial actualizar los estudios y diseños existentes para abordar las intervenciones requeridas en cada fase, con el fin de mitigar el riesgo de inundaciones y sequías, y promover la restauración ecológica de la región._x000D_
-</t>
+    <t xml:space="preserve">Terridata - La Mojana 2030 </t>
+  </si>
+  <si>
+    <t>Datos Terridata- LA MOJANA 2030: UN PAÍS POSIBLE. Propuestas para ordenarla alrededor del agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artículo invita a pensar en la construcción de una región que aproveche sus particularidades culturales y ambientales, y presenta algunas propuestas para hacer más efectivas las acciones con una visión prospectiva que ordene La Mojana alrededor del agua. Datos Terridata, información de Colombia a nivel departamental y municipal en cuanto a demografía, financiera, salud y otros temas. </t>
+  </si>
+  <si>
+    <t>El escrito propone una serie de intervenciones y estrategias para la planificación y gestión del territorio de La Mojana. El enfoque principal del documento es reordenar el territorio de La Mojana alrededor del agua, con el fin de mitigar los riesgos de desastres, restaurar la resiliencia climática y promover un desarrollo sostenible, productivo y competitivo. Dentro de las principales conclusiones se tiene: El desarrollo integral de La Mojana debe centrarse en la gestión del agua como eje transversal, articulando a las entidades territoriales y sectoriales en un esfuerzo conjunto. La propuesta de 2030 se basa en ordenar el territorio alrededor del agua, garantizando la sostenibilidad ambiental y la competitividad económica. Es esencial actualizar los estudios y diseños existentes para abordar las intervenciones requeridas en cada fase, con el fin de mitigar el riesgo de inundaciones y sequías, y promover la restauración ecológica de la región.
+Tambien se consideran bases de datos con información demográfica, financiera, salud, a nivel departamental y municipal de importancia para la gestión pública</t>
   </si>
   <si>
     <t>El documento se encuentra bien estructurado. No se incluyen los anexos de la formulación del POMCA. Este documento es clave para la toma de decisiones, para garantizar que la estructuración de nuevos proyectos que vayan en línea con las estrategias propuestas en este documento. Así como sirve de línea base para la revisión de información previa en la zona. La carpeta además contiene bases de datos (.xlsx) de estadísticas por cada dimensión de gestión pública.</t>
@@ -2999,7 +2979,7 @@
     <t>P0093</t>
   </si>
   <si>
-    <t>UNIVERSIDADES Y DNP</t>
+    <t>Universidades y DNP</t>
   </si>
   <si>
     <t xml:space="preserve">1. Análisis de frecuencia hidrológico multivariado para eventos extremos mediante funciones cópula arquimedianas. Casos de estudio: cuenca baja del Rio Tunjuelo y región de la Mojana (Colombia).
@@ -3208,7 +3188,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3219,18 +3199,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3275,7 +3243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3304,6 +3272,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3316,20 +3303,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3340,16 +3315,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3358,44 +3327,21 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -3696,13 +3642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T50" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U58" sqref="U58"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
@@ -3878,14 +3824,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="18.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3937,7 +3883,7 @@
       <c r="S3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="11" t="s">
         <v>55</v>
       </c>
       <c r="U3" s="7" t="s">
@@ -4005,7 +3951,7 @@
       <c r="Q4" s="7">
         <v>6</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="11" t="s">
         <v>70</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -4070,108 +4016,108 @@
       <c r="N5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>29</v>
+      <c r="O5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="Q5" s="7">
         <v>9999</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>94</v>
       </c>
+      <c r="D6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="28" t="s">
+      <c r="G6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>94</v>
+      <c r="K6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="29">
+        <v>85</v>
+      </c>
+      <c r="P6" s="15">
         <v>42005</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="14">
         <v>9999</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="V6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4249,101 +4195,101 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="39" customFormat="1">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:24">
+      <c r="A8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="35" t="s">
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="35" t="s">
+      <c r="K8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="L8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="N8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="O8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="P8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="7">
         <v>9</v>
       </c>
-      <c r="R8" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="35" t="s">
+      <c r="R8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="U8" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="V8" s="35" t="s">
+      <c r="U8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="V8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="W8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X8" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>29</v>
@@ -4352,7 +4298,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>29</v>
@@ -4363,35 +4309,35 @@
       <c r="M9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="18">
         <v>184985747</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="7">
         <v>23</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="19" t="s">
         <v>98</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="W9" s="11" t="s">
         <v>142</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="X9" s="7" t="s">
         <v>102</v>
@@ -4399,19 +4345,19 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="12" t="s">
         <v>146</v>
       </c>
+      <c r="D10" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>29</v>
@@ -4426,7 +4372,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
@@ -4450,7 +4396,7 @@
         <v>25</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>29</v>
@@ -4459,33 +4405,33 @@
         <v>29</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>151</v>
+      <c r="W10" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>29</v>
@@ -4500,7 +4446,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>52</v>
@@ -4515,51 +4461,51 @@
         <v>742510000</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7">
         <v>6</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="W11" s="11" t="s">
         <v>165</v>
       </c>
+      <c r="W11" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="X11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>29</v>
@@ -4574,7 +4520,7 @@
         <v>65</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>52</v>
@@ -4586,7 +4532,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O12" s="9">
         <v>41913</v>
@@ -4598,42 +4544,42 @@
         <v>6</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="U12" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="U12" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="X12" s="32" t="s">
+      <c r="W12" s="20" t="s">
         <v>179</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>29</v>
@@ -4648,7 +4594,7 @@
         <v>108</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>52</v>
@@ -4657,7 +4603,7 @@
         <v>52</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N13" s="8">
         <v>2734719994</v>
@@ -4672,7 +4618,7 @@
         <v>7</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>71</v>
@@ -4684,10 +4630,10 @@
         <v>29</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X13" s="7" t="s">
         <v>102</v>
@@ -4695,25 +4641,25 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="34" t="s">
         <v>192</v>
       </c>
+      <c r="C14" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>29</v>
@@ -4722,7 +4668,7 @@
         <v>108</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>52</v>
@@ -4737,7 +4683,7 @@
         <v>742510000</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P14" s="9">
         <v>41670</v>
@@ -4746,7 +4692,7 @@
         <v>7</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>71</v>
@@ -4755,13 +4701,13 @@
         <v>98</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X14" s="7" t="s">
         <v>102</v>
@@ -4769,16 +4715,16 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>52</v>
@@ -4811,31 +4757,31 @@
         <v>52</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="9">
-        <v>2017</v>
+        <v>85</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="Q15" s="7">
         <v>9999</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="X15" s="7" t="s">
         <v>102</v>
@@ -4843,34 +4789,34 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>52</v>
@@ -4888,14 +4834,14 @@
         <v>41610</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7">
         <f>4*12+7</f>
         <v>55</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>71</v>
@@ -4907,10 +4853,10 @@
         <v>29</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="X16" s="7" t="s">
         <v>102</v>
@@ -4918,37 +4864,37 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>52</v>
@@ -4960,7 +4906,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P17" s="9">
         <v>41022</v>
@@ -4969,7 +4915,7 @@
         <v>9999</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>71</v>
@@ -4978,33 +4924,33 @@
         <v>98</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:24" customFormat="1">
+    <row r="18" spans="1:24" customFormat="1" ht="300">
       <c r="A18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="32" t="s">
         <v>237</v>
       </c>
+      <c r="D18" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>29</v>
@@ -5019,7 +4965,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>52</v>
@@ -5031,54 +4977,54 @@
         <v>29</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="7">
         <v>10</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="U18" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="V18" s="32" t="s">
+      <c r="U18" s="11" t="s">
         <v>246</v>
       </c>
+      <c r="V18" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="W18" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="X18" s="32" t="s">
         <v>248</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:24" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>29</v>
@@ -5093,10 +5039,10 @@
         <v>29</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>52</v>
@@ -5110,179 +5056,179 @@
       <c r="O19" s="7">
         <v>2002</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="22">
         <v>2004</v>
       </c>
       <c r="Q19" s="7">
         <v>24</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="19" t="s">
         <v>98</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X19" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="E20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="H20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="17">
+      <c r="J20" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="12">
         <v>40787</v>
       </c>
-      <c r="P20" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q20" s="15">
+      <c r="P20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q20" s="17">
         <v>11</v>
       </c>
-      <c r="R20" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="S20" s="15" t="s">
+      <c r="R20" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="T20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="15" t="s">
+      <c r="S20" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="V20" s="15" t="s">
+      <c r="T20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="W20" s="15" t="s">
+      <c r="V20" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="X20" s="15" t="s">
+      <c r="W20" s="17" t="s">
         <v>273</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:24" customFormat="1">
-      <c r="A21" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="J21" s="15" t="s">
+      <c r="E21" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="15" t="s">
+      <c r="F21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="N21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="17" t="s">
+      <c r="K21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="N21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21" s="17">
         <v>9999</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="R21" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="X21" s="15" t="s">
+      <c r="X21" s="17" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5330,10 +5276,10 @@
         <v>29</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="7">
         <v>9999</v>
@@ -5357,7 +5303,7 @@
         <v>300</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:24" customFormat="1">
@@ -5422,7 +5368,7 @@
         <v>310</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>311</v>
@@ -5510,22 +5456,22 @@
       </c>
     </row>
     <row r="25" spans="1:24" customFormat="1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="D25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -5537,193 +5483,193 @@
       <c r="I25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="16">
+      <c r="J25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="23">
         <v>9999</v>
       </c>
-      <c r="O25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="15">
+      <c r="O25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q25" s="17">
         <v>9999</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="R25" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="T25" s="17" t="s">
+      <c r="T25" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="U25" s="15" t="s">
+      <c r="U25" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="V25" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="X25" s="15" t="s">
+      <c r="X25" s="17" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="C26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="17">
         <v>9999</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="17">
         <v>9999</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="17">
         <v>9999</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="17">
         <v>9999</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="17">
         <v>9999</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="17">
         <v>9999</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="17">
         <v>9999</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="17">
         <v>9999</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="23">
         <v>9999</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="12">
         <v>9999</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P26" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="17">
         <v>9999</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="S26" s="15" t="s">
+      <c r="S26" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="U26" s="15" t="s">
+      <c r="U26" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="V26" s="15" t="s">
+      <c r="V26" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="X26" s="15" t="s">
+      <c r="X26" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="17">
+      <c r="J27" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="12">
         <v>40552</v>
       </c>
-      <c r="P27" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q27" s="15">
+      <c r="P27" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q27" s="17">
         <v>11</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="U27" s="15" t="s">
+      <c r="U27" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="V27" s="15" t="s">
+      <c r="V27" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="X27" s="15" t="s">
+      <c r="X27" s="17" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5755,7 +5701,7 @@
       <c r="I28" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="21" t="s">
         <v>360</v>
       </c>
       <c r="K28" s="7" t="s">
@@ -5815,7 +5761,7 @@
         <v>371</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>29</v>
@@ -5830,7 +5776,7 @@
         <v>108</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>52</v>
@@ -5842,7 +5788,7 @@
         <v>29</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O29" s="9">
         <v>41913</v>
@@ -5854,13 +5800,13 @@
         <v>6</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>372</v>
@@ -5872,7 +5818,7 @@
         <v>374</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -5915,16 +5861,16 @@
       <c r="M30" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="24">
         <v>253146213</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="25">
         <v>41199</v>
       </c>
-      <c r="P30" s="20">
+      <c r="P30" s="25">
         <v>41563</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="26">
         <v>12</v>
       </c>
       <c r="R30" s="7" t="s">
@@ -5954,16 +5900,16 @@
         <v>390</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>391</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>29</v>
@@ -5987,7 +5933,7 @@
         <v>52</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N31" s="8">
         <v>2734719994</v>
@@ -6063,16 +6009,16 @@
       <c r="M32" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="24">
         <v>216000000</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="25">
         <v>41495</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="25">
         <v>41920</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="26">
         <v>14</v>
       </c>
       <c r="R32" s="7" t="s">
@@ -6101,7 +6047,7 @@
       <c r="A33" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="27" t="s">
         <v>409</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -6155,17 +6101,17 @@
       <c r="S33" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="T33" s="10" t="s">
+      <c r="T33" s="19" t="s">
         <v>98</v>
       </c>
       <c r="U33" s="7" t="s">
         <v>417</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>128</v>
+        <v>418</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>29</v>
@@ -6173,19 +6119,19 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>29</v>
@@ -6203,7 +6149,7 @@
         <v>424</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>52</v>
@@ -6215,7 +6161,7 @@
         <v>135000000</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P34" s="9" t="s">
         <v>425</v>
@@ -6253,13 +6199,13 @@
         <v>431</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>29</v>
@@ -6274,7 +6220,7 @@
         <v>65</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>52</v>
@@ -6289,10 +6235,10 @@
         <v>742510000</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="7">
         <v>6</v>
@@ -6301,16 +6247,16 @@
         <v>432</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>98</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W35" s="7" t="s">
         <v>433</v>
@@ -6324,7 +6270,7 @@
         <v>434</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>435</v>
@@ -6345,10 +6291,10 @@
         <v>29</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>52</v>
@@ -6366,7 +6312,7 @@
         <v>41610</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q36" s="7">
         <f>4*12+7</f>
@@ -6414,7 +6360,7 @@
         <v>29</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>52</v>
@@ -6432,19 +6378,19 @@
         <v>52</v>
       </c>
       <c r="M37" s="7"/>
-      <c r="N37" s="22">
+      <c r="N37" s="28">
         <v>1000000000</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="24">
         <v>41590</v>
       </c>
-      <c r="P37" s="20">
+      <c r="P37" s="25">
         <v>42185</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q37" s="25">
         <v>18</v>
       </c>
-      <c r="R37" s="21" t="s">
+      <c r="R37" s="26" t="s">
         <v>447</v>
       </c>
       <c r="S37" s="7" t="s">
@@ -6467,151 +6413,151 @@
       </c>
     </row>
     <row r="38" spans="1:25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38" s="16">
+      <c r="D38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="23">
         <v>9999</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="12">
         <v>9999</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="12">
         <v>9999</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="17">
         <v>9999</v>
       </c>
-      <c r="R38" s="15" t="s">
+      <c r="R38" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="S38" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="T38" s="15" t="s">
+      <c r="S38" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="T38" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="U38" s="15" t="s">
+      <c r="U38" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="V38" s="15" t="s">
+      <c r="V38" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="W38" s="15" t="s">
+      <c r="W38" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="X38" s="15" t="s">
+      <c r="X38" s="17" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="26" t="s">
+      <c r="C39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="P39" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q39" s="26">
+      <c r="K39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q39" s="29">
         <v>9999</v>
       </c>
-      <c r="R39" s="26" t="s">
+      <c r="R39" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="S39" s="26" t="s">
+      <c r="S39" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="T39" s="26" t="s">
+      <c r="T39" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="U39" s="26" t="s">
+      <c r="U39" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="V39" s="26" t="s">
+      <c r="V39" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="W39" s="26" t="s">
+      <c r="W39" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="X39" s="26" t="s">
-        <v>273</v>
+      <c r="X39" s="29" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -6658,10 +6604,10 @@
         <v>52</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q40" s="7">
         <v>9999</v>
@@ -6687,155 +6633,155 @@
       <c r="X40" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="Y40" s="15"/>
+      <c r="Y40" s="17"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="15" t="s">
+      <c r="E41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="H41" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="15" t="s">
+      <c r="H41" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="K41" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="15" t="s">
+      <c r="K41" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N41" s="23">
         <v>7578039678</v>
       </c>
-      <c r="O41" s="17" t="s">
+      <c r="O41" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="12">
         <v>43499</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="17">
         <v>54</v>
       </c>
-      <c r="R41" s="15" t="s">
+      <c r="R41" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="S41" s="15" t="s">
+      <c r="S41" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="T41" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U41" s="15" t="s">
+      <c r="T41" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="V41" s="15" t="s">
+      <c r="V41" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="W41" s="15" t="s">
+      <c r="W41" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="X41" s="15" t="s">
+      <c r="X41" s="17" t="s">
         <v>399</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="15" t="s">
+      <c r="F42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="K42" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="23">
+      <c r="K42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="32">
         <v>6471757378</v>
       </c>
-      <c r="O42" s="16" t="s">
+      <c r="O42" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="P42" s="17" t="s">
+      <c r="P42" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="17">
         <f>3*12+10</f>
         <v>46</v>
       </c>
-      <c r="R42" s="15" t="s">
+      <c r="R42" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="S42" s="15" t="s">
+      <c r="S42" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="T42" s="15" t="s">
+      <c r="T42" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="U42" s="15" t="s">
+      <c r="U42" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="V42" s="15" t="s">
+      <c r="V42" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="W42" s="15" t="s">
+      <c r="W42" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="X42" s="15" t="s">
+      <c r="X42" s="17" t="s">
         <v>499</v>
       </c>
       <c r="Y42" s="1"/>
@@ -6878,18 +6824,18 @@
         <v>505</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N43" s="19">
+        <v>95</v>
+      </c>
+      <c r="N43" s="24">
         <v>0</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="25">
         <v>2</v>
       </c>
-      <c r="P43" s="20">
+      <c r="P43" s="25">
         <v>2</v>
       </c>
-      <c r="Q43" s="21">
+      <c r="Q43" s="26">
         <v>9999</v>
       </c>
       <c r="R43" s="7" t="s">
@@ -6902,7 +6848,7 @@
         <v>510</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>511</v>
@@ -6963,7 +6909,7 @@
         <v>523</v>
       </c>
       <c r="Q44" s="7">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="R44" s="7" t="s">
         <v>524</v>
@@ -6984,96 +6930,96 @@
         <v>529</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" s="39" customFormat="1">
-      <c r="A45" s="40" t="s">
+    <row r="45" spans="1:25">
+      <c r="A45" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="F45" s="40">
-        <v>9999</v>
-      </c>
-      <c r="G45" s="40">
-        <v>9999</v>
-      </c>
-      <c r="H45" s="40">
-        <v>9999</v>
-      </c>
-      <c r="I45" s="40" t="s">
+      <c r="F45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45" s="23">
+        <v>6874244540</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>9</v>
+      </c>
+      <c r="R45" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U45" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="V45" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W45" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="X45" s="17" t="s">
         <v>537</v>
-      </c>
-      <c r="L45" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="N45" s="41">
-        <v>6874244540</v>
-      </c>
-      <c r="O45" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="P45" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q45" s="40" t="s">
-        <v>539</v>
-      </c>
-      <c r="R45" s="40" t="s">
-        <v>540</v>
-      </c>
-      <c r="S45" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="T45" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="U45" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="V45" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="W45" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="X45" s="40" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>52</v>
@@ -7082,7 +7028,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>29</v>
@@ -7091,7 +7037,7 @@
         <v>65</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>29</v>
@@ -7106,57 +7052,57 @@
         <v>2296632732</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q46" s="7">
         <v>9999</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="U46" s="7" t="s">
         <v>527</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="W46" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>29</v>
@@ -7165,7 +7111,7 @@
         <v>65</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>29</v>
@@ -7174,7 +7120,7 @@
         <v>29</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N47" s="8">
         <v>1837306186</v>
@@ -7189,113 +7135,113 @@
         <v>16.5</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="U47" s="7" t="s">
         <v>527</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="K48" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="L48" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="N48" s="23">
+        <v>2066969459</v>
+      </c>
+      <c r="O48" s="12">
+        <v>43734</v>
+      </c>
+      <c r="P48" s="12">
+        <v>44863</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>15</v>
+      </c>
+      <c r="R48" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="S48" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="T48" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="15" t="s">
+      <c r="U48" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="15" t="s">
+      <c r="V48" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="W48" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="L48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="N48" s="16">
-        <v>2066969459</v>
-      </c>
-      <c r="O48" s="17">
-        <v>43734</v>
-      </c>
-      <c r="P48" s="17">
-        <v>44863</v>
-      </c>
-      <c r="Q48" s="15">
-        <v>15</v>
-      </c>
-      <c r="R48" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="S48" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="T48" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="U48" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="V48" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="W48" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="X48" s="15" t="s">
-        <v>273</v>
+      <c r="X48" s="17" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>52</v>
@@ -7304,7 +7250,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>29</v>
@@ -7313,7 +7259,7 @@
         <v>65</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>29</v>
@@ -7328,516 +7274,516 @@
         <v>2583711824</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q49" s="7">
         <v>9999</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>527</v>
       </c>
       <c r="V49" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="135">
+      <c r="A50" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="H50" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="W49" s="7" t="s">
+      <c r="I50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="23">
+        <v>273434700</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R50" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="X49" s="7" t="s">
-        <v>273</v>
+      <c r="S50" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="U50" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="V50" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="W50" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="X50" s="33" t="s">
+        <v>596</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="I50" s="15" t="s">
+    <row r="51" spans="1:24" ht="409.5">
+      <c r="A51" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="I51" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="16">
-        <v>273434700</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q50" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R50" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="S50" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="T50" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="U50" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="V50" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="W50" s="15" t="s">
+      <c r="J51" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="X50" s="30" t="s">
+      <c r="Q51" s="17">
+        <v>24</v>
+      </c>
+      <c r="R51" s="17" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="15" t="s">
+      <c r="S51" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U51" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="V51" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="W51" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="X51" s="33" t="s">
         <v>607</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q51" s="15">
-        <v>24</v>
-      </c>
-      <c r="R51" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="S51" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="T51" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="U51" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="V51" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="W51" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="X51" s="30" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="17">
+        <v>9999</v>
+      </c>
+      <c r="H52" s="17">
+        <v>9999</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="17">
+        <v>9999</v>
+      </c>
+      <c r="N52" s="23">
+        <v>77693654322</v>
+      </c>
+      <c r="O52" s="12">
+        <v>43899</v>
+      </c>
+      <c r="P52" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="Q52" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="R52" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="S52" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="T52" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="U52" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="F52" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="15">
-        <v>9999</v>
-      </c>
-      <c r="H52" s="15">
-        <v>9999</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="15" t="s">
+      <c r="V52" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="K52" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L52" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M52" s="15">
-        <v>9999</v>
-      </c>
-      <c r="N52" s="16">
-        <v>77693654322</v>
-      </c>
-      <c r="O52" s="17">
-        <v>43899</v>
-      </c>
-      <c r="P52" s="17" t="s">
+      <c r="W52" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="Q52" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="R52" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="S52" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="T52" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="U52" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="V52" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="W52" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="X52" s="15" t="s">
+      <c r="X52" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="F53" s="17">
+        <v>9999</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="17">
+        <v>9999</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="17">
+        <v>9999</v>
+      </c>
+      <c r="N53" s="23">
+        <v>135000000</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P53" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>10</v>
+      </c>
+      <c r="R53" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="S53" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="U53" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="V53" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="W53" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="F53" s="15">
-        <v>9999</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" s="15">
-        <v>9999</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M53" s="15">
-        <v>9999</v>
-      </c>
-      <c r="N53" s="16">
-        <v>135000000</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="P53" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q53" s="15">
-        <v>10</v>
-      </c>
-      <c r="R53" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="S53" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="T53" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="U53" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="V53" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="W53" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="X53" s="15" t="s">
+      <c r="X53" s="17" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O54" s="17">
+      <c r="A54" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="12">
         <v>9999</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P54" s="12">
         <v>9999</v>
       </c>
-      <c r="Q54" s="15">
+      <c r="Q54" s="17">
         <v>9999</v>
       </c>
-      <c r="R54" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="S54" s="15" t="s">
+      <c r="R54" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="S54" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="T54" s="15" t="s">
+      <c r="T54" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="U54" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="V54" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="W54" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="X54" s="15" t="s">
+      <c r="U54" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="V54" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="W54" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="X54" s="17" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="D55" s="17">
+        <v>9999</v>
+      </c>
+      <c r="E55" s="17">
+        <v>9999</v>
+      </c>
+      <c r="F55" s="17">
+        <v>9999</v>
+      </c>
+      <c r="G55" s="17">
+        <v>9999</v>
+      </c>
+      <c r="H55" s="17">
+        <v>9999</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="17">
+        <v>9999</v>
+      </c>
+      <c r="N55" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O55" s="12">
+        <v>9999</v>
+      </c>
+      <c r="P55" s="12">
+        <v>9999</v>
+      </c>
+      <c r="Q55" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R55" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="S55" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U55" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="V55" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="W55" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="D55" s="15">
-        <v>9999</v>
-      </c>
-      <c r="E55" s="15">
-        <v>9999</v>
-      </c>
-      <c r="F55" s="15">
-        <v>9999</v>
-      </c>
-      <c r="G55" s="15">
-        <v>9999</v>
-      </c>
-      <c r="H55" s="15">
-        <v>9999</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" s="15">
-        <v>9999</v>
-      </c>
-      <c r="N55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O55" s="17">
-        <v>9999</v>
-      </c>
-      <c r="P55" s="17">
-        <v>9999</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R55" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="S55" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="T55" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="U55" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="V55" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="W55" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="X55" s="15" t="s">
+      <c r="X55" s="17" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>655</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>29</v>
@@ -7849,2028 +7795,2028 @@
         <v>40186</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q56" s="7">
         <v>9999</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="U56" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="V56" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="W56" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="X56" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="12">
+        <v>45327</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="S57" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="T57" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U57" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="V57" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="15" t="s">
+      <c r="W57" s="17" t="s">
         <v>665</v>
       </c>
-      <c r="J57" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57" s="17">
-        <v>45327</v>
-      </c>
-      <c r="P57" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q57" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R57" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="S57" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="U57" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="V57" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="W57" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="X57" s="15" t="s">
+      <c r="X57" s="17" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N58" s="16" t="s">
+      <c r="A58" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="23" t="s">
         <v>29</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q58" s="15">
+        <v>85</v>
+      </c>
+      <c r="Q58" s="17">
         <v>9999</v>
       </c>
-      <c r="R58" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="S58" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="T58" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="U58" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="V58" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="W58" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="X58" s="15" t="s">
-        <v>273</v>
+      <c r="R58" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="S58" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="T58" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="U58" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="V58" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="W58" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="X58" s="17" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="S59" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="T59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="V59" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="W59" s="17" t="s">
         <v>679</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q59" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R59" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="S59" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="T59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U59" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="V59" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="W59" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="X59" s="15" t="s">
+      <c r="X59" s="17" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="H60" s="17">
+        <v>9999</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="K60" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="O60" s="12">
+        <v>43625</v>
+      </c>
+      <c r="P60" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="Q60" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="R60" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="15" t="s">
+      <c r="S60" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="H60" s="15">
+      <c r="T60" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="U60" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="V60" s="17">
         <v>9999</v>
       </c>
-      <c r="I60" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="O60" s="17">
-        <v>43625</v>
-      </c>
-      <c r="P60" s="17" t="s">
+      <c r="W60" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="Q60" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="R60" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="S60" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="T60" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="U60" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="V60" s="15">
-        <v>9999</v>
-      </c>
-      <c r="W60" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="X60" s="15" t="s">
+      <c r="X60" s="17" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="K61" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="N61" s="23">
+        <v>38626862120</v>
+      </c>
+      <c r="O61" s="12">
+        <v>43079</v>
+      </c>
+      <c r="P61" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="Q61" s="17">
+        <v>15</v>
+      </c>
+      <c r="R61" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="S61" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="15" t="s">
+      <c r="T61" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="I61" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="15" t="s">
+      <c r="U61" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="K61" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M61" s="15" t="s">
+      <c r="V61" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="N61" s="16">
-        <v>38626862120</v>
-      </c>
-      <c r="O61" s="17">
-        <v>43079</v>
-      </c>
-      <c r="P61" s="17" t="s">
+      <c r="W61" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="Q61" s="15">
-        <v>15</v>
-      </c>
-      <c r="R61" s="15" t="s">
+      <c r="X61" s="17" t="s">
         <v>710</v>
-      </c>
-      <c r="S61" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="T61" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="U61" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V61" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="W61" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="X61" s="15" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="N62" s="23">
+        <v>22954368529.639999</v>
+      </c>
+      <c r="O62" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="P62" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="Q62" s="17">
+        <v>11</v>
+      </c>
+      <c r="R62" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="S62" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="F62" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="15" t="s">
+      <c r="T62" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="K62" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M62" s="15" t="s">
+      <c r="U62" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V62" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="N62" s="16">
-        <v>22954368529.639999</v>
-      </c>
-      <c r="O62" s="17" t="s">
+      <c r="W62" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="P62" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q62" s="15">
-        <v>11</v>
-      </c>
-      <c r="R62" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="S62" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="T62" s="15" t="s">
-        <v>728</v>
-      </c>
-      <c r="U62" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V62" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="W62" s="15" t="s">
-        <v>730</v>
-      </c>
-      <c r="X62" s="15" t="s">
-        <v>716</v>
+      <c r="X62" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="N63" s="23">
+        <v>10920880573</v>
+      </c>
+      <c r="O63" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="P63" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>8</v>
+      </c>
+      <c r="R63" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="S63" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="T63" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="U63" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="V63" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="W63" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="N63" s="16">
-        <v>10920880573</v>
-      </c>
-      <c r="O63" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="P63" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q63" s="15">
-        <v>8</v>
-      </c>
-      <c r="R63" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="S63" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="T63" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="U63" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="V63" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="W63" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="X63" s="15" t="s">
-        <v>716</v>
+      <c r="X63" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R64" s="17" t="s">
         <v>742</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="S64" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="T64" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U64" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V64" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="W64" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="E64" s="15" t="s">
-        <v>746</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>747</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L64" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O64" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P64" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q64" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R64" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="S64" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="T64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U64" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V64" s="15" t="s">
-        <v>750</v>
-      </c>
-      <c r="W64" s="15" t="s">
-        <v>751</v>
-      </c>
-      <c r="X64" s="15" t="s">
-        <v>716</v>
+      <c r="X64" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="I65" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="J65" s="17" t="s">
         <v>753</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="K65" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N65" s="23">
+        <v>21503897914</v>
+      </c>
+      <c r="O65" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="P65" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="Q65" s="17">
+        <v>17.5</v>
+      </c>
+      <c r="R65" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="15" t="s">
+      <c r="S65" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="T65" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="U65" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V65" s="17" t="s">
         <v>758</v>
       </c>
-      <c r="J65" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M65" s="15" t="s">
+      <c r="W65" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="N65" s="16">
-        <v>26019715476</v>
-      </c>
-      <c r="O65" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="P65" s="17" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q65" s="15">
-        <v>17.5</v>
-      </c>
-      <c r="R65" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="S65" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="T65" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="U65" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V65" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="W65" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>716</v>
+      <c r="X65" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L66" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="23">
+        <v>32455048148</v>
+      </c>
+      <c r="O66" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="P66" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="Q66" s="17">
+        <v>24</v>
+      </c>
+      <c r="R66" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="S66" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="T66" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V66" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="W66" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="F66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="16">
-        <v>32455048148</v>
-      </c>
-      <c r="O66" s="17" t="s">
-        <v>772</v>
-      </c>
-      <c r="P66" s="17" t="s">
-        <v>773</v>
-      </c>
-      <c r="Q66" s="15">
-        <v>24</v>
-      </c>
-      <c r="R66" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="S66" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="T66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U66" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V66" s="15" t="s">
-        <v>775</v>
-      </c>
-      <c r="W66" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="X66" s="15" t="s">
-        <v>716</v>
+      <c r="X66" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:24">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="23">
+        <v>3888599332</v>
+      </c>
+      <c r="O67" s="12">
+        <v>41189</v>
+      </c>
+      <c r="P67" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="Q67" s="17">
+        <v>13</v>
+      </c>
+      <c r="R67" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="S67" s="17" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="T67" s="17">
+        <v>219</v>
+      </c>
+      <c r="U67" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V67" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="W67" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="16">
-        <v>3888599332</v>
-      </c>
-      <c r="O67" s="17">
-        <v>41189</v>
-      </c>
-      <c r="P67" s="17" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q67" s="15">
-        <v>13</v>
-      </c>
-      <c r="R67" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="S67" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="T67" s="15">
-        <v>219</v>
-      </c>
-      <c r="U67" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V67" s="15" t="s">
-        <v>786</v>
-      </c>
-      <c r="W67" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>716</v>
+      <c r="X67" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="23">
+        <v>14598223097.280001</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68" s="17">
+        <v>12</v>
+      </c>
+      <c r="R68" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="S68" s="17" t="s">
         <v>789</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="T68" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V68" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="W68" s="17" t="s">
         <v>791</v>
       </c>
-      <c r="E68" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="15" t="s">
-        <v>793</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L68" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="16">
-        <v>14598223097.280001</v>
-      </c>
-      <c r="O68" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P68" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q68" s="15">
-        <v>12</v>
-      </c>
-      <c r="R68" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="S68" s="15" t="s">
-        <v>795</v>
-      </c>
-      <c r="T68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U68" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V68" s="15" t="s">
-        <v>796</v>
-      </c>
-      <c r="W68" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>716</v>
+      <c r="X68" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>794</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="N69" s="23">
+        <v>16886338370</v>
+      </c>
+      <c r="O69" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="P69" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="Q69" s="17">
+        <v>18</v>
+      </c>
+      <c r="R69" s="33" t="s">
         <v>800</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="S69" s="17" t="s">
         <v>801</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="T69" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="F69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="15" t="s">
-        <v>793</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M69" s="15" t="s">
+      <c r="U69" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V69" s="33" t="s">
         <v>803</v>
       </c>
-      <c r="N69" s="16">
-        <v>16886338370</v>
-      </c>
-      <c r="O69" s="17" t="s">
+      <c r="W69" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="P69" s="17" t="s">
+      <c r="X69" s="33" t="s">
         <v>805</v>
-      </c>
-      <c r="Q69" s="15">
-        <v>18</v>
-      </c>
-      <c r="R69" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="S69" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="T69" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="U69" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V69" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="W69" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="X69" s="30" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="23">
+        <v>16782892881</v>
+      </c>
+      <c r="O70" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="P70" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="Q70" s="17">
+        <v>15</v>
+      </c>
+      <c r="R70" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="S70" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="T70" s="17" t="s">
         <v>816</v>
       </c>
-      <c r="F70" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="15" t="s">
+      <c r="U70" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V70" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="K70" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M70" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="16">
-        <v>16782892881</v>
-      </c>
-      <c r="O70" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P70" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q70" s="15">
-        <v>15</v>
-      </c>
-      <c r="R70" s="15" t="s">
+      <c r="W70" s="17" t="s">
         <v>818</v>
       </c>
-      <c r="S70" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="T70" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="U70" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V70" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="W70" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="X70" s="15" t="s">
-        <v>716</v>
+      <c r="X70" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>823</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="F71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="K71" s="17" t="s">
         <v>825</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="L71" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="M71" s="17" t="s">
         <v>827</v>
       </c>
-      <c r="F71" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="15" t="s">
+      <c r="N71" s="23">
+        <v>16864638530</v>
+      </c>
+      <c r="O71" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="P71" s="12">
+        <v>44350</v>
+      </c>
+      <c r="Q71" s="17">
+        <v>15</v>
+      </c>
+      <c r="R71" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="L71" s="15" t="s">
+      <c r="S71" s="17" t="s">
         <v>830</v>
       </c>
-      <c r="M71" s="15" t="s">
+      <c r="T71" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="N71" s="16">
-        <v>16864638530</v>
-      </c>
-      <c r="O71" s="17" t="s">
+      <c r="U71" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V71" s="17" t="s">
         <v>832</v>
       </c>
-      <c r="P71" s="17">
-        <v>44350</v>
-      </c>
-      <c r="Q71" s="15">
-        <v>15</v>
-      </c>
-      <c r="R71" s="15" t="s">
+      <c r="W71" s="17" t="s">
         <v>833</v>
       </c>
-      <c r="S71" s="15" t="s">
-        <v>834</v>
-      </c>
-      <c r="T71" s="15" t="s">
-        <v>835</v>
-      </c>
-      <c r="U71" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V71" s="15" t="s">
-        <v>836</v>
-      </c>
-      <c r="W71" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="X71" s="15" t="s">
-        <v>716</v>
+      <c r="X71" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="F72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="K72" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="N72" s="23">
+        <v>22270823688</v>
+      </c>
+      <c r="O72" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="P72" s="12">
+        <v>44297</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>15</v>
+      </c>
+      <c r="R72" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="S72" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="T72" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="15" t="s">
+      <c r="U72" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V72" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="K72" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M72" s="15" t="s">
-        <v>831</v>
-      </c>
-      <c r="N72" s="16">
-        <v>22270823688</v>
-      </c>
-      <c r="O72" s="17" t="s">
+      <c r="W72" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="P72" s="17">
-        <v>44297</v>
-      </c>
-      <c r="Q72" s="15">
-        <v>15</v>
-      </c>
-      <c r="R72" s="15" t="s">
-        <v>845</v>
-      </c>
-      <c r="S72" s="15" t="s">
-        <v>795</v>
-      </c>
-      <c r="T72" s="15" t="s">
-        <v>846</v>
-      </c>
-      <c r="U72" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V72" s="15" t="s">
-        <v>847</v>
-      </c>
-      <c r="W72" s="15" t="s">
-        <v>848</v>
-      </c>
-      <c r="X72" s="15" t="s">
-        <v>716</v>
+      <c r="X72" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="F73" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="K73" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="L73" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="23">
+        <v>12341721000</v>
+      </c>
+      <c r="O73" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="P73" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="F73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="15" t="s">
+      <c r="Q73" s="17">
+        <v>15</v>
+      </c>
+      <c r="R73" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="K73" s="15" t="s">
+      <c r="S73" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="T73" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="L73" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N73" s="16">
-        <v>12341721000</v>
-      </c>
-      <c r="O73" s="17" t="s">
+      <c r="U73" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="V73" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="W73" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="P73" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q73" s="15">
-        <v>15</v>
-      </c>
-      <c r="R73" s="15" t="s">
-        <v>858</v>
-      </c>
-      <c r="S73" s="15" t="s">
-        <v>795</v>
-      </c>
-      <c r="T73" s="15" t="s">
-        <v>859</v>
-      </c>
-      <c r="U73" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="V73" s="15" t="s">
-        <v>847</v>
-      </c>
-      <c r="W73" s="15" t="s">
-        <v>860</v>
-      </c>
-      <c r="X73" s="15" t="s">
-        <v>716</v>
+      <c r="X73" s="17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R74" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="S74" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="T74" s="17" t="s">
         <v>863</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="U74" s="17" t="s">
         <v>864</v>
       </c>
-      <c r="E74" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O74" s="17">
-        <v>9999</v>
-      </c>
-      <c r="P74" s="17">
-        <v>39814</v>
-      </c>
-      <c r="Q74" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R74" s="15" t="s">
+      <c r="V74" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="S74" s="15" t="s">
+      <c r="W74" s="17" t="s">
         <v>866</v>
       </c>
-      <c r="T74" s="15" t="s">
-        <v>867</v>
-      </c>
-      <c r="U74" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="V74" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="W74" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="X74" s="15" t="s">
+      <c r="X74" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:24">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P75" s="12">
+        <v>43466</v>
+      </c>
+      <c r="Q75" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R75" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="S75" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="T75" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="U75" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="E75" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N75" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O75" s="17">
-        <v>9999</v>
-      </c>
-      <c r="P75" s="17">
-        <v>43466</v>
-      </c>
-      <c r="Q75" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R75" s="15" t="s">
+      <c r="V75" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="S75" s="15" t="s">
+      <c r="W75" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="T75" s="15" t="s">
-        <v>877</v>
-      </c>
-      <c r="U75" s="15" t="s">
-        <v>878</v>
-      </c>
-      <c r="V75" s="15" t="s">
-        <v>879</v>
-      </c>
-      <c r="W75" s="15" t="s">
-        <v>880</v>
-      </c>
-      <c r="X75" s="15" t="s">
+      <c r="X75" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q76" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R76" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="S76" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="T76" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="U76" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="C76" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M76" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N76" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O76" s="17">
-        <v>9999</v>
-      </c>
-      <c r="P76" s="17">
-        <v>9999</v>
-      </c>
-      <c r="Q76" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R76" s="15" t="s">
+      <c r="V76" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="S76" s="15" t="s">
+      <c r="W76" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="T76" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="U76" s="15" t="s">
-        <v>886</v>
-      </c>
-      <c r="V76" s="15" t="s">
-        <v>887</v>
-      </c>
-      <c r="W76" s="15" t="s">
-        <v>888</v>
-      </c>
-      <c r="X76" s="15" t="s">
+      <c r="X76" s="17" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:24">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="K77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M77" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P77" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R77" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="S77" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="T77" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="U77" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="15" t="s">
+      <c r="V77" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="K77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M77" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N77" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O77" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P77" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q77" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R77" s="15" t="s">
+      <c r="W77" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="S77" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="T77" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="U77" s="15" t="s">
-        <v>894</v>
-      </c>
-      <c r="V77" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="W77" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="X77" s="15" t="s">
+      <c r="X77" s="17" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:24">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O78" s="12">
+        <v>9999</v>
+      </c>
+      <c r="P78" s="12">
+        <v>9999</v>
+      </c>
+      <c r="Q78" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R78" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="S78" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="T78" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="U78" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="V78" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N78" s="16">
+      <c r="W78" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="X78" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A79" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q79" s="17">
         <v>9999</v>
       </c>
-      <c r="O78" s="17">
-        <v>9999</v>
-      </c>
-      <c r="P78" s="17">
-        <v>9999</v>
-      </c>
-      <c r="Q78" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R78" s="15" t="s">
-        <v>899</v>
-      </c>
-      <c r="S78" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="T78" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="U78" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="V78" s="15" t="s">
-        <v>902</v>
-      </c>
-      <c r="W78" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="X78" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
-      <c r="A79" s="15" t="s">
+      <c r="R79" s="33" t="s">
         <v>904</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="S79" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="T79" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U79" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="V79" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="W79" s="17" t="s">
         <v>907</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N79" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O79" s="17">
-        <v>9999</v>
-      </c>
-      <c r="P79" s="17">
-        <v>44927</v>
-      </c>
-      <c r="Q79" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R79" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="S79" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="T79" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="U79" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="V79" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="W79" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="X79" s="15" t="s">
+      <c r="X79" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P80" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q80" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R80" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="S80" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="T80" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U80" s="17" t="s">
         <v>912</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="V80" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="W80" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N80" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O80" s="17">
-        <v>9999</v>
-      </c>
-      <c r="P80" s="17">
-        <v>9999</v>
-      </c>
-      <c r="Q80" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R80" s="30" t="s">
-        <v>915</v>
-      </c>
-      <c r="S80" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="T80" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="U80" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="V80" s="15" t="s">
-        <v>917</v>
-      </c>
-      <c r="W80" s="15" t="s">
-        <v>918</v>
-      </c>
-      <c r="X80" s="15" t="s">
+      <c r="X80" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:24">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>919</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="F81" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N81" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O81" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P81" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q81" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R81" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="S81" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="T81" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="U81" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="V81" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="W81" s="17" t="s">
         <v>923</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J81" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="L81" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M81" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N81" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O81" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P81" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q81" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R81" s="15" t="s">
-        <v>924</v>
-      </c>
-      <c r="S81" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="T81" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="U81" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="V81" s="15" t="s">
-        <v>926</v>
-      </c>
-      <c r="W81" s="15" t="s">
-        <v>927</v>
-      </c>
-      <c r="X81" s="15" t="s">
+      <c r="X81" s="17" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" s="17" t="s">
         <v>928</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="J82" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N82" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P82" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q82" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R82" s="17" t="s">
         <v>929</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="15" t="s">
+      <c r="S82" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="T82" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="U82" s="17" t="s">
         <v>930</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="V82" s="17" t="s">
         <v>931</v>
       </c>
-      <c r="F82" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>931</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I82" s="15" t="s">
+      <c r="W82" s="17" t="s">
         <v>932</v>
       </c>
-      <c r="J82" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L82" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M82" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N82" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O82" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P82" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q82" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R82" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="S82" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="T82" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="U82" s="15" t="s">
-        <v>934</v>
-      </c>
-      <c r="V82" s="15" t="s">
-        <v>935</v>
-      </c>
-      <c r="W82" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="X82" s="15" t="s">
+      <c r="X82" s="17" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E83" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="F83" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="H83" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="K83" s="17" t="s">
         <v>939</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="L83" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M83" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N83" s="23">
+        <v>9999</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P83" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q83" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R83" s="17" t="s">
         <v>940</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="S83" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="15" t="s">
+      <c r="T83" s="17" t="s">
         <v>942</v>
       </c>
-      <c r="H83" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="K83" s="15" t="s">
+      <c r="U83" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="V83" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="L83" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M83" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N83" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="P83" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q83" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R83" s="15" t="s">
+      <c r="W83" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="S83" s="15" t="s">
-        <v>945</v>
-      </c>
-      <c r="T83" s="15" t="s">
-        <v>946</v>
-      </c>
-      <c r="U83" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="V83" s="15" t="s">
-        <v>947</v>
-      </c>
-      <c r="W83" s="15" t="s">
-        <v>948</v>
-      </c>
-      <c r="X83" s="15" t="s">
+      <c r="X83" s="17" t="s">
         <v>399</v>
       </c>
     </row>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F764CBB-2C9C-4447-92D3-11131483E77E}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A5D5CD-24F9-47A8-8C1C-2CB24E7213D4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="955">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -499,7 +499,7 @@
     <t>RED GEODÉSICA PROYECTO LA MOJANA</t>
   </si>
   <si>
-    <t>Construir la Red Geodésica en la zona de la Mojana mediante el levantamiento topográfico con tecnología LIDAR, levantamiento batimétrico, Fotografías aéreas digitales, elaboración de cartografía base y construcción de una base de datos geográfica que permita identificar elementos expuestos.</t>
+    <t>Construir la Red Geodésica en la zona de la Mojana mediante el levantamiento topográfico con tecnología LIDAR, levantamiento batimétrico, fotografías aéreas digitales, elaboración de cartografía base y construcción de una base de datos geográfica que permita identificar elementos expuestos.</t>
   </si>
   <si>
     <t>C 045 DE 2013</t>
@@ -521,10 +521,10 @@
 La metodología seguida en el proyecto se adhirió a los estándares nacionales e internacionales, asegurando la calidad y precisión de los datos recolectados y procesados. El resultado final del proyecto es una red geodésica robusta que facilitará la toma de decisiones y la implementación de políticas públicas orientadas a la reducción del riesgo de desastres en La Mojana.</t>
   </si>
   <si>
-    <t>El convenio 045 DE 2013 aparece en la pagina del fondo con un bjeto diferente</t>
-  </si>
-  <si>
-    <t>Red geodésica, Procesamiento de información, Información secundaria, Batimetría, Topografía, Sistemas de Información Geográfica (SIG), Sensores remotos, Análisis multitemporal, Red geodésica, Gravimetría, Nivelación geométrica, Ajuste de coordenadas, Observaciones trigonométricas, Poligonación, Ondulación geoidal, Control terrestre, Fotocontrol, Correcciones, Ajuste geodésico.</t>
+    <t>El convenio 045 de 2013 aparece en la pagina del Fondo Adaptación con un objeto diferente</t>
+  </si>
+  <si>
+    <t>Red geodésica, procesamiento de información, información secundaria, batimetría, topografía, Sistemas de Información Geográfica (SIG), sensores remotos, análisis multitemporal, red geodésica, gravimetría, nivelación geométrica, ajuste de coordenadas, observaciones trigonométricas, poligonación, ondulación geoidal, control terrestre, fotocontrol, correcciones, ajuste geodésico.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006</t>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t xml:space="preserve">Contrato N°169 de 2016 </t>
+  </si>
+  <si>
+    <t>Apoyar al Fondo Adaptación en el acompañamiento técnico que brindará a los 11 municipios que componen la región de la Mojana en la actualización de sus POT conforme a la metodología de POT modernos desarrollada por DNP, de conformidad con los términos y condiciones contractuales y los documentos que los conforman, los cuales junto con la propuesta del Consultor forman parte integral de este contrato y prevalecen, para todos los efectos, sobre esta última</t>
   </si>
   <si>
     <t>6/17/2013</t>
@@ -1285,26 +1288,28 @@
     <t xml:space="preserve">El alcance de los trabajos de estudios y diseños del proyecto consiste en el desarrollo de lo aplicable, como mínimo, pero sin limitarse a ello, de lo señalado por INVIAS en el “Numeral 3.8. VOLUMEN VIII. Estudio y Diseño de Estructuras” del documento titulado “Anexo Técnico-Estudios y Diseños de Carreteras Fase III- Carretera Yatí-La Bodega-Incluye puente de 500 M” Lo anterior, forma parte de los Pliegos de Condiciones del proceso CM-SGT-SAT-031-2011, Módulo 2, que dio origen al contrato INVIAS No. 2146 de 2011 y que el Consorcio se encuentra ejecutando para dicha entidad. Este contrato incluye los estudios y diseños de un puente de similares características al que el FOA busca contratar. </t>
   </si>
   <si>
-    <t>Fondo Acción</t>
+    <t xml:space="preserve">Fondo Adaptación </t>
   </si>
   <si>
     <t>Consorcio Santander 2011</t>
   </si>
   <si>
+    <t>Consorcio Caribe 2011</t>
+  </si>
+  <si>
     <t>$ 2.750.000.000</t>
   </si>
   <si>
-    <t xml:space="preserve">
-En el proyecto se realizaron los estudios previos y los diseños, a nivel de Fase III, de la vía Yatí – La Bodega, del K6+700 al K9+000. Estos estudios que incluyen un puente sobre el brazo del rio Magdalena, Código 7802 del departamento de Bolívar, del proyecto “Transversal Momposina-Construcción del Puente Yatí”.</t>
+    <t>En el proyecto se realizaron los estudios previos y los diseños, a nivel de Fase III, de la vía Yatí – La Bodega, del K6+700 al K9+000. Estos estudios que incluyen un puente sobre el brazo del rio Magdalena, Código 7802 del departamento de Bolívar, del proyecto “Transversal Momposina-Construcción del Puente Yatí”. Se incluyen estudios de trazado y diseño geometrico, señalización y seguridad vial. Estudios de suelos, hidrología, hidraúlica y socavación, estudio y diseño de estructuras, estudios de cantidades de obra, analisis de precios y presupuesto.</t>
   </si>
   <si>
     <t>Municipios de Magangue y Cicuco.</t>
   </si>
   <si>
-    <t>En ninguno de los documentos revisados se menciona, de manera específica, el tiempo de ejecución del contrato. Es decir, no se encontró la fecha exacta de inicio y terminación de este contrato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vía, estudio, diseño, Yatí, Magangué. </t>
+    <t>Información relacionada con la contratación, estudios previos información sensible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratación, estudios previos, diseño, Yatí, Magangué. </t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0027</t>
@@ -1514,28 +1519,22 @@
     <t>P0035</t>
   </si>
   <si>
-    <t>REDUCCIÓN DEL RIESGO Y ADAPTACIÓN AL CAMBIO CLIMÁTICO "MAPA"</t>
-  </si>
-  <si>
-    <t>El objeto del proyecto es contribuir a la reactivación económica de las zonas afectadas por la emergencia generada por el fenómeno de La Niña en 2010-2011, mediante el empoderamiento de los servicios locales de transferencia de tecnología y de las comunidades rurales afectadas por dicho fenómeno con información agroclimática y tecnologías de manejo que les permita mejorar la capacidad y productividad de sus sistemas de producción al enfrentar el riesgo de eventos climáticos extremos.</t>
-  </si>
-  <si>
-    <t>CV 002 de 2012/2013</t>
+    <t>Reducción del riesgo y adaptación al cambio climático MAPA</t>
   </si>
   <si>
     <t>Convenio 015 de 2012 / Convenio 002 de 2013</t>
   </si>
   <si>
-    <t>Convenio 015 de 2012: $617.972.052 Convenio 002 de 2013: $22.636.483.347</t>
-  </si>
-  <si>
-    <t>El estudio aborda la actualización de la información socioeconómica y climática de La Mojana, a trávez de la medición del impacto causado por los eventos climáticos extremos, puntualente, el fénomeno de la Niña entre el 2010 y 2011, sobre los sistemas productivos. A su vez, el proyecto buscaba evaluar la viabilidad de sistemas de producción alternativos adaptados a las condiciones locales como medida de reducción del riesgo y adaptación al cambio climático.  
-El estudio identifica los principales problemas ambientales que enfrenta la región como la contaminación, el exceso de sedimentos, el taponamiento de caños, la desecación de zonas inundables y la colmatación de ciénagas. Estas problemáticas se deben, principalmente, a intervenciones humanas inapropiadas como la construcción de diques y terraplenes, que han alterado significativamente la dinámica hidrológica y fluvial del sistema. Lo anterior,  incrementa la vulnerabilidad de las comunidades locales a los fenómenos climáticos extremos.Para el presente caso de estudio, los daños generados tanto a los sistemas productivos de la región.
-Para mitigar dichas afectaciones, el proyecto propone el desarrollo de un Sistema de Alertas Tempranas (SAT) para inundaciones, enfocado en el sector agropecuario. Este SAT incluye subsistemas de información, comunicación y gestión local, con la finalidad de prevenir y minimizar los impactos negativos de las inundaciones. El subsistema de información se basa en la captación y procesamiento de datos climáticos, hidrométricos y topobatimétricos para entender y simular la dinámica del sistema hídrico.
-Adicionalmente, el documento destaca la necesidad de establecer sistemas de producción alternativos como los sistemas silvopastoriles, que pueden mejorar la producción animal y proteger el medio ambiente, contribuyendo al desarrollo sostenible de la región.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptación, Cambio Climático, Riesgo, Vulnerabiidad, Sistemas productivos, Agroclimático. </t>
+    <t>Implementar sistemas de apoyo a la toma de decisiones en el manejo de riesgos agroclimáticos y validar opciones tecnológicas para reducir la vulnerabilidad de los sistemas de producción a los eventos climáticos extremos.</t>
+  </si>
+  <si>
+    <t>El estudio aborda la actualización de la información socioeconómica y climática de La Mojana, mediante la medición del impacto de eventos climáticos extremos, específicamente el fenómeno de La Niña entre 2010 y 2011, sobre los sistemas productivos. Además, el proyecto busca evaluar la viabilidad de sistemas de producción alternativos adaptados a las condiciones locales, como medida para reducir el riesgo y adaptarse al cambio climático Adicionalmente, identifica los principales problemas ambientales que enfrenta la región, como la contaminación, el exceso de sedimentos, el taponamiento de caños, la desecación de zonas inundables y la colmatación de ciénagas. Estas problemáticas se deben principalmente a intervenciones humanas inapropiadas, como la construcción de diques y terraplenes, que han alterado significativamente la dinámica hidrológica y fluvial del sistema. Esto incrementa la vulnerabilidad de las comunidades locales a los fenómenos climáticos extremos. Para mitigar dichas afectaciones, el proyecto propone el desarrollo de un Sistema de Alertas Tempranas (SAT) para inundaciones, enfocado en el sector agropecuario. Este SAT incluye subsistemas de información, comunicación y gestión local, con el objetivo de prevenir y minimizar los impactos negativos de las inundaciones. El subsistema de información se basa en la captación y procesamiento de datos climáticos, hidrométricos y topobatimétricos para entender y simular la dinámica del sistema hídrico. Adicionalmente, se destaca la necesidad de establecer sistemas de producción alternativos, como los sistemas silvopastoriles, que pueden mejorar la producción animal y proteger el medio ambiente, contribuyendo al desarrollo sostenible de la región.</t>
+  </si>
+  <si>
+    <t>Este proyecto presenta un presupuesto general para diferentes departamentos de Colombia, de los cuales fueron priorizados algunos, que incluye areas de la Mojana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptación, cambio climático, riesgo, vulnerabiidad, sistemas productivos, agroclimático. </t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0035</t>
@@ -1553,7 +1552,7 @@
     <t>Prestar la asistencia técnica al equipo de modelación contratado por el fondo para realizar la modelación hidrodinámica de la región de La Mojana, de tal manera que se garantice que los resultados de esta modelación brinden los insumos requeridos para obtener los productos contenidos en la cláusula quinta del convenio de asociación No. 012 de 2013, que le permitirán al fondo poner en marcha el Plan de Acción de intervenciones así como la primera iniciativa de modelación del Centro Nacional de Modelación.</t>
   </si>
   <si>
-    <t>documentos de contratación del contrato No. 244 de 2013, asistencia técnica al equipo de modelación contratado por el fondo para realizar la modelación hidrodinámica de la región de La Mojana</t>
+    <t>Documentos de contratación del contrato No. 244 de 2013, asistencia técnica al equipo de modelación contratado por el fondo para realizar la modelación hidrodinámica de la región de La Mojana</t>
   </si>
   <si>
     <t>Región de la Mojana: Nechí, Magangué, Achí, San Jacinto del Cauca, Ayapel, San Marcos, Guaranda, Majagual, Sucre, Caimito y San Benito Abad</t>
@@ -1562,7 +1561,7 @@
     <t xml:space="preserve">Información relacionada al contrato 0244 de 2013, estudios previos, actas, informes de gestión,  información sensible </t>
   </si>
   <si>
-    <t>Contratación, Estudios previos</t>
+    <t>Contratación, estudios previos, información sensible</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0036</t>
@@ -2126,25 +2125,57 @@
     <t>1. POSTULACIONES</t>
   </si>
   <si>
+    <t>Plan Integral de Ordenamiento Ambiental y Desarrollo Territorial de La Mojana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportar los recursos humanos, físicos y financieros en el marco de las competencias de cada entidad para evaluar la amenaza y el riesgo para 11 municipios de a región de La Mojana, que le permitirá al Fondo Adaptación poner en marcha el Plan de Acción de intervenciones así como la primera iniciativa de modelación del Centro Nacional de Modelación.  
+</t>
+  </si>
+  <si>
+    <t>Convenio de Asociación 012 de 2013</t>
+  </si>
+  <si>
+    <t>Estructurar un sistema de información hidrológico con los datos capturados, recopilados, procesados y analizados, compatible con el Sistema de Información de Recurso Hídrico (SIRH) y la Resolución 1415 de 2012 del MADS.
+Construir un sistema de información cartográfico digital con los datos capturados, procesados y analizados, así como los generados a través de las simulaciones.
+Simular los escenarios de intervención propuestos por la Universidad Nacional de Colombia en el marco del Convenio UN-DNP 336 de 2011.
+Generar mapas digitales de amenaza por inundación para diferentes períodos de retorno, que incluyan la presentación de resultados parciales, que permitan la comunicación en dos vías con la comunidad y las autoridades locales, regionales y nacionales.
+Evaluar escenarios de amenaza por inundación en la Región de La Mojana, que incluyan a los 11 municipios que conforman el núcleo para diferentes períodos de retorno.</t>
+  </si>
+  <si>
+    <t>Fondo Adaptación, IDEMA, CORMAGDALENA, DNP y MADS</t>
+  </si>
+  <si>
+    <t>IDEAM</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>19/06/2013</t>
+  </si>
+  <si>
+    <t>18/12/2014</t>
+  </si>
+  <si>
     <t>Esta carpeta contiene documentos administrativos del Macroproyecto de La Mojana “Plan Integral de Ordenamiento Ambiental y Desarrollo Territorial de La Mojana”. Estos documentos, en su mayoría, incluyen los convenios con diferentes entidades para el cumplimiento de cada uno de los componentes del proyecto. A su vez, las postulaciones y seguimiento a las postulaciones aprobadas para el desarrollo de cada componente del Macroproyecto.</t>
   </si>
   <si>
-    <t>Esta carpeta también contiene un modelo hidrodinámico de la Mojana; sin embargo, no fue posible identificar a cuál proyecto corresponde.</t>
+    <t>11 municipios de la Región de La Mojana</t>
+  </si>
+  <si>
+    <t>Esta carpeta también contiene un modelo hidrodinámico de la Mojana; sin embargo, no fue posible identificar a cuál proyecto corresponde. Además, también fueron ejecutores de este convenio CORMAGDALENA y el Ministerio de Ambiente y Desarrollo Sostenible.</t>
   </si>
   <si>
     <t>Plan de ordenamiento territorial, postulaciones, seguimiento, hidrodinamico.</t>
   </si>
   <si>
-    <t>s3://oa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0053</t>
+    <t>s3:\\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0053</t>
   </si>
   <si>
     <t>P0054</t>
   </si>
   <si>
     <t>02. Información IDEAM</t>
-  </si>
-  <si>
-    <t>IDEAM</t>
   </si>
   <si>
     <t>La carpeta contiene una colección de datos geoespaciales y ambientales clave sobre la región de la Mojana, organizados en diversos formatos como GeoTIFF, HDF, XML, shapefiles y más. Estos archivos proporcionan información detallada sobre la clasificación del suelo, modelos de terreno, eventos de inundación históricos y datos de profundidad, facilitando la planificación territorial, la gestión ambiental y el análisis de riesgos.  Incluye capas de visualización para SIG y archivos adicionales en Excel y PowerPoint. Finalmente, incluye un modelo hidráulico desarrollado en HEC-RAS que no está asociado a ningún informe explicativo del modelo.</t>
@@ -2915,7 +2946,7 @@
     <t>Instituto de investigación de recursos biológicos Alexander von Humboldt</t>
   </si>
   <si>
-    <t>La carpeta contiene documentos del Instituto Alexander von Humboldt con información de la región de La Mojana, relacionada a contaminación por mercurio, lineamientos para el manejo sostenible de sistemas de aprovechamiento de recursos naturales in situ y lecciones aprendidas de restauración y conservación.</t>
+    <t>La carpeta contiene documentos del Instituto Alexander von Humboldt con información de la región de La Mojana, relacionada a contaminación por mercurio, lineamientos para el manejo sostenible de sistemas de aprovechamiento de recursos naturales in situ y lecciones aprendidas de restauración y conservación. Asi como un documento general de lineamientos de aprovechamiento sostenible de recursos naturales, que puede ser implementado en la region de la Mojana.</t>
   </si>
   <si>
     <t>Región de La Mojana</t>
@@ -2936,16 +2967,16 @@
     <t>SISTEMA DE INFORMACIÓN AMBIENTAL DE COLOMBIA</t>
   </si>
   <si>
-    <t>La carpeta contiene información cartográfica en formato Shape File sobre las prioridades de conservación en jurisdicción del agua y zonificación forestal del Plan de Ordenación Forestal en jurisdiccion de la autoridad ambiental</t>
+    <t xml:space="preserve">La carpeta contiene información cartográfica en formato Shape File sobre las prioridades de conservación en jurisdicción del agua y zonificación forestal del Plan de Ordenación Forestal en jurisdiccion de la autoridad ambiental </t>
   </si>
   <si>
     <t>Nechí, San Jacinto de Achí, Achí, Magangué, Guarandá</t>
   </si>
   <si>
-    <t>La información cartográfica no se solapa completamente con el área núcleo de La Mojana, y solo se solapa con algunos municipios</t>
-  </si>
-  <si>
-    <t>Localización, Medio ambiente, Cobertura de la tierra, Ordenamiento territorial, Zonificación, Cuencas, Microcuencas, CSB, prioridades, conservación, CSB, ordenamiento, zonificación</t>
+    <t>La información cartográfica no se solapa completamente con el área núcleo de La Mojana, solo con algunos municipios del area de interés.</t>
+  </si>
+  <si>
+    <t>Localización, medio ambiente, cobertura de la tierra, ordenamiento territorial, zonificación, cuencas, microcuencas, CSB, prioridades, conservación</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0091</t>
@@ -3053,7 +3084,7 @@
     <t>Acuerdo No. 19-206</t>
   </si>
   <si>
-    <t>Brindar acompañamiento y asesoría técnica al proyecto "Mejorar las prácticas de gestión del agua resilientes al cambio climático para las comunidades vulnerables en La Mojana", en su actividad 2.2 "Incrementar la capacidad adaptativa de ecosistemas naturales y de medios de vida basados en los ecosistemas" en su fase I o de planificación.</t>
+    <t>Brindar acompañamiento y asesoría técnica al proyecto "Mejorar las prácticas de gestión del agua resilientes al cambio climático para las comunidades vulnerables en La Mojana", en su actividad 2.2 "Incrementar la capacidad adaptativa de ecosistemas naturales y de medios de vida basados en los ecosistemas" en su fase I de planificación.</t>
   </si>
   <si>
     <t>19-206</t>
@@ -3062,13 +3093,13 @@
     <t>Fondo Verde del Clima (GCF)</t>
   </si>
   <si>
-    <t>La carta de acuerdo No 19-206 se desarrolló en el marco del  macroproyecto Mojana Clima y Vida para Brindar acompañamiento y asesoría técnica al proyecto "Mejorar las prácticas de gestión del agua resilientes al cambio climático para las comunidades vulnerables en La Mojana", en su actividad 2.2 "Incrementar la capacidad adaptativa de ecosistemas.  Dentro de la carpeta se encontraron tres productos correspondientes al sistema de monitoreo con enfoque participativo, los métodos y resultados de los modelos para priorizar áreas de rehabilitación y conservación y finalmente, la identificación de prioridades y acciones sociales para la restauración socio ecológica participativa.</t>
+    <t>La carta de acuerdo No 19-206 se desarrolló en el marco del  macroproyecto Mojana Clima y Vida para brindar acompañamiento y asesoría técnica al proyecto "Mejorar las prácticas de gestión del agua resilientes al cambio climático para las comunidades vulnerables en La Mojana", en su actividad 2.2 "Incrementar la capacidad adaptativa de ecosistemas. Dentro de la carpeta se encontraron tres productos correspondientes al sistema de monitoreo con enfoque participativo; los métodos y resultados de los modelos para priorizar áreas de rehabilitación y conservación; y finalmente, la identificación de prioridades y acciones sociales para la restauración socio ecológica participativa.</t>
   </si>
   <si>
     <t xml:space="preserve">En la carpeta no se relaciona información contractual del acuerdo, ni hay claridad de cuantos productos se generaron para todo el acuerdo. </t>
   </si>
   <si>
-    <t>Adaptación, Monitoreo, Restauración</t>
+    <t>Adaptación, monitoreo, restauración</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0095</t>
@@ -3188,7 +3219,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3199,6 +3230,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3243,7 +3280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3283,7 +3320,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3309,16 +3345,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3339,9 +3366,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -3642,13 +3708,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="U69" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V82" sqref="V82"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
@@ -3664,10 +3730,10 @@
     <col min="14" max="14" width="22" style="2" customWidth="1"/>
     <col min="15" max="15" width="24" style="3" customWidth="1"/>
     <col min="16" max="16" width="22.5703125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" style="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="1" customWidth="1"/>
-    <col min="20" max="20" width="61.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="89.28515625" style="1" customWidth="1"/>
     <col min="21" max="21" width="63.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="45.85546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="23.140625" style="1" customWidth="1"/>
@@ -4093,7 +4159,7 @@
       <c r="O6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="42">
         <v>42005</v>
       </c>
       <c r="Q6" s="14">
@@ -4202,7 +4268,7 @@
       <c r="B8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -4226,7 +4292,7 @@
       <c r="J8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -4247,7 +4313,7 @@
       <c r="Q8" s="7">
         <v>9</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="16" t="s">
         <v>127</v>
       </c>
       <c r="S8" s="7" t="s">
@@ -4309,7 +4375,7 @@
       <c r="M9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <v>184985747</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -4327,7 +4393,7 @@
       <c r="S9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="T9" s="18" t="s">
         <v>98</v>
       </c>
       <c r="U9" s="7" t="s">
@@ -4336,7 +4402,7 @@
       <c r="V9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="19" t="s">
         <v>143</v>
       </c>
       <c r="X9" s="7" t="s">
@@ -4353,7 +4419,7 @@
       <c r="C10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -4410,7 +4476,7 @@
       <c r="V10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="19" t="s">
         <v>152</v>
       </c>
       <c r="X10" s="7" t="s">
@@ -4484,7 +4550,7 @@
       <c r="V11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="19" t="s">
         <v>166</v>
       </c>
       <c r="X11" s="7" t="s">
@@ -4558,7 +4624,7 @@
       <c r="V12" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="19" t="s">
         <v>179</v>
       </c>
       <c r="X12" s="11" t="s">
@@ -4639,92 +4705,92 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:24" s="34" customFormat="1">
+      <c r="A14" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="8">
+      <c r="K14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="38">
         <v>742510000</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="9">
+      <c r="O14" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="P14" s="39">
         <v>41670</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="35">
         <v>7</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="S14" s="7" t="s">
+      <c r="R14" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="S14" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="U14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="V14" s="7" t="s">
+      <c r="U14" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="V14" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="X14" s="7" t="s">
+      <c r="W14" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="X14" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>52</v>
@@ -4766,22 +4832,22 @@
         <v>9999</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X15" s="7" t="s">
         <v>102</v>
@@ -4789,34 +4855,34 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>52</v>
@@ -4834,14 +4900,14 @@
         <v>41610</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7">
         <f>4*12+7</f>
         <v>55</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>71</v>
@@ -4853,10 +4919,10 @@
         <v>29</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="X16" s="7" t="s">
         <v>102</v>
@@ -4864,37 +4930,37 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>52</v>
@@ -4915,7 +4981,7 @@
         <v>9999</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>71</v>
@@ -4924,33 +4990,33 @@
         <v>98</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:24" customFormat="1" ht="300">
+    <row r="18" spans="1:24" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>29</v>
@@ -4965,7 +5031,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>52</v>
@@ -4977,54 +5043,54 @@
         <v>29</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="7">
         <v>10</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:24" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>29</v>
@@ -5039,10 +5105,10 @@
         <v>29</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>52</v>
@@ -5056,149 +5122,149 @@
       <c r="O19" s="7">
         <v>2002</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="21">
         <v>2004</v>
       </c>
       <c r="Q19" s="7">
         <v>24</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T19" s="19" t="s">
+      <c r="T19" s="18" t="s">
         <v>98</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X19" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="E20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="H20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="K20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="23" t="s">
+      <c r="J20" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O20" s="12">
         <v>40787</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q20" s="17">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="16">
         <v>11</v>
       </c>
-      <c r="R20" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="S20" s="17" t="s">
+      <c r="R20" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="T20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="17" t="s">
+      <c r="S20" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="V20" s="17" t="s">
+      <c r="T20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="W20" s="17" t="s">
+      <c r="V20" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="X20" s="17" t="s">
+      <c r="W20" s="16" t="s">
         <v>274</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:24" customFormat="1">
-      <c r="A21" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="17" t="s">
+      <c r="F21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="K21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="N21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O21" s="12" t="s">
@@ -5207,46 +5273,46 @@
       <c r="P21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="16">
         <v>9999</v>
       </c>
-      <c r="R21" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="S21" s="17" t="s">
+      <c r="R21" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="S21" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="T21" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="V21" s="17" t="s">
+      <c r="U21" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="W21" s="17" t="s">
+      <c r="V21" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="W21" s="16" t="s">
         <v>288</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:24" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>29</v>
@@ -5261,7 +5327,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>52</v>
@@ -5285,42 +5351,42 @@
         <v>9999</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:24" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>29</v>
@@ -5335,7 +5401,7 @@
         <v>108</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>52</v>
@@ -5344,7 +5410,7 @@
         <v>52</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N23" s="8">
         <v>3846506245</v>
@@ -5359,22 +5425,22 @@
         <v>8</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X23" s="7" t="s">
         <v>102</v>
@@ -5382,25 +5448,25 @@
     </row>
     <row r="24" spans="1:24" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>29</v>
@@ -5409,7 +5475,7 @@
         <v>108</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>52</v>
@@ -5434,7 +5500,7 @@
         <v>18</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S24" s="7" t="s">
         <v>71</v>
@@ -5443,35 +5509,35 @@
         <v>98</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X24" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:24" customFormat="1">
-      <c r="A25" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -5483,19 +5549,19 @@
       <c r="I25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="23">
+      <c r="J25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="22">
         <v>9999</v>
       </c>
       <c r="O25" s="12" t="s">
@@ -5504,261 +5570,261 @@
       <c r="P25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="16">
         <v>9999</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="U25" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="V25" s="17" t="s">
+      <c r="U25" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="W25" s="17" t="s">
+      <c r="V25" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>332</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="B26" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="16">
         <v>9999</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <v>9999</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <v>9999</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="16">
         <v>9999</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="16">
         <v>9999</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="16">
         <v>9999</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="16">
         <v>9999</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <v>9999</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="22">
         <v>9999</v>
       </c>
       <c r="O26" s="12">
         <v>9999</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q26" s="17">
+        <v>336</v>
+      </c>
+      <c r="Q26" s="16">
         <v>9999</v>
       </c>
-      <c r="R26" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="S26" s="17" t="s">
+      <c r="R26" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="T26" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="U26" s="17" t="s">
+      <c r="S26" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="V26" s="17" t="s">
+      <c r="T26" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="W26" s="17" t="s">
+      <c r="V26" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="X26" s="17" t="s">
+      <c r="W26" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X26" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="F27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="J27" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="23" t="s">
+      <c r="H27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O27" s="12">
         <v>40552</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q27" s="17">
+        <v>269</v>
+      </c>
+      <c r="Q27" s="16">
         <v>11</v>
       </c>
-      <c r="R27" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="S27" s="17" t="s">
+      <c r="R27" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="T27" s="17" t="s">
+      <c r="S27" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="U27" s="17" t="s">
+      <c r="T27" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="V27" s="17" t="s">
+      <c r="U27" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="W27" s="17" t="s">
+      <c r="V27" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="X27" s="17" t="s">
-        <v>288</v>
+      <c r="W27" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:24" s="34" customFormat="1">
+      <c r="A28" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="D28" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="E28" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="I28" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="8" t="s">
+      <c r="J28" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="O28" s="9">
-        <v>41275</v>
-      </c>
-      <c r="P28" s="9">
-        <v>41640</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>12</v>
-      </c>
-      <c r="R28" s="7" t="s">
+      <c r="K28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="N28" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="T28" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="U28" s="7" t="s">
+      <c r="O28" s="39">
+        <v>41340</v>
+      </c>
+      <c r="P28" s="39">
+        <v>41375</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>4</v>
+      </c>
+      <c r="R28" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="V28" s="7" t="s">
+      <c r="S28" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="T28" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="U28" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="X28" s="7" t="s">
+      <c r="V28" s="35" t="s">
         <v>367</v>
+      </c>
+      <c r="W28" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="X28" s="35" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -5809,13 +5875,13 @@
         <v>176</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="X29" s="7" t="s">
         <v>153</v>
@@ -5823,81 +5889,81 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="N30" s="24">
+        <v>385</v>
+      </c>
+      <c r="N30" s="23">
         <v>253146213</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="43">
         <v>41199</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="43">
         <v>41563</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="7">
         <v>12</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="S30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="X30" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="T30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="U30" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="W30" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>182</v>
@@ -5906,7 +5972,7 @@
         <v>183</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>185</v>
@@ -5924,7 +5990,7 @@
         <v>65</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>52</v>
@@ -5939,16 +6005,16 @@
         <v>2734719994</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q31" s="7">
         <v>7</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>71</v>
@@ -5957,104 +6023,104 @@
         <v>98</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="N32" s="24">
+        <v>385</v>
+      </c>
+      <c r="N32" s="23">
         <v>216000000</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="43">
         <v>41495</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="43">
         <v>41920</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="7">
         <v>14</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>411</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>29</v>
@@ -6072,7 +6138,7 @@
         <v>65</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>52</v>
@@ -6087,31 +6153,31 @@
         <v>20901990031.84</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q33" s="7">
         <v>11</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="T33" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="T33" s="18" t="s">
         <v>98</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>29</v>
@@ -6119,19 +6185,19 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>29</v>
@@ -6146,7 +6212,7 @@
         <v>65</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>52</v>
@@ -6164,28 +6230,28 @@
         <v>138</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q34" s="7">
         <v>10</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="X34" s="7" t="s">
         <v>29</v>
@@ -6193,10 +6259,10 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>156</v>
@@ -6244,7 +6310,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>163</v>
@@ -6259,200 +6325,201 @@
         <v>165</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="X35" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D36" s="7" t="s">
+    <row r="36" spans="1:25" s="34" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A36" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="B36" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="D36" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="8" t="s">
+      <c r="H36" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="O36" s="9">
+      <c r="I36" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="38">
+        <v>29636483347</v>
+      </c>
+      <c r="O36" s="39">
         <v>41610</v>
       </c>
-      <c r="P36" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q36" s="7">
-        <f>4*12+7</f>
-        <v>55</v>
-      </c>
-      <c r="R36" s="7" t="s">
+      <c r="P36" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>67</v>
+      </c>
+      <c r="R36" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="S36" s="7" t="s">
+      <c r="S36" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="T36" s="7" t="s">
+      <c r="T36" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="U36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="7" t="s">
+      <c r="U36" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="W36" s="7" t="s">
+      <c r="V36" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="X36" s="7" t="s">
-        <v>367</v>
+      <c r="W36" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="X36" s="35" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="1:25" s="34" customFormat="1">
+      <c r="A37" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="D37" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="7" t="s">
+      <c r="H37" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="28">
+      <c r="J37" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="36">
         <v>1000000000</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="39">
         <v>41590</v>
       </c>
-      <c r="P37" s="25">
-        <v>42185</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>18</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="S37" s="7" t="s">
+      <c r="P37" s="40">
+        <v>42311</v>
+      </c>
+      <c r="Q37" s="35">
+        <v>15</v>
+      </c>
+      <c r="R37" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="T37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" s="7" t="s">
+      <c r="S37" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="V37" s="7" t="s">
+      <c r="T37" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="U37" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="W37" s="7" t="s">
+      <c r="V37" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="X37" s="7" t="s">
-        <v>399</v>
+      <c r="W37" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="X37" s="35" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:25">
-      <c r="A38" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38" s="23">
+      <c r="B38" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="22">
         <v>9999</v>
       </c>
       <c r="O38" s="12">
@@ -6461,114 +6528,114 @@
       <c r="P38" s="12">
         <v>9999</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="16">
         <v>9999</v>
       </c>
-      <c r="R38" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="S38" s="17" t="s">
+      <c r="R38" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="S38" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="T38" s="17" t="s">
+      <c r="T38" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U38" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="V38" s="17" t="s">
+      <c r="U38" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="W38" s="17" t="s">
+      <c r="V38" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="X38" s="17" t="s">
-        <v>367</v>
+      <c r="W38" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="29" t="s">
+      <c r="B39" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="31" t="s">
+      <c r="K39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="P39" s="31" t="s">
+      <c r="P39" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="Q39" s="25">
         <v>9999</v>
       </c>
-      <c r="R39" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="S39" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="T39" s="29" t="s">
+      <c r="R39" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="T39" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="U39" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="V39" s="29" t="s">
+      <c r="U39" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="W39" s="29" t="s">
+      <c r="V39" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="X39" s="29" t="s">
-        <v>274</v>
+      <c r="W39" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="X39" s="25" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>52</v>
@@ -6613,7 +6680,7 @@
         <v>9999</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="S40" s="7" t="s">
         <v>52</v>
@@ -6622,273 +6689,273 @@
         <v>52</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="W40" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="X40" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Y40" s="17"/>
+        <v>471</v>
+      </c>
+      <c r="Y40" s="16"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="17" t="s">
+      <c r="E41" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="17" t="s">
+      <c r="J41" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="N41" s="23">
+      <c r="K41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="N41" s="22">
         <v>7578039678</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P41" s="12">
         <v>43499</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="16">
         <v>54</v>
       </c>
-      <c r="R41" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="S41" s="17" t="s">
+      <c r="R41" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="T41" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="U41" s="17" t="s">
+      <c r="S41" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="V41" s="17" t="s">
+      <c r="T41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="W41" s="17" t="s">
+      <c r="V41" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="X41" s="17" t="s">
-        <v>399</v>
+      <c r="W41" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="X41" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="F42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="32">
+      <c r="J42" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="28">
         <v>6471757378</v>
       </c>
-      <c r="O42" s="23" t="s">
-        <v>491</v>
+      <c r="O42" s="22" t="s">
+        <v>492</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q42" s="17">
+        <v>493</v>
+      </c>
+      <c r="Q42" s="16">
         <f>3*12+10</f>
         <v>46</v>
       </c>
-      <c r="R42" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="S42" s="17" t="s">
+      <c r="R42" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="T42" s="17" t="s">
+      <c r="S42" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="U42" s="17" t="s">
+      <c r="T42" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="V42" s="17" t="s">
+      <c r="U42" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="W42" s="17" t="s">
+      <c r="V42" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="X42" s="17" t="s">
+      <c r="W42" s="16" t="s">
         <v>499</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>500</v>
       </c>
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N43" s="24">
+      <c r="N43" s="23">
         <v>0</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="43">
         <v>2</v>
       </c>
-      <c r="P43" s="25">
+      <c r="P43" s="43">
         <v>2</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="Q43" s="7">
         <v>9999</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U43" s="7" t="s">
         <v>95</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Y43" s="7"/>
     </row>
     <row r="44" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="F44" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>52</v>
@@ -6897,66 +6964,66 @@
         <v>52</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N44" s="8">
         <v>6514587989</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q44" s="7">
         <v>60</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25">
-      <c r="A45" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>534</v>
       </c>
+      <c r="E45" s="16" t="s">
+        <v>535</v>
+      </c>
       <c r="F45" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="17" t="s">
+      <c r="G45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="7" t="s">
@@ -6965,16 +7032,16 @@
       <c r="J45" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="16" t="s">
         <v>52</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N45" s="23">
+      <c r="N45" s="22">
         <v>6874244540</v>
       </c>
       <c r="O45" s="12" t="s">
@@ -6983,43 +7050,43 @@
       <c r="P45" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="16">
         <v>9</v>
       </c>
-      <c r="R45" s="17" t="s">
+      <c r="R45" s="16" t="s">
         <v>127</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T45" s="17" t="s">
+      <c r="T45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U45" s="17" t="s">
-        <v>535</v>
+      <c r="U45" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="X45" s="17" t="s">
+      <c r="W45" s="16" t="s">
         <v>537</v>
+      </c>
+      <c r="X45" s="16" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>52</v>
@@ -7028,7 +7095,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>29</v>
@@ -7037,7 +7104,7 @@
         <v>65</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>29</v>
@@ -7061,48 +7128,48 @@
         <v>9999</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="W46" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="X46" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>29</v>
@@ -7111,7 +7178,7 @@
         <v>65</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>29</v>
@@ -7120,7 +7187,7 @@
         <v>29</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N47" s="8">
         <v>1837306186</v>
@@ -7135,68 +7202,68 @@
         <v>16.5</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="X47" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="F48" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="17" t="s">
+      <c r="F48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="K48" s="17" t="s">
+      <c r="J48" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="L48" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="17" t="s">
+      <c r="K48" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="N48" s="23">
+      <c r="L48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="N48" s="22">
         <v>2066969459</v>
       </c>
       <c r="O48" s="12">
@@ -7205,43 +7272,43 @@
       <c r="P48" s="12">
         <v>44863</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="Q48" s="16">
         <v>15</v>
       </c>
-      <c r="R48" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="S48" s="17" t="s">
+      <c r="R48" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="T48" s="17" t="s">
+      <c r="S48" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="U48" s="17" t="s">
+      <c r="T48" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="V48" s="17" t="s">
+      <c r="U48" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="W48" s="17" t="s">
+      <c r="V48" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="X48" s="17" t="s">
-        <v>274</v>
+      <c r="W48" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="X48" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>52</v>
@@ -7250,7 +7317,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>29</v>
@@ -7259,7 +7326,7 @@
         <v>65</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>29</v>
@@ -7283,68 +7350,68 @@
         <v>9999</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="U49" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="X49" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="135">
-      <c r="A50" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B50" s="17" t="s">
+    <row r="50" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A50" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="17" t="s">
+      <c r="D50" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="E50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="I50" s="17" t="s">
+      <c r="H50" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L50" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M50" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="23">
+      <c r="J50" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="22">
         <v>273434700</v>
       </c>
       <c r="O50" s="9" t="s">
@@ -7353,368 +7420,368 @@
       <c r="P50" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q50" s="17">
+      <c r="Q50" s="16">
         <v>9999</v>
       </c>
-      <c r="R50" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="S50" s="17" t="s">
+      <c r="R50" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="T50" s="17" t="s">
+      <c r="S50" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="U50" s="33" t="s">
+      <c r="T50" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="V50" s="17" t="s">
+      <c r="U50" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="W50" s="17" t="s">
+      <c r="V50" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="X50" s="33" t="s">
+      <c r="W50" s="16" t="s">
         <v>596</v>
       </c>
+      <c r="X50" s="29" t="s">
+        <v>597</v>
+      </c>
     </row>
-    <row r="51" spans="1:24" ht="409.5">
-      <c r="A51" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="B51" s="17" t="s">
+    <row r="51" spans="1:24" ht="18.75" customHeight="1">
+      <c r="A51" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="B51" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="C51" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="33" t="s">
+      <c r="D51" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="F51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="I51" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J51" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M51" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="23" t="s">
+      <c r="J51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O51" s="12" t="s">
         <v>29</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q51" s="17">
+        <v>603</v>
+      </c>
+      <c r="Q51" s="16">
         <v>24</v>
       </c>
-      <c r="R51" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="S51" s="17" t="s">
+      <c r="R51" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="S51" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="T51" s="17" t="s">
+      <c r="T51" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U51" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="V51" s="33" t="s">
+      <c r="U51" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="W51" s="17" t="s">
+      <c r="V51" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="X51" s="33" t="s">
+      <c r="W51" s="16" t="s">
         <v>607</v>
+      </c>
+      <c r="X51" s="29" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="17">
+      <c r="E52" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="16">
         <v>9999</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="16">
         <v>9999</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="K52" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M52" s="17">
+      <c r="J52" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="16">
         <v>9999</v>
       </c>
-      <c r="N52" s="23">
+      <c r="N52" s="22">
         <v>77693654322</v>
       </c>
       <c r="O52" s="12">
         <v>43899</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q52" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="R52" s="17" t="s">
+      <c r="Q52" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="S52" s="17" t="s">
+      <c r="R52" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="T52" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="U52" s="17" t="s">
+      <c r="S52" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="V52" s="17" t="s">
+      <c r="T52" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="W52" s="17" t="s">
+      <c r="V52" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="X52" s="17" t="s">
+      <c r="W52" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="X52" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="F53" s="17">
+      <c r="E53" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="F53" s="16">
         <v>9999</v>
       </c>
-      <c r="G53" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" s="17">
+      <c r="G53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="16">
         <v>9999</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I53" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J53" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M53" s="17">
+      <c r="J53" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="16">
         <v>9999</v>
       </c>
-      <c r="N53" s="23">
+      <c r="N53" s="22">
         <v>135000000</v>
       </c>
       <c r="O53" s="12" t="s">
         <v>138</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q53" s="17">
+        <v>427</v>
+      </c>
+      <c r="Q53" s="16">
         <v>10</v>
       </c>
-      <c r="R53" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="S53" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="T53" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="U53" s="17" t="s">
+      <c r="R53" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="V53" s="17" t="s">
+      <c r="S53" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="U53" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="W53" s="17" t="s">
+      <c r="V53" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="X53" s="17" t="s">
-        <v>470</v>
+      <c r="W53" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="X53" s="16" t="s">
+        <v>471</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="B54" s="17" t="s">
+    <row r="54" spans="1:24" ht="14.25" customHeight="1">
+      <c r="A54" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O54" s="12">
-        <v>9999</v>
-      </c>
-      <c r="P54" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Q54" s="17">
-        <v>9999</v>
-      </c>
-      <c r="R54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="S54" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="T54" s="17" t="s">
+      <c r="C54" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>18</v>
+      </c>
+      <c r="R54" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="S54" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="T54" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U54" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="V54" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="W54" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="X54" s="17" t="s">
-        <v>367</v>
+      <c r="U54" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="V54" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="W54" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="X54" s="16" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="D55" s="17">
+      <c r="A55" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="D55" s="16">
         <v>9999</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="16">
         <v>9999</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="16">
         <v>9999</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="16">
         <v>9999</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="16">
         <v>9999</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="I55" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="K55" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" s="17">
+      <c r="K55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="16">
         <v>9999</v>
       </c>
-      <c r="N55" s="23">
+      <c r="N55" s="22">
         <v>9999</v>
       </c>
       <c r="O55" s="12">
@@ -7723,40 +7790,40 @@
       <c r="P55" s="12">
         <v>9999</v>
       </c>
-      <c r="Q55" s="17">
+      <c r="Q55" s="16">
         <v>9999</v>
       </c>
-      <c r="R55" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="S55" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="T55" s="17" t="s">
+      <c r="R55" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="S55" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="T55" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U55" s="17" t="s">
-        <v>640</v>
-      </c>
-      <c r="V55" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="W55" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="X55" s="17" t="s">
-        <v>470</v>
+      <c r="U55" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="W55" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="X55" s="16" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>52</v>
@@ -7774,16 +7841,16 @@
         <v>29</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>29</v>
@@ -7795,148 +7862,148 @@
         <v>40186</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="Q56" s="7">
         <v>9999</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="U56" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="V56" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="W56" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="X56" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="J57" s="17" t="s">
+      <c r="A57" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="J57" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K57" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N57" s="23" t="s">
+      <c r="K57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O57" s="12">
         <v>45327</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q57" s="17">
+        <v>670</v>
+      </c>
+      <c r="Q57" s="16">
         <v>9999</v>
       </c>
-      <c r="R57" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="S57" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="T57" s="17" t="s">
+      <c r="R57" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="T57" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U57" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="V57" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="W57" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="X57" s="17" t="s">
-        <v>513</v>
+      <c r="U57" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="V57" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="W57" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="X57" s="16" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>667</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M58" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N58" s="23" t="s">
+      <c r="A58" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O58" s="9" t="s">
@@ -7945,72 +8012,72 @@
       <c r="P58" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="16">
         <v>9999</v>
       </c>
-      <c r="R58" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="S58" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="T58" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="U58" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="V58" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="W58" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="X58" s="17" t="s">
-        <v>274</v>
+      <c r="R58" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="T58" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="U58" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="V58" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="W58" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="X58" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N59" s="23" t="s">
+      <c r="A59" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" s="22" t="s">
         <v>52</v>
       </c>
       <c r="O59" s="9" t="s">
@@ -8019,368 +8086,368 @@
       <c r="P59" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="16">
         <v>9999</v>
       </c>
-      <c r="R59" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="S59" s="17" t="s">
-        <v>676</v>
-      </c>
-      <c r="T59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="U59" s="17" t="s">
-        <v>677</v>
-      </c>
-      <c r="V59" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="W59" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="X59" s="17" t="s">
-        <v>470</v>
+      <c r="R59" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="T59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="V59" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="W59" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="X59" s="16" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>682</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="H60" s="17">
+      <c r="A60" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="H60" s="16">
         <v>9999</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="I60" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J60" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" s="23" t="s">
-        <v>687</v>
+      <c r="J60" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" s="22" t="s">
+        <v>697</v>
       </c>
       <c r="O60" s="12">
         <v>43625</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q60" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="R60" s="17" t="s">
-        <v>690</v>
-      </c>
-      <c r="S60" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="T60" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="U60" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="V60" s="17">
+        <v>698</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="R60" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="T60" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="U60" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="V60" s="16">
         <v>9999</v>
       </c>
-      <c r="W60" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="X60" s="17" t="s">
-        <v>367</v>
+      <c r="W60" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="X60" s="16" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="34" t="s">
-        <v>695</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>696</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>697</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M61" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="N61" s="23">
+      <c r="A61" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="N61" s="22">
         <v>38626862120</v>
       </c>
       <c r="O61" s="12">
         <v>43079</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q61" s="17">
+        <v>713</v>
+      </c>
+      <c r="Q61" s="16">
         <v>15</v>
       </c>
-      <c r="R61" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="S61" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="T61" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="U61" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V61" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="W61" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>710</v>
+      <c r="R61" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="S61" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="T61" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="U61" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V61" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="W61" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="X61" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="K62" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M62" s="17" t="s">
+      <c r="A62" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="N62" s="22">
+        <v>22954368529.639999</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q62" s="16">
+        <v>11</v>
+      </c>
+      <c r="R62" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="S62" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="U62" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="N62" s="23">
-        <v>22954368529.639999</v>
-      </c>
-      <c r="O62" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="P62" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q62" s="17">
-        <v>11</v>
-      </c>
-      <c r="R62" s="17" t="s">
+      <c r="V62" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="W62" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="X62" s="16" t="s">
         <v>720</v>
-      </c>
-      <c r="S62" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="T62" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="U62" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V62" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="W62" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="X62" s="17" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="K63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>730</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L63" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M63" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="N63" s="23">
+      <c r="N63" s="22">
         <v>10920880573</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="P63" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q63" s="16">
         <v>8</v>
       </c>
-      <c r="R63" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="S63" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="T63" s="17" t="s">
+      <c r="R63" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="S63" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="T63" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="U63" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="V63" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="U63" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="V63" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="W63" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="X63" s="17" t="s">
-        <v>710</v>
+      <c r="W63" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="X63" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L64" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M64" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="23">
+      <c r="A64" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="22">
         <v>9999</v>
       </c>
       <c r="O64" s="12" t="s">
@@ -8389,294 +8456,294 @@
       <c r="P64" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="16">
         <v>9999</v>
       </c>
-      <c r="R64" s="17" t="s">
-        <v>742</v>
-      </c>
-      <c r="S64" s="17" t="s">
-        <v>743</v>
-      </c>
-      <c r="T64" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U64" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V64" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="W64" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="X64" s="17" t="s">
-        <v>710</v>
+      <c r="R64" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="S64" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U64" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V64" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="W64" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="X64" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>749</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="I65" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="J65" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="K65" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L65" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M65" s="17" t="s">
+      <c r="A65" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N65" s="23">
+      <c r="N65" s="22">
         <v>21503897914</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q65" s="17">
+        <v>765</v>
+      </c>
+      <c r="Q65" s="16">
         <v>17.5</v>
       </c>
-      <c r="R65" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="S65" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="T65" s="17" t="s">
-        <v>757</v>
-      </c>
-      <c r="U65" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V65" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="W65" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="X65" s="17" t="s">
-        <v>710</v>
+      <c r="R65" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="S65" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="T65" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="U65" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V65" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="W65" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="X65" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>761</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>762</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>763</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="K66" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L66" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M66" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="23">
+      <c r="A66" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="22">
         <v>32455048148</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q66" s="17">
+        <v>777</v>
+      </c>
+      <c r="Q66" s="16">
         <v>24</v>
       </c>
-      <c r="R66" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="S66" s="17" t="s">
-        <v>743</v>
-      </c>
-      <c r="T66" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U66" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V66" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="W66" s="17" t="s">
-        <v>770</v>
-      </c>
-      <c r="X66" s="17" t="s">
-        <v>710</v>
+      <c r="R66" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="S66" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V66" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="W66" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="X66" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:24">
-      <c r="A67" s="17" t="s">
-        <v>771</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>772</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>773</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>774</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>775</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>776</v>
-      </c>
-      <c r="K67" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L67" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M67" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="23">
+      <c r="A67" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="22">
         <v>3888599332</v>
       </c>
       <c r="O67" s="12">
         <v>41189</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="Q67" s="17">
+        <v>787</v>
+      </c>
+      <c r="Q67" s="16">
         <v>13</v>
       </c>
-      <c r="R67" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="S67" s="17" t="s">
-        <v>779</v>
-      </c>
-      <c r="T67" s="17">
+      <c r="R67" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="T67" s="16">
         <v>219</v>
       </c>
-      <c r="U67" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V67" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="W67" s="17" t="s">
-        <v>781</v>
-      </c>
-      <c r="X67" s="17" t="s">
-        <v>710</v>
+      <c r="U67" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V67" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="W67" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="X67" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="17" t="s">
-        <v>782</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>783</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>784</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>785</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>786</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L68" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="23">
+      <c r="A68" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="22">
         <v>14598223097.280001</v>
       </c>
       <c r="O68" s="12" t="s">
@@ -8685,442 +8752,442 @@
       <c r="P68" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q68" s="17">
+      <c r="Q68" s="16">
         <v>12</v>
       </c>
-      <c r="R68" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="S68" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="T68" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U68" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V68" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="W68" s="17" t="s">
-        <v>791</v>
-      </c>
-      <c r="X68" s="17" t="s">
-        <v>710</v>
+      <c r="R68" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V68" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="W68" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="X68" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1">
-      <c r="A69" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>794</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>787</v>
-      </c>
-      <c r="K69" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M69" s="17" t="s">
+      <c r="A69" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="N69" s="23">
+      <c r="K69" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="N69" s="22">
         <v>16886338370</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q69" s="17">
+        <v>809</v>
+      </c>
+      <c r="Q69" s="16">
         <v>18</v>
       </c>
-      <c r="R69" s="33" t="s">
-        <v>800</v>
-      </c>
-      <c r="S69" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="T69" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="U69" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V69" s="33" t="s">
-        <v>803</v>
-      </c>
-      <c r="W69" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="X69" s="33" t="s">
-        <v>805</v>
+      <c r="R69" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="S69" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="U69" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V69" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="W69" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="X69" s="29" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M70" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="23">
+      <c r="A70" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="22">
         <v>16782892881</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q70" s="17">
+        <v>823</v>
+      </c>
+      <c r="Q70" s="16">
         <v>15</v>
       </c>
-      <c r="R70" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="S70" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="T70" s="17" t="s">
-        <v>816</v>
-      </c>
-      <c r="U70" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V70" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="W70" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="X70" s="17" t="s">
-        <v>710</v>
+      <c r="R70" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="S70" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="T70" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="U70" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V70" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="W70" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="X70" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>822</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="K71" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="L71" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="M71" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="N71" s="23">
+      <c r="A71" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="N71" s="22">
         <v>16864638530</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="P71" s="12">
         <v>44350</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="Q71" s="16">
         <v>15</v>
       </c>
-      <c r="R71" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="S71" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="T71" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="U71" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V71" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="W71" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="X71" s="17" t="s">
-        <v>710</v>
+      <c r="R71" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="S71" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="U71" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V71" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="W71" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="X71" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="D72" s="17" t="s">
+      <c r="A72" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M72" s="16" t="s">
         <v>837</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M72" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="N72" s="23">
+      <c r="N72" s="22">
         <v>22270823688</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="P72" s="12">
         <v>44297</v>
       </c>
-      <c r="Q72" s="17">
+      <c r="Q72" s="16">
         <v>15</v>
       </c>
-      <c r="R72" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="S72" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="T72" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="U72" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V72" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="W72" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="X72" s="17" t="s">
-        <v>710</v>
+      <c r="R72" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V72" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="W72" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="X72" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="17" t="s">
-        <v>845</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="K73" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N73" s="23">
+      <c r="A73" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="22">
         <v>12341721000</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="P73" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q73" s="16">
+        <v>15</v>
+      </c>
+      <c r="R73" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="S73" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="U73" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V73" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="Q73" s="17">
-        <v>15</v>
-      </c>
-      <c r="R73" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="S73" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="T73" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="U73" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="V73" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="W73" s="17" t="s">
-        <v>856</v>
-      </c>
-      <c r="X73" s="17" t="s">
-        <v>710</v>
+      <c r="W73" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="X73" s="16" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>859</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>860</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M74" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="23">
+      <c r="A74" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>868</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>870</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="22">
         <v>9999</v>
       </c>
       <c r="O74" s="12" t="s">
@@ -9129,72 +9196,72 @@
       <c r="P74" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q74" s="17">
+      <c r="Q74" s="16">
         <v>9999</v>
       </c>
-      <c r="R74" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="S74" s="17" t="s">
-        <v>862</v>
-      </c>
-      <c r="T74" s="17" t="s">
-        <v>863</v>
-      </c>
-      <c r="U74" s="17" t="s">
-        <v>864</v>
-      </c>
-      <c r="V74" s="17" t="s">
-        <v>865</v>
-      </c>
-      <c r="W74" s="17" t="s">
-        <v>866</v>
-      </c>
-      <c r="X74" s="17" t="s">
+      <c r="R74" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="S74" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="T74" s="16" t="s">
+        <v>873</v>
+      </c>
+      <c r="U74" s="16" t="s">
+        <v>874</v>
+      </c>
+      <c r="V74" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="W74" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="X74" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:24">
-      <c r="A75" s="17" t="s">
-        <v>867</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>869</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N75" s="23">
+      <c r="A75" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>878</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>880</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="22">
         <v>9999</v>
       </c>
       <c r="O75" s="12" t="s">
@@ -9203,72 +9270,72 @@
       <c r="P75" s="12">
         <v>43466</v>
       </c>
-      <c r="Q75" s="17">
+      <c r="Q75" s="16">
         <v>9999</v>
       </c>
-      <c r="R75" s="17" t="s">
-        <v>871</v>
-      </c>
-      <c r="S75" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="T75" s="17" t="s">
-        <v>873</v>
-      </c>
-      <c r="U75" s="17" t="s">
-        <v>874</v>
-      </c>
-      <c r="V75" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="W75" s="17" t="s">
-        <v>876</v>
-      </c>
-      <c r="X75" s="17" t="s">
+      <c r="R75" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="S75" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="T75" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="U75" s="16" t="s">
+        <v>884</v>
+      </c>
+      <c r="V75" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="W75" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="X75" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="17" t="s">
-        <v>877</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M76" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N76" s="23">
+      <c r="A76" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="22">
         <v>9999</v>
       </c>
       <c r="O76" s="12" t="s">
@@ -9277,220 +9344,220 @@
       <c r="P76" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q76" s="17">
+      <c r="Q76" s="16">
         <v>9999</v>
       </c>
-      <c r="R76" s="17" t="s">
-        <v>879</v>
-      </c>
-      <c r="S76" s="17" t="s">
-        <v>880</v>
-      </c>
-      <c r="T76" s="17" t="s">
-        <v>881</v>
-      </c>
-      <c r="U76" s="17" t="s">
-        <v>882</v>
-      </c>
-      <c r="V76" s="17" t="s">
-        <v>883</v>
-      </c>
-      <c r="W76" s="17" t="s">
-        <v>884</v>
-      </c>
-      <c r="X76" s="17" t="s">
-        <v>332</v>
+      <c r="R76" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="S76" s="16" t="s">
+        <v>890</v>
+      </c>
+      <c r="T76" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="U76" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="V76" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="W76" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="X76" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
-      <c r="A77" s="17" t="s">
-        <v>885</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="K77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N77" s="23">
+    <row r="77" spans="1:24" s="34" customFormat="1">
+      <c r="A77" s="31" t="s">
+        <v>895</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P77" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77" s="31">
         <v>9999</v>
       </c>
-      <c r="O77" s="12" t="s">
+      <c r="R77" s="31" t="s">
+        <v>898</v>
+      </c>
+      <c r="S77" s="31" t="s">
+        <v>899</v>
+      </c>
+      <c r="T77" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="U77" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="V77" s="31" t="s">
+        <v>901</v>
+      </c>
+      <c r="W77" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="X77" s="31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="34" customFormat="1">
+      <c r="A78" s="31" t="s">
+        <v>903</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="P77" s="12" t="s">
+      <c r="P78" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Q77" s="17">
+      <c r="Q78" s="31">
         <v>9999</v>
       </c>
-      <c r="R77" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="S77" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="T77" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="U77" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="V77" s="17" t="s">
-        <v>891</v>
-      </c>
-      <c r="W77" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="X77" s="17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
-      <c r="A78" s="17" t="s">
-        <v>893</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>894</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N78" s="23">
-        <v>9999</v>
-      </c>
-      <c r="O78" s="12">
-        <v>9999</v>
-      </c>
-      <c r="P78" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Q78" s="17">
-        <v>9999</v>
-      </c>
-      <c r="R78" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="S78" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="T78" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="U78" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="V78" s="17" t="s">
-        <v>898</v>
-      </c>
-      <c r="W78" s="17" t="s">
-        <v>899</v>
-      </c>
-      <c r="X78" s="17" t="s">
-        <v>332</v>
+      <c r="R78" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="S78" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="T78" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="U78" s="31" t="s">
+        <v>907</v>
+      </c>
+      <c r="V78" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="W78" s="31" t="s">
+        <v>909</v>
+      </c>
+      <c r="X78" s="31" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A79" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>902</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M79" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N79" s="23" t="s">
+      <c r="A79" s="16" t="s">
+        <v>910</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O79" s="12" t="s">
@@ -9499,72 +9566,72 @@
       <c r="P79" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q79" s="17">
+      <c r="Q79" s="16">
         <v>9999</v>
       </c>
-      <c r="R79" s="33" t="s">
-        <v>904</v>
-      </c>
-      <c r="S79" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="T79" s="17" t="s">
+      <c r="R79" s="29" t="s">
+        <v>914</v>
+      </c>
+      <c r="S79" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="T79" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U79" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="V79" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="W79" s="17" t="s">
-        <v>907</v>
-      </c>
-      <c r="X79" s="17" t="s">
+      <c r="U79" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="V79" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="W79" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="X79" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A80" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>910</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N80" s="23" t="s">
+      <c r="A80" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>920</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="22" t="s">
         <v>29</v>
       </c>
       <c r="O80" s="12" t="s">
@@ -9573,72 +9640,72 @@
       <c r="P80" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q80" s="17">
+      <c r="Q80" s="16">
         <v>9999</v>
       </c>
-      <c r="R80" s="33" t="s">
-        <v>911</v>
-      </c>
-      <c r="S80" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="T80" s="17" t="s">
+      <c r="R80" s="29" t="s">
+        <v>921</v>
+      </c>
+      <c r="S80" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="T80" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="U80" s="17" t="s">
-        <v>912</v>
-      </c>
-      <c r="V80" s="17" t="s">
-        <v>913</v>
-      </c>
-      <c r="W80" s="17" t="s">
-        <v>914</v>
-      </c>
-      <c r="X80" s="17" t="s">
+      <c r="U80" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="V80" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="W80" s="16" t="s">
+        <v>924</v>
+      </c>
+      <c r="X80" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:24">
-      <c r="A81" s="17" t="s">
-        <v>915</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>916</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>919</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>919</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J81" s="17" t="s">
+      <c r="A81" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>928</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K81" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="L81" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M81" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N81" s="23">
+      <c r="K81" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M81" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N81" s="22">
         <v>9999</v>
       </c>
       <c r="O81" s="12" t="s">
@@ -9647,73 +9714,73 @@
       <c r="P81" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q81" s="17">
+      <c r="Q81" s="16">
         <v>9999</v>
       </c>
-      <c r="R81" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="S81" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="T81" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="U81" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="V81" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="W81" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="X81" s="17" t="s">
-        <v>399</v>
+      <c r="R81" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="S81" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="T81" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="U81" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="V81" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="W81" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="X81" s="16" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>925</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>926</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>928</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="K82" s="17" t="s">
+      <c r="A82" s="16" t="s">
+        <v>934</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="K82" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L82" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M82" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N82" s="23">
-        <v>9999</v>
+      <c r="L82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="O82" s="12" t="s">
         <v>85</v>
@@ -9721,72 +9788,72 @@
       <c r="P82" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q82" s="17">
+      <c r="Q82" s="16">
         <v>9999</v>
       </c>
-      <c r="R82" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="S82" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="T82" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="U82" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="V82" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="W82" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="X82" s="17" t="s">
-        <v>399</v>
+      <c r="R82" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="S82" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="U82" s="16" t="s">
+        <v>940</v>
+      </c>
+      <c r="V82" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="W82" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="X82" s="16" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="17" t="s">
-        <v>933</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>934</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>935</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>937</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="K83" s="17" t="s">
-        <v>939</v>
-      </c>
-      <c r="L83" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M83" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N83" s="23">
+      <c r="A83" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>944</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>948</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N83" s="22">
         <v>9999</v>
       </c>
       <c r="O83" s="12" t="s">
@@ -9795,29 +9862,29 @@
       <c r="P83" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q83" s="17">
+      <c r="Q83" s="16">
         <v>9999</v>
       </c>
-      <c r="R83" s="17" t="s">
-        <v>940</v>
-      </c>
-      <c r="S83" s="17" t="s">
-        <v>941</v>
-      </c>
-      <c r="T83" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="U83" s="17" t="s">
-        <v>921</v>
-      </c>
-      <c r="V83" s="17" t="s">
-        <v>943</v>
-      </c>
-      <c r="W83" s="17" t="s">
-        <v>944</v>
-      </c>
-      <c r="X83" s="17" t="s">
-        <v>399</v>
+      <c r="R83" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="S83" s="16" t="s">
+        <v>951</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>952</v>
+      </c>
+      <c r="U83" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="V83" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="W83" s="16" t="s">
+        <v>954</v>
+      </c>
+      <c r="X83" s="16" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A5D5CD-24F9-47A8-8C1C-2CB24E7213D4}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47FBF724-4158-4B96-80E5-2913C18EB642}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="954">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -1071,9 +1071,6 @@
   </si>
   <si>
     <t>12-Alternativas SM-MG</t>
-  </si>
-  <si>
-    <t>DEFINIR LAS OBRAS DE PROTECCIÓN ÓPTIMAS Y COSTO EFICIENTES PARA REDUCIR EL RIESGO POR INUNDACIÓN DE LOS CASCOS URBANOS DE LOS MUNICIPIOS DE SAN MARCOS (SUCRE) Y MAGANGUÉ (BOLÍVAR)</t>
   </si>
   <si>
     <t>Definir las obras de protección óptimas y costo eficientes para reducir el riesgo por inundación de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar)</t>
@@ -3407,7 +3404,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -3709,8 +3706,8 @@
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U69" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V82" sqref="V82"/>
+      <pane xSplit="2" topLeftCell="C15" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -5309,10 +5306,10 @@
         <v>292</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>29</v>
@@ -5327,7 +5324,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>52</v>
@@ -5351,22 +5348,22 @@
         <v>9999</v>
       </c>
       <c r="R22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="S22" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="T22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="U22" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="V22" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="V22" s="7" t="s">
+      <c r="W22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="X22" s="7" t="s">
         <v>275</v>
@@ -5374,19 +5371,19 @@
     </row>
     <row r="23" spans="1:24" customFormat="1">
       <c r="A23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>29</v>
@@ -5401,16 +5398,16 @@
         <v>108</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="N23" s="8">
         <v>3846506245</v>
@@ -5425,22 +5422,22 @@
         <v>8</v>
       </c>
       <c r="R23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="T23" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>233</v>
       </c>
       <c r="V23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="W23" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="X23" s="7" t="s">
         <v>102</v>
@@ -5448,25 +5445,25 @@
     </row>
     <row r="24" spans="1:24" customFormat="1">
       <c r="A24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>29</v>
@@ -5475,7 +5472,7 @@
         <v>108</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>52</v>
@@ -5500,7 +5497,7 @@
         <v>18</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S24" s="7" t="s">
         <v>71</v>
@@ -5509,13 +5506,13 @@
         <v>98</v>
       </c>
       <c r="U24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="V24" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="W24" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="W24" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="X24" s="7" t="s">
         <v>102</v>
@@ -5523,13 +5520,13 @@
     </row>
     <row r="25" spans="1:24" customFormat="1">
       <c r="A25" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>326</v>
-      </c>
       <c r="C25" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>52</v>
@@ -5574,33 +5571,33 @@
         <v>9999</v>
       </c>
       <c r="R25" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="S25" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="T25" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="U25" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="U25" s="16" t="s">
+      <c r="V25" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="V25" s="16" t="s">
+      <c r="W25" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="W25" s="16" t="s">
+      <c r="X25" s="16" t="s">
         <v>332</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>334</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>335</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>52</v>
@@ -5642,28 +5639,28 @@
         <v>9999</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="16">
         <v>9999</v>
       </c>
       <c r="R26" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="S26" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="T26" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="T26" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="U26" s="16" t="s">
+      <c r="V26" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="V26" s="16" t="s">
+      <c r="W26" s="16" t="s">
         <v>340</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>341</v>
       </c>
       <c r="X26" s="16" t="s">
         <v>102</v>
@@ -5671,31 +5668,31 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="H27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>347</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>348</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>268</v>
@@ -5718,22 +5715,22 @@
         <v>11</v>
       </c>
       <c r="R27" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="S27" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="T27" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="U27" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="U27" s="16" t="s">
+      <c r="V27" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="V27" s="16" t="s">
+      <c r="W27" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>354</v>
       </c>
       <c r="X27" s="16" t="s">
         <v>289</v>
@@ -5741,46 +5738,46 @@
     </row>
     <row r="28" spans="1:24" s="34" customFormat="1">
       <c r="A28" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="C28" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="D28" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="E28" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="E28" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="I28" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="J28" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="K28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="K28" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="35" t="s">
+      <c r="N28" s="38" t="s">
         <v>362</v>
-      </c>
-      <c r="N28" s="38" t="s">
-        <v>363</v>
       </c>
       <c r="O28" s="39">
         <v>41340</v>
@@ -5792,39 +5789,39 @@
         <v>4</v>
       </c>
       <c r="R28" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="S28" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="T28" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="U28" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="T28" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="U28" s="35" t="s">
+      <c r="V28" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="V28" s="35" t="s">
+      <c r="W28" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="W28" s="35" t="s">
+      <c r="X28" s="35" t="s">
         <v>368</v>
-      </c>
-      <c r="X28" s="35" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -5875,13 +5872,13 @@
         <v>176</v>
       </c>
       <c r="U29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="V29" s="7" t="s">
+      <c r="W29" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="W29" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="X29" s="7" t="s">
         <v>153</v>
@@ -5889,43 +5886,43 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N30" s="23">
         <v>253146213</v>
@@ -5940,30 +5937,30 @@
         <v>12</v>
       </c>
       <c r="R30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="S30" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="T30" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="U30" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="V30" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="W30" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="W30" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="X30" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>182</v>
@@ -5972,7 +5969,7 @@
         <v>183</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>185</v>
@@ -5990,7 +5987,7 @@
         <v>65</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>52</v>
@@ -6005,16 +6002,16 @@
         <v>2734719994</v>
       </c>
       <c r="O31" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="P31" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="Q31" s="7">
         <v>7</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>71</v>
@@ -6023,57 +6020,57 @@
         <v>98</v>
       </c>
       <c r="U31" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="V31" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="W31" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="W31" s="7" t="s">
+      <c r="X31" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="X31" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="F32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>65</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N32" s="23">
         <v>216000000</v>
@@ -6088,39 +6085,39 @@
         <v>14</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V32" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="W32" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="W32" s="7" t="s">
+      <c r="X32" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="C33" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>29</v>
@@ -6138,7 +6135,7 @@
         <v>65</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>52</v>
@@ -6153,31 +6150,31 @@
         <v>20901990031.84</v>
       </c>
       <c r="O33" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="Q33" s="7">
         <v>11</v>
       </c>
       <c r="R33" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="S33" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="T33" s="18" t="s">
         <v>98</v>
       </c>
       <c r="U33" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="V33" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="V33" s="7" t="s">
+      <c r="W33" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>29</v>
@@ -6185,19 +6182,19 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>29</v>
@@ -6212,7 +6209,7 @@
         <v>65</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>52</v>
@@ -6230,28 +6227,28 @@
         <v>138</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q34" s="7">
         <v>10</v>
       </c>
       <c r="R34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="T34" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="U34" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="V34" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="U34" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="V34" s="7" t="s">
+      <c r="W34" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="X34" s="7" t="s">
         <v>29</v>
@@ -6259,10 +6256,10 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>156</v>
@@ -6310,7 +6307,7 @@
         <v>6</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>163</v>
@@ -6325,7 +6322,7 @@
         <v>165</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X35" s="7" t="s">
         <v>29</v>
@@ -6333,13 +6330,13 @@
     </row>
     <row r="36" spans="1:25" s="34" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>213</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>215</v>
@@ -6351,13 +6348,13 @@
         <v>29</v>
       </c>
       <c r="G36" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="H36" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="H36" s="35" t="s">
-        <v>439</v>
-      </c>
       <c r="I36" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J36" s="35" t="s">
         <v>219</v>
@@ -6384,7 +6381,7 @@
         <v>67</v>
       </c>
       <c r="R36" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S36" s="35" t="s">
         <v>71</v>
@@ -6393,33 +6390,33 @@
         <v>98</v>
       </c>
       <c r="U36" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="V36" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="V36" s="35" t="s">
+      <c r="W36" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="W36" s="35" t="s">
-        <v>443</v>
-      </c>
       <c r="X36" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="34" customFormat="1">
       <c r="A37" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="C37" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="D37" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="D37" s="35" t="s">
-        <v>447</v>
-      </c>
       <c r="E37" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F37" s="35" t="s">
         <v>29</v>
@@ -6434,7 +6431,7 @@
         <v>65</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K37" s="35" t="s">
         <v>52</v>
@@ -6458,36 +6455,36 @@
         <v>15</v>
       </c>
       <c r="R37" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="S37" s="35" t="s">
         <v>448</v>
-      </c>
-      <c r="S37" s="35" t="s">
-        <v>449</v>
       </c>
       <c r="T37" s="35" t="s">
         <v>98</v>
       </c>
       <c r="U37" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="V37" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="V37" s="35" t="s">
+      <c r="W37" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="W37" s="35" t="s">
-        <v>452</v>
-      </c>
       <c r="X37" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>454</v>
-      </c>
       <c r="C38" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>52</v>
@@ -6532,7 +6529,7 @@
         <v>9999</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="S38" s="16" t="s">
         <v>163</v>
@@ -6541,24 +6538,24 @@
         <v>98</v>
       </c>
       <c r="U38" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="V38" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="V38" s="16" t="s">
+      <c r="W38" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="W38" s="16" t="s">
-        <v>458</v>
-      </c>
       <c r="X38" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>459</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>460</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>52</v>
@@ -6606,22 +6603,22 @@
         <v>9999</v>
       </c>
       <c r="R39" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S39" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T39" s="25" t="s">
         <v>98</v>
       </c>
       <c r="U39" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="V39" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="V39" s="25" t="s">
+      <c r="W39" s="25" t="s">
         <v>463</v>
-      </c>
-      <c r="W39" s="25" t="s">
-        <v>464</v>
       </c>
       <c r="X39" s="25" t="s">
         <v>275</v>
@@ -6629,13 +6626,13 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>466</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>52</v>
@@ -6680,49 +6677,49 @@
         <v>9999</v>
       </c>
       <c r="R40" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="S40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" s="7" t="s">
+      <c r="V40" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="V40" s="7" t="s">
+      <c r="W40" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="W40" s="7" t="s">
+      <c r="X40" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="Y40" s="16"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="D41" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="E41" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>475</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>476</v>
       </c>
       <c r="H41" s="16" t="s">
         <v>52</v>
@@ -6731,22 +6728,22 @@
         <v>65</v>
       </c>
       <c r="J41" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="16" t="s">
         <v>477</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>478</v>
       </c>
       <c r="N41" s="22">
         <v>7578039678</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P41" s="12">
         <v>43499</v>
@@ -6755,58 +6752,58 @@
         <v>54</v>
       </c>
       <c r="R41" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="S41" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="S41" s="16" t="s">
+      <c r="T41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="T41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="U41" s="16" t="s">
+      <c r="V41" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="V41" s="16" t="s">
+      <c r="W41" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="W41" s="16" t="s">
-        <v>484</v>
-      </c>
       <c r="X41" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="D42" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="F42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="16" t="s">
+      <c r="J42" s="16" t="s">
         <v>490</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>491</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>52</v>
@@ -6821,74 +6818,74 @@
         <v>6471757378</v>
       </c>
       <c r="O42" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="P42" s="12" t="s">
         <v>492</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>493</v>
       </c>
       <c r="Q42" s="16">
         <f>3*12+10</f>
         <v>46</v>
       </c>
       <c r="R42" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="S42" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="S42" s="16" t="s">
+      <c r="T42" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="T42" s="16" t="s">
+      <c r="U42" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="U42" s="16" t="s">
+      <c r="V42" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="V42" s="16" t="s">
+      <c r="W42" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="W42" s="16" t="s">
+      <c r="X42" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="X42" s="16" t="s">
-        <v>500</v>
       </c>
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>508</v>
-      </c>
       <c r="K43" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>95</v>
@@ -6906,95 +6903,95 @@
         <v>9999</v>
       </c>
       <c r="R43" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="S43" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="T43" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="T43" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="U43" s="7" t="s">
         <v>95</v>
       </c>
       <c r="V43" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="W43" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="W43" s="7" t="s">
+      <c r="X43" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="X43" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="Y43" s="7"/>
     </row>
     <row r="44" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="N44" s="8">
         <v>6514587989</v>
       </c>
       <c r="O44" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="P44" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>524</v>
       </c>
       <c r="Q44" s="7">
         <v>60</v>
       </c>
       <c r="R44" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="S44" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="T44" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="T44" s="7" t="s">
+      <c r="U44" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="U44" s="7" t="s">
+      <c r="V44" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="V44" s="7" t="s">
+      <c r="W44" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="W44" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="X44" s="7" t="s">
         <v>275</v>
@@ -7003,19 +7000,19 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="C45" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>534</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>535</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>29</v>
@@ -7063,39 +7060,39 @@
         <v>98</v>
       </c>
       <c r="U45" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>129</v>
       </c>
       <c r="W45" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="X45" s="16" t="s">
         <v>537</v>
-      </c>
-      <c r="X45" s="16" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>29</v>
@@ -7104,7 +7101,7 @@
         <v>65</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>29</v>
@@ -7128,22 +7125,22 @@
         <v>9999</v>
       </c>
       <c r="R46" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="S46" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="S46" s="7" t="s">
+      <c r="T46" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="V46" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="T46" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="U46" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="V46" s="7" t="s">
+      <c r="W46" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="W46" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="X46" s="7" t="s">
         <v>275</v>
@@ -7151,25 +7148,25 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="F47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>29</v>
@@ -7178,16 +7175,16 @@
         <v>65</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="N47" s="8">
         <v>1837306186</v>
@@ -7202,22 +7199,22 @@
         <v>16.5</v>
       </c>
       <c r="R47" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="S47" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="S47" s="7" t="s">
+      <c r="T47" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="T47" s="7" t="s">
+      <c r="U47" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="V47" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="U47" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="V47" s="7" t="s">
+      <c r="W47" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="W47" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="X47" s="7" t="s">
         <v>275</v>
@@ -7225,25 +7222,25 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="C48" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="E48" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>564</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>565</v>
       </c>
       <c r="H48" s="16" t="s">
         <v>29</v>
@@ -7252,16 +7249,16 @@
         <v>65</v>
       </c>
       <c r="J48" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="K48" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="L48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>567</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="16" t="s">
-        <v>568</v>
       </c>
       <c r="N48" s="22">
         <v>2066969459</v>
@@ -7276,22 +7273,22 @@
         <v>15</v>
       </c>
       <c r="R48" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="S48" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="S48" s="16" t="s">
+      <c r="T48" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="T48" s="16" t="s">
+      <c r="U48" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="U48" s="16" t="s">
+      <c r="V48" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="V48" s="16" t="s">
+      <c r="W48" s="16" t="s">
         <v>573</v>
-      </c>
-      <c r="W48" s="16" t="s">
-        <v>574</v>
       </c>
       <c r="X48" s="16" t="s">
         <v>275</v>
@@ -7299,17 +7296,17 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>578</v>
-      </c>
       <c r="E49" s="7" t="s">
         <v>52</v>
       </c>
@@ -7317,7 +7314,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>29</v>
@@ -7326,7 +7323,7 @@
         <v>65</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>29</v>
@@ -7350,22 +7347,22 @@
         <v>9999</v>
       </c>
       <c r="R49" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="S49" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="S49" s="7" t="s">
+      <c r="T49" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="T49" s="7" t="s">
+      <c r="U49" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="V49" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="U49" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="V49" s="7" t="s">
+      <c r="W49" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="W49" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>275</v>
@@ -7373,34 +7370,34 @@
     </row>
     <row r="50" spans="1:24" ht="18.75" customHeight="1">
       <c r="A50" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="E50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="H50" s="16" t="s">
         <v>589</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>590</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>65</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>52</v>
@@ -7424,51 +7421,51 @@
         <v>9999</v>
       </c>
       <c r="R50" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="S50" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="S50" s="16" t="s">
+      <c r="T50" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="T50" s="16" t="s">
+      <c r="U50" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="U50" s="29" t="s">
+      <c r="V50" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="V50" s="16" t="s">
+      <c r="W50" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="W50" s="16" t="s">
+      <c r="X50" s="29" t="s">
         <v>596</v>
-      </c>
-      <c r="X50" s="29" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="18.75" customHeight="1">
       <c r="A51" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="C51" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="D51" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="F51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>602</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>65</v>
@@ -7492,13 +7489,13 @@
         <v>29</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q51" s="16">
         <v>24</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="S51" s="16" t="s">
         <v>87</v>
@@ -7507,33 +7504,33 @@
         <v>98</v>
       </c>
       <c r="U51" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="V51" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="V51" s="29" t="s">
+      <c r="W51" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="W51" s="16" t="s">
+      <c r="X51" s="29" t="s">
         <v>607</v>
-      </c>
-      <c r="X51" s="29" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>612</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>613</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>29</v>
@@ -7548,7 +7545,7 @@
         <v>108</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>52</v>
@@ -7566,28 +7563,28 @@
         <v>43899</v>
       </c>
       <c r="P52" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q52" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="Q52" s="16" t="s">
+      <c r="R52" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="R52" s="16" t="s">
+      <c r="S52" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="S52" s="16" t="s">
+      <c r="T52" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="T52" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="U52" s="16" t="s">
+      <c r="V52" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="V52" s="16" t="s">
+      <c r="W52" s="16" t="s">
         <v>620</v>
-      </c>
-      <c r="W52" s="16" t="s">
-        <v>621</v>
       </c>
       <c r="X52" s="16" t="s">
         <v>102</v>
@@ -7595,19 +7592,19 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="D53" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>625</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>626</v>
       </c>
       <c r="F53" s="16">
         <v>9999</v>
@@ -7622,7 +7619,7 @@
         <v>65</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>52</v>
@@ -7640,48 +7637,48 @@
         <v>138</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q53" s="16">
         <v>10</v>
       </c>
       <c r="R53" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="S53" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="U53" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="S53" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="T53" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="U53" s="16" t="s">
+      <c r="V53" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="V53" s="16" t="s">
+      <c r="W53" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="W53" s="16" t="s">
-        <v>630</v>
-      </c>
       <c r="X53" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1">
       <c r="A54" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="D54" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="E54" s="16" t="s">
         <v>634</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>635</v>
       </c>
       <c r="F54" s="16" t="s">
         <v>29</v>
@@ -7690,66 +7687,66 @@
         <v>136</v>
       </c>
       <c r="H54" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>636</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>637</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>65</v>
       </c>
       <c r="K54" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="M54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="M54" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O54" s="12" t="s">
+      <c r="P54" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="Q54" s="16">
         <v>18</v>
       </c>
       <c r="R54" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="S54" s="16" t="s">
         <v>642</v>
-      </c>
-      <c r="S54" s="16" t="s">
-        <v>643</v>
       </c>
       <c r="T54" s="16" t="s">
         <v>98</v>
       </c>
       <c r="U54" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="V54" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="V54" s="16" t="s">
+      <c r="W54" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="W54" s="16" t="s">
-        <v>646</v>
-      </c>
       <c r="X54" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>648</v>
-      </c>
       <c r="C55" s="16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D55" s="16">
         <v>9999</v>
@@ -7767,10 +7764,10 @@
         <v>9999</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>52</v>
@@ -7794,63 +7791,63 @@
         <v>9999</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T55" s="16" t="s">
         <v>98</v>
       </c>
       <c r="U55" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="V55" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="V55" s="16" t="s">
+      <c r="W55" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="W55" s="16" t="s">
-        <v>652</v>
-      </c>
       <c r="X55" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="D56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>29</v>
@@ -7862,28 +7859,28 @@
         <v>40186</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q56" s="7">
         <v>9999</v>
       </c>
       <c r="R56" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="S56" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="S56" s="7" t="s">
+      <c r="T56" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="U56" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="T56" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="U56" s="7" t="s">
+      <c r="V56" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="V56" s="7" t="s">
+      <c r="W56" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="W56" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="X56" s="7" t="s">
         <v>275</v>
@@ -7891,31 +7888,31 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>668</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>669</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>65</v>
@@ -7936,39 +7933,39 @@
         <v>45327</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q57" s="16">
         <v>9999</v>
       </c>
       <c r="R57" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="S57" s="16" t="s">
         <v>671</v>
-      </c>
-      <c r="S57" s="16" t="s">
-        <v>672</v>
       </c>
       <c r="T57" s="16" t="s">
         <v>98</v>
       </c>
       <c r="U57" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="V57" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="V57" s="16" t="s">
+      <c r="W57" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="W57" s="16" t="s">
-        <v>675</v>
-      </c>
       <c r="X57" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>676</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>677</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>52</v>
@@ -8016,22 +8013,22 @@
         <v>9999</v>
       </c>
       <c r="R58" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="T58" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="U58" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="S58" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="T58" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="U58" s="16" t="s">
+      <c r="V58" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="V58" s="16" t="s">
+      <c r="W58" s="16" t="s">
         <v>680</v>
-      </c>
-      <c r="W58" s="16" t="s">
-        <v>681</v>
       </c>
       <c r="X58" s="16" t="s">
         <v>275</v>
@@ -8039,34 +8036,34 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="C59" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="16" t="s">
         <v>683</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>683</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>684</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>52</v>
@@ -8090,48 +8087,48 @@
         <v>9999</v>
       </c>
       <c r="R59" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="S59" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="S59" s="16" t="s">
+      <c r="T59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="T59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="U59" s="16" t="s">
+      <c r="V59" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="V59" s="16" t="s">
+      <c r="W59" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="W59" s="16" t="s">
-        <v>689</v>
-      </c>
       <c r="X59" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="D60" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="E60" s="16" t="s">
         <v>693</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="F60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="16" t="s">
         <v>694</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>695</v>
       </c>
       <c r="H60" s="16">
         <v>9999</v>
@@ -8140,90 +8137,90 @@
         <v>65</v>
       </c>
       <c r="J60" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" s="22" t="s">
         <v>696</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" s="22" t="s">
-        <v>697</v>
       </c>
       <c r="O60" s="12">
         <v>43625</v>
       </c>
       <c r="P60" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q60" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="Q60" s="16" t="s">
+      <c r="R60" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="R60" s="16" t="s">
+      <c r="S60" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="S60" s="16" t="s">
+      <c r="T60" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="T60" s="16" t="s">
+      <c r="U60" s="16" t="s">
         <v>702</v>
-      </c>
-      <c r="U60" s="16" t="s">
-        <v>703</v>
       </c>
       <c r="V60" s="16">
         <v>9999</v>
       </c>
       <c r="W60" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="X60" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="D61" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="E61" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="F61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="16" t="s">
+      <c r="I61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="I61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="16" t="s">
+      <c r="K61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="16" t="s">
         <v>711</v>
-      </c>
-      <c r="K61" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M61" s="16" t="s">
-        <v>712</v>
       </c>
       <c r="N61" s="22">
         <v>38626862120</v>
@@ -8232,152 +8229,152 @@
         <v>43079</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q61" s="16">
         <v>15</v>
       </c>
       <c r="R61" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="S61" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="S61" s="16" t="s">
+      <c r="T61" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="T61" s="16" t="s">
+      <c r="U61" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="U61" s="16" t="s">
+      <c r="V61" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="V61" s="16" t="s">
+      <c r="W61" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="W61" s="16" t="s">
+      <c r="X61" s="16" t="s">
         <v>719</v>
-      </c>
-      <c r="X61" s="16" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="D62" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="E62" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="F62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="16" t="s">
         <v>725</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="16" t="s">
+      <c r="K62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="16" t="s">
         <v>726</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M62" s="16" t="s">
-        <v>727</v>
       </c>
       <c r="N62" s="22">
         <v>22954368529.639999</v>
       </c>
       <c r="O62" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="P62" s="12" t="s">
         <v>728</v>
-      </c>
-      <c r="P62" s="12" t="s">
-        <v>729</v>
       </c>
       <c r="Q62" s="16">
         <v>11</v>
       </c>
       <c r="R62" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="S62" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="S62" s="16" t="s">
+      <c r="T62" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="T62" s="16" t="s">
+      <c r="U62" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V62" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V62" s="16" t="s">
+      <c r="W62" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="W62" s="16" t="s">
-        <v>734</v>
-      </c>
       <c r="X62" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="E63" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="F63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>740</v>
-      </c>
       <c r="I63" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J63" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="16" t="s">
         <v>726</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L63" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>727</v>
       </c>
       <c r="N63" s="22">
         <v>10920880573</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P63" s="12" t="s">
         <v>85</v>
@@ -8386,57 +8383,57 @@
         <v>8</v>
       </c>
       <c r="R63" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="S63" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="T63" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="S63" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="T63" s="16" t="s">
+      <c r="U63" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="U63" s="16" t="s">
+      <c r="V63" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="W63" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="V63" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="W63" s="16" t="s">
-        <v>745</v>
-      </c>
       <c r="X63" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="D64" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="E64" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="F64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="16" t="s">
         <v>750</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>751</v>
       </c>
       <c r="K64" s="16" t="s">
         <v>52</v>
@@ -8460,57 +8457,57 @@
         <v>9999</v>
       </c>
       <c r="R64" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="S64" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="S64" s="16" t="s">
+      <c r="T64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U64" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V64" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="T64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U64" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V64" s="16" t="s">
+      <c r="W64" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="W64" s="16" t="s">
-        <v>755</v>
-      </c>
       <c r="X64" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="D65" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="E65" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="F65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="F65" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="16" t="s">
+      <c r="I65" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="J65" s="16" t="s">
         <v>762</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>763</v>
       </c>
       <c r="K65" s="16" t="s">
         <v>52</v>
@@ -8525,66 +8522,66 @@
         <v>21503897914</v>
       </c>
       <c r="O65" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="P65" s="12" t="s">
         <v>764</v>
-      </c>
-      <c r="P65" s="12" t="s">
-        <v>765</v>
       </c>
       <c r="Q65" s="16">
         <v>17.5</v>
       </c>
       <c r="R65" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="S65" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="T65" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="S65" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="T65" s="16" t="s">
+      <c r="U65" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V65" s="16" t="s">
         <v>767</v>
       </c>
-      <c r="U65" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V65" s="16" t="s">
+      <c r="W65" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="W65" s="16" t="s">
-        <v>769</v>
-      </c>
       <c r="X65" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="66" spans="1:24">
       <c r="A66" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="D66" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="E66" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="F66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="16" t="s">
         <v>774</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>775</v>
       </c>
       <c r="K66" s="16" t="s">
         <v>52</v>
@@ -8599,66 +8596,66 @@
         <v>32455048148</v>
       </c>
       <c r="O66" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="P66" s="12" t="s">
         <v>776</v>
-      </c>
-      <c r="P66" s="12" t="s">
-        <v>777</v>
       </c>
       <c r="Q66" s="16">
         <v>24</v>
       </c>
       <c r="R66" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="S66" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="T66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V66" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="S66" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="T66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U66" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V66" s="16" t="s">
+      <c r="W66" s="16" t="s">
         <v>779</v>
       </c>
-      <c r="W66" s="16" t="s">
-        <v>780</v>
-      </c>
       <c r="X66" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="D67" s="16" t="s">
         <v>783</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="E67" s="16" t="s">
         <v>784</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="F67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="16" t="s">
         <v>785</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>786</v>
       </c>
       <c r="K67" s="16" t="s">
         <v>52</v>
@@ -8676,63 +8673,63 @@
         <v>41189</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q67" s="16">
         <v>13</v>
       </c>
       <c r="R67" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="S67" s="16" t="s">
         <v>788</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>789</v>
       </c>
       <c r="T67" s="16">
         <v>219</v>
       </c>
       <c r="U67" s="16" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="V67" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="W67" s="16" t="s">
         <v>790</v>
       </c>
-      <c r="W67" s="16" t="s">
-        <v>791</v>
-      </c>
       <c r="X67" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" spans="1:24">
       <c r="A68" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>792</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="D68" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="E68" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="F68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="16" t="s">
         <v>796</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>797</v>
       </c>
       <c r="K68" s="16" t="s">
         <v>52</v>
@@ -8756,131 +8753,131 @@
         <v>12</v>
       </c>
       <c r="R68" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="S68" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="S68" s="16" t="s">
+      <c r="T68" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V68" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="T68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V68" s="16" t="s">
+      <c r="W68" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="W68" s="16" t="s">
-        <v>801</v>
-      </c>
       <c r="X68" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1">
       <c r="A69" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="29" t="s">
         <v>803</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="D69" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="E69" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="F69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" s="16" t="s">
         <v>806</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M69" s="16" t="s">
-        <v>807</v>
       </c>
       <c r="N69" s="22">
         <v>16886338370</v>
       </c>
       <c r="O69" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="P69" s="12" t="s">
         <v>808</v>
-      </c>
-      <c r="P69" s="12" t="s">
-        <v>809</v>
       </c>
       <c r="Q69" s="16">
         <v>18</v>
       </c>
       <c r="R69" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="S69" s="16" t="s">
         <v>810</v>
       </c>
-      <c r="S69" s="16" t="s">
+      <c r="T69" s="16" t="s">
         <v>811</v>
       </c>
-      <c r="T69" s="16" t="s">
+      <c r="U69" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V69" s="29" t="s">
         <v>812</v>
       </c>
-      <c r="U69" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V69" s="29" t="s">
+      <c r="W69" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="W69" s="16" t="s">
+      <c r="X69" s="29" t="s">
         <v>814</v>
-      </c>
-      <c r="X69" s="29" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>817</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="D70" s="16" t="s">
         <v>818</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="E70" s="16" t="s">
         <v>819</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="F70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="16" t="s">
         <v>820</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>821</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>52</v>
@@ -8895,81 +8892,81 @@
         <v>16782892881</v>
       </c>
       <c r="O70" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="P70" s="12" t="s">
         <v>822</v>
-      </c>
-      <c r="P70" s="12" t="s">
-        <v>823</v>
       </c>
       <c r="Q70" s="16">
         <v>15</v>
       </c>
       <c r="R70" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="S70" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="S70" s="16" t="s">
+      <c r="T70" s="16" t="s">
         <v>825</v>
       </c>
-      <c r="T70" s="16" t="s">
+      <c r="U70" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V70" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="U70" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V70" s="16" t="s">
+      <c r="W70" s="16" t="s">
         <v>827</v>
       </c>
-      <c r="W70" s="16" t="s">
-        <v>828</v>
-      </c>
       <c r="X70" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>829</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="C71" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="D71" s="16" t="s">
         <v>831</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="E71" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="F71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>833</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="16" t="s">
+      <c r="K71" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="L71" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="L71" s="16" t="s">
+      <c r="M71" s="16" t="s">
         <v>836</v>
-      </c>
-      <c r="M71" s="16" t="s">
-        <v>837</v>
       </c>
       <c r="N71" s="22">
         <v>16864638530</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P71" s="12">
         <v>44350</v>
@@ -8978,58 +8975,58 @@
         <v>15</v>
       </c>
       <c r="R71" s="16" t="s">
+        <v>838</v>
+      </c>
+      <c r="S71" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="T71" s="16" t="s">
         <v>840</v>
       </c>
-      <c r="T71" s="16" t="s">
+      <c r="U71" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V71" s="16" t="s">
         <v>841</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V71" s="16" t="s">
+      <c r="W71" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="W71" s="16" t="s">
-        <v>843</v>
-      </c>
       <c r="X71" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="72" spans="1:24">
       <c r="A72" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="C72" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="D72" s="16" t="s">
         <v>846</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="E72" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="F72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="16" t="s">
-        <v>849</v>
-      </c>
       <c r="K72" s="16" t="s">
         <v>52</v>
       </c>
@@ -9037,13 +9034,13 @@
         <v>52</v>
       </c>
       <c r="M72" s="16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N72" s="22">
         <v>22270823688</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P72" s="12">
         <v>44297</v>
@@ -9052,60 +9049,60 @@
         <v>15</v>
       </c>
       <c r="R72" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="T72" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="S72" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="T72" s="16" t="s">
+      <c r="U72" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V72" s="16" t="s">
         <v>852</v>
       </c>
-      <c r="U72" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V72" s="16" t="s">
+      <c r="W72" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="W72" s="16" t="s">
-        <v>854</v>
-      </c>
       <c r="X72" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>855</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="C73" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="D73" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="E73" s="16" t="s">
         <v>858</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="F73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="F73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="16" t="s">
+      <c r="K73" s="16" t="s">
         <v>860</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>861</v>
       </c>
       <c r="L73" s="16" t="s">
         <v>52</v>
@@ -9117,48 +9114,48 @@
         <v>12341721000</v>
       </c>
       <c r="O73" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="P73" s="12" t="s">
         <v>862</v>
-      </c>
-      <c r="P73" s="12" t="s">
-        <v>863</v>
       </c>
       <c r="Q73" s="16">
         <v>15</v>
       </c>
       <c r="R73" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="S73" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="T73" s="16" t="s">
         <v>864</v>
       </c>
-      <c r="S73" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="T73" s="16" t="s">
+      <c r="U73" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V73" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="W73" s="16" t="s">
         <v>865</v>
       </c>
-      <c r="U73" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V73" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="W73" s="16" t="s">
-        <v>866</v>
-      </c>
       <c r="X73" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74" spans="1:24">
       <c r="A74" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>867</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="C74" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="D74" s="16" t="s">
         <v>869</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>870</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>52</v>
@@ -9200,22 +9197,22 @@
         <v>9999</v>
       </c>
       <c r="R74" s="16" t="s">
+        <v>870</v>
+      </c>
+      <c r="S74" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="S74" s="16" t="s">
+      <c r="T74" s="16" t="s">
         <v>872</v>
       </c>
-      <c r="T74" s="16" t="s">
+      <c r="U74" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="U74" s="16" t="s">
+      <c r="V74" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="V74" s="16" t="s">
+      <c r="W74" s="16" t="s">
         <v>875</v>
-      </c>
-      <c r="W74" s="16" t="s">
-        <v>876</v>
       </c>
       <c r="X74" s="16" t="s">
         <v>102</v>
@@ -9223,16 +9220,16 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="C75" s="16" t="s">
         <v>878</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="D75" s="16" t="s">
         <v>879</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>880</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>52</v>
@@ -9274,22 +9271,22 @@
         <v>9999</v>
       </c>
       <c r="R75" s="16" t="s">
+        <v>880</v>
+      </c>
+      <c r="S75" s="16" t="s">
         <v>881</v>
       </c>
-      <c r="S75" s="16" t="s">
+      <c r="T75" s="16" t="s">
         <v>882</v>
       </c>
-      <c r="T75" s="16" t="s">
+      <c r="U75" s="16" t="s">
         <v>883</v>
       </c>
-      <c r="U75" s="16" t="s">
+      <c r="V75" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="V75" s="16" t="s">
+      <c r="W75" s="16" t="s">
         <v>885</v>
-      </c>
-      <c r="W75" s="16" t="s">
-        <v>886</v>
       </c>
       <c r="X75" s="16" t="s">
         <v>102</v>
@@ -9297,10 +9294,10 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>887</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>888</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>52</v>
@@ -9348,57 +9345,57 @@
         <v>9999</v>
       </c>
       <c r="R76" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="S76" s="16" t="s">
         <v>889</v>
       </c>
-      <c r="S76" s="16" t="s">
+      <c r="T76" s="16" t="s">
         <v>890</v>
       </c>
-      <c r="T76" s="16" t="s">
+      <c r="U76" s="16" t="s">
         <v>891</v>
       </c>
-      <c r="U76" s="16" t="s">
+      <c r="V76" s="16" t="s">
         <v>892</v>
       </c>
-      <c r="V76" s="16" t="s">
+      <c r="W76" s="16" t="s">
         <v>893</v>
       </c>
-      <c r="W76" s="16" t="s">
-        <v>894</v>
-      </c>
       <c r="X76" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:24" s="34" customFormat="1">
       <c r="A77" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>895</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="C77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" s="31" t="s">
         <v>896</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="31" t="s">
-        <v>897</v>
       </c>
       <c r="K77" s="31" t="s">
         <v>52</v>
@@ -9422,33 +9419,33 @@
         <v>9999</v>
       </c>
       <c r="R77" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="S77" s="31" t="s">
         <v>898</v>
       </c>
-      <c r="S77" s="31" t="s">
+      <c r="T77" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="U77" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="T77" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="U77" s="31" t="s">
+      <c r="V77" s="31" t="s">
         <v>900</v>
       </c>
-      <c r="V77" s="31" t="s">
+      <c r="W77" s="31" t="s">
         <v>901</v>
       </c>
-      <c r="W77" s="31" t="s">
-        <v>902</v>
-      </c>
       <c r="X77" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="34" customFormat="1">
       <c r="A78" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="B78" s="31" t="s">
         <v>903</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>904</v>
       </c>
       <c r="C78" s="31" t="s">
         <v>52</v>
@@ -9496,39 +9493,39 @@
         <v>9999</v>
       </c>
       <c r="R78" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="S78" s="31" t="s">
         <v>905</v>
       </c>
-      <c r="S78" s="31" t="s">
+      <c r="T78" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="U78" s="31" t="s">
         <v>906</v>
       </c>
-      <c r="T78" s="31" t="s">
-        <v>906</v>
-      </c>
-      <c r="U78" s="31" t="s">
+      <c r="V78" s="31" t="s">
         <v>907</v>
       </c>
-      <c r="V78" s="31" t="s">
+      <c r="W78" s="31" t="s">
         <v>908</v>
       </c>
-      <c r="W78" s="31" t="s">
-        <v>909</v>
-      </c>
       <c r="X78" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>910</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>911</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="D79" s="16" t="s">
         <v>912</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>913</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>52</v>
@@ -9570,22 +9567,22 @@
         <v>9999</v>
       </c>
       <c r="R79" s="29" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="S79" s="16" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="T79" s="16" t="s">
         <v>98</v>
       </c>
       <c r="U79" s="16" t="s">
+        <v>914</v>
+      </c>
+      <c r="V79" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="V79" s="16" t="s">
+      <c r="W79" s="16" t="s">
         <v>916</v>
-      </c>
-      <c r="W79" s="16" t="s">
-        <v>917</v>
       </c>
       <c r="X79" s="16" t="s">
         <v>102</v>
@@ -9593,13 +9590,13 @@
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1">
       <c r="A80" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>918</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="C80" s="29" t="s">
         <v>919</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>920</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>52</v>
@@ -9644,22 +9641,22 @@
         <v>9999</v>
       </c>
       <c r="R80" s="29" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="S80" s="16" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="T80" s="16" t="s">
         <v>98</v>
       </c>
       <c r="U80" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="V80" s="16" t="s">
         <v>922</v>
       </c>
-      <c r="V80" s="16" t="s">
+      <c r="W80" s="16" t="s">
         <v>923</v>
-      </c>
-      <c r="W80" s="16" t="s">
-        <v>924</v>
       </c>
       <c r="X80" s="16" t="s">
         <v>102</v>
@@ -9667,25 +9664,25 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" s="16" t="s">
+        <v>924</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>925</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>926</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="D81" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="E81" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>929</v>
-      </c>
       <c r="F81" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>52</v>
@@ -9697,7 +9694,7 @@
         <v>50</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L81" s="16" t="s">
         <v>52</v>
@@ -9718,57 +9715,57 @@
         <v>9999</v>
       </c>
       <c r="R81" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="S81" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="T81" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="U81" s="16" t="s">
         <v>930</v>
       </c>
-      <c r="S81" s="16" t="s">
-        <v>899</v>
-      </c>
-      <c r="T81" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="U81" s="16" t="s">
+      <c r="V81" s="16" t="s">
         <v>931</v>
       </c>
-      <c r="V81" s="16" t="s">
+      <c r="W81" s="16" t="s">
         <v>932</v>
       </c>
-      <c r="W81" s="16" t="s">
-        <v>933</v>
-      </c>
       <c r="X81" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>934</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="C82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>935</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="16" t="s">
+      <c r="E82" s="16" t="s">
         <v>936</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="F82" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>936</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>937</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I82" s="16" t="s">
-        <v>938</v>
-      </c>
       <c r="J82" s="16" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K82" s="16" t="s">
         <v>50</v>
@@ -9792,60 +9789,60 @@
         <v>9999</v>
       </c>
       <c r="R82" s="16" t="s">
+        <v>938</v>
+      </c>
+      <c r="S82" s="16" t="s">
+        <v>898</v>
+      </c>
+      <c r="T82" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="U82" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="S82" s="16" t="s">
-        <v>899</v>
-      </c>
-      <c r="T82" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="U82" s="16" t="s">
+      <c r="V82" s="16" t="s">
         <v>940</v>
       </c>
-      <c r="V82" s="16" t="s">
+      <c r="W82" s="16" t="s">
         <v>941</v>
       </c>
-      <c r="W82" s="16" t="s">
-        <v>942</v>
-      </c>
       <c r="X82" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>943</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="C83" s="16" t="s">
         <v>944</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="D83" s="16" t="s">
         <v>945</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="E83" s="16" t="s">
         <v>946</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="F83" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="16" t="s">
         <v>947</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="16" t="s">
+      <c r="H83" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>896</v>
+      </c>
+      <c r="K83" s="16" t="s">
         <v>948</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I83" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>897</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>949</v>
       </c>
       <c r="L83" s="16" t="s">
         <v>52</v>
@@ -9866,25 +9863,25 @@
         <v>9999</v>
       </c>
       <c r="R83" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="S83" s="16" t="s">
         <v>950</v>
       </c>
-      <c r="S83" s="16" t="s">
+      <c r="T83" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="T83" s="16" t="s">
+      <c r="U83" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="V83" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="U83" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="V83" s="16" t="s">
+      <c r="W83" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="W83" s="16" t="s">
-        <v>954</v>
-      </c>
       <c r="X83" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47FBF724-4158-4B96-80E5-2913C18EB642}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C6BDF3-A3A1-425F-A61B-B3A4EF9895A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="952">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -339,10 +339,10 @@
     <t xml:space="preserve">Once (11) municipios de la Mojana, Corporaciones de la región, Universidades de la región, Cabildo Indigena, Comunidad </t>
   </si>
   <si>
-    <t xml:space="preserve">Es importante considerar que el objetivo principal del proyecto PNUD – PUJ, 2022 era la construcción del Modelo Hidrogeológico Numérico, en este marco se construyeron diferentes modelos que corresponden a insumos para este. Por tanto, los modelos superficiales (hidrología e hidrodinámica) enfatizan en detallar la interacción entre el agua superficial y subterránea, el primero con la recarga y el segundo en los niveles de ríos y ciénaga. </t>
-  </si>
-  <si>
-    <t>Aguas subterráneas,  caracterización hidrogeológica del acuífero, modelo conceptual hidrogeológico,  modelo numérico hidrogeológico, vulnerabilidad a la contaminación de los acuíferos, gestión y adaptación hídrica regional, modelacion hidrodinámica, modelación hidrogeológica, modelación Hidraúlica, herramienta para la toma de decisiónes.</t>
+    <t xml:space="preserve">El objetivo principal del proyecto PNUD – PUJ, 2022 fue la construcción del Modelo Hidrogeológico Numérico, en este marco se construyeron diferentes modelos que corresponden a insumos para este. De esta forma, los modelos superficiales (hidrología e hidrodinámica) enfatizan en detallar la interacción entre el agua superficial y subterránea, el primero con la recarga y el segundo en los niveles de ríos y ciénaga. </t>
+  </si>
+  <si>
+    <t>Aguas subterráneas,  caracterización hidrogeológica del acuífero, modelo conceptual hidrogeológico,  modelo numérico hidrogeológico, vulnerabilidad a la contaminación de los acuíferos, gestión y adaptación hídrica regional, modelacion hidrodinámica, modelación hidrogeológica, modelación hidraúlica, herramienta para la toma de decisiónes.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002</t>
@@ -780,7 +780,7 @@
     <t>6/17/2013</t>
   </si>
   <si>
-    <t>El estudio consiste en el análisis de la información referente a los instrumentos de planeación territorial y ambiental mediante el archivo histórico y técnico del municipio y, además, se realizará seguimiento y evaluación al PBOT de Sucre, según la metodología planteada por el Ministerio de Vivienda, Ciudad y Territorio, mediante la guía metodológica para la conformación y la puesta en marcha de los expedientes municipales. El estudio incluye un analisis a escala regional y local (11 municipales), mediante la generación del documento memoria justificativa, expediente, diagnostico, tecnico de soporte y proyectos de acuerdos de los EOT.</t>
+    <t>El estudio consiste en el análisis de la información referente a los instrumentos de planeación territorial y ambiental mediante el archivo histórico y técnico del municipio, además, se realizará seguimiento y evaluación al PBOT de Sucre, según la metodología planteada por el Ministerio de Vivienda, Ciudad y Territorio, mediante la guía metodológica para la conformación y la puesta en marcha de los expedientes municipales. El estudio incluye un analisis a escala regional y local (11 municipales), mediante la generación del documento memoria justificativa, expediente, diagnostico, tecnico de soporte y proyectos de acuerdos de los EOT.</t>
   </si>
   <si>
     <t>El contrato termina en 2014 pero la fecha de publicación de los informes es 2017</t>
@@ -2041,9 +2041,6 @@
     <t>Estudio Geotécnico Magangué y San Marcos, 2022</t>
   </si>
   <si>
-    <t>CULMINAR LOS DISEÑOS DE DETALLE CON LOS INSUMOS ENTREGADOS POR EL FONDO ADAPTACIÓN Y CONSTRUIR LAS ESTRUCTURAS DE PROTECCIÓN CONTRA INUNDACIONES DE LOS CASCOS URBANOS DE LOS MUNICIPIOS DE SAN MARCOS (SUCRE) Y MAGANGUÉ (BOLÍVAR)</t>
-  </si>
-  <si>
     <t>Culminar los diseños de detalle con los insumos entregados por el Fondo Adaptación y construir las estructuras de protección contra inundaciones de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar)</t>
   </si>
   <si>
@@ -2056,34 +2053,27 @@
     <t>18/09/2023</t>
   </si>
   <si>
-    <t>3 años</t>
-  </si>
-  <si>
-    <t>El proyecto de caracter geotécnico principalmente, está centrado en los municipios de San Marcos (Sucre) y Magangué (Bolívar). El propósito principal es desarrollar y culminar los diseños detallados de estructuras de protección contra inundaciones para estos municipios, en cumplimiento del Contrato No. FA-IC-IF-140-2020, suscrito con el Fondo Adaptación. Dentro de los principales resultados se realizaron estudios geotécnicos y análisis hidrológicos e hidráulicos para determinar las características del terreno y del comportamiento del agua en zonas de riesgo de inundación, con el fin de establecer los parámetros para los diseños. Basado en esto, se definieron estructuras de protección, incluyendo diques y estaciones de bombeo, para minimizar los efectos de las inundaciones con un periodo de retorno de 100 años. Para las obras propuestas (diques perimetrales y sistemas de bombeo) Se definieron presupuestos específicos para cada municipio, incluyendo obras de protección y redes de alcantarillado. Adicional, se detalla la importancia de la socialización de los proyectos con las comunidades locales, así como las consultas previas con las autoridades municipales. Como conclusión, las estructuras de protección propuestas, diseñadas con base en estudios detallados (modelación hidrodinámica y batimetría), pueden mitigar de manera significativa el riesgo de inundación en los cascos urbanos de ambos municipios._x000D_
-El proyecto está estructurado en ocho (8) productos:_x000D_
-Producto 1. Diseños hidráulicos e hidrológicos  _x000D_
-Producto 2. Diseño Geológico y Geotécnico  _x000D_
-Producto 3. Diseño Estructural  _x000D_
-Producto 4. Diseño Electromecánico  _x000D_
-Producto 5. Presupuesto  _x000D_
-Producto 6. Plan de Gestión Social  _x000D_
-Producto 7. Arqueología  _x000D_
-Producto 8. Arquitectura_x000D_
-Adicional, se incluye la carpeta de Informe Ejecutivo y Planos de alineamiento. _x000D_
-Vale la pena resaltar, que el mayor volumen de información de esta carpeta corresponde a los archivos .tiff y .hdf que sumados pesan 450GB y que corresponden al Producto 1. Diseños hidráulicos e hidrológicos .</t>
+    <t>El proyecto de caracter geotécnico principalmente, está centrado en los municipios de San Marcos (Sucre) y Magangué (Bolívar). El propósito principal fue desarrollar y culminar los diseños detallados de estructuras de protección contra inundaciones para estos municipios, en cumplimiento del Contrato No. FA-IC-IF-140-2020, suscrito con el Fondo Adaptación. Dentro de los principales resultados se realizaron estudios geotécnicos y análisis hidrológicos e hidráulicos para determinar las características del terreno y del comportamiento del agua en zonas de riesgo de inundación, con el fin de establecer los parámetros para los diseños. Basado en esto, se definieron estructuras de protección, incluyendo diques y estaciones de bombeo, para minimizar los efectos de las inundaciones con un periodo de retorno de 100 años. Para las obras propuestas (diques perimetrales y sistemas de bombeo) Se definieron presupuestos específicos para cada municipio, incluyendo obras de protección y redes de alcantarillado. Adicional, se detalla la importancia de la socialización de los proyectos con las comunidades locales, así como las consultas previas con las autoridades municipales. Como conclusión, las estructuras de protección propuestas, diseñadas con base en estudios detallados (modelación hidrodinámica y batimetría), pueden mitigar de manera significativa el riesgo de inundación en los cascos urbanos de ambos municipios.
+El proyecto está estructurado en ocho (8) productos:
+Producto 1. Diseños hidráulicos e hidrológicos  
+Producto 2. Diseño Geológico y Geotécnico  
+Producto 3. Diseño Estructural  
+Producto 4. Diseño Electromecánico  
+Producto 5. Presupuesto  
+Producto 6. Plan de Gestión Social  
+Producto 7. Arqueología  
+Producto 8. Arquitectura
+Adicional, se incluye la carpeta de Informe Ejecutivo y Planos de alineamiento. 
+Vale la pena resaltar, que el mayor volumen de información de esta carpeta corresponde a los archivos tiff y hdf que sumados pesan 450GB y que corresponden al Producto 1. Diseños hidráulicos e hidrológicos .</t>
   </si>
   <si>
     <t>San Marcos (Sucre) y Magangué (Bolívar)</t>
   </si>
   <si>
-    <t xml:space="preserve">Los análisis geotécnico, hidrológico e hidráulico, respaldados por simulaciones y estudios del IDEAM, aseguran un enfoque técnico sólido para mitigar riesgos de inundación. Además, detalla costos y escenarios con y sin las obras, lo que facilita la toma de decisiones técnicas y económicas, con énfasis en la resiliencia ante el cambio climático._x000D_
-No obstante, algunos datos, como los registros hidrológicos y pluviométricos, están desactualizados (hasta 2018), lo que podría afectar la precisión de las simulaciones. También existen vacíos en la gestión predial, especialmente en San Marcos, donde faltan certificados de tradición y detalles sobre los predios a intervenir, lo que podría retrasar el proyecto. _x000D_
-En cuanto a los estudios técnicos, se identifican limitaciones en áreas como la información estructural del muro de contención en Magangué, donde no se disponen de planos completos ni estudios de patología adecuados. Además, se resalta la necesidad de estudios complementarios en electromecánica y geotecnia, lo que indica que ciertos aspectos del proyecto aún no están concluidos._x000D_
-Vale la pena resaltar, que el mayor volumen de información de esta carpeta corresponde a los archivos .tiff y .hdf que sumados pesan 450GB y que corresponden al Producto 1. Diseños hidráulicos e hidrológicos._x000D_
-En términos contractuales, el contrato contó con cinco otros sí, con cuatro suspensiones y dos ampliaciones a las suspensiones. </t>
-  </si>
-  <si>
-    <t>Geotecnia, Inundaciones, Zonificación, Capacidad Portante, Estabilidad Global, Licuación, Cimentación, Análisis Hidrológico, Drenaje, Magangué.</t>
+    <t xml:space="preserve">Los análisis geotécnico, hidrológico e hidráulico, respaldados por simulaciones y estudios del IDEAM, aseguran un enfoque técnico sólido para mitigar riesgos de inundación. Además, detalla costos y escenarios con y sin las obras, lo que facilita la toma de decisiones técnicas y económicas, con énfasis en la resiliencia ante el cambio climático. No obstante, algunos datos, como los registros hidrológicos y pluviométricos, están desactualizados (hasta 2018), lo que podría afectar la precisión de las simulaciones. También existen vacíos en la gestión predial, especialmente en San Marcos, donde faltan certificados de tradición y detalles sobre los predios a intervenir, lo que podría retrasar el proyecto. En cuanto a los estudios técnicos, se identifican limitaciones en áreas como la información estructural del muro de contención en Magangué, donde no se disponen de planos completos ni estudios de patología adecuados. Además, se resalta la necesidad de estudios complementarios en electromecánica y geotecnia, lo que indica que ciertos aspectos del proyecto aún no están concluidos. Vale la pena resaltar, que el mayor volumen de información de esta carpeta corresponde a los archivos .tiff y .hdf que sumados pesan 450GB y que corresponden al Producto 1. Diseños hidráulicos e hidrológicos. En términos contractuales, el contrato contó con cinco otros sí, con cuatro suspensiones y dos ampliaciones a las suspensiones. </t>
+  </si>
+  <si>
+    <t>Geotecnia, inundaciones, zonificación, capacidad portante, estabilidad global, licuación, cimentación, análisis hidrológico, drenaje, Magangué, Sucre-Sucre.</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0051</t>
@@ -3231,7 +3221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3306,7 +3296,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3363,6 +3352,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3372,35 +3391,8 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3706,8 +3698,8 @@
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C15" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3894,7 +3886,7 @@
       <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="43" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3946,7 +3938,7 @@
       <c r="S3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="U3" s="7" t="s">
@@ -4014,7 +4006,7 @@
       <c r="Q4" s="7">
         <v>6</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>70</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -4079,10 +4071,10 @@
       <c r="N5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>85</v>
       </c>
       <c r="Q5" s="7">
@@ -4111,76 +4103,76 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="13" t="s">
         <v>95</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="30">
         <v>42005</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="13">
         <v>9999</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4265,7 +4257,7 @@
       <c r="B8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -4289,7 +4281,7 @@
       <c r="J8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -4310,7 +4302,7 @@
       <c r="Q8" s="7">
         <v>9</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="15" t="s">
         <v>127</v>
       </c>
       <c r="S8" s="7" t="s">
@@ -4372,7 +4364,7 @@
       <c r="M9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>184985747</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -4390,7 +4382,7 @@
       <c r="S9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="17" t="s">
         <v>98</v>
       </c>
       <c r="U9" s="7" t="s">
@@ -4399,7 +4391,7 @@
       <c r="V9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="W9" s="18" t="s">
         <v>143</v>
       </c>
       <c r="X9" s="7" t="s">
@@ -4416,7 +4408,7 @@
       <c r="C10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -4473,7 +4465,7 @@
       <c r="V10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="19" t="s">
+      <c r="W10" s="18" t="s">
         <v>152</v>
       </c>
       <c r="X10" s="7" t="s">
@@ -4547,7 +4539,7 @@
       <c r="V11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="W11" s="19" t="s">
+      <c r="W11" s="18" t="s">
         <v>166</v>
       </c>
       <c r="X11" s="7" t="s">
@@ -4615,16 +4607,16 @@
       <c r="T12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="W12" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="X12" s="10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4702,77 +4694,77 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="34" customFormat="1">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:24" s="35" customFormat="1">
+      <c r="A14" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="35" t="s">
+      <c r="F14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="38">
+      <c r="K14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="33">
         <v>742510000</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="34">
         <v>41670</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="32">
         <v>7</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="T14" s="35" t="s">
+      <c r="T14" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="35" t="s">
+      <c r="V14" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="W14" s="35" t="s">
+      <c r="W14" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="X14" s="35" t="s">
+      <c r="X14" s="32" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5009,7 +5001,7 @@
       <c r="C18" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>239</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -5060,16 +5052,16 @@
       <c r="T18" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="10" t="s">
         <v>248</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="X18" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5119,7 +5111,7 @@
       <c r="O19" s="7">
         <v>2002</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="20">
         <v>2004</v>
       </c>
       <c r="Q19" s="7">
@@ -5131,7 +5123,7 @@
       <c r="S19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="T19" s="18" t="s">
+      <c r="T19" s="17" t="s">
         <v>98</v>
       </c>
       <c r="U19" s="7" t="s">
@@ -5148,150 +5140,150 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="E20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="12">
+      <c r="K20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="11">
         <v>40787</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="15">
         <v>11</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="R20" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="S20" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="T20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="16" t="s">
+      <c r="T20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="V20" s="16" t="s">
+      <c r="V20" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="X20" s="15" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:24" customFormat="1">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="16" t="s">
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="16" t="s">
+      <c r="K21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="N21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="12" t="s">
+      <c r="N21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="15">
         <v>9999</v>
       </c>
-      <c r="R21" s="16" t="s">
+      <c r="R21" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="U21" s="16" t="s">
+      <c r="U21" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="V21" s="16" t="s">
+      <c r="V21" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="X21" s="16" t="s">
+      <c r="X21" s="15" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5519,22 +5511,22 @@
       </c>
     </row>
     <row r="25" spans="1:24" customFormat="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="16" t="s">
+      <c r="D25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -5546,267 +5538,267 @@
       <c r="I25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="22">
+      <c r="J25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="21">
         <v>9999</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="15">
         <v>9999</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="S25" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="U25" s="16" t="s">
+      <c r="U25" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="V25" s="16" t="s">
+      <c r="V25" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="X25" s="16" t="s">
+      <c r="X25" s="15" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="C26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="15">
         <v>9999</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>9999</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>9999</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <v>9999</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>9999</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>9999</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <v>9999</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="15">
         <v>9999</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <v>9999</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="11">
         <v>9999</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="P26" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="15">
         <v>9999</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="R26" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="S26" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="T26" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="U26" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="V26" s="16" t="s">
+      <c r="V26" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="X26" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="16" t="s">
+      <c r="H27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="12">
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="11">
         <v>40552</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="P27" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="Q27" s="16">
+      <c r="Q27" s="15">
         <v>11</v>
       </c>
-      <c r="R27" s="16" t="s">
+      <c r="R27" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="S27" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="T27" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="U27" s="16" t="s">
+      <c r="U27" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="V27" s="16" t="s">
+      <c r="V27" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="W27" s="16" t="s">
+      <c r="W27" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="X27" s="16" t="s">
+      <c r="X27" s="15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="34" customFormat="1">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:24" s="35" customFormat="1">
+      <c r="A28" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="F28" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="K28" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="35" t="s">
+      <c r="K28" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="O28" s="39">
+      <c r="O28" s="34">
         <v>41340</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="34">
         <v>41375</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="Q28" s="32">
         <v>4</v>
       </c>
-      <c r="R28" s="35" t="s">
+      <c r="R28" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="T28" s="35" t="s">
+      <c r="T28" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="U28" s="35" t="s">
+      <c r="U28" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="V28" s="35" t="s">
+      <c r="V28" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="W28" s="35" t="s">
+      <c r="W28" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="X28" s="35" t="s">
+      <c r="X28" s="32" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5924,13 +5916,13 @@
       <c r="M30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="22">
         <v>253146213</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="31">
         <v>41199</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="31">
         <v>41563</v>
       </c>
       <c r="Q30" s="7">
@@ -6072,13 +6064,13 @@
       <c r="M32" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="22">
         <v>216000000</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="31">
         <v>41495</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="31">
         <v>41920</v>
       </c>
       <c r="Q32" s="7">
@@ -6110,7 +6102,7 @@
       <c r="A33" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>410</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -6164,7 +6156,7 @@
       <c r="S33" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="T33" s="18" t="s">
+      <c r="T33" s="17" t="s">
         <v>98</v>
       </c>
       <c r="U33" s="7" t="s">
@@ -6328,299 +6320,299 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="34" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:25" s="35" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A36" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="35" t="s">
+      <c r="F36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="K36" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="38">
+      <c r="K36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="33">
         <v>29636483347</v>
       </c>
-      <c r="O36" s="39">
+      <c r="O36" s="34">
         <v>41610</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="P36" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="Q36" s="35">
+      <c r="Q36" s="32">
         <v>67</v>
       </c>
-      <c r="R36" s="41" t="s">
+      <c r="R36" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="S36" s="35" t="s">
+      <c r="S36" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="T36" s="35" t="s">
+      <c r="T36" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="U36" s="35" t="s">
+      <c r="U36" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="V36" s="35" t="s">
+      <c r="V36" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="W36" s="35" t="s">
+      <c r="W36" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="X36" s="35" t="s">
+      <c r="X36" s="32" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="34" customFormat="1">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:25" s="35" customFormat="1">
+      <c r="A37" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="F37" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="35" t="s">
+      <c r="F37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="35" t="s">
+      <c r="H37" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J37" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="K37" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="36">
+      <c r="K37" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="37">
         <v>1000000000</v>
       </c>
-      <c r="O37" s="39">
+      <c r="O37" s="34">
         <v>41590</v>
       </c>
-      <c r="P37" s="40">
+      <c r="P37" s="38">
         <v>42311</v>
       </c>
-      <c r="Q37" s="35">
+      <c r="Q37" s="32">
         <v>15</v>
       </c>
-      <c r="R37" s="37" t="s">
+      <c r="R37" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="S37" s="35" t="s">
+      <c r="S37" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="T37" s="35" t="s">
+      <c r="T37" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="U37" s="35" t="s">
+      <c r="U37" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="V37" s="35" t="s">
+      <c r="V37" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="W37" s="35" t="s">
+      <c r="W37" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="X37" s="35" t="s">
+      <c r="X37" s="32" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38" s="22">
+      <c r="D38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="21">
         <v>9999</v>
       </c>
-      <c r="O38" s="12">
+      <c r="O38" s="11">
         <v>9999</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="11">
         <v>9999</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="15">
         <v>9999</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="S38" s="16" t="s">
+      <c r="S38" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="T38" s="16" t="s">
+      <c r="T38" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="U38" s="16" t="s">
+      <c r="U38" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="V38" s="16" t="s">
+      <c r="V38" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="W38" s="16" t="s">
+      <c r="W38" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="X38" s="16" t="s">
+      <c r="X38" s="15" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="25" t="s">
+      <c r="C39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="27" t="s">
+      <c r="K39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="P39" s="27" t="s">
+      <c r="P39" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="Q39" s="24">
         <v>9999</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="S39" s="25" t="s">
+      <c r="S39" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="T39" s="25" t="s">
+      <c r="T39" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="U39" s="25" t="s">
+      <c r="U39" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="V39" s="25" t="s">
+      <c r="V39" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="W39" s="25" t="s">
+      <c r="W39" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="X39" s="25" t="s">
+      <c r="X39" s="24" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6697,155 +6689,155 @@
       <c r="X40" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="Y40" s="16"/>
+      <c r="Y40" s="15"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="16" t="s">
+      <c r="E41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="16" t="s">
+      <c r="H41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="K41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="16" t="s">
+      <c r="K41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="21">
         <v>7578039678</v>
       </c>
-      <c r="O41" s="12" t="s">
+      <c r="O41" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P41" s="11">
         <v>43499</v>
       </c>
-      <c r="Q41" s="16">
+      <c r="Q41" s="15">
         <v>54</v>
       </c>
-      <c r="R41" s="16" t="s">
+      <c r="R41" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="S41" s="16" t="s">
+      <c r="S41" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="T41" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="U41" s="16" t="s">
+      <c r="T41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="V41" s="16" t="s">
+      <c r="V41" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="W41" s="16" t="s">
+      <c r="W41" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="X41" s="16" t="s">
+      <c r="X41" s="15" t="s">
         <v>400</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="16" t="s">
+      <c r="F42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="K42" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="28">
+      <c r="K42" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="27">
         <v>6471757378</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="P42" s="12" t="s">
+      <c r="P42" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="Q42" s="16">
+      <c r="Q42" s="15">
         <f>3*12+10</f>
         <v>46</v>
       </c>
-      <c r="R42" s="16" t="s">
+      <c r="R42" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="S42" s="16" t="s">
+      <c r="S42" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="T42" s="16" t="s">
+      <c r="T42" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="U42" s="16" t="s">
+      <c r="U42" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="V42" s="16" t="s">
+      <c r="V42" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="W42" s="16" t="s">
+      <c r="W42" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="X42" s="16" t="s">
+      <c r="X42" s="15" t="s">
         <v>499</v>
       </c>
       <c r="Y42" s="1"/>
@@ -6890,13 +6882,13 @@
       <c r="M43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N43" s="23">
+      <c r="N43" s="22">
         <v>0</v>
       </c>
-      <c r="O43" s="43">
+      <c r="O43" s="31">
         <v>2</v>
       </c>
-      <c r="P43" s="43">
+      <c r="P43" s="31">
         <v>2</v>
       </c>
       <c r="Q43" s="7">
@@ -6999,28 +6991,28 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>534</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="16" t="s">
+      <c r="G45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="7" t="s">
@@ -7029,46 +7021,46 @@
       <c r="J45" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="15" t="s">
         <v>52</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="21">
         <v>6874244540</v>
       </c>
-      <c r="O45" s="12" t="s">
+      <c r="O45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="Q45" s="16">
+      <c r="Q45" s="15">
         <v>9</v>
       </c>
-      <c r="R45" s="16" t="s">
+      <c r="R45" s="15" t="s">
         <v>127</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T45" s="16" t="s">
+      <c r="T45" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="U45" s="16" t="s">
+      <c r="U45" s="15" t="s">
         <v>535</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W45" s="16" t="s">
+      <c r="W45" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="X45" s="16" t="s">
+      <c r="X45" s="15" t="s">
         <v>537</v>
       </c>
     </row>
@@ -7221,76 +7213,76 @@
       </c>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="16" t="s">
+      <c r="F48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="H48" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="16" t="s">
+      <c r="H48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="L48" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="16" t="s">
+      <c r="L48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="N48" s="22">
+      <c r="N48" s="21">
         <v>2066969459</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O48" s="11">
         <v>43734</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P48" s="11">
         <v>44863</v>
       </c>
-      <c r="Q48" s="16">
+      <c r="Q48" s="15">
         <v>15</v>
       </c>
-      <c r="R48" s="16" t="s">
+      <c r="R48" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="S48" s="16" t="s">
+      <c r="S48" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="T48" s="16" t="s">
+      <c r="T48" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="U48" s="16" t="s">
+      <c r="U48" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="V48" s="16" t="s">
+      <c r="V48" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="W48" s="16" t="s">
+      <c r="W48" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="X48" s="16" t="s">
+      <c r="X48" s="15" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7369,46 +7361,46 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="E50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="K50" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N50" s="22">
+      <c r="K50" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="21">
         <v>273434700</v>
       </c>
       <c r="O50" s="9" t="s">
@@ -7417,437 +7409,437 @@
       <c r="P50" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q50" s="16">
+      <c r="Q50" s="15">
         <v>9999</v>
       </c>
-      <c r="R50" s="16" t="s">
+      <c r="R50" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="S50" s="16" t="s">
+      <c r="S50" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="T50" s="16" t="s">
+      <c r="T50" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="U50" s="29" t="s">
+      <c r="U50" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="V50" s="16" t="s">
+      <c r="V50" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="W50" s="16" t="s">
+      <c r="W50" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="X50" s="29" t="s">
+      <c r="X50" s="28" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="29" t="s">
+      <c r="F51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51" s="12" t="s">
+      <c r="J51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="Q51" s="16">
+      <c r="Q51" s="15">
         <v>24</v>
       </c>
-      <c r="R51" s="16" t="s">
+      <c r="R51" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="S51" s="16" t="s">
+      <c r="S51" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="T51" s="16" t="s">
+      <c r="T51" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="U51" s="16" t="s">
+      <c r="U51" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="V51" s="29" t="s">
+      <c r="V51" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="W51" s="16" t="s">
+      <c r="W51" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="X51" s="29" t="s">
+      <c r="X51" s="28" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:24" ht="15" customHeight="1">
+      <c r="A52" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="F52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="15">
+        <v>9999</v>
+      </c>
+      <c r="H52" s="15">
+        <v>9999</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J52" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="16">
+      <c r="K52" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="15">
         <v>9999</v>
       </c>
-      <c r="H52" s="16">
-        <v>9999</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" s="16" t="s">
+      <c r="N52" s="21">
+        <v>77693654322</v>
+      </c>
+      <c r="O52" s="11">
+        <v>43899</v>
+      </c>
+      <c r="P52" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="K52" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L52" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M52" s="16">
-        <v>9999</v>
-      </c>
-      <c r="N52" s="22">
-        <v>77693654322</v>
-      </c>
-      <c r="O52" s="12">
-        <v>43899</v>
-      </c>
-      <c r="P52" s="12" t="s">
+      <c r="Q52" s="15">
+        <v>36</v>
+      </c>
+      <c r="R52" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="Q52" s="16" t="s">
+      <c r="S52" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="R52" s="16" t="s">
+      <c r="T52" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="U52" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="S52" s="16" t="s">
+      <c r="V52" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="T52" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="U52" s="16" t="s">
+      <c r="W52" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="V52" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="W52" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="X52" s="16" t="s">
+      <c r="X52" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="E53" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="F53" s="15">
+        <v>9999</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="15">
+        <v>9999</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="15">
+        <v>9999</v>
+      </c>
+      <c r="N53" s="21">
+        <v>135000000</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>10</v>
+      </c>
+      <c r="R53" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="S53" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="U53" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="F53" s="16">
-        <v>9999</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" s="16">
-        <v>9999</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M53" s="16">
-        <v>9999</v>
-      </c>
-      <c r="N53" s="22">
-        <v>135000000</v>
-      </c>
-      <c r="O53" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="P53" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q53" s="16">
-        <v>10</v>
-      </c>
-      <c r="R53" s="16" t="s">
+      <c r="V53" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="S53" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="T53" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="U53" s="16" t="s">
+      <c r="W53" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="V53" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="W53" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="X53" s="16" t="s">
+      <c r="X53" s="15" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="F54" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="I54" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="16" t="s">
+      <c r="J54" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="L54" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="J54" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="16" t="s">
+      <c r="M54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="P54" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="M54" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O54" s="12" t="s">
+      <c r="Q54" s="15">
+        <v>18</v>
+      </c>
+      <c r="R54" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="S54" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="Q54" s="16">
-        <v>18</v>
-      </c>
-      <c r="R54" s="16" t="s">
+      <c r="T54" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U54" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="S54" s="16" t="s">
+      <c r="V54" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="T54" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="U54" s="16" t="s">
+      <c r="W54" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="V54" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="W54" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="X54" s="16" t="s">
+      <c r="X54" s="15" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="D55" s="15">
+        <v>9999</v>
+      </c>
+      <c r="E55" s="15">
+        <v>9999</v>
+      </c>
+      <c r="F55" s="15">
+        <v>9999</v>
+      </c>
+      <c r="G55" s="15">
+        <v>9999</v>
+      </c>
+      <c r="H55" s="15">
+        <v>9999</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="15">
+        <v>9999</v>
+      </c>
+      <c r="N55" s="21">
+        <v>9999</v>
+      </c>
+      <c r="O55" s="11">
+        <v>9999</v>
+      </c>
+      <c r="P55" s="11">
+        <v>9999</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R55" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="S55" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U55" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="D55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="E55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="F55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="G55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="H55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="J55" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="N55" s="22">
-        <v>9999</v>
-      </c>
-      <c r="O55" s="12">
-        <v>9999</v>
-      </c>
-      <c r="P55" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Q55" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R55" s="16" t="s">
+      <c r="V55" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="S55" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="T55" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="U55" s="16" t="s">
+      <c r="W55" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="V55" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="W55" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="X55" s="16" t="s">
+      <c r="X55" s="15" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="D56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>29</v>
@@ -7859,148 +7851,148 @@
         <v>40186</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Q56" s="7">
         <v>9999</v>
       </c>
       <c r="R56" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="U56" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="S56" s="7" t="s">
+      <c r="V56" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="T56" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="U56" s="7" t="s">
+      <c r="W56" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="V56" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="W56" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="X56" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="D57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="J57" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="11">
+        <v>45327</v>
+      </c>
+      <c r="P57" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="16" t="s">
+      <c r="Q57" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R57" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="J57" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N57" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O57" s="12">
-        <v>45327</v>
-      </c>
-      <c r="P57" s="12" t="s">
+      <c r="S57" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="Q57" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R57" s="16" t="s">
+      <c r="T57" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U57" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="S57" s="16" t="s">
+      <c r="V57" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="T57" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="U57" s="16" t="s">
+      <c r="W57" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="V57" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="W57" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="X57" s="16" t="s">
+      <c r="X57" s="15" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N58" s="22" t="s">
+      <c r="A58" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="21" t="s">
         <v>29</v>
       </c>
       <c r="O58" s="9" t="s">
@@ -8009,72 +8001,72 @@
       <c r="P58" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q58" s="15">
         <v>9999</v>
       </c>
-      <c r="R58" s="16" t="s">
+      <c r="R58" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="U58" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="V58" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="S58" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="T58" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="U58" s="16" t="s">
+      <c r="W58" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="V58" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="W58" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="X58" s="16" t="s">
+      <c r="X58" s="15" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>683</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N59" s="22" t="s">
+      <c r="K59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" s="21" t="s">
         <v>52</v>
       </c>
       <c r="O59" s="9" t="s">
@@ -8083,1804 +8075,1804 @@
       <c r="P59" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="15">
         <v>9999</v>
       </c>
-      <c r="R59" s="16" t="s">
+      <c r="R59" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="S59" s="16" t="s">
+      <c r="V59" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="T59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="U59" s="16" t="s">
+      <c r="W59" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="V59" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="W59" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="X59" s="16" t="s">
+      <c r="X59" s="15" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>690</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="E60" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="F60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="H60" s="15">
+        <v>9999</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="16" t="s">
+      <c r="K60" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" s="21" t="s">
         <v>694</v>
       </c>
-      <c r="H60" s="16">
+      <c r="O60" s="11">
+        <v>43625</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q60" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="R60" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="S60" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="T60" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="U60" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="V60" s="15">
         <v>9999</v>
       </c>
-      <c r="I60" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" s="22" t="s">
-        <v>696</v>
-      </c>
-      <c r="O60" s="12">
-        <v>43625</v>
-      </c>
-      <c r="P60" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q60" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="S60" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="T60" s="16" t="s">
+      <c r="W60" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="V60" s="16">
-        <v>9999</v>
-      </c>
-      <c r="W60" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="X60" s="16" t="s">
+      <c r="X60" s="15" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="D61" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="E61" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="F61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="I61" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="16" t="s">
+      <c r="K61" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="I61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="16" t="s">
+      <c r="N61" s="21">
+        <v>38626862120</v>
+      </c>
+      <c r="O61" s="11">
+        <v>43079</v>
+      </c>
+      <c r="P61" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="K61" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M61" s="16" t="s">
+      <c r="Q61" s="15">
+        <v>15</v>
+      </c>
+      <c r="R61" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="N61" s="22">
-        <v>38626862120</v>
-      </c>
-      <c r="O61" s="12">
-        <v>43079</v>
-      </c>
-      <c r="P61" s="12" t="s">
+      <c r="S61" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="Q61" s="16">
-        <v>15</v>
-      </c>
-      <c r="R61" s="16" t="s">
+      <c r="T61" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="S61" s="16" t="s">
+      <c r="U61" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="T61" s="16" t="s">
+      <c r="V61" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="U61" s="16" t="s">
+      <c r="W61" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="V61" s="16" t="s">
+      <c r="X61" s="15" t="s">
         <v>717</v>
-      </c>
-      <c r="W61" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="X61" s="16" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>722</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="F62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="K62" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="16" t="s">
+      <c r="N62" s="21">
+        <v>22954368529.639999</v>
+      </c>
+      <c r="O62" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="K62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M62" s="16" t="s">
+      <c r="P62" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="N62" s="22">
-        <v>22954368529.639999</v>
-      </c>
-      <c r="O62" s="12" t="s">
+      <c r="Q62" s="15">
+        <v>11</v>
+      </c>
+      <c r="R62" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="P62" s="12" t="s">
+      <c r="S62" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="Q62" s="16">
-        <v>11</v>
-      </c>
-      <c r="R62" s="16" t="s">
+      <c r="T62" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="S62" s="16" t="s">
+      <c r="U62" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V62" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="T62" s="16" t="s">
+      <c r="W62" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V62" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="W62" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="X62" s="16" t="s">
-        <v>719</v>
+      <c r="X62" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="D63" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="E63" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="D63" s="16" t="s">
+      <c r="F63" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="I63" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="N63" s="21">
+        <v>10920880573</v>
+      </c>
+      <c r="O63" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="16" t="s">
+      <c r="P63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63" s="15">
+        <v>8</v>
+      </c>
+      <c r="R63" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="I63" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>725</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L63" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="N63" s="22">
-        <v>10920880573</v>
-      </c>
-      <c r="O63" s="12" t="s">
+      <c r="S63" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="T63" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="P63" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q63" s="16">
-        <v>8</v>
-      </c>
-      <c r="R63" s="16" t="s">
+      <c r="U63" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="S63" s="16" t="s">
+      <c r="V63" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="W63" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="U63" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="V63" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="W63" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="X63" s="16" t="s">
-        <v>719</v>
+      <c r="X63" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="D64" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="E64" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="D64" s="16" t="s">
+      <c r="F64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="K64" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="21">
+        <v>9999</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q64" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R64" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="16" t="s">
+      <c r="S64" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="K64" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L64" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N64" s="22">
-        <v>9999</v>
-      </c>
-      <c r="O64" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P64" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q64" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R64" s="16" t="s">
+      <c r="T64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U64" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V64" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="S64" s="16" t="s">
+      <c r="W64" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="T64" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U64" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V64" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="W64" s="16" t="s">
-        <v>754</v>
-      </c>
-      <c r="X64" s="16" t="s">
-        <v>719</v>
+      <c r="X64" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="D65" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="E65" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="F65" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="I65" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="F65" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="16" t="s">
+      <c r="J65" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="K65" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N65" s="21">
+        <v>21503897914</v>
+      </c>
+      <c r="O65" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="P65" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="K65" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L65" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M65" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="N65" s="22">
-        <v>21503897914</v>
-      </c>
-      <c r="O65" s="12" t="s">
+      <c r="Q65" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="R65" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="P65" s="12" t="s">
+      <c r="S65" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="T65" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="Q65" s="16">
-        <v>17.5</v>
-      </c>
-      <c r="R65" s="16" t="s">
+      <c r="U65" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V65" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="S65" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="T65" s="16" t="s">
+      <c r="W65" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="U65" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V65" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="W65" s="16" t="s">
-        <v>768</v>
-      </c>
-      <c r="X65" s="16" t="s">
-        <v>719</v>
+      <c r="X65" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="D66" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="F66" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="K66" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="21">
+        <v>32455048148</v>
+      </c>
+      <c r="O66" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="F66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="16" t="s">
+      <c r="P66" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="K66" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L66" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="22">
-        <v>32455048148</v>
-      </c>
-      <c r="O66" s="12" t="s">
+      <c r="Q66" s="15">
+        <v>24</v>
+      </c>
+      <c r="R66" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="P66" s="12" t="s">
+      <c r="S66" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="T66" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V66" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="Q66" s="16">
-        <v>24</v>
-      </c>
-      <c r="R66" s="16" t="s">
+      <c r="W66" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="S66" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="T66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U66" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V66" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="W66" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="X66" s="16" t="s">
-        <v>719</v>
+      <c r="X66" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:24">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="D67" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="E67" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="F67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="K67" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="21">
+        <v>3888599332</v>
+      </c>
+      <c r="O67" s="11">
+        <v>41189</v>
+      </c>
+      <c r="P67" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="16" t="s">
+      <c r="Q67" s="15">
+        <v>13</v>
+      </c>
+      <c r="R67" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="K67" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="22">
-        <v>3888599332</v>
-      </c>
-      <c r="O67" s="12">
-        <v>41189</v>
-      </c>
-      <c r="P67" s="12" t="s">
+      <c r="S67" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="Q67" s="16">
-        <v>13</v>
-      </c>
-      <c r="R67" s="16" t="s">
+      <c r="T67" s="15">
+        <v>219</v>
+      </c>
+      <c r="U67" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V67" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="S67" s="16" t="s">
+      <c r="W67" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="T67" s="16">
-        <v>219</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V67" s="16" t="s">
-        <v>789</v>
-      </c>
-      <c r="W67" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="X67" s="16" t="s">
-        <v>719</v>
+      <c r="X67" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="D68" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="E68" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="F68" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="K68" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="21">
+        <v>14598223097.280001</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68" s="15">
+        <v>12</v>
+      </c>
+      <c r="R68" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="F68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="16" t="s">
+      <c r="S68" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="K68" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="22">
-        <v>14598223097.280001</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P68" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q68" s="16">
-        <v>12</v>
-      </c>
-      <c r="R68" s="16" t="s">
+      <c r="T68" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V68" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="S68" s="16" t="s">
+      <c r="W68" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="T68" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V68" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="W68" s="16" t="s">
-        <v>800</v>
-      </c>
-      <c r="X68" s="16" t="s">
-        <v>719</v>
+      <c r="X68" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15" customHeight="1">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>801</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="D69" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="E69" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="F69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="N69" s="21">
+        <v>16886338370</v>
+      </c>
+      <c r="O69" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>796</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M69" s="16" t="s">
+      <c r="P69" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="N69" s="22">
-        <v>16886338370</v>
-      </c>
-      <c r="O69" s="12" t="s">
+      <c r="Q69" s="15">
+        <v>18</v>
+      </c>
+      <c r="R69" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="P69" s="12" t="s">
+      <c r="S69" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="Q69" s="16">
-        <v>18</v>
-      </c>
-      <c r="R69" s="29" t="s">
+      <c r="T69" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="S69" s="16" t="s">
+      <c r="U69" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V69" s="28" t="s">
         <v>810</v>
       </c>
-      <c r="T69" s="16" t="s">
+      <c r="W69" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="U69" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V69" s="29" t="s">
+      <c r="X69" s="28" t="s">
         <v>812</v>
-      </c>
-      <c r="W69" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="X69" s="29" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="D70" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="E70" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="F70" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="K70" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="21">
+        <v>16782892881</v>
+      </c>
+      <c r="O70" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="F70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="16" t="s">
+      <c r="P70" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="K70" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M70" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="22">
-        <v>16782892881</v>
-      </c>
-      <c r="O70" s="12" t="s">
+      <c r="Q70" s="15">
+        <v>15</v>
+      </c>
+      <c r="R70" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="P70" s="12" t="s">
+      <c r="S70" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="Q70" s="16">
-        <v>15</v>
-      </c>
-      <c r="R70" s="16" t="s">
+      <c r="T70" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="S70" s="16" t="s">
+      <c r="U70" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V70" s="15" t="s">
         <v>824</v>
       </c>
-      <c r="T70" s="16" t="s">
+      <c r="W70" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="U70" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V70" s="16" t="s">
-        <v>826</v>
-      </c>
-      <c r="W70" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="X70" s="16" t="s">
-        <v>719</v>
+      <c r="X70" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="1:24">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="D71" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="E71" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="F71" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="K71" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="16" t="s">
+      <c r="L71" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="M71" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="L71" s="16" t="s">
+      <c r="N71" s="21">
+        <v>16864638530</v>
+      </c>
+      <c r="O71" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="M71" s="16" t="s">
+      <c r="P71" s="11">
+        <v>44350</v>
+      </c>
+      <c r="Q71" s="15">
+        <v>15</v>
+      </c>
+      <c r="R71" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="N71" s="22">
-        <v>16864638530</v>
-      </c>
-      <c r="O71" s="12" t="s">
+      <c r="S71" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="P71" s="12">
-        <v>44350</v>
-      </c>
-      <c r="Q71" s="16">
-        <v>15</v>
-      </c>
-      <c r="R71" s="16" t="s">
+      <c r="T71" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="U71" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V71" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="T71" s="16" t="s">
+      <c r="W71" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V71" s="16" t="s">
-        <v>841</v>
-      </c>
-      <c r="W71" s="16" t="s">
-        <v>842</v>
-      </c>
-      <c r="X71" s="16" t="s">
-        <v>719</v>
+      <c r="X71" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="D72" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="E72" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="F72" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="K72" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="N72" s="21">
+        <v>22270823688</v>
+      </c>
+      <c r="O72" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="16" t="s">
+      <c r="P72" s="11">
+        <v>44297</v>
+      </c>
+      <c r="Q72" s="15">
+        <v>15</v>
+      </c>
+      <c r="R72" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="K72" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M72" s="16" t="s">
-        <v>836</v>
-      </c>
-      <c r="N72" s="22">
-        <v>22270823688</v>
-      </c>
-      <c r="O72" s="12" t="s">
+      <c r="S72" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="T72" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="P72" s="12">
-        <v>44297</v>
-      </c>
-      <c r="Q72" s="16">
-        <v>15</v>
-      </c>
-      <c r="R72" s="16" t="s">
+      <c r="U72" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V72" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="S72" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="T72" s="16" t="s">
+      <c r="W72" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="U72" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V72" s="16" t="s">
-        <v>852</v>
-      </c>
-      <c r="W72" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="X72" s="16" t="s">
-        <v>719</v>
+      <c r="X72" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="D73" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="E73" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="F73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="K73" s="15" t="s">
         <v>858</v>
       </c>
-      <c r="F73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="16" t="s">
+      <c r="L73" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="21">
+        <v>12341721000</v>
+      </c>
+      <c r="O73" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="P73" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="L73" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N73" s="22">
-        <v>12341721000</v>
-      </c>
-      <c r="O73" s="12" t="s">
+      <c r="Q73" s="15">
+        <v>15</v>
+      </c>
+      <c r="R73" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="P73" s="12" t="s">
+      <c r="S73" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="T73" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="Q73" s="16">
-        <v>15</v>
-      </c>
-      <c r="R73" s="16" t="s">
+      <c r="U73" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="V73" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="W73" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="S73" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="T73" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="U73" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V73" s="16" t="s">
-        <v>852</v>
-      </c>
-      <c r="W73" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="X73" s="16" t="s">
-        <v>719</v>
+      <c r="X73" s="15" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>866</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="D74" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="E74" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="21">
+        <v>9999</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q74" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R74" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="S74" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M74" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="22">
-        <v>9999</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P74" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q74" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R74" s="16" t="s">
+      <c r="T74" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="S74" s="16" t="s">
+      <c r="U74" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="T74" s="16" t="s">
+      <c r="V74" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="U74" s="16" t="s">
+      <c r="W74" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="V74" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="W74" s="16" t="s">
-        <v>875</v>
-      </c>
-      <c r="X74" s="16" t="s">
+      <c r="X74" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:24">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="D75" s="15" t="s">
         <v>877</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="E75" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="21">
+        <v>9999</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P75" s="11">
+        <v>43466</v>
+      </c>
+      <c r="Q75" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R75" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="S75" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M75" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N75" s="22">
-        <v>9999</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P75" s="12">
-        <v>43466</v>
-      </c>
-      <c r="Q75" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R75" s="16" t="s">
+      <c r="T75" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="S75" s="16" t="s">
+      <c r="U75" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="T75" s="16" t="s">
+      <c r="V75" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="U75" s="16" t="s">
+      <c r="W75" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="V75" s="16" t="s">
-        <v>884</v>
-      </c>
-      <c r="W75" s="16" t="s">
-        <v>885</v>
-      </c>
-      <c r="X75" s="16" t="s">
+      <c r="X75" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="21">
+        <v>9999</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q76" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R76" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="S76" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M76" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N76" s="22">
+      <c r="T76" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="U76" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="V76" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="W76" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="X76" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" s="35" customFormat="1">
+      <c r="A77" s="40" t="s">
+        <v>892</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="L77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="P77" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77" s="40">
         <v>9999</v>
       </c>
-      <c r="O76" s="12" t="s">
+      <c r="R77" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="S77" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="T77" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="U77" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="V77" s="40" t="s">
+        <v>898</v>
+      </c>
+      <c r="W77" s="40" t="s">
+        <v>899</v>
+      </c>
+      <c r="X77" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="35" customFormat="1">
+      <c r="A78" s="40" t="s">
+        <v>900</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>901</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="P76" s="12" t="s">
+      <c r="P78" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q76" s="16">
+      <c r="Q78" s="40">
         <v>9999</v>
       </c>
-      <c r="R76" s="16" t="s">
-        <v>888</v>
-      </c>
-      <c r="S76" s="16" t="s">
-        <v>889</v>
-      </c>
-      <c r="T76" s="16" t="s">
-        <v>890</v>
-      </c>
-      <c r="U76" s="16" t="s">
-        <v>891</v>
-      </c>
-      <c r="V76" s="16" t="s">
-        <v>892</v>
-      </c>
-      <c r="W76" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="X76" s="16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" s="34" customFormat="1">
-      <c r="A77" s="31" t="s">
-        <v>894</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>895</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="31" t="s">
-        <v>896</v>
-      </c>
-      <c r="K77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="L77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="M77" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="N77" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O77" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="P77" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q77" s="31">
-        <v>9999</v>
-      </c>
-      <c r="R77" s="31" t="s">
-        <v>897</v>
-      </c>
-      <c r="S77" s="31" t="s">
-        <v>898</v>
-      </c>
-      <c r="T77" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="U77" s="31" t="s">
-        <v>899</v>
-      </c>
-      <c r="V77" s="31" t="s">
-        <v>900</v>
-      </c>
-      <c r="W77" s="31" t="s">
-        <v>901</v>
-      </c>
-      <c r="X77" s="31" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" s="34" customFormat="1">
-      <c r="A78" s="31" t="s">
+      <c r="R78" s="40" t="s">
         <v>902</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="S78" s="40" t="s">
         <v>903</v>
       </c>
-      <c r="C78" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N78" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O78" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="P78" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q78" s="31">
-        <v>9999</v>
-      </c>
-      <c r="R78" s="31" t="s">
+      <c r="T78" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="U78" s="40" t="s">
         <v>904</v>
       </c>
-      <c r="S78" s="31" t="s">
+      <c r="V78" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="T78" s="31" t="s">
-        <v>905</v>
-      </c>
-      <c r="U78" s="31" t="s">
+      <c r="W78" s="40" t="s">
         <v>906</v>
       </c>
-      <c r="V78" s="31" t="s">
-        <v>907</v>
-      </c>
-      <c r="W78" s="31" t="s">
-        <v>908</v>
-      </c>
-      <c r="X78" s="31" t="s">
+      <c r="X78" s="40" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="D79" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="E79" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q79" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R79" s="28" t="s">
         <v>911</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="S79" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="T79" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U79" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="E79" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M79" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N79" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O79" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P79" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q79" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R79" s="29" t="s">
+      <c r="V79" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="S79" s="16" t="s">
-        <v>898</v>
-      </c>
-      <c r="T79" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="U79" s="16" t="s">
+      <c r="W79" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="V79" s="16" t="s">
-        <v>915</v>
-      </c>
-      <c r="W79" s="16" t="s">
-        <v>916</v>
-      </c>
-      <c r="X79" s="16" t="s">
+      <c r="X79" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="C80" s="28" t="s">
         <v>917</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="D80" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q80" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R80" s="28" t="s">
         <v>918</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="S80" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="T80" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="U80" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N80" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O80" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P80" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q80" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R80" s="29" t="s">
+      <c r="V80" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="S80" s="16" t="s">
-        <v>898</v>
-      </c>
-      <c r="T80" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="U80" s="16" t="s">
+      <c r="W80" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="V80" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="W80" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="X80" s="16" t="s">
+      <c r="X80" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:24">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="D81" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="E81" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="F81" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N81" s="21">
+        <v>9999</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q81" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R81" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="S81" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="T81" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="U81" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="F81" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>928</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J81" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="L81" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M81" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N81" s="22">
-        <v>9999</v>
-      </c>
-      <c r="O81" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P81" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q81" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R81" s="16" t="s">
+      <c r="V81" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="S81" s="16" t="s">
-        <v>898</v>
-      </c>
-      <c r="T81" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="U81" s="16" t="s">
+      <c r="W81" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="V81" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="W81" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="X81" s="16" t="s">
+      <c r="X81" s="15" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="E82" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="16" t="s">
+      <c r="F82" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="J82" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N82" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q82" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R82" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I82" s="16" t="s">
+      <c r="S82" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="T82" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="U82" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="J82" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N82" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O82" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P82" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q82" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R82" s="16" t="s">
+      <c r="V82" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="S82" s="16" t="s">
-        <v>898</v>
-      </c>
-      <c r="T82" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="U82" s="16" t="s">
+      <c r="W82" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="V82" s="16" t="s">
-        <v>940</v>
-      </c>
-      <c r="W82" s="16" t="s">
-        <v>941</v>
-      </c>
-      <c r="X82" s="16" t="s">
+      <c r="X82" s="15" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:24">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="D83" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="E83" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="F83" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="H83" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="K83" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="16" t="s">
+      <c r="L83" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N83" s="21">
+        <v>9999</v>
+      </c>
+      <c r="O83" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q83" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R83" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="H83" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I83" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="K83" s="16" t="s">
+      <c r="S83" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="L83" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M83" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N83" s="22">
-        <v>9999</v>
-      </c>
-      <c r="O83" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P83" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q83" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R83" s="16" t="s">
+      <c r="T83" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="S83" s="16" t="s">
+      <c r="U83" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="V83" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="T83" s="16" t="s">
+      <c r="W83" s="15" t="s">
         <v>951</v>
       </c>
-      <c r="U83" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="V83" s="16" t="s">
-        <v>952</v>
-      </c>
-      <c r="W83" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="X83" s="16" t="s">
+      <c r="X83" s="15" t="s">
         <v>400</v>
       </c>
     </row>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C6BDF3-A3A1-425F-A61B-B3A4EF9895A2}"/>
+  <xr:revisionPtr revIDLastSave="512" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F1CB01-D0D3-4FCA-B2A0-1AFDAA164CCF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$1048572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$1048573</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="969">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -2924,6 +2924,43 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0088</t>
   </si>
   <si>
+    <t>P0089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortalecimiento de acciones para la gestión integral del agua como base del ordenamiento territorial sostenible en La Mojana: Antioquia, Bolívar, Córdoba y Sucre
+</t>
+  </si>
+  <si>
+    <t>Fortalecimiento de acciones para
+la gestión integral del agua como base del ordenamiento territorial sostenible en La Mojana: Antioquia,
+Bolívar, Córdoba y Sucre</t>
+  </si>
+  <si>
+    <t>Recuperar la función de regulación hídrica de La Mojana para la adaptación al clima basada en ecosistemas, comunidades y medios de vida, con inclusión social y para la gestión del riesgo.</t>
+  </si>
+  <si>
+    <t>Convenio internacional No.
+1018 de 2023</t>
+  </si>
+  <si>
+    <t>El proyecto Fortalecimiento de acciones para la gestión integral del agua como base del ordenamiento territorial sostenible en La Mojana cuenta con una inversión de $56 mil millones del Fondo Nacional Ambiental y es ejecutado mediante el convenio internacional No. 1018 de 2023 con el PNUD, finalizando en 2024. Su objetivo es restaurar ecosistemas y rehabilitar caños en Antioquia, Bolívar, Córdoba y Sucre, promoviendo la conectividad ecológica e hidrológica. Además, busca identificar y remediar la contaminación por metales pesados, fortalecer la gobernanza del agua y desarrollar modelos de negocio basados en biodiversidad. Se espera la restauración de 8.140 ha y la rehabilitación de 60 km de caños.</t>
+  </si>
+  <si>
+    <t>Región de La Mojana</t>
+  </si>
+  <si>
+    <t>8.140 hectáreas y 60 kilómetros de caños</t>
+  </si>
+  <si>
+    <t>No se encontró información sobre el contrato (presupuesto, plazos, interventores) en la carpeta. Sin embargo, los productos contienen información relevante, pertinente y de buena calidad.</t>
+  </si>
+  <si>
+    <t>Macrocuenca Magdalena-Cauca, Fondo Nacional Ambiental, PNUD, ordenamiento territorial sostenible, gestión integral del agua, La Mojana, restauración de ecosistemas, rehabilitación de caños, conectividad hidrológica y ecológica, remediación de metales pesados, gobernanza del agua, economía de la biodiversidad.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0089</t>
+  </si>
+  <si>
     <t>P0090</t>
   </si>
   <si>
@@ -2934,9 +2971,6 @@
   </si>
   <si>
     <t>La carpeta contiene documentos del Instituto Alexander von Humboldt con información de la región de La Mojana, relacionada a contaminación por mercurio, lineamientos para el manejo sostenible de sistemas de aprovechamiento de recursos naturales in situ y lecciones aprendidas de restauración y conservación. Asi como un documento general de lineamientos de aprovechamiento sostenible de recursos naturales, que puede ser implementado en la region de la Mojana.</t>
-  </si>
-  <si>
-    <t>Región de La Mojana</t>
   </si>
   <si>
     <t>La carpeta contiene documentos del insituto Alexander Von Humboldt relevantes para la región de La Mojana, sin embargo, no estan relacionados entre si o hacia un mismo proyecto.</t>
@@ -3126,6 +3160,27 @@
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0096</t>
+  </si>
+  <si>
+    <t>P0107</t>
+  </si>
+  <si>
+    <t>Información proyecto FVC Mojana</t>
+  </si>
+  <si>
+    <t>Promover un nuevo modelo de gestión de riesgo para la región de la Mojana, vinculado al cambio climático y a los desastres naturales. Lo anterior, basado en soluciones no reactivas y de adaptación de las comunidades y resiliencia a largo plazo frente a escenarios de cambio climático.</t>
+  </si>
+  <si>
+    <t>Tras la fuerte afectación de la región de la Mojana debido al fenómeno de la niña entre el 2010 y 2011, el proyecto buscaba promover la rehabilitación de los ecosistemas afectados y la adaptación de las comunidades a eventos climáticos extremos. Para esto, en los municipios de Ayapel, San Marcos y San Benito Abad se construyeron acuerdos de conservación para la rehabilitación de humedales y de relictos de bosques. Con el fin de contribuir a mejorar las condiciones socio-ecosistémicas en la región, contribuyendo en la rehabilitación del servicio de provisión y regulación hídrica, de la fauna local, el aumento en la disponibilidad de especies de flora de múltiples usos (maderables, frutales o fibras) y reducir el riesgo de inundaciones y sequias.</t>
+  </si>
+  <si>
+    <t>Esta carpeta contiene información adicional a la que se encuentra en la P0004 y que también responde al proyecto Mojana Clima y Vida. Esta carpeta contiene información relacionada con los componentes 1 y 3 del proyecto: gestión del conocimiento y sistema de alertas tempranas. Ambos tiene información relacionada con las metas de cada uno de los componentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio Climático, resiliencia, rehabilitación, inundación, planificación territorial, gestión del riesgo, sistema de alertas tempranas, </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107</t>
   </si>
 </sst>
 </file>
@@ -3206,7 +3261,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3225,8 +3280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3262,12 +3323,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3317,9 +3393,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3394,12 +3467,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -3695,11 +3805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <pane xSplit="2" topLeftCell="C61" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C78" sqref="C78"/>
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3886,7 +3996,7 @@
       <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -4148,7 +4258,7 @@
       <c r="O6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="29">
         <v>42005</v>
       </c>
       <c r="Q6" s="13">
@@ -4398,7 +4508,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="234">
       <c r="A10" s="7" t="s">
         <v>144</v>
       </c>
@@ -4408,7 +4518,7 @@
       <c r="C10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="45" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -4694,77 +4804,77 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="35" customFormat="1">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:24" s="34" customFormat="1">
+      <c r="A14" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="33">
+      <c r="K14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="32">
         <v>742510000</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="33">
         <v>41670</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="31">
         <v>7</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="T14" s="32" t="s">
+      <c r="T14" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="U14" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="W14" s="32" t="s">
+      <c r="W14" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="X14" s="32" t="s">
+      <c r="X14" s="31" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5111,7 +5221,7 @@
       <c r="O19" s="7">
         <v>2002</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="19">
         <v>2004</v>
       </c>
       <c r="Q19" s="7">
@@ -5179,7 +5289,7 @@
       <c r="M20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O20" s="11">
@@ -5253,7 +5363,7 @@
       <c r="M21" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O21" s="11" t="s">
@@ -5550,7 +5660,7 @@
       <c r="M25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="20">
         <v>9999</v>
       </c>
       <c r="O25" s="11" t="s">
@@ -5624,7 +5734,7 @@
       <c r="M26" s="15">
         <v>9999</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="20">
         <v>9999</v>
       </c>
       <c r="O26" s="11">
@@ -5694,7 +5804,7 @@
       <c r="M27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O27" s="11">
@@ -5728,77 +5838,77 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="35" customFormat="1">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:24" s="34" customFormat="1">
+      <c r="A28" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="32" t="s">
+      <c r="F28" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="K28" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="32" t="s">
+      <c r="K28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N28" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="33">
         <v>41340</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="33">
         <v>41375</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="31">
         <v>4</v>
       </c>
-      <c r="R28" s="32" t="s">
+      <c r="R28" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="S28" s="32" t="s">
+      <c r="S28" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="T28" s="32" t="s">
+      <c r="T28" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="U28" s="32" t="s">
+      <c r="U28" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="V28" s="32" t="s">
+      <c r="V28" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="W28" s="32" t="s">
+      <c r="W28" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="X28" s="32" t="s">
+      <c r="X28" s="31" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5916,13 +6026,13 @@
       <c r="M30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <v>253146213</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="30">
         <v>41199</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="30">
         <v>41563</v>
       </c>
       <c r="Q30" s="7">
@@ -6064,13 +6174,13 @@
       <c r="M32" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <v>216000000</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="30">
         <v>41495</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="30">
         <v>41920</v>
       </c>
       <c r="Q32" s="7">
@@ -6102,7 +6212,7 @@
       <c r="A33" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>410</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -6320,151 +6430,151 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:25" s="34" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A36" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="32" t="s">
+      <c r="F36" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="K36" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="33">
+      <c r="K36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="32">
         <v>29636483347</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="33">
         <v>41610</v>
       </c>
-      <c r="P36" s="34" t="s">
+      <c r="P36" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="Q36" s="32">
+      <c r="Q36" s="31">
         <v>67</v>
       </c>
-      <c r="R36" s="36" t="s">
+      <c r="R36" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="S36" s="32" t="s">
+      <c r="S36" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="T36" s="32" t="s">
+      <c r="T36" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="U36" s="32" t="s">
+      <c r="U36" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="V36" s="32" t="s">
+      <c r="V36" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="W36" s="32" t="s">
+      <c r="W36" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="X36" s="32" t="s">
+      <c r="X36" s="31" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="35" customFormat="1">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:25" s="34" customFormat="1">
+      <c r="A37" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="F37" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="32" t="s">
+      <c r="F37" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="32" t="s">
+      <c r="H37" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="K37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="37">
+      <c r="K37" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="36">
         <v>1000000000</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="33">
         <v>41590</v>
       </c>
-      <c r="P37" s="38">
+      <c r="P37" s="37">
         <v>42311</v>
       </c>
-      <c r="Q37" s="32">
+      <c r="Q37" s="31">
         <v>15</v>
       </c>
-      <c r="R37" s="39" t="s">
+      <c r="R37" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="S37" s="32" t="s">
+      <c r="S37" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="T37" s="32" t="s">
+      <c r="T37" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="U37" s="32" t="s">
+      <c r="U37" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="V37" s="32" t="s">
+      <c r="V37" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="W37" s="32" t="s">
+      <c r="W37" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="X37" s="32" t="s">
+      <c r="X37" s="31" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6508,7 +6618,7 @@
       <c r="M38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="20">
         <v>9999</v>
       </c>
       <c r="O38" s="11">
@@ -6543,76 +6653,76 @@
       </c>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="C39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="24" t="s">
+      <c r="G39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="26" t="s">
+      <c r="K39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="P39" s="26" t="s">
+      <c r="P39" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q39" s="23">
         <v>9999</v>
       </c>
-      <c r="R39" s="24" t="s">
+      <c r="R39" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="S39" s="24" t="s">
+      <c r="S39" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="T39" s="24" t="s">
+      <c r="T39" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="U39" s="24" t="s">
+      <c r="U39" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="V39" s="24" t="s">
+      <c r="V39" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="W39" s="24" t="s">
+      <c r="W39" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="X39" s="24" t="s">
+      <c r="X39" s="23" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6731,7 +6841,7 @@
       <c r="M41" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="20">
         <v>7578039678</v>
       </c>
       <c r="O41" s="11" t="s">
@@ -6806,10 +6916,10 @@
       <c r="M42" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="26">
         <v>6471757378</v>
       </c>
-      <c r="O42" s="21" t="s">
+      <c r="O42" s="20" t="s">
         <v>491</v>
       </c>
       <c r="P42" s="11" t="s">
@@ -6882,13 +6992,13 @@
       <c r="M43" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N43" s="21">
         <v>0</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="30">
         <v>2</v>
       </c>
-      <c r="P43" s="31">
+      <c r="P43" s="30">
         <v>2</v>
       </c>
       <c r="Q43" s="7">
@@ -7030,7 +7140,7 @@
       <c r="M45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="20">
         <v>6874244540</v>
       </c>
       <c r="O45" s="11" t="s">
@@ -7252,7 +7362,7 @@
       <c r="M48" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N48" s="20">
         <v>2066969459</v>
       </c>
       <c r="O48" s="11">
@@ -7400,7 +7510,7 @@
       <c r="M50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50" s="20">
         <v>273434700</v>
       </c>
       <c r="O50" s="9" t="s">
@@ -7421,7 +7531,7 @@
       <c r="T50" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="U50" s="28" t="s">
+      <c r="U50" s="27" t="s">
         <v>593</v>
       </c>
       <c r="V50" s="15" t="s">
@@ -7430,7 +7540,7 @@
       <c r="W50" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="X50" s="28" t="s">
+      <c r="X50" s="27" t="s">
         <v>596</v>
       </c>
     </row>
@@ -7441,7 +7551,7 @@
       <c r="B51" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>599</v>
       </c>
       <c r="D51" s="15" t="s">
@@ -7456,7 +7566,7 @@
       <c r="G51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H51" s="27" t="s">
         <v>601</v>
       </c>
       <c r="I51" s="15" t="s">
@@ -7474,7 +7584,7 @@
       <c r="M51" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N51" s="21" t="s">
+      <c r="N51" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O51" s="11" t="s">
@@ -7498,13 +7608,13 @@
       <c r="U51" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="V51" s="28" t="s">
+      <c r="V51" s="27" t="s">
         <v>605</v>
       </c>
       <c r="W51" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="X51" s="28" t="s">
+      <c r="X51" s="27" t="s">
         <v>607</v>
       </c>
     </row>
@@ -7548,7 +7658,7 @@
       <c r="M52" s="15">
         <v>9999</v>
       </c>
-      <c r="N52" s="21">
+      <c r="N52" s="20">
         <v>77693654322</v>
       </c>
       <c r="O52" s="11">
@@ -7560,7 +7670,7 @@
       <c r="Q52" s="15">
         <v>36</v>
       </c>
-      <c r="R52" s="28" t="s">
+      <c r="R52" s="27" t="s">
         <v>614</v>
       </c>
       <c r="S52" s="15" t="s">
@@ -7622,7 +7732,7 @@
       <c r="M53" s="15">
         <v>9999</v>
       </c>
-      <c r="N53" s="21">
+      <c r="N53" s="20">
         <v>135000000</v>
       </c>
       <c r="O53" s="11" t="s">
@@ -7696,7 +7806,7 @@
       <c r="M54" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N54" s="21" t="s">
+      <c r="N54" s="20" t="s">
         <v>52</v>
       </c>
       <c r="O54" s="11" t="s">
@@ -7770,7 +7880,7 @@
       <c r="M55" s="15">
         <v>9999</v>
       </c>
-      <c r="N55" s="21">
+      <c r="N55" s="20">
         <v>9999</v>
       </c>
       <c r="O55" s="11">
@@ -7918,7 +8028,7 @@
       <c r="M57" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N57" s="21" t="s">
+      <c r="N57" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O57" s="11">
@@ -7992,7 +8102,7 @@
       <c r="M58" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N58" s="21" t="s">
+      <c r="N58" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O58" s="9" t="s">
@@ -8066,7 +8176,7 @@
       <c r="M59" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N59" s="21" t="s">
+      <c r="N59" s="20" t="s">
         <v>52</v>
       </c>
       <c r="O59" s="9" t="s">
@@ -8140,7 +8250,7 @@
       <c r="M60" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N60" s="21" t="s">
+      <c r="N60" s="20" t="s">
         <v>694</v>
       </c>
       <c r="O60" s="11">
@@ -8175,7 +8285,7 @@
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>702</v>
       </c>
       <c r="B61" s="15" t="s">
@@ -8214,7 +8324,7 @@
       <c r="M61" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="N61" s="21">
+      <c r="N61" s="20">
         <v>38626862120</v>
       </c>
       <c r="O61" s="11">
@@ -8288,7 +8398,7 @@
       <c r="M62" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="N62" s="21">
+      <c r="N62" s="20">
         <v>22954368529.639999</v>
       </c>
       <c r="O62" s="11" t="s">
@@ -8362,7 +8472,7 @@
       <c r="M63" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="N63" s="21">
+      <c r="N63" s="20">
         <v>10920880573</v>
       </c>
       <c r="O63" s="11" t="s">
@@ -8436,7 +8546,7 @@
       <c r="M64" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N64" s="21">
+      <c r="N64" s="20">
         <v>9999</v>
       </c>
       <c r="O64" s="11" t="s">
@@ -8510,7 +8620,7 @@
       <c r="M65" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N65" s="21">
+      <c r="N65" s="20">
         <v>21503897914</v>
       </c>
       <c r="O65" s="11" t="s">
@@ -8584,7 +8694,7 @@
       <c r="M66" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="21">
+      <c r="N66" s="20">
         <v>32455048148</v>
       </c>
       <c r="O66" s="11" t="s">
@@ -8658,7 +8768,7 @@
       <c r="M67" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N67" s="21">
+      <c r="N67" s="20">
         <v>3888599332</v>
       </c>
       <c r="O67" s="11">
@@ -8732,7 +8842,7 @@
       <c r="M68" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N68" s="21">
+      <c r="N68" s="20">
         <v>14598223097.280001</v>
       </c>
       <c r="O68" s="11" t="s">
@@ -8773,7 +8883,7 @@
       <c r="B69" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="27" t="s">
         <v>801</v>
       </c>
       <c r="D69" s="15" t="s">
@@ -8806,7 +8916,7 @@
       <c r="M69" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="N69" s="21">
+      <c r="N69" s="20">
         <v>16886338370</v>
       </c>
       <c r="O69" s="11" t="s">
@@ -8818,7 +8928,7 @@
       <c r="Q69" s="15">
         <v>18</v>
       </c>
-      <c r="R69" s="28" t="s">
+      <c r="R69" s="27" t="s">
         <v>807</v>
       </c>
       <c r="S69" s="15" t="s">
@@ -8830,13 +8940,13 @@
       <c r="U69" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="V69" s="28" t="s">
+      <c r="V69" s="27" t="s">
         <v>810</v>
       </c>
       <c r="W69" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="X69" s="28" t="s">
+      <c r="X69" s="27" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8880,7 +8990,7 @@
       <c r="M70" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N70" s="21">
+      <c r="N70" s="20">
         <v>16782892881</v>
       </c>
       <c r="O70" s="11" t="s">
@@ -8954,7 +9064,7 @@
       <c r="M71" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="N71" s="21">
+      <c r="N71" s="20">
         <v>16864638530</v>
       </c>
       <c r="O71" s="11" t="s">
@@ -9028,7 +9138,7 @@
       <c r="M72" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="N72" s="21">
+      <c r="N72" s="20">
         <v>22270823688</v>
       </c>
       <c r="O72" s="11" t="s">
@@ -9102,7 +9212,7 @@
       <c r="M73" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N73" s="21">
+      <c r="N73" s="20">
         <v>12341721000</v>
       </c>
       <c r="O73" s="11" t="s">
@@ -9176,7 +9286,7 @@
       <c r="M74" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N74" s="21">
+      <c r="N74" s="20">
         <v>9999</v>
       </c>
       <c r="O74" s="11" t="s">
@@ -9250,7 +9360,7 @@
       <c r="M75" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N75" s="21">
+      <c r="N75" s="20">
         <v>9999</v>
       </c>
       <c r="O75" s="11" t="s">
@@ -9324,7 +9434,7 @@
       <c r="M76" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N76" s="21">
+      <c r="N76" s="20">
         <v>9999</v>
       </c>
       <c r="O76" s="11" t="s">
@@ -9358,240 +9468,240 @@
         <v>332</v>
       </c>
     </row>
-    <row r="77" spans="1:24" s="35" customFormat="1">
-      <c r="A77" s="40" t="s">
+    <row r="77" spans="1:24" ht="15" customHeight="1">
+      <c r="A77" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="27" t="s">
         <v>893</v>
       </c>
-      <c r="C77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="40" t="s">
+      <c r="C77" s="15" t="s">
         <v>894</v>
       </c>
-      <c r="K77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="L77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M77" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="N77" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="O77" s="42" t="s">
+      <c r="D77" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="20">
+        <v>56000000000</v>
+      </c>
+      <c r="O77" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="P77" s="42" t="s">
+      <c r="P77" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q77" s="40">
+      <c r="Q77" s="15">
         <v>9999</v>
       </c>
-      <c r="R77" s="40" t="s">
-        <v>895</v>
-      </c>
-      <c r="S77" s="40" t="s">
-        <v>896</v>
-      </c>
-      <c r="T77" s="40" t="s">
+      <c r="R77" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="S77" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="U77" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="V77" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="W77" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="X77" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" s="34" customFormat="1">
+      <c r="A78" s="39" t="s">
+        <v>903</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>904</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J78" s="39" t="s">
+        <v>905</v>
+      </c>
+      <c r="K78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M78" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="N78" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="P78" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q78" s="39">
+        <v>9999</v>
+      </c>
+      <c r="R78" s="39" t="s">
+        <v>906</v>
+      </c>
+      <c r="S78" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="T78" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="U77" s="40" t="s">
-        <v>897</v>
-      </c>
-      <c r="V77" s="40" t="s">
-        <v>898</v>
-      </c>
-      <c r="W77" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="X77" s="40" t="s">
+      <c r="U78" s="39" t="s">
+        <v>907</v>
+      </c>
+      <c r="V78" s="39" t="s">
+        <v>908</v>
+      </c>
+      <c r="W78" s="39" t="s">
+        <v>909</v>
+      </c>
+      <c r="X78" s="39" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="35" customFormat="1">
-      <c r="A78" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="B78" s="40" t="s">
-        <v>901</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="N78" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="O78" s="42" t="s">
+    <row r="79" spans="1:24" s="34" customFormat="1">
+      <c r="A79" s="39" t="s">
+        <v>910</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>911</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="P78" s="42" t="s">
+      <c r="P79" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q78" s="40">
+      <c r="Q79" s="39">
         <v>9999</v>
       </c>
-      <c r="R78" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="S78" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="T78" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="U78" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="V78" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="W78" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="X78" s="40" t="s">
+      <c r="R79" s="39" t="s">
+        <v>912</v>
+      </c>
+      <c r="S79" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="T79" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="U79" s="39" t="s">
+        <v>914</v>
+      </c>
+      <c r="V79" s="39" t="s">
+        <v>915</v>
+      </c>
+      <c r="W79" s="39" t="s">
+        <v>916</v>
+      </c>
+      <c r="X79" s="39" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A79" s="15" t="s">
-        <v>907</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>908</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>909</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>910</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N79" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O79" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="P79" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q79" s="15">
-        <v>9999</v>
-      </c>
-      <c r="R79" s="28" t="s">
-        <v>911</v>
-      </c>
-      <c r="S79" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="T79" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="U79" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="V79" s="15" t="s">
-        <v>913</v>
-      </c>
-      <c r="W79" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="X79" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" ht="19.5" customHeight="1">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="15" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>919</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>52</v>
+        <v>920</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>52</v>
@@ -9620,7 +9730,7 @@
       <c r="M80" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N80" s="21" t="s">
+      <c r="N80" s="20" t="s">
         <v>29</v>
       </c>
       <c r="O80" s="11" t="s">
@@ -9632,70 +9742,70 @@
       <c r="Q80" s="15">
         <v>9999</v>
       </c>
-      <c r="R80" s="28" t="s">
-        <v>918</v>
+      <c r="R80" s="27" t="s">
+        <v>921</v>
       </c>
       <c r="S80" s="15" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="T80" s="15" t="s">
         <v>98</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="V80" s="15" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="W80" s="15" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="X80" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" ht="19.5" customHeight="1">
       <c r="A81" s="15" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>924</v>
+        <v>926</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>927</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>925</v>
+        <v>52</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>926</v>
+        <v>52</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>926</v>
+        <v>29</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>894</v>
+        <v>29</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N81" s="21">
-        <v>9999</v>
+        <v>29</v>
+      </c>
+      <c r="N81" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="O81" s="11" t="s">
         <v>85</v>
@@ -9706,61 +9816,61 @@
       <c r="Q81" s="15">
         <v>9999</v>
       </c>
-      <c r="R81" s="15" t="s">
-        <v>927</v>
+      <c r="R81" s="27" t="s">
+        <v>928</v>
       </c>
       <c r="S81" s="15" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="T81" s="15" t="s">
-        <v>328</v>
+        <v>98</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="V81" s="15" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="W81" s="15" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="X81" s="15" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" s="15" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>52</v>
+        <v>934</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>52</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>935</v>
+        <v>52</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>894</v>
+        <v>50</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>50</v>
+        <v>905</v>
       </c>
       <c r="L82" s="15" t="s">
         <v>52</v>
@@ -9768,8 +9878,8 @@
       <c r="M82" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N82" s="21" t="s">
-        <v>29</v>
+      <c r="N82" s="20">
+        <v>9999</v>
       </c>
       <c r="O82" s="11" t="s">
         <v>85</v>
@@ -9781,22 +9891,22 @@
         <v>9999</v>
       </c>
       <c r="R82" s="15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="S82" s="15" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="T82" s="15" t="s">
         <v>328</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="V82" s="15" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="W82" s="15" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="X82" s="15" t="s">
         <v>400</v>
@@ -9804,13 +9914,13 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="15" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>942</v>
+        <v>52</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>943</v>
@@ -9822,19 +9932,19 @@
         <v>29</v>
       </c>
       <c r="G83" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="H83" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="J83" s="15" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="K83" s="15" t="s">
-        <v>946</v>
+        <v>50</v>
       </c>
       <c r="L83" s="15" t="s">
         <v>52</v>
@@ -9842,8 +9952,8 @@
       <c r="M83" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N83" s="21">
-        <v>9999</v>
+      <c r="N83" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="O83" s="11" t="s">
         <v>85</v>
@@ -9855,41 +9965,193 @@
         <v>9999</v>
       </c>
       <c r="R83" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="S83" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="T83" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="U83" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="S83" s="15" t="s">
+      <c r="V83" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="T83" s="15" t="s">
+      <c r="W83" s="15" t="s">
         <v>949</v>
-      </c>
-      <c r="U83" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="V83" s="15" t="s">
-        <v>950</v>
-      </c>
-      <c r="W83" s="15" t="s">
-        <v>951</v>
       </c>
       <c r="X83" s="15" t="s">
         <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
+      <c r="A84" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N84" s="20">
+        <v>9999</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q84" s="15">
+        <v>9999</v>
+      </c>
+      <c r="R84" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="S84" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="T84" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="U84" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="V84" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="W84" s="15" t="s">
+        <v>961</v>
+      </c>
+      <c r="X84" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
+      <c r="A85" s="43" t="s">
+        <v>962</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H85" s="7">
+        <v>9999</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M85" s="7">
+        <v>9999</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O85" s="19">
+        <v>2018</v>
+      </c>
+      <c r="P85" s="19">
+        <v>2023</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>9999</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="T85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U85" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="V85" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="W85" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="X85" s="7" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A26:A28">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A30 A35:A55 B35 A1:A25 A69:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+  <conditionalFormatting sqref="A86:A1048576 A29:A30 A35:A55 B35 A1:A25 A69:A84">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A34">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A68">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="892" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF7C2D5A-BB23-4F0E-A58A-6C73DCF70C8E}"/>
+  <xr:revisionPtr revIDLastSave="914" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFC30D8-34DF-4276-826E-55D9C77F3877}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28230" windowHeight="13230" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$1048574</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$1048575</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="999">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">Modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en la Mojana. </t>
-  </si>
-  <si>
-    <t>Desarrollar un modelo de flujo y calidad de aguas subterráneas para determinar la dependencia a largo plazo de las soluciones de aguas subterráneas en La Mojana.</t>
   </si>
   <si>
     <t xml:space="preserve">CV 005 DE 2019 </t>
@@ -3253,6 +3250,30 @@
   </si>
   <si>
     <t xml:space="preserve">Los documentos son muy relevantes y pertinentes para la toma de decisiones. Algunos documentos carecen de detalles específicos, como la fecha de publicación y el editor, lo que podría afectar su credibilidad y trazabilidad. En algunos casos se enuncian anexos y no se encuentran disponibles. En la carpeta no se relaciona información contractual del convenio, ni hay claridad de cuantos productos se generaron para todo el convenio. </t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>GDB POMCA Rio Bajo San Jorge</t>
+  </si>
+  <si>
+    <t>2502_01_RioBajo_SanJorge</t>
+  </si>
+  <si>
+    <t>Escala Nacional. Abarca toda Colombia</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0101</t>
+  </si>
+  <si>
+    <t>Cobertura vegetal, edificacion obracivil, entidades territoriales y unidades administrativas, impresion, indice mapas, instalaciones construcciones para transporte, limites, puntos de control, relieve, superficies agua, toponimos, transporte aereo, transporte maritimo fluvial, transporte terrestre, gdb, POMCA, Bajo San Jorge.</t>
+  </si>
+  <si>
+    <t>La geodatabase contiene información geoespacial estructurada en múltiples capas relacionadas con cobertura vegetal, edificación y obra civil, entidades territoriales y unidades administrativas, impresión, instalaciones y construcciones para transporte, límites, puntos de control, relieve, superficies de agua, topónimos, transporte aéreo, transporte marítimo y fluvial, y transporte terrestre. La carpeta incluye dos geodatabases (GDB): “Base_100k”, que contiene información a escala nacional y se presume que fue utilizada en la elaboración del POMCA del Bajo San Jorge, y “Base_100k_Cuenca2502-01.gdb”, la cual presenta errores que impiden su visualización.</t>
+  </si>
+  <si>
+    <t>La carpeta incluye dos geodatabases (GDB): “Base_100k”, que contiene información a escala nacional y se presume que fue utilizada en la elaboración del POMCA del Bajo San Jorge, y “Base_100k_Cuenca2502-01.gdb”, la cual presenta errores que impiden su visualización. No se referencia un informe o reporte que de cuenta del trabajado realizado o diccionario de datos que suministre información adicional.</t>
   </si>
 </sst>
 </file>
@@ -3416,7 +3437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3574,7 +3595,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3794,6 +3814,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3904,29 +3928,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomRight" activeCell="X86" sqref="X86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="18.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="22" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="2" customWidth="1"/>
     <col min="15" max="16" width="11.140625" style="3" customWidth="1"/>
     <col min="17" max="17" width="11.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" style="1" customWidth="1"/>
@@ -4102,28 +4126,28 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>29</v>
@@ -4142,184 +4166,184 @@
         <v>21</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="O4" s="9">
         <v>43254</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7">
         <v>6</v>
       </c>
       <c r="R4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:24" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="B5" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="34" t="s">
+      <c r="J5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="O5" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="46" t="s">
-        <v>85</v>
-      </c>
       <c r="P5" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="34">
         <v>9999</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="S5" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="U5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="V5" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="W5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="X5" s="34" t="s">
         <v>90</v>
-      </c>
-      <c r="X5" s="34" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>93</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>29</v>
@@ -4340,7 +4364,7 @@
         <v>29</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="34" t="s">
         <v>29</v>
@@ -4355,7 +4379,7 @@
         <v>29</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="41">
         <v>42005</v>
@@ -4364,211 +4388,211 @@
         <v>9999</v>
       </c>
       <c r="R6" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" s="40" t="s">
+      <c r="U6" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="U6" s="40" t="s">
+      <c r="V6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="V6" s="40" t="s">
+      <c r="W6" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="W6" s="34" t="s">
+      <c r="X6" s="40" t="s">
         <v>98</v>
-      </c>
-      <c r="X6" s="40" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="O7" s="9">
         <v>41275</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7">
         <v>24</v>
       </c>
       <c r="R7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7" s="7" t="s">
+      <c r="V7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="W7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="W7" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="X7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="Q8" s="7">
         <v>9</v>
       </c>
       <c r="R8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="S8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="U8" s="7" t="s">
+      <c r="V8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="W8" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="X8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>134</v>
-      </c>
       <c r="K9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="34" t="s">
         <v>29</v>
@@ -4577,72 +4601,72 @@
         <v>184985747</v>
       </c>
       <c r="O9" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>136</v>
       </c>
       <c r="Q9" s="34">
         <v>23</v>
       </c>
       <c r="R9" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>976</v>
+      </c>
+      <c r="V9" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>977</v>
-      </c>
-      <c r="V9" s="34" t="s">
+      <c r="W9" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="W9" s="38" t="s">
-        <v>139</v>
-      </c>
       <c r="X9" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="C10" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="E10" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="F10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>145</v>
-      </c>
       <c r="K10" s="34" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="34" t="s">
         <v>29</v>
@@ -4660,63 +4684,63 @@
         <v>25</v>
       </c>
       <c r="R10" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="42" t="s">
+        <v>977</v>
+      </c>
+      <c r="V10" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="S10" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="42" t="s">
-        <v>978</v>
-      </c>
-      <c r="V10" s="34" t="s">
+      <c r="W10" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="X10" s="34" t="s">
         <v>148</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="E11" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="F11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>155</v>
-      </c>
       <c r="K11" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" s="34" t="s">
         <v>29</v>
@@ -4725,78 +4749,78 @@
         <v>742510000</v>
       </c>
       <c r="O11" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="36" t="s">
         <v>156</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>157</v>
       </c>
       <c r="Q11" s="34">
         <v>6</v>
       </c>
       <c r="R11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="S11" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" s="34" t="s">
+      <c r="V11" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="V11" s="34" t="s">
+      <c r="W11" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="W11" s="38" t="s">
+      <c r="X11" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="X11" s="34" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="C12" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="D12" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="34" t="s">
+      <c r="K12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="O12" s="36">
         <v>41913</v>
@@ -4808,66 +4832,66 @@
         <v>6</v>
       </c>
       <c r="R12" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="S12" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="T12" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="34" t="s">
+      <c r="U12" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="U12" s="42" t="s">
+      <c r="V12" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="V12" s="42" t="s">
+      <c r="W12" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="W12" s="38" t="s">
+      <c r="X12" s="42" t="s">
         <v>175</v>
-      </c>
-      <c r="X12" s="42" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="C13" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="D13" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="E13" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="F13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="34" t="s">
+      <c r="K13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="34" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>183</v>
       </c>
       <c r="N13" s="35">
         <v>2734719994</v>
@@ -4882,63 +4906,63 @@
         <v>7</v>
       </c>
       <c r="R13" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="S13" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="34" t="s">
+      <c r="V13" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="V13" s="34" t="s">
+      <c r="W13" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="W13" s="34" t="s">
-        <v>187</v>
-      </c>
       <c r="X13" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="H14" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="I14" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="20" t="s">
         <v>29</v>
@@ -4947,7 +4971,7 @@
         <v>742510000</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P14" s="22">
         <v>41670</v>
@@ -4956,39 +4980,39 @@
         <v>7</v>
       </c>
       <c r="R14" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" s="20" t="s">
+      <c r="V14" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="W14" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="W14" s="20" t="s">
-        <v>199</v>
-      </c>
       <c r="X14" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="C15" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="34" t="s">
         <v>202</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>203</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>29</v>
@@ -5009,10 +5033,10 @@
         <v>33</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="34" t="s">
         <v>29</v>
@@ -5021,72 +5045,72 @@
         <v>29</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="34">
         <v>9999</v>
       </c>
       <c r="R15" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="S15" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="S15" s="34" t="s">
+      <c r="T15" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="U15" s="34" t="s">
+        <v>978</v>
+      </c>
+      <c r="V15" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="34" t="s">
-        <v>979</v>
-      </c>
-      <c r="V15" s="34" t="s">
+      <c r="W15" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="W15" s="34" t="s">
-        <v>208</v>
-      </c>
       <c r="X15" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="C16" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="D16" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="E16" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="34" t="s">
+      <c r="H16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="J16" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>216</v>
-      </c>
       <c r="K16" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M16" s="34" t="s">
         <v>29</v>
@@ -5098,70 +5122,70 @@
         <v>41610</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="34">
         <f>4*12+7</f>
         <v>55</v>
       </c>
       <c r="R16" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U16" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="S16" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T16" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U16" s="34" t="s">
+      <c r="V16" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="V16" s="34" t="s">
+      <c r="W16" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="W16" s="34" t="s">
-        <v>221</v>
-      </c>
       <c r="X16" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="D17" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="E17" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="F17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="34" t="s">
+      <c r="J17" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="K17" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>229</v>
-      </c>
       <c r="L17" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" s="34" t="s">
         <v>29</v>
@@ -5170,7 +5194,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P17" s="36">
         <v>41022</v>
@@ -5179,137 +5203,137 @@
         <v>9999</v>
       </c>
       <c r="R17" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="S17" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U17" s="34" t="s">
+      <c r="V17" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="V17" s="34" t="s">
+      <c r="W17" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="W17" s="34" t="s">
-        <v>233</v>
-      </c>
       <c r="X17" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="C18" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="D18" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="E18" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="F18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="34" t="s">
+      <c r="K18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="35" t="s">
+      <c r="O18" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="P18" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>242</v>
       </c>
       <c r="Q18" s="34">
         <v>10</v>
       </c>
       <c r="R18" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="S18" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="S18" s="34" t="s">
+      <c r="T18" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="U18" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="T18" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="U18" s="42" t="s">
+      <c r="V18" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="V18" s="42" t="s">
+      <c r="W18" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="34" t="s">
+      <c r="X18" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="X18" s="42" t="s">
+    </row>
+    <row r="19" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="B19" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="C19" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="E19" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="F19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="34" t="s">
+      <c r="K19" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="K19" s="34" t="s">
-        <v>255</v>
-      </c>
       <c r="L19" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" s="34" t="s">
         <v>29</v>
@@ -5327,63 +5351,63 @@
         <v>24</v>
       </c>
       <c r="R19" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="U19" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="S19" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" s="34" t="s">
+      <c r="V19" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="V19" s="34" t="s">
+      <c r="W19" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="W19" s="34" t="s">
-        <v>259</v>
-      </c>
       <c r="X19" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="C20" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="D20" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="E20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="44" t="s">
+      <c r="H20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="H20" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="44" t="s">
+      <c r="J20" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="J20" s="44" t="s">
-        <v>266</v>
-      </c>
       <c r="K20" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L20" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M20" s="44" t="s">
         <v>29</v>
@@ -5395,143 +5419,143 @@
         <v>40787</v>
       </c>
       <c r="P20" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="44">
         <v>11</v>
       </c>
       <c r="R20" s="44" t="s">
+        <v>979</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="T20" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" s="44" t="s">
         <v>980</v>
       </c>
-      <c r="S20" s="44" t="s">
+      <c r="V20" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="T20" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" s="44" t="s">
-        <v>981</v>
-      </c>
-      <c r="V20" s="44" t="s">
+      <c r="W20" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="W20" s="44" t="s">
+      <c r="X20" s="44" t="s">
         <v>270</v>
-      </c>
-      <c r="X20" s="44" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="C21" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="D21" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="E21" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="F21" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="J21" s="44" t="s">
+      <c r="K21" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="K21" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="44" t="s">
-        <v>278</v>
-      </c>
       <c r="N21" s="34" t="s">
         <v>29</v>
       </c>
       <c r="O21" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P21" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="44">
         <v>9999</v>
       </c>
       <c r="R21" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="S21" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="T21" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="T21" s="44" t="s">
+      <c r="U21" s="44" t="s">
+        <v>981</v>
+      </c>
+      <c r="V21" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="U21" s="44" t="s">
-        <v>982</v>
-      </c>
-      <c r="V21" s="44" t="s">
+      <c r="W21" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="W21" s="44" t="s">
+      <c r="X21" s="44" t="s">
         <v>283</v>
-      </c>
-      <c r="X21" s="44" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="C22" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="D22" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="F22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>289</v>
-      </c>
       <c r="K22" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M22" s="34" t="s">
         <v>29</v>
@@ -5540,75 +5564,75 @@
         <v>29</v>
       </c>
       <c r="O22" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="34">
         <v>9999</v>
       </c>
       <c r="R22" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="S22" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="T22" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="T22" s="34" t="s">
+      <c r="U22" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="U22" s="34" t="s">
+      <c r="V22" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="V22" s="34" t="s">
+      <c r="W22" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="W22" s="34" t="s">
-        <v>295</v>
-      </c>
       <c r="X22" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="C23" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="D23" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="F23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="34" t="s">
+      <c r="K23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="34" t="s">
         <v>301</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>302</v>
       </c>
       <c r="N23" s="35">
         <v>3846506245</v>
@@ -5623,63 +5647,63 @@
         <v>8</v>
       </c>
       <c r="R23" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="S23" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="S23" s="34" t="s">
+      <c r="T23" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="T23" s="34" t="s">
+      <c r="U23" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="U23" s="34" t="s">
+      <c r="V23" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="V23" s="34" t="s">
+      <c r="W23" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="W23" s="34" t="s">
-        <v>308</v>
-      </c>
       <c r="X23" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="C24" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="D24" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="F24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="34" t="s">
+      <c r="H24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="H24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>315</v>
-      </c>
       <c r="K24" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L24" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M24" s="34" t="s">
         <v>29</v>
@@ -5698,42 +5722,42 @@
         <v>18</v>
       </c>
       <c r="R24" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U24" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="S24" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U24" s="34" t="s">
+      <c r="V24" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="V24" s="34" t="s">
+      <c r="W24" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="W24" s="34" t="s">
-        <v>319</v>
-      </c>
       <c r="X24" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="C25" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>322</v>
-      </c>
       <c r="D25" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>29</v>
@@ -5748,66 +5772,66 @@
         <v>29</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M25" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N25" s="34" t="s">
         <v>29</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="44">
         <v>9999</v>
       </c>
       <c r="R25" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T25" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="S25" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T25" s="46" t="s">
+      <c r="U25" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="U25" s="44" t="s">
+      <c r="V25" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="V25" s="44" t="s">
+      <c r="W25" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="W25" s="44" t="s">
+      <c r="X25" s="44" t="s">
         <v>327</v>
-      </c>
-      <c r="X25" s="44" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>330</v>
-      </c>
       <c r="C26" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="13">
         <v>9999</v>
@@ -5840,63 +5864,63 @@
         <v>9999</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="13">
         <v>9999</v>
       </c>
       <c r="R26" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="S26" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="S26" s="13" t="s">
+      <c r="T26" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="T26" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="U26" s="13" t="s">
+      <c r="V26" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="V26" s="13" t="s">
+      <c r="W26" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="W26" s="13" t="s">
-        <v>336</v>
-      </c>
       <c r="X26" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="D27" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="E27" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="F27" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="F27" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="44" t="s">
+      <c r="H27" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="H27" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="44" t="s">
+      <c r="J27" s="44" t="s">
         <v>343</v>
-      </c>
-      <c r="J27" s="44" t="s">
-        <v>344</v>
       </c>
       <c r="K27" s="44" t="s">
         <v>29</v>
@@ -5914,75 +5938,75 @@
         <v>40552</v>
       </c>
       <c r="P27" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q27" s="44">
         <v>11</v>
       </c>
       <c r="R27" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="S27" s="44" t="s">
+        <v>982</v>
+      </c>
+      <c r="T27" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="S27" s="44" t="s">
-        <v>983</v>
-      </c>
-      <c r="T27" s="44" t="s">
+      <c r="U27" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="U27" s="44" t="s">
+      <c r="V27" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="V27" s="44" t="s">
+      <c r="W27" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="W27" s="44" t="s">
+      <c r="X27" s="44" t="s">
         <v>349</v>
-      </c>
-      <c r="X27" s="44" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="E28" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="20" t="s">
+      <c r="I28" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="J28" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="K28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="20" t="s">
+      <c r="N28" s="21" t="s">
         <v>358</v>
-      </c>
-      <c r="N28" s="21" t="s">
-        <v>359</v>
       </c>
       <c r="O28" s="22">
         <v>41340</v>
@@ -5994,69 +6018,69 @@
         <v>4</v>
       </c>
       <c r="R28" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="S28" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="S28" s="20" t="s">
+      <c r="T28" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="U28" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="T28" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="U28" s="20" t="s">
+      <c r="V28" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="V28" s="20" t="s">
+      <c r="W28" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="W28" s="20" t="s">
+      <c r="X28" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="X28" s="20" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="C29" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="D29" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="D29" s="34" t="s">
-        <v>369</v>
-      </c>
       <c r="E29" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="34" t="s">
+      <c r="K29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="35" t="s">
         <v>168</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="O29" s="36">
         <v>41913</v>
@@ -6068,57 +6092,57 @@
         <v>6</v>
       </c>
       <c r="R29" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="S29" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="S29" s="34" t="s">
+      <c r="T29" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U29" s="34" t="s">
+        <v>983</v>
+      </c>
+      <c r="V29" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="T29" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U29" s="34" t="s">
-        <v>984</v>
-      </c>
-      <c r="V29" s="34" t="s">
+      <c r="W29" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="W29" s="34" t="s">
+      <c r="X29" s="34" t="s">
         <v>373</v>
-      </c>
-      <c r="X29" s="34" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="C30" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="D30" s="34" t="s">
+      <c r="E30" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="F30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="34" t="s">
+      <c r="H30" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="I30" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="J30" s="34" t="s">
         <v>381</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>382</v>
       </c>
       <c r="K30" s="44" t="s">
         <v>29</v>
@@ -6142,131 +6166,131 @@
         <v>12</v>
       </c>
       <c r="R30" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="S30" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="S30" s="34" t="s">
+      <c r="T30" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="T30" s="34" t="s">
+      <c r="U30" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="U30" s="34" t="s">
+      <c r="V30" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="V30" s="34" t="s">
+      <c r="W30" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="W30" s="34" t="s">
+      <c r="X30" s="34" t="s">
         <v>388</v>
-      </c>
-      <c r="X30" s="34" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="34" t="s">
+      <c r="E31" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="E31" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>392</v>
-      </c>
       <c r="K31" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N31" s="35">
         <v>2734719994</v>
       </c>
       <c r="O31" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="P31" s="36" t="s">
         <v>393</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>394</v>
       </c>
       <c r="Q31" s="34">
         <v>7</v>
       </c>
       <c r="R31" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U31" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="S31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U31" s="34" t="s">
+      <c r="V31" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="V31" s="34" t="s">
+      <c r="W31" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="W31" s="34" t="s">
+      <c r="X31" s="34" t="s">
         <v>398</v>
-      </c>
-      <c r="X31" s="34" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="C32" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="D32" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>985</v>
-      </c>
-      <c r="D32" s="34" t="s">
+      <c r="E32" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="F32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="34" t="s">
         <v>403</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>404</v>
       </c>
       <c r="K32" s="44" t="s">
         <v>29</v>
@@ -6290,63 +6314,63 @@
         <v>14</v>
       </c>
       <c r="R32" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="S32" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T32" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="U32" s="34" t="s">
+      <c r="V32" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="V32" s="34" t="s">
+      <c r="W32" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="W32" s="34" t="s">
+      <c r="X32" s="34" t="s">
         <v>408</v>
-      </c>
-      <c r="X32" s="34" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="C33" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="K33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>29</v>
@@ -6355,31 +6379,31 @@
         <v>20901990031.84</v>
       </c>
       <c r="O33" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="Q33" s="7">
         <v>11</v>
       </c>
       <c r="R33" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="S33" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="T33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U33" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="T33" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="U33" s="7" t="s">
+      <c r="V33" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="V33" s="7" t="s">
+      <c r="W33" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>29</v>
@@ -6387,40 +6411,40 @@
     </row>
     <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>29</v>
@@ -6429,31 +6453,31 @@
         <v>135000000</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q34" s="7">
         <v>10</v>
       </c>
       <c r="R34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="T34" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="U34" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="V34" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="U34" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="V34" s="7" t="s">
+      <c r="W34" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="X34" s="7" t="s">
         <v>29</v>
@@ -6461,40 +6485,40 @@
     </row>
     <row r="35" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>433</v>
-      </c>
       <c r="C35" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E35" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>155</v>
-      </c>
       <c r="K35" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>29</v>
@@ -6503,72 +6527,72 @@
         <v>742510000</v>
       </c>
       <c r="O35" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="P35" s="36" t="s">
         <v>156</v>
-      </c>
-      <c r="P35" s="36" t="s">
-        <v>157</v>
       </c>
       <c r="Q35" s="34">
         <v>6</v>
       </c>
       <c r="R35" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="S35" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="S35" s="34" t="s">
+      <c r="T35" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U35" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="T35" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="U35" s="34" t="s">
+      <c r="V35" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="V35" s="34" t="s">
+      <c r="W35" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="W35" s="34" t="s">
+      <c r="X35" s="34" t="s">
         <v>438</v>
-      </c>
-      <c r="X35" s="34" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="20" t="s">
+      <c r="H36" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>443</v>
-      </c>
       <c r="I36" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M36" s="20" t="s">
         <v>29</v>
@@ -6580,69 +6604,69 @@
         <v>41610</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q36" s="20">
         <v>67</v>
       </c>
       <c r="R36" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T36" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="U36" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="S36" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="T36" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="U36" s="20" t="s">
+      <c r="V36" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="V36" s="20" t="s">
+      <c r="W36" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="W36" s="20" t="s">
-        <v>447</v>
-      </c>
       <c r="X36" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>451</v>
-      </c>
       <c r="E37" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M37" s="20" t="s">
         <v>29</v>
@@ -6660,190 +6684,190 @@
         <v>15</v>
       </c>
       <c r="R37" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="S37" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="S37" s="20" t="s">
+      <c r="T37" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="U37" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="T37" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="U37" s="20" t="s">
+      <c r="V37" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="V37" s="20" t="s">
+      <c r="W37" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="W37" s="20" t="s">
-        <v>456</v>
-      </c>
       <c r="X37" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="B38" s="44" t="s">
-        <v>458</v>
-      </c>
       <c r="C38" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N38" s="45" t="s">
         <v>29</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P38" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="44">
         <v>9999</v>
       </c>
       <c r="R38" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="S38" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="T38" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U38" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="S38" s="44" t="s">
-        <v>435</v>
-      </c>
-      <c r="T38" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U38" s="44" t="s">
+      <c r="V38" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="V38" s="44" t="s">
+      <c r="W38" s="44" t="s">
+        <v>969</v>
+      </c>
+      <c r="X38" s="44" t="s">
         <v>461</v>
-      </c>
-      <c r="W38" s="44" t="s">
-        <v>970</v>
-      </c>
-      <c r="X38" s="44" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="B39" s="48" t="s">
         <v>463</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>464</v>
-      </c>
       <c r="C39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J39" s="48" t="s">
         <v>33</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M39" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N39" s="45" t="s">
         <v>29</v>
       </c>
       <c r="O39" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P39" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="48">
         <v>9999</v>
       </c>
       <c r="R39" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="S39" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="T39" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="U39" s="48" t="s">
+        <v>985</v>
+      </c>
+      <c r="V39" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="S39" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="T39" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="U39" s="48" t="s">
-        <v>986</v>
-      </c>
-      <c r="V39" s="48" t="s">
+      <c r="W39" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="W39" s="48" t="s">
-        <v>467</v>
-      </c>
       <c r="X39" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>469</v>
-      </c>
       <c r="C40" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="34" t="s">
         <v>29</v>
@@ -6852,13 +6876,13 @@
         <v>29</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" s="34" t="s">
         <v>29</v>
@@ -6873,82 +6897,82 @@
         <v>29</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P40" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="34">
         <v>9999</v>
       </c>
       <c r="R40" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="S40" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T40" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="S40" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T40" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" s="34" t="s">
+      <c r="V40" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="V40" s="34" t="s">
+      <c r="W40" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="W40" s="34" t="s">
+      <c r="X40" s="34" t="s">
         <v>473</v>
-      </c>
-      <c r="X40" s="34" t="s">
-        <v>474</v>
       </c>
       <c r="Y40" s="44"/>
     </row>
     <row r="41" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="C41" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="D41" s="44" t="s">
+        <v>986</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="D41" s="44" t="s">
-        <v>987</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="44" t="s">
+      <c r="H41" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="H41" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" s="44" t="s">
+      <c r="K41" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="44" t="s">
         <v>479</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" s="44" t="s">
-        <v>480</v>
       </c>
       <c r="N41" s="45">
         <v>7578039678</v>
       </c>
       <c r="O41" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P41" s="46">
         <v>43499</v>
@@ -6957,64 +6981,64 @@
         <v>54</v>
       </c>
       <c r="R41" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="S41" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="S41" s="44" t="s">
+      <c r="T41" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="U41" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="T41" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="U41" s="44" t="s">
+      <c r="V41" s="44" t="s">
         <v>484</v>
       </c>
-      <c r="V41" s="44" t="s">
+      <c r="W41" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="W41" s="44" t="s">
-        <v>486</v>
-      </c>
       <c r="X41" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y41" s="39"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="D42" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="F42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="13" t="s">
+      <c r="J42" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>493</v>
-      </c>
       <c r="K42" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>29</v>
@@ -7023,74 +7047,74 @@
         <v>6471757378</v>
       </c>
       <c r="O42" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="P42" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>495</v>
       </c>
       <c r="Q42" s="13">
         <f>3*12+10</f>
         <v>46</v>
       </c>
       <c r="R42" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="S42" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="S42" s="13" t="s">
+      <c r="T42" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="T42" s="13" t="s">
+      <c r="U42" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="U42" s="13" t="s">
+      <c r="V42" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="V42" s="13" t="s">
+      <c r="W42" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="W42" s="13" t="s">
+      <c r="X42" s="13" t="s">
         <v>501</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>502</v>
       </c>
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="C43" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="D43" s="34" t="s">
+        <v>987</v>
+      </c>
+      <c r="E43" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>988</v>
-      </c>
-      <c r="E43" s="34" t="s">
+      <c r="F43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="34" t="s">
+      <c r="H43" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="I43" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="H43" s="34" t="s">
-        <v>507</v>
-      </c>
-      <c r="I43" s="34" t="s">
+      <c r="J43" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="J43" s="34" t="s">
-        <v>509</v>
-      </c>
       <c r="K43" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M43" s="44" t="s">
         <v>29</v>
@@ -7108,117 +7132,117 @@
         <v>35</v>
       </c>
       <c r="R43" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="S43" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="S43" s="34" t="s">
+      <c r="T43" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="T43" s="34" t="s">
+      <c r="U43" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="U43" s="34" t="s">
+      <c r="V43" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="V43" s="34" t="s">
+      <c r="W43" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="W43" s="34" t="s">
+      <c r="X43" s="34" t="s">
         <v>515</v>
-      </c>
-      <c r="X43" s="34" t="s">
-        <v>516</v>
       </c>
       <c r="Y43" s="34"/>
     </row>
     <row r="44" spans="1:25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="N44" s="8">
         <v>6514587989</v>
       </c>
       <c r="O44" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="P44" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="Q44" s="7">
         <v>60</v>
       </c>
       <c r="R44" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="S44" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="T44" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="T44" s="7" t="s">
+      <c r="U44" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="U44" s="7" t="s">
+      <c r="V44" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="V44" s="7" t="s">
+      <c r="W44" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="W44" s="7" t="s">
+      <c r="X44" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>538</v>
-      </c>
       <c r="F45" s="7" t="s">
         <v>29</v>
       </c>
@@ -7229,85 +7253,85 @@
         <v>29</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K45" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="L45" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="N45" s="16">
         <v>6874244540</v>
       </c>
       <c r="O45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="Q45" s="13">
         <v>9</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U45" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="V45" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="W45" s="13" t="s">
+      <c r="X45" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="X45" s="13" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="C46" s="34" t="s">
         <v>543</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="D46" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="E46" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="E46" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="34" t="s">
+      <c r="H46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J46" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="H46" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>547</v>
-      </c>
       <c r="K46" s="34" t="s">
         <v>29</v>
       </c>
@@ -7315,81 +7339,81 @@
         <v>29</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N46" s="35">
         <v>2296632732</v>
       </c>
       <c r="O46" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q46" s="34">
         <v>9999</v>
       </c>
       <c r="R46" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="S46" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="S46" s="34" t="s">
+      <c r="T46" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="U46" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="V46" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="T46" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="U46" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="V46" s="34" t="s">
+      <c r="W46" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="W46" s="34" t="s">
-        <v>551</v>
-      </c>
       <c r="X46" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="B47" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="C47" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="D47" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>544</v>
-      </c>
-      <c r="D47" s="34" t="s">
+      <c r="E47" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="F47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>546</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="34" t="s">
+      <c r="K47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="34" t="s">
         <v>556</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="34" t="s">
-        <v>557</v>
       </c>
       <c r="N47" s="35">
         <v>1837306186</v>
@@ -7404,66 +7428,66 @@
         <v>16.5</v>
       </c>
       <c r="R47" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="S47" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="S47" s="34" t="s">
+      <c r="T47" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="T47" s="34" t="s">
+      <c r="U47" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="V47" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="U47" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="V47" s="34" t="s">
+      <c r="W47" s="34" t="s">
         <v>561</v>
       </c>
-      <c r="W47" s="34" t="s">
-        <v>562</v>
-      </c>
       <c r="X47" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="C48" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="D48" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="E48" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="F48" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="F48" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="44" t="s">
+      <c r="H48" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="H48" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="44" t="s">
+      <c r="K48" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="K48" s="44" t="s">
+      <c r="L48" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="44" t="s">
         <v>570</v>
-      </c>
-      <c r="L48" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" s="44" t="s">
-        <v>571</v>
       </c>
       <c r="N48" s="45">
         <v>2066969459</v>
@@ -7478,58 +7502,58 @@
         <v>15</v>
       </c>
       <c r="R48" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="S48" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="S48" s="44" t="s">
+      <c r="T48" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="T48" s="44" t="s">
+      <c r="U48" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="U48" s="44" t="s">
+      <c r="V48" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="V48" s="44" t="s">
+      <c r="W48" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="W48" s="44" t="s">
-        <v>577</v>
-      </c>
       <c r="X48" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="B49" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="C49" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="D49" s="34" t="s">
         <v>580</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="E49" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="E49" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>546</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>582</v>
-      </c>
       <c r="K49" s="34" t="s">
         <v>29</v>
       </c>
@@ -7537,78 +7561,78 @@
         <v>29</v>
       </c>
       <c r="M49" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N49" s="35">
         <v>2583711824</v>
       </c>
       <c r="O49" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P49" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="34">
         <v>9999</v>
       </c>
       <c r="R49" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="S49" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="S49" s="34" t="s">
+      <c r="T49" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="T49" s="34" t="s">
+      <c r="U49" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="V49" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="U49" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="V49" s="34" t="s">
+      <c r="W49" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="W49" s="34" t="s">
-        <v>587</v>
-      </c>
       <c r="X49" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="B50" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="C50" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="D50" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="E50" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="E50" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F50" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="44" t="s">
+      <c r="H50" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="H50" s="44" t="s">
-        <v>593</v>
-      </c>
       <c r="I50" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L50" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M50" s="44" t="s">
         <v>29</v>
@@ -7617,125 +7641,125 @@
         <v>273434700</v>
       </c>
       <c r="O50" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P50" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q50" s="44">
         <v>9999</v>
       </c>
       <c r="R50" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="S50" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="S50" s="44" t="s">
+      <c r="T50" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="T50" s="44" t="s">
+      <c r="U50" s="50" t="s">
         <v>596</v>
       </c>
-      <c r="U50" s="50" t="s">
+      <c r="V50" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="V50" s="44" t="s">
+      <c r="W50" s="44" t="s">
+        <v>970</v>
+      </c>
+      <c r="X50" s="50" t="s">
         <v>598</v>
-      </c>
-      <c r="W50" s="44" t="s">
-        <v>971</v>
-      </c>
-      <c r="X50" s="50" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="C51" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="D51" s="44" t="s">
+        <v>601</v>
+      </c>
+      <c r="E51" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="D51" s="44" t="s">
-        <v>602</v>
-      </c>
-      <c r="E51" s="44" t="s">
+      <c r="F51" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="50" t="s">
         <v>603</v>
       </c>
-      <c r="F51" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="50" t="s">
+      <c r="I51" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L51" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="46" t="s">
         <v>604</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="J51" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M51" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="O51" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51" s="46" t="s">
-        <v>605</v>
       </c>
       <c r="Q51" s="44">
         <v>24</v>
       </c>
       <c r="R51" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="S51" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="S51" s="44" t="s">
+      <c r="T51" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U51" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="T51" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U51" s="44" t="s">
+      <c r="V51" s="50" t="s">
         <v>608</v>
       </c>
-      <c r="V51" s="50" t="s">
+      <c r="W51" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="W51" s="44" t="s">
+      <c r="X51" s="50" t="s">
         <v>610</v>
-      </c>
-      <c r="X51" s="50" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="D52" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>615</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>29</v>
@@ -7747,16 +7771,16 @@
         <v>9999</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M52" s="13">
         <v>9999</v>
@@ -7768,69 +7792,69 @@
         <v>43899</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q52" s="13">
         <v>36</v>
       </c>
       <c r="R52" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="S52" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="S52" s="13" t="s">
+      <c r="T52" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="U52" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="U52" s="13" t="s">
+      <c r="V52" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="V52" s="13" t="s">
+      <c r="W52" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="W52" s="13" t="s">
-        <v>622</v>
-      </c>
       <c r="X52" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="B53" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="C53" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="D53" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="E53" s="44" t="s">
         <v>626</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>627</v>
       </c>
       <c r="F53" s="44">
         <v>9999</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" s="44">
         <v>9999</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J53" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K53" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M53" s="44">
         <v>9999</v>
@@ -7839,119 +7863,119 @@
         <v>135000000</v>
       </c>
       <c r="O53" s="46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P53" s="46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q53" s="44">
         <v>10</v>
       </c>
       <c r="R53" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="S53" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="T53" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="U53" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="S53" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="T53" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="U53" s="44" t="s">
+      <c r="V53" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="V53" s="44" t="s">
-        <v>630</v>
-      </c>
       <c r="W53" s="44" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="X53" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="E54" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="F54" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="13" t="s">
+      <c r="I54" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="J54" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="J54" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="13" t="s">
+      <c r="L54" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="L54" s="13" t="s">
+      <c r="M54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="M54" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O54" s="11" t="s">
+      <c r="P54" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="Q54" s="13">
         <v>18</v>
       </c>
       <c r="R54" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="S54" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="S54" s="13" t="s">
+      <c r="T54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="U54" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="T54" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U54" s="13" t="s">
+      <c r="V54" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="V54" s="13" t="s">
-        <v>645</v>
-      </c>
       <c r="W54" s="13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="X54" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
+        <v>645</v>
+      </c>
+      <c r="B55" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="B55" s="44" t="s">
-        <v>647</v>
-      </c>
       <c r="C55" s="44" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>29</v>
@@ -7969,16 +7993,16 @@
         <v>29</v>
       </c>
       <c r="I55" s="44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K55" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L55" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M55" s="34" t="s">
         <v>29</v>
@@ -7987,72 +8011,72 @@
         <v>29</v>
       </c>
       <c r="O55" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P55" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q55" s="44">
         <v>9999</v>
       </c>
       <c r="R55" s="44" t="s">
+        <v>647</v>
+      </c>
+      <c r="S55" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="T55" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U55" s="44" t="s">
         <v>648</v>
       </c>
-      <c r="S55" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T55" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U55" s="44" t="s">
+      <c r="V55" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="V55" s="44" t="s">
-        <v>650</v>
-      </c>
       <c r="W55" s="44" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="X55" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="B56" s="34" t="s">
         <v>651</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="C56" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="D56" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="D56" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="34" t="s">
+      <c r="J56" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="J56" s="34" t="s">
+      <c r="K56" s="34" t="s">
         <v>655</v>
       </c>
-      <c r="K56" s="34" t="s">
+      <c r="L56" s="34" t="s">
         <v>656</v>
-      </c>
-      <c r="L56" s="34" t="s">
-        <v>657</v>
       </c>
       <c r="M56" s="34" t="s">
         <v>29</v>
@@ -8064,69 +8088,69 @@
         <v>40186</v>
       </c>
       <c r="P56" s="36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q56" s="34">
         <v>9999</v>
       </c>
       <c r="R56" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="S56" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="S56" s="34" t="s">
+      <c r="T56" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="U56" s="34" t="s">
         <v>660</v>
       </c>
-      <c r="T56" s="34" t="s">
-        <v>660</v>
-      </c>
-      <c r="U56" s="34" t="s">
+      <c r="V56" s="34" t="s">
         <v>661</v>
       </c>
-      <c r="V56" s="34" t="s">
+      <c r="W56" s="34" t="s">
         <v>662</v>
       </c>
-      <c r="W56" s="34" t="s">
-        <v>663</v>
-      </c>
       <c r="X56" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
+        <v>663</v>
+      </c>
+      <c r="B57" s="44" t="s">
         <v>664</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="C57" s="44" t="s">
         <v>665</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="D57" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="44" t="s">
         <v>666</v>
       </c>
-      <c r="D57" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="44" t="s">
-        <v>667</v>
-      </c>
       <c r="J57" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L57" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M57" s="44" t="s">
         <v>29</v>
@@ -8138,48 +8162,48 @@
         <v>45327</v>
       </c>
       <c r="P57" s="46" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q57" s="44">
         <v>1</v>
       </c>
       <c r="R57" s="44" t="s">
+        <v>668</v>
+      </c>
+      <c r="S57" s="44" t="s">
         <v>669</v>
       </c>
-      <c r="S57" s="44" t="s">
+      <c r="T57" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="U57" s="44" t="s">
         <v>670</v>
       </c>
-      <c r="T57" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U57" s="44" t="s">
+      <c r="V57" s="44" t="s">
         <v>671</v>
       </c>
-      <c r="V57" s="44" t="s">
+      <c r="W57" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="W57" s="44" t="s">
+      <c r="X57" s="44" t="s">
         <v>673</v>
-      </c>
-      <c r="X57" s="44" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
+        <v>674</v>
+      </c>
+      <c r="B58" s="44" t="s">
         <v>675</v>
       </c>
-      <c r="B58" s="44" t="s">
-        <v>676</v>
-      </c>
       <c r="C58" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="44" t="s">
         <v>29</v>
@@ -8197,10 +8221,10 @@
         <v>29</v>
       </c>
       <c r="K58" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L58" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M58" s="44" t="s">
         <v>29</v>
@@ -8209,223 +8233,223 @@
         <v>29</v>
       </c>
       <c r="O58" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P58" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q58" s="44">
         <v>9999</v>
       </c>
       <c r="R58" s="44" t="s">
+        <v>988</v>
+      </c>
+      <c r="S58" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="T58" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="U58" s="44" t="s">
         <v>989</v>
       </c>
-      <c r="S58" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="T58" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="U58" s="44" t="s">
-        <v>990</v>
-      </c>
       <c r="V58" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="W58" s="44" t="s">
         <v>677</v>
       </c>
-      <c r="W58" s="44" t="s">
-        <v>678</v>
-      </c>
       <c r="X58" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="C59" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>680</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>681</v>
-      </c>
       <c r="K59" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q59" s="13">
         <v>9999</v>
       </c>
       <c r="R59" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="S59" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="S59" s="13" t="s">
+      <c r="T59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U59" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="T59" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="U59" s="13" t="s">
+      <c r="V59" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="V59" s="13" t="s">
+      <c r="W59" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="W59" s="13" t="s">
-        <v>686</v>
-      </c>
       <c r="X59" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
+        <v>686</v>
+      </c>
+      <c r="B60" s="44" t="s">
         <v>687</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="C60" s="44" t="s">
         <v>688</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="D60" s="44" t="s">
         <v>689</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="E60" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="F60" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="44" t="s">
         <v>691</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="44" t="s">
-        <v>692</v>
       </c>
       <c r="H60" s="44">
         <v>9999</v>
       </c>
       <c r="I60" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J60" s="44" t="s">
+        <v>692</v>
+      </c>
+      <c r="K60" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L60" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M60" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="N60" s="45" t="s">
         <v>693</v>
-      </c>
-      <c r="K60" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" s="45" t="s">
-        <v>694</v>
       </c>
       <c r="O60" s="46">
         <v>43625</v>
       </c>
       <c r="P60" s="46" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q60" s="44" t="s">
         <v>695</v>
       </c>
-      <c r="Q60" s="44" t="s">
+      <c r="R60" s="44" t="s">
         <v>696</v>
       </c>
-      <c r="R60" s="44" t="s">
+      <c r="S60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="S60" s="44" t="s">
+      <c r="T60" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="U60" s="44" t="s">
         <v>698</v>
       </c>
-      <c r="T60" s="44" t="s">
-        <v>698</v>
-      </c>
-      <c r="U60" s="44" t="s">
-        <v>699</v>
-      </c>
       <c r="V60" s="44" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="W60" s="44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="X60" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="E61" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="F61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H61" s="13" t="s">
+      <c r="I61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="13" t="s">
+      <c r="K61" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M61" s="13" t="s">
         <v>706</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M61" s="13" t="s">
-        <v>707</v>
       </c>
       <c r="N61" s="16">
         <v>38626862120</v>
@@ -8434,217 +8458,217 @@
         <v>43079</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Q61" s="13">
         <v>15</v>
       </c>
       <c r="R61" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="S61" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="S61" s="13" t="s">
+      <c r="T61" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="T61" s="13" t="s">
+      <c r="U61" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="U61" s="13" t="s">
+      <c r="V61" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="V61" s="13" t="s">
+      <c r="W61" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="W61" s="13" t="s">
+      <c r="X61" s="13" t="s">
         <v>714</v>
-      </c>
-      <c r="X61" s="13" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="E62" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="F62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" s="13" t="s">
+      <c r="K62" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M62" s="13" t="s">
         <v>721</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M62" s="13" t="s">
-        <v>722</v>
       </c>
       <c r="N62" s="16">
         <v>22954368529.639999</v>
       </c>
       <c r="O62" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="P62" s="11" t="s">
         <v>723</v>
-      </c>
-      <c r="P62" s="11" t="s">
-        <v>724</v>
       </c>
       <c r="Q62" s="13">
         <v>11</v>
       </c>
       <c r="R62" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="S62" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="S62" s="13" t="s">
+      <c r="T62" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="T62" s="13" t="s">
+      <c r="U62" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V62" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="U62" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V62" s="13" t="s">
+      <c r="W62" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>729</v>
-      </c>
       <c r="X62" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D63" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E63" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="F63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>735</v>
-      </c>
       <c r="I63" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J63" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M63" s="13" t="s">
         <v>721</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>722</v>
       </c>
       <c r="N63" s="16">
         <v>10920880573</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q63" s="13">
         <v>8</v>
       </c>
       <c r="R63" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="T63" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="S63" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="T63" s="13" t="s">
+      <c r="U63" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="U63" s="13" t="s">
+      <c r="V63" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="W63" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="V63" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>740</v>
-      </c>
       <c r="X63" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="D64" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="E64" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="F64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>746</v>
-      </c>
       <c r="K64" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>29</v>
@@ -8653,146 +8677,146 @@
         <v>9999</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P64" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q64" s="13">
         <v>9999</v>
       </c>
       <c r="R64" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="S64" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="S64" s="13" t="s">
+      <c r="T64" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U64" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V64" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="T64" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U64" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V64" s="13" t="s">
+      <c r="W64" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>750</v>
-      </c>
       <c r="X64" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="E65" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="F65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="13" t="s">
+      <c r="I65" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="J65" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>758</v>
-      </c>
       <c r="K65" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N65" s="16">
         <v>21503897914</v>
       </c>
       <c r="O65" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="P65" s="11" t="s">
         <v>759</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>760</v>
       </c>
       <c r="Q65" s="13">
         <v>17.5</v>
       </c>
       <c r="R65" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="T65" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="S65" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="T65" s="13" t="s">
+      <c r="U65" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V65" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V65" s="13" t="s">
+      <c r="W65" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="W65" s="13" t="s">
-        <v>764</v>
-      </c>
       <c r="X65" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="E66" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="F66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>770</v>
-      </c>
       <c r="K66" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>29</v>
@@ -8801,72 +8825,72 @@
         <v>32455048148</v>
       </c>
       <c r="O66" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="P66" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>772</v>
       </c>
       <c r="Q66" s="13">
         <v>24</v>
       </c>
       <c r="R66" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="T66" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V66" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="S66" s="13" t="s">
-        <v>748</v>
-      </c>
-      <c r="T66" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U66" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V66" s="13" t="s">
+      <c r="W66" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>775</v>
-      </c>
       <c r="X66" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="E67" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="F67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>781</v>
-      </c>
       <c r="K67" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>29</v>
@@ -8878,69 +8902,69 @@
         <v>41189</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Q67" s="13">
         <v>13</v>
       </c>
       <c r="R67" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="S67" s="13" t="s">
         <v>783</v>
-      </c>
-      <c r="S67" s="13" t="s">
-        <v>784</v>
       </c>
       <c r="T67" s="13">
         <v>219</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="V67" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="W67" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="W67" s="13" t="s">
-        <v>786</v>
-      </c>
       <c r="X67" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="E68" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="F68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>792</v>
-      </c>
       <c r="K68" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>29</v>
@@ -8949,146 +8973,146 @@
         <v>14598223097.280001</v>
       </c>
       <c r="O68" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P68" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q68" s="13">
         <v>12</v>
       </c>
       <c r="R68" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="S68" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="S68" s="13" t="s">
+      <c r="T68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V68" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="T68" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U68" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V68" s="13" t="s">
+      <c r="W68" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>796</v>
-      </c>
       <c r="X68" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
+        <v>796</v>
+      </c>
+      <c r="B69" s="44" t="s">
         <v>797</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="C69" s="50" t="s">
         <v>798</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="D69" s="44" t="s">
         <v>799</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="E69" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="E69" s="44" t="s">
+      <c r="F69" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="44" t="s">
+        <v>791</v>
+      </c>
+      <c r="K69" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M69" s="44" t="s">
         <v>801</v>
-      </c>
-      <c r="F69" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="44" t="s">
-        <v>792</v>
-      </c>
-      <c r="K69" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M69" s="44" t="s">
-        <v>802</v>
       </c>
       <c r="N69" s="45">
         <v>16886338370</v>
       </c>
       <c r="O69" s="46" t="s">
+        <v>802</v>
+      </c>
+      <c r="P69" s="46" t="s">
         <v>803</v>
-      </c>
-      <c r="P69" s="46" t="s">
-        <v>804</v>
       </c>
       <c r="Q69" s="44">
         <v>18</v>
       </c>
       <c r="R69" s="50" t="s">
+        <v>804</v>
+      </c>
+      <c r="S69" s="44" t="s">
         <v>805</v>
       </c>
-      <c r="S69" s="44" t="s">
+      <c r="T69" s="44" t="s">
         <v>806</v>
       </c>
-      <c r="T69" s="44" t="s">
+      <c r="U69" s="44" t="s">
+        <v>711</v>
+      </c>
+      <c r="V69" s="50" t="s">
         <v>807</v>
       </c>
-      <c r="U69" s="44" t="s">
-        <v>712</v>
-      </c>
-      <c r="V69" s="50" t="s">
+      <c r="W69" s="44" t="s">
         <v>808</v>
       </c>
-      <c r="W69" s="44" t="s">
-        <v>809</v>
-      </c>
       <c r="X69" s="50" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="F70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>815</v>
-      </c>
       <c r="K70" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M70" s="13" t="s">
         <v>29</v>
@@ -9097,81 +9121,81 @@
         <v>16782892881</v>
       </c>
       <c r="O70" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="P70" s="11" t="s">
         <v>816</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>817</v>
       </c>
       <c r="Q70" s="13">
         <v>15</v>
       </c>
       <c r="R70" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="S70" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="S70" s="13" t="s">
+      <c r="T70" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="T70" s="13" t="s">
+      <c r="U70" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V70" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V70" s="13" t="s">
+      <c r="W70" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="W70" s="13" t="s">
-        <v>822</v>
-      </c>
       <c r="X70" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="D71" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="E71" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="F71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" s="13" t="s">
+      <c r="K71" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="L71" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="L71" s="13" t="s">
+      <c r="M71" s="13" t="s">
         <v>830</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>831</v>
       </c>
       <c r="N71" s="16">
         <v>16864638530</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P71" s="11">
         <v>44350</v>
@@ -9180,72 +9204,72 @@
         <v>15</v>
       </c>
       <c r="R71" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="S71" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="S71" s="13" t="s">
+      <c r="T71" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="T71" s="13" t="s">
+      <c r="U71" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V71" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="U71" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V71" s="13" t="s">
+      <c r="W71" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="W71" s="13" t="s">
-        <v>837</v>
-      </c>
       <c r="X71" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="E72" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="F72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>843</v>
-      </c>
       <c r="K72" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="N72" s="16">
         <v>22270823688</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P72" s="11">
         <v>44297</v>
@@ -9254,63 +9278,63 @@
         <v>15</v>
       </c>
       <c r="R72" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="T72" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="S72" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="T72" s="13" t="s">
+      <c r="U72" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V72" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="U72" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V72" s="13" t="s">
+      <c r="W72" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="W72" s="13" t="s">
-        <v>848</v>
-      </c>
       <c r="X72" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="E73" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="F73" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="13" t="s">
+      <c r="K73" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="K73" s="13" t="s">
-        <v>855</v>
-      </c>
       <c r="L73" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>29</v>
@@ -9319,51 +9343,51 @@
         <v>12341721000</v>
       </c>
       <c r="O73" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="P73" s="11" t="s">
         <v>856</v>
-      </c>
-      <c r="P73" s="11" t="s">
-        <v>857</v>
       </c>
       <c r="Q73" s="13">
         <v>15</v>
       </c>
       <c r="R73" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="S73" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="T73" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="S73" s="13" t="s">
-        <v>794</v>
-      </c>
-      <c r="T73" s="13" t="s">
+      <c r="U73" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="V73" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="W73" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="U73" s="13" t="s">
-        <v>712</v>
-      </c>
-      <c r="V73" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>860</v>
-      </c>
       <c r="X73" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>863</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>864</v>
-      </c>
       <c r="E74" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>29</v>
@@ -9393,51 +9417,51 @@
         <v>9999</v>
       </c>
       <c r="O74" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q74" s="13">
         <v>9999</v>
       </c>
       <c r="R74" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="S74" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="S74" s="13" t="s">
+      <c r="T74" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="T74" s="13" t="s">
+      <c r="U74" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="U74" s="13" t="s">
+      <c r="V74" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="V74" s="13" t="s">
+      <c r="W74" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>870</v>
-      </c>
       <c r="X74" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>874</v>
-      </c>
       <c r="E75" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>29</v>
@@ -9467,7 +9491,7 @@
         <v>9999</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P75" s="11">
         <v>43466</v>
@@ -9476,42 +9500,42 @@
         <v>9999</v>
       </c>
       <c r="R75" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="S75" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="S75" s="13" t="s">
+      <c r="T75" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="T75" s="13" t="s">
+      <c r="U75" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="U75" s="13" t="s">
+      <c r="V75" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="V75" s="13" t="s">
+      <c r="W75" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="W75" s="13" t="s">
-        <v>880</v>
-      </c>
       <c r="X75" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>882</v>
-      </c>
       <c r="C76" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>29</v>
@@ -9541,63 +9565,63 @@
         <v>9999</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P76" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q76" s="13">
         <v>9999</v>
       </c>
       <c r="R76" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="S76" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="S76" s="13" t="s">
+      <c r="T76" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="T76" s="13" t="s">
+      <c r="U76" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="U76" s="13" t="s">
+      <c r="V76" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="V76" s="13" t="s">
+      <c r="W76" s="13" t="s">
         <v>887</v>
       </c>
-      <c r="W76" s="13" t="s">
-        <v>888</v>
-      </c>
       <c r="X76" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="C77" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>891</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="E77" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="E77" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>893</v>
-      </c>
       <c r="H77" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J77" s="13" t="s">
         <v>29</v>
@@ -9615,125 +9639,125 @@
         <v>56000000000</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q77" s="13">
         <v>9999</v>
       </c>
       <c r="R77" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="S77" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="S77" s="13" t="s">
+      <c r="T77" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="T77" s="13" t="s">
+      <c r="U77" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="U77" s="13" t="s">
+      <c r="V77" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="V77" s="13" t="s">
+      <c r="W77" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="W77" s="13" t="s">
-        <v>899</v>
-      </c>
       <c r="X77" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>900</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="C78" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J78" s="28" t="s">
         <v>901</v>
       </c>
-      <c r="C78" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H78" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J78" s="28" t="s">
-        <v>902</v>
-      </c>
       <c r="K78" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L78" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M78" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N78" s="29" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P78" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q78" s="28">
         <v>9999</v>
       </c>
       <c r="R78" s="54" t="s">
+        <v>902</v>
+      </c>
+      <c r="S78" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="T78" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="U78" s="28" t="s">
         <v>903</v>
       </c>
-      <c r="S78" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="T78" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="U78" s="28" t="s">
+      <c r="V78" s="28" t="s">
         <v>904</v>
       </c>
-      <c r="V78" s="28" t="s">
+      <c r="W78" s="28" t="s">
         <v>905</v>
       </c>
-      <c r="W78" s="28" t="s">
-        <v>906</v>
-      </c>
       <c r="X78" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="79" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
+        <v>906</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>907</v>
       </c>
-      <c r="B79" s="28" t="s">
-        <v>908</v>
-      </c>
       <c r="C79" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>29</v>
@@ -9763,51 +9787,51 @@
         <v>29</v>
       </c>
       <c r="O79" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P79" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q79" s="28">
         <v>9999</v>
       </c>
       <c r="R79" s="54" t="s">
+        <v>908</v>
+      </c>
+      <c r="S79" s="54" t="s">
         <v>909</v>
       </c>
-      <c r="S79" s="54" t="s">
+      <c r="T79" s="28" t="s">
+        <v>909</v>
+      </c>
+      <c r="U79" s="28" t="s">
         <v>910</v>
       </c>
-      <c r="T79" s="28" t="s">
-        <v>910</v>
-      </c>
-      <c r="U79" s="28" t="s">
+      <c r="V79" s="28" t="s">
         <v>911</v>
       </c>
-      <c r="V79" s="28" t="s">
+      <c r="W79" s="28" t="s">
         <v>912</v>
       </c>
-      <c r="W79" s="28" t="s">
-        <v>913</v>
-      </c>
       <c r="X79" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="D80" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>917</v>
-      </c>
       <c r="E80" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>29</v>
@@ -9837,51 +9861,51 @@
         <v>29</v>
       </c>
       <c r="O80" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P80" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q80" s="13">
         <v>9999</v>
       </c>
       <c r="R80" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="T80" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="U80" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="S80" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="T80" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U80" s="13" t="s">
+      <c r="V80" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="V80" s="13" t="s">
+      <c r="W80" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="W80" s="13" t="s">
-        <v>921</v>
-      </c>
       <c r="X80" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="C81" s="18" t="s">
         <v>923</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>924</v>
-      </c>
       <c r="D81" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>29</v>
@@ -9911,300 +9935,300 @@
         <v>29</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P81" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q81" s="13">
         <v>9999</v>
       </c>
       <c r="R81" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="T81" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="U81" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="S81" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="T81" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U81" s="13" t="s">
+      <c r="V81" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="V81" s="13" t="s">
+      <c r="W81" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>928</v>
-      </c>
       <c r="X81" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
+        <v>928</v>
+      </c>
+      <c r="B82" s="44" t="s">
         <v>929</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="C82" s="44" t="s">
         <v>930</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="D82" s="44" t="s">
         <v>931</v>
       </c>
-      <c r="D82" s="44" t="s">
+      <c r="E82" s="44" t="s">
         <v>932</v>
       </c>
-      <c r="E82" s="44" t="s">
-        <v>933</v>
-      </c>
       <c r="F82" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G82" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H82" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I82" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J82" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K82" s="44" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L82" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M82" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N82" s="45">
         <v>9999</v>
       </c>
       <c r="O82" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P82" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q82" s="44">
         <v>9999</v>
       </c>
       <c r="R82" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="S82" s="44" t="s">
+        <v>894</v>
+      </c>
+      <c r="T82" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="U82" s="44" t="s">
         <v>934</v>
       </c>
-      <c r="S82" s="44" t="s">
-        <v>895</v>
-      </c>
-      <c r="T82" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="U82" s="44" t="s">
+      <c r="V82" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="V82" s="44" t="s">
+      <c r="W82" s="44" t="s">
         <v>936</v>
       </c>
-      <c r="W82" s="44" t="s">
-        <v>937</v>
-      </c>
       <c r="X82" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="C83" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="E83" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="F83" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>941</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>941</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>942</v>
-      </c>
       <c r="J83" s="13" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N83" s="16" t="s">
         <v>29</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P83" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q83" s="13">
         <v>9999</v>
       </c>
       <c r="R83" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="S83" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="T83" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="U83" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="S83" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="T83" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="U83" s="13" t="s">
+      <c r="V83" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="V83" s="13" t="s">
+      <c r="W83" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>946</v>
-      </c>
       <c r="X83" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
+        <v>946</v>
+      </c>
+      <c r="B84" s="44" t="s">
         <v>947</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="C84" s="44" t="s">
         <v>948</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="D84" s="44" t="s">
         <v>949</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="E84" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="F84" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="44" t="s">
         <v>951</v>
       </c>
-      <c r="F84" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" s="44" t="s">
+      <c r="H84" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J84" s="44" t="s">
+        <v>901</v>
+      </c>
+      <c r="K84" s="44" t="s">
         <v>952</v>
       </c>
-      <c r="H84" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="I84" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J84" s="44" t="s">
-        <v>902</v>
-      </c>
-      <c r="K84" s="44" t="s">
-        <v>953</v>
-      </c>
       <c r="L84" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M84" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N84" s="45">
         <v>9999</v>
       </c>
       <c r="O84" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P84" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q84" s="44">
         <v>9999</v>
       </c>
       <c r="R84" s="44" t="s">
+        <v>953</v>
+      </c>
+      <c r="S84" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="S84" s="44" t="s">
+      <c r="T84" s="44" t="s">
         <v>955</v>
       </c>
-      <c r="T84" s="44" t="s">
+      <c r="U84" s="44" t="s">
+        <v>990</v>
+      </c>
+      <c r="V84" s="44" t="s">
         <v>956</v>
       </c>
-      <c r="U84" s="44" t="s">
-        <v>991</v>
-      </c>
-      <c r="V84" s="44" t="s">
+      <c r="W84" s="44" t="s">
         <v>957</v>
       </c>
-      <c r="W84" s="44" t="s">
+      <c r="X84" s="44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A85" s="44" t="s">
         <v>958</v>
       </c>
-      <c r="X84" s="44" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="44" t="s">
+      <c r="B85" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>961</v>
-      </c>
       <c r="E85" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H85" s="7">
         <v>9999</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M85" s="7">
         <v>9999</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O85" s="15">
         <v>2018</v>
@@ -10216,99 +10240,173 @@
         <v>9999</v>
       </c>
       <c r="R85" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="T85" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U85" s="44" t="s">
         <v>962</v>
       </c>
-      <c r="S85" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="T85" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U85" s="44" t="s">
+      <c r="V85" s="44" t="s">
         <v>963</v>
       </c>
-      <c r="V85" s="44" t="s">
+      <c r="W85" s="44" t="s">
         <v>964</v>
       </c>
-      <c r="W85" s="44" t="s">
+      <c r="X85" s="44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="44" t="s">
+        <v>991</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q86" s="13">
+        <v>9999</v>
+      </c>
+      <c r="R86" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="S86" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="T86" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="U86" s="44" t="s">
+        <v>998</v>
+      </c>
+      <c r="V86" s="44" t="s">
+        <v>996</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="X86" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="X85" s="44" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="B87" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H87" s="7">
+        <v>9999</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M87" s="7">
+        <v>9999</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O87" s="15">
+        <v>2018</v>
+      </c>
+      <c r="P87" s="15">
+        <v>2023</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>9999</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="T87" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U87" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>960</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H86" s="7">
-        <v>9999</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M86" s="7">
-        <v>9999</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O86" s="15">
-        <v>2018</v>
-      </c>
-      <c r="P86" s="15">
-        <v>2023</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>9999</v>
-      </c>
-      <c r="R86" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="S86" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="T86" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U86" s="7" t="s">
+      <c r="V87" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="V86" s="7" t="s">
+      <c r="W87" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="W86" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="X86" s="7" t="s">
-        <v>474</v>
+      <c r="X87" s="7" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -10324,11 +10422,11 @@
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
+  <conditionalFormatting sqref="A87">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:A1048576 A29:A30 A35:A55 B35 A1:A25 A69:A85">
+  <conditionalFormatting sqref="A88:A1048576 A29:A30 A35:A55 B35 A1:A25 A69:A86">
     <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="914" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDFC30D8-34DF-4276-826E-55D9C77F3877}"/>
+  <xr:revisionPtr revIDLastSave="921" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E065CF35-74D4-4CFB-905F-5F572E1C6765}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28230" windowHeight="13230" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$X$1048575</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A:$X</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1003">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -430,6 +430,9 @@
     <t>01/01/1601</t>
   </si>
   <si>
+    <t>Tras la fuerte afectación de la región de la Mojana debido al fenómeno de la niña entre el   2010 y 2011, el proyecto buscaba promover la rehabilitación de los ecosistemas afectados y la adptación de las comunidades a eventos climáticos extremos. Para esto, en los municipios de Ayapel, San Marcos y San Benito Abad, se construyeron acuerdos de conservación para la rehabilitación de humedales y de relictos de bosques. Lo anterior,  busca contribuir a mejorar las condiciones socio-ecosistémicas en la región, contribuyendo en la rehabilitación del servicio de provisión y regulación hídrica, de la  fauna local, el aumento en la disponibilidad de especies de flora de múltiples usos (maderables, frutales o fibras) y reducir el riesgo de inundaciones y sequias.</t>
+  </si>
+  <si>
     <t>Región de la Mojana (11,000km2)</t>
   </si>
   <si>
@@ -594,6 +597,9 @@
 Las modelaciones se inician con un modelo conceptual integrado, que incluye el análisis de series de tiempo, análisis de subcuencas aportantes al modelo hidrodinámico (1D y 2D), análisis al interior de La Mojana y análisis de posibles eventos de amenaza.</t>
   </si>
   <si>
+    <t>Es un estudio elaborado por componentes, se encuentra una presentación final que reúne todos los componentes, pero no hay asociado un informe final o resumen ejecutivo. La información biótica corresponde a información secundaria de principios de los años 2000, lo cual a la actualidad probablemente está desactualizada. El contratista sugiere para el año 2014, realizar estudios que permitan la comprensión de las características físicas, químicas y biológicas para poder realizar las modelaciones y simulaciones de manera efectiva, dada la complejidad de los ecosistemas que integran la región de la Mojana.</t>
+  </si>
+  <si>
     <t>Diagnóstico, información hidroclimatológica, Plan de Ordenamiento Territorial (POT), predios, cartografía, topografía, batimetría, estabilidad de diques, modelación de amenazas, precipitación directa, caudales de entrada, probabilidad de falla, vulnerabilidad, elementos expuestos, evaluación del riesgo, análisis de pérdidas, intervenciones estructurales, intervenciones no estructurales, análisis de costo-beneficio, plan de acción, modelo conceptual integrado, análisis de series de tiempo, subcuencas aportantes, modelo hidrodinámico 1D, modelo hidrodinámico 2D, posibles eventos de amenaza, SOBEK.</t>
   </si>
   <si>
@@ -624,6 +630,10 @@
     <t xml:space="preserve">La consultoría realizada por el ingeniero Omar Darío Cardona consta de ocho informes preliminares y un informe final y abarcan los siguientes temas: (A) metodología del análisis. (B) Elementos expuestos e información necesaria para la evaluación probabilista del riesgo. (c) Informe de la modelación de vulnerabilidad por inundaciones. (D) Evaluación probabilística de escenarios históricos de inundaciones. (E) Evaluación probabilística de riesgo de inundación en La Mojana sin intervenciones. (F) Evaluación probabilística de riesgo de inundación en La Mojana con la alternativa de intervención del dique marginal. (G) análisis de costo beneficio de las alternativas propuestas por el fondo (H) Recomendaciones sobre alternativas de intervención en combinación con las medidas estructurales y no estructurales. </t>
   </si>
   <si>
+    <t>Mediante otrosi se extendio la vigencia del contrato 016 de 2014 por un plazo de 12 meses, resultando en el plazo de 25 meses. Las conclusiones de los productos sugieren: primero, que la información no es suficiente para asignar un modelo de vulnerabilidad ajustado a los elementos expuestos; segundo, que hace falta la caracterización de muchos de los parámetros físicos que definen los elementos y su vulnerabilidad; y, tercero, que no se incluye información relacionada con la valoración de los elementos expuestos, ni con su ocupación.
+Se sugiere realizar estudios que consideren la información señalada en los tres puntos anteriores para hacer posible el diseño del modelo de vulnerabilidad.</t>
+  </si>
+  <si>
     <t>Evaluación probabilista del riesgo, amenaza por inundación, elementos expuestos, vulnerabilidad estructural, Pérdida Anual Esperada (PAE), Pérdida Máxima Probable (PML), curvas de excedencia de pérdidas, infraestructura de energía y telecomunicaciones, cultivos, construcciones, metodología de análisis de riesgo, modelación de vulnerabilidad, escenarios históricos y futuros de inundación, alternativas de intervención, análisis beneficio-costo, impacto ambiental, plan de acción para reducción del riesgo, curvas de probabilidad de excedencia, medidas estructurales y no estructurales.</t>
   </si>
   <si>
@@ -804,6 +814,9 @@
   </si>
   <si>
     <t>Ayapel, Caimito, Magangue, Majagual, San Benito de Abad, San Marcos y Sucre</t>
+  </si>
+  <si>
+    <t>No es posible asociar la información a un contrato o convenio. El objetivo indicado se extrae de uno de los informes, sin embargo no es el oficial. Se encuentra el contrato 083 DE 2016 entre el IDEAM y el profecional Julio Arbelaez. En los anexos se presentan resultados de la amenaza por inundación de Magangué, pero no de San Zenón.</t>
   </si>
   <si>
     <t>Vulnerabilidad, planicies de inundación, pendientes medias a altas, variabilidad climática, zona intertropical, pendiente del terreno, geomorfología de los ríos, orografía, cobertura vegetal, fenómenos extremos, Niño-Niña, patrones de poblamiento, infraestructura productiva, cuerpos de agua, planificación de emergencias, gestión de desastres, modelación matemática, períodos de retorno, La Niña, mapas de inundación, amenaza de inundación, probabilidad de ocurrencia, evento de inundación, vulnerabilidad de inundación, riesgo de inundación, zonificación de inundación, mapa de evento, mapa de amenaza, mapa de vulnerabilidad, mapa de riesgo, mapa de zonificación, mapa de emergencia.</t>
@@ -997,9 +1010,15 @@
     <t>31/08/2012</t>
   </si>
   <si>
+    <t>El convenio se llevó a cabo para realizar una caracterización física y económica del Bajo Cauca entre Caucasia y su confluencia con el río Magdalena, con el fin de mejorar las condiciones del sistema de transporte en la región de La Mojana. Por lo anterior, el proyecto incluye la realización de modelaciones del sistema se transporte fluvial, estudios de caracterización hidráulica y geomorfológica, y el desarrollo tecnológico de un Sistema de Asistencia Satelital a la Navegación para el río Cauca.</t>
+  </si>
+  <si>
     <t>Tramo del río Cauca desde el puente de Caucasia hasta la desembocadura al río Magdalena, abarcando la región de la Mojana y del delta del río Cauca al Magdalena que hacen parte de los departamentos de Sucre, Bolívar, Córdoba y Antioquia</t>
   </si>
   <si>
+    <t>En el proyecto se mencionan los siguientes entregables: TOMO II: Resumen Ejecutivo de Geología y Geomorfología (con su cartilla), TOMO III: Resumen Ejecutivo del Proyecto (con su cartilla), TOMO IV: Planos Batimétricos y Topográficos, y TOMO V: Planos Topográficos Vía Colorado (K0) – Cerro Las Brisas (K55-200), que no se encuentran en esta carpeta. Sin embargo, estos documentos están en la carpeta P0026, la cual contiene todos los tomos entregados del proyecto escaneados en folios.  El proyecto analiza la dinámica hidráulica, sedimentológica y morfológica del río Cauca en La Mojana, enfocándose en la producción agrícola, la navegación y la gestión del riesgo de inundaciones. Se identifican sectores críticos de erosión y sedimentación, proponiendo estrategias de monitoreo y gestión territorial. Además, se implementó un Sistema de Asistencia Satelital a la Navegación (SNS-Cauca) para optimizar el transporte fluvial mediante cartografía y batimetrías actualizadas. Se recomienda fortalecer la recolección de datos hidrológicos y sedimentológicos, así como establecer un monitoreo continuo del cauce para garantizar la estabilidad de las riberas y la seguridad de las comunidades. Por otro lado, no se encuentra los documentos asociados a la contratación del proyecto.</t>
+  </si>
+  <si>
     <t>Producción agrícola, análisis sociodemográfico, sistema de transporte fluvial, sistema de transporte terrestre, río Cauca, desarrollo económico, conectividad vial, vías fluviales, vías terrestres, análisis socioeconómico, planificación regional, hidrología, sedimentología, gestión del recurso hídrico, geología, geomorfología, navegación, dinámica fluvial, sedimentación, erosión, procesos fluviales, navegabilidad, sistema de información geográfica, asistencia satelital, sistema de asistencia satelital, interfaz gráfica, mejoras en navegación, tecnología de navegación.</t>
   </si>
   <si>
@@ -1037,6 +1056,9 @@
   </si>
   <si>
     <t>Municipio de Magangué desde Yatí hasta Isla Grande</t>
+  </si>
+  <si>
+    <t>Se evaluaron parámetros geotécnicos críticos para garantizar la estabilidad y durabilidad de las estructuras, considerando el movimiento del cauce y la evolución de las orillas. Sin embargo, el análisis de amenazas geológicas naturales es limitado y los archivos nativos del modelo de socavación en HEC-RAS no están disponibles para su revisión, lo que dificulta la validación de los resultados. El estudio es relevante para la verificación de hipótesis de dinámica fluvial en obras de protección y servirá como base para futuros proyectos. No se encontro informacion sobre el contrato (presupuesto,  fecha de inicio y terminación). Además, solo se relacionaron 3 volumnes (III, IV, VII) de los 15 que contiene el proyecto.</t>
   </si>
   <si>
     <t>Geología, puente, geomorfología, estratigrafía, zonificación geotécnica, socavación, HEC-RAS, sismicidad, hidráulica, hidrología, drenaje, dinámica fluvial, sondeos, exploraciones, cimientos, aproches, licuefacción, Magangué, Talaigua Nuevo, Yatí Brazo de Loba, Isla Grande, La Bodega.</t>
@@ -1242,6 +1264,9 @@
     <t>El documento busca determinar las características físicas y económicas del Bajo Cauca entre Caucasia y su confluencia al rio Magdalena. Con el fin de valorar y formular propuestas para mejorar las condiciones de transporte fluvial en la región. Para la ejecución de este proyecto se realizaron los siguientes componentes temáticos:  Estudios de geología, geomorfología y dinámica fluvial, valoración económica regional y estudios de transporte caracterización hidráulica y sedimentológica, campañas hidro sedimentológicas, inventario de las estructuras hidráulicas, modelación matemática y definición de acciones a corto, mediano y largo plazo</t>
   </si>
   <si>
+    <t xml:space="preserve">El área de influencia abarca desde el Bajo Cauca entre la población de Caucasia (Antioquia) y la desembocadura en el río Magdalena (Brazo de Loba) y las principales poblaciones ubicadas a la margen izquierda </t>
+  </si>
+  <si>
     <t>Caucasia, Colorado, Boca río Nechí-Nechí, San Jacinto del Cauca, Guaranda, Achí y Desembocadura</t>
   </si>
   <si>
@@ -1320,6 +1345,9 @@
     <t>Zona de la Mojana, específicamente en los municipios de San Marcos, Majagual, Achí y Guaranda</t>
   </si>
   <si>
+    <t xml:space="preserve">Carpeta duplicada con el P0011, tiene contratación, información sensible. En P0011 están completos los productos. Se identificaron inconsistencias en la información catastral y registral, revelando que la mayoría de predios rurales presentan problemas de tenencia y restricciones de dominio. También se evidenciaron discrepancias entre los mapas de inundación y la realidad en terreno. Se recomienda continuar con la recolección y actualización de datos, así como la implementación de un sistema de monitoreo continuo que permita evaluar cambios en la tenencia y uso del suelo. La metodología utilizada incluyó encuestas, registros catastrales y análisis geoespaciales, permitiendo la clasificación y actualización de valores comerciales de los predios. Este documento proporciona un marco técnico y metodológico robusto para la gestión de información catastral y económica en la región. </t>
+  </si>
+  <si>
     <t>Diagnóstico predial, análisis y diagnóstico de información, diagnóstico de tenencia, encuestas prediales, diagnóstico técnico-jurídico, actualización de valores de zonas económicas, avalúo.</t>
   </si>
   <si>
@@ -1408,6 +1436,9 @@
   </si>
   <si>
     <t>Supervición contrato No 143</t>
+  </si>
+  <si>
+    <t>Designación de supervisión administrativa, financiera, contable y legal del contrato No 143</t>
   </si>
   <si>
     <t>Dirigir, coordinar y articular el Equipo de Modelación y ejercer la supervisión técnica de los contratos del Equipo de Modeladores</t>
@@ -1592,6 +1623,9 @@
     <t>Imagenes, pantallazos, varios, bitácora,</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0037</t>
+  </si>
+  <si>
     <t>Diana Jurado/ Monica Vaca</t>
   </si>
   <si>
@@ -1604,6 +1638,12 @@
     <t>La carpeta contiene diversa información del IDEAM que abarca aspectos clave de la región de La Mojana, incluyendo características hidrológicas, la Red Hidrometeorológica del IDEAM en la zona y cartografía relacionada con inundaciones y eventos de La Niña.</t>
   </si>
   <si>
+    <t>Algunos de los archivos se encuentran duplicados en la carpeta P0054.
+En algunas capas cartográficas la tabla de atributos no tiene muchos detalles sobre las áreas de inundación, en otros la información está a escala nacional
+Las infografías presentan de manera gráfica, concisa y sencilla información útil. No obstante, carecen de un análisis o interpretación detallada de los hallazgos, lo que podría limitar su utilidad en procesos de toma de decisiones más complejos.
+Esta información se generó entre el año 2019 y 2024, es un componente valioso para la comprensión de la dinámica de inundaciones en la región, facilitando el análisis de riesgos y la planificación de estrategias de gestión. La carpeta no pertenece a ningún proyecto o contrato en específico.</t>
+  </si>
+  <si>
     <t>Divulgación, IDEAM, caracterización hidrológica, cartografía, red hidrometeorológica del IDEAM en La Mojana, estaciones pluviométricas, estaciones hidrológicas, estaciones climatológicas, monitoreo.</t>
   </si>
   <si>
@@ -1640,6 +1680,9 @@
     <t>POMCA CORPORINOQUIA</t>
   </si>
   <si>
+    <t>Aunar esfuerzos técnicos, administrativos y humanos entre El Fondo y La Corporación para elaborar el plan de ordenación y manejo de la Cuenca Hidrográfica del Río Ariporo (código 3601) y ajustar (actualizar) el Plan de Ordenación y Manejo de la Cuenca Hidrográfica del Río Cravo Sur (Código 3521).</t>
+  </si>
+  <si>
     <t>Convenio 009 de 2014</t>
   </si>
   <si>
@@ -1724,6 +1767,9 @@
     <t>2014-CV-014</t>
   </si>
   <si>
+    <t>Aunar esfuerzos técnicos, administrativos y humanos entre “EL FONDO” y “LA CORPORACIÓN” para elaborar el Plan de Ordenación y Manejo de la cuenca hidrográfica de Directos al bajo Magdalena entre El Banco y El Plato (md) (Código 2907). Este plan se enmarca en el proyecto “Incorporación del componente de gestión del riesgo como determinante ambiental del ordenamiento territorial en los procesos de formulación y/o actualización de planes de ordenación y manejo de cuencas hidrográficas afectadas por el fenómeno de la Niña 2010-2011.”</t>
+  </si>
+  <si>
     <t>2014-CV-0014-15</t>
   </si>
   <si>
@@ -2001,6 +2047,9 @@
   </si>
   <si>
     <t>Albania, Santander, Contratación, Viviendas.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0049</t>
   </si>
   <si>
     <t>Julieth Tatiana Rodríguez Rivera/ revisado MV</t>
@@ -2111,6 +2160,9 @@
     <t>Hidrogeologia, pozos, subsuperficial, recarga hídrica, descarga hídrica, expediente, folios</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052</t>
+  </si>
+  <si>
     <t>P0053</t>
   </si>
   <si>
@@ -2161,6 +2213,9 @@
     <t>Plan de ordenamiento territorial, postulaciones, seguimiento, hidrodinamico.</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0053</t>
+  </si>
+  <si>
     <t>P0054</t>
   </si>
   <si>
@@ -2176,6 +2231,9 @@
     <t xml:space="preserve">Cobertura del suelo, gestión ambiental, inundación, hidrología, profundidad, planificación territorial, información geográfica, </t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054</t>
+  </si>
+  <si>
     <t>P0055</t>
   </si>
   <si>
@@ -2254,6 +2312,12 @@
     <t>15- SIG</t>
   </si>
   <si>
+    <t>La carpeta presenta una gdb con capas cartográficas de amenaza de inundación, profundidades para un periodo de retorno de 100 años para Magangué y San Marcos y una mancha de inundación de 2021 de la Mojana, así como otra carpeta que presenta 3 mapas, Ecorregiones PND a nivel nacional, un mapa de la Mojana y un Mapa de otros territorios a nivel nacional.</t>
+  </si>
+  <si>
+    <t>La carpeta no presenta un contexto de los datos, no se conoce el año real de la mancha de inundación, si esta fue obtenida por un modelo hidrodinámico (no se conocen caudales) o por imágenes satelitales. El componente de toma de decisiones debe ser cuidadoso con esta información debido a su falta de contexto.</t>
+  </si>
+  <si>
     <t>Magangué, San Marcos, Mancha de inundación, Ecorregiones PND, Mapas, Salidas cartográficas, GDB, Cartografía</t>
   </si>
   <si>
@@ -2321,6 +2385,9 @@
   </si>
   <si>
     <t xml:space="preserve">La información de esta carpeta es de Nariño. Por lo tanto, no corresponde a la región de la Mojana. </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0059</t>
   </si>
   <si>
     <t>P0060</t>
@@ -3143,6 +3210,9 @@
     <t>Población de San Benito Abad, San Marcos, Ayapel</t>
   </si>
   <si>
+    <t xml:space="preserve">Los documentos son muy relevantes y pertinentes para la toma de decisiones. Algunos documentos carecen de detalles específicos, como la fecha de publicación y el editor, lo que podría afectar su credibilidad y trazabilidad. En algunos casos se enuncian anexos y no se encuentran disponibles. En la carpeta no se relaciona información contractual del convenio, ni hay claridad de cuantos productos se generaron para todo el convenio. </t>
+  </si>
+  <si>
     <t>Humedales, restauración, zapales, ciénagas, caños, ríos, servicios ecosistémicos.</t>
   </si>
   <si>
@@ -3170,6 +3240,39 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100</t>
   </si>
   <si>
+    <t>GDB POMCA Rio Bajo San Jorge</t>
+  </si>
+  <si>
+    <t>2502_01_RioBajo_SanJorge</t>
+  </si>
+  <si>
+    <t>La geodatabase contiene información geoespacial estructurada en múltiples capas relacionadas con cobertura vegetal, edificación y obra civil, entidades territoriales y unidades administrativas, impresión, instalaciones y construcciones para transporte, límites, puntos de control, relieve, superficies de agua, topónimos, transporte aéreo, transporte marítimo y fluvial, y transporte terrestre. La carpeta incluye dos geodatabases (GDB): “Base_100k”, que contiene información a escala nacional y se presume que fue utilizada en la elaboración del POMCA del Bajo San Jorge, y “Base_100k_Cuenca2502-01.gdb”, la cual presenta errores que impiden su visualización.</t>
+  </si>
+  <si>
+    <t>Escala Nacional. Abarca toda Colombia</t>
+  </si>
+  <si>
+    <t>La carpeta incluye dos geodatabases (GDB): “Base_100k”, que contiene información a escala nacional y se presume que fue utilizada en la elaboración del POMCA del Bajo San Jorge, y “Base_100k_Cuenca2502-01.gdb”, la cual presenta errores que impiden su visualización. No se referencia un informe o reporte que de cuenta del trabajado realizado o diccionario de datos que suministre información adicional.</t>
+  </si>
+  <si>
+    <t>Cobertura vegetal, edificacion obracivil, entidades territoriales y unidades administrativas, impresion, indice mapas, instalaciones construcciones para transporte, limites, puntos de control, relieve, superficies agua, toponimos, transporte aereo, transporte maritimo fluvial, transporte terrestre, gdb, POMCA, Bajo San Jorge.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0101</t>
+  </si>
+  <si>
+    <t>P0102</t>
+  </si>
+  <si>
+    <t>Esta carpeta contiene información cartográfica y de cartpgrafía social producida por el Ministerio de Ambiente y Desarrollo Sostenible que caracteriza las veredas afectadas a partir de las inundaciones ocurridas en 2024 en la región de La Mojana</t>
+  </si>
+  <si>
+    <t>Cambio Climático, resiliencia, rehabilitación, inundación, planificación territorial, información cartográfica, cartografía social, Caregato</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102</t>
+  </si>
+  <si>
     <t>P0107</t>
   </si>
   <si>
@@ -3182,98 +3285,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0037</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0049</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0053</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0054</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0059</t>
-  </si>
-  <si>
-    <t>Tras la fuerte afectación de la región de la Mojana debido al fenómeno de la niña entre el   2010 y 2011, el proyecto buscaba promover la rehabilitación de los ecosistemas afectados y la adptación de las comunidades a eventos climáticos extremos. Para esto, en los municipios de Ayapel, San Marcos y San Benito Abad, se construyeron acuerdos de conservación para la rehabilitación de humedales y de relictos de bosques. Lo anterior,  busca contribuir a mejorar las condiciones socio-ecosistémicas en la región, contribuyendo en la rehabilitación del servicio de provisión y regulación hídrica, de la  fauna local, el aumento en la disponibilidad de especies de flora de múltiples usos (maderables, frutales o fibras) y reducir el riesgo de inundaciones y sequias.</t>
-  </si>
-  <si>
-    <t>Es un estudio elaborado por componentes, se encuentra una presentación final que reúne todos los componentes, pero no hay asociado un informe final o resumen ejecutivo. La información biótica corresponde a información secundaria de principios de los años 2000, lo cual a la actualidad probablemente está desactualizada. El contratista sugiere para el año 2014, realizar estudios que permitan la comprensión de las características físicas, químicas y biológicas para poder realizar las modelaciones y simulaciones de manera efectiva, dada la complejidad de los ecosistemas que integran la región de la Mojana.</t>
-  </si>
-  <si>
-    <t>Mediante otrosi se extendio la vigencia del contrato 016 de 2014 por un plazo de 12 meses, resultando en el plazo de 25 meses. Las conclusiones de los productos sugieren: primero, que la información no es suficiente para asignar un modelo de vulnerabilidad ajustado a los elementos expuestos; segundo, que hace falta la caracterización de muchos de los parámetros físicos que definen los elementos y su vulnerabilidad; y, tercero, que no se incluye información relacionada con la valoración de los elementos expuestos, ni con su ocupación.
-Se sugiere realizar estudios que consideren la información señalada en los tres puntos anteriores para hacer posible el diseño del modelo de vulnerabilidad.</t>
-  </si>
-  <si>
-    <t>No es posible asociar la información a un contrato o convenio. El objetivo indicado se extrae de uno de los informes, sin embargo no es el oficial. Se encuentra el contrato 083 DE 2016 entre el IDEAM y el profecional Julio Arbelaez. En los anexos se presentan resultados de la amenaza por inundación de Magangué, pero no de San Zenón.</t>
-  </si>
-  <si>
-    <t>El convenio se llevó a cabo para realizar una caracterización física y económica del Bajo Cauca entre Caucasia y su confluencia con el río Magdalena, con el fin de mejorar las condiciones del sistema de transporte en la región de La Mojana. Por lo anterior, el proyecto incluye la realización de modelaciones del sistema se transporte fluvial, estudios de caracterización hidráulica y geomorfológica, y el desarrollo tecnológico de un Sistema de Asistencia Satelital a la Navegación para el río Cauca.</t>
-  </si>
-  <si>
-    <t>En el proyecto se mencionan los siguientes entregables: TOMO II: Resumen Ejecutivo de Geología y Geomorfología (con su cartilla), TOMO III: Resumen Ejecutivo del Proyecto (con su cartilla), TOMO IV: Planos Batimétricos y Topográficos, y TOMO V: Planos Topográficos Vía Colorado (K0) – Cerro Las Brisas (K55-200), que no se encuentran en esta carpeta. Sin embargo, estos documentos están en la carpeta P0026, la cual contiene todos los tomos entregados del proyecto escaneados en folios.  El proyecto analiza la dinámica hidráulica, sedimentológica y morfológica del río Cauca en La Mojana, enfocándose en la producción agrícola, la navegación y la gestión del riesgo de inundaciones. Se identifican sectores críticos de erosión y sedimentación, proponiendo estrategias de monitoreo y gestión territorial. Además, se implementó un Sistema de Asistencia Satelital a la Navegación (SNS-Cauca) para optimizar el transporte fluvial mediante cartografía y batimetrías actualizadas. Se recomienda fortalecer la recolección de datos hidrológicos y sedimentológicos, así como establecer un monitoreo continuo del cauce para garantizar la estabilidad de las riberas y la seguridad de las comunidades. Por otro lado, no se encuentra los documentos asociados a la contratación del proyecto.</t>
-  </si>
-  <si>
-    <t>Se evaluaron parámetros geotécnicos críticos para garantizar la estabilidad y durabilidad de las estructuras, considerando el movimiento del cauce y la evolución de las orillas. Sin embargo, el análisis de amenazas geológicas naturales es limitado y los archivos nativos del modelo de socavación en HEC-RAS no están disponibles para su revisión, lo que dificulta la validación de los resultados. El estudio es relevante para la verificación de hipótesis de dinámica fluvial en obras de protección y servirá como base para futuros proyectos. No se encontro informacion sobre el contrato (presupuesto,  fecha de inicio y terminación). Además, solo se relacionaron 3 volumnes (III, IV, VII) de los 15 que contiene el proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El área de influencia abarca desde el Bajo Cauca entre la población de Caucasia (Antioquia) y la desembocadura en el río Magdalena (Brazo de Loba) y las principales poblaciones ubicadas a la margen izquierda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carpeta duplicada con el P0011, tiene contratación, información sensible. En P0011 están completos los productos. Se identificaron inconsistencias en la información catastral y registral, revelando que la mayoría de predios rurales presentan problemas de tenencia y restricciones de dominio. También se evidenciaron discrepancias entre los mapas de inundación y la realidad en terreno. Se recomienda continuar con la recolección y actualización de datos, así como la implementación de un sistema de monitoreo continuo que permita evaluar cambios en la tenencia y uso del suelo. La metodología utilizada incluyó encuestas, registros catastrales y análisis geoespaciales, permitiendo la clasificación y actualización de valores comerciales de los predios. Este documento proporciona un marco técnico y metodológico robusto para la gestión de información catastral y económica en la región. </t>
-  </si>
-  <si>
-    <t>Designación de supervisión administrativa, financiera, contable y legal del contrato No 143</t>
-  </si>
-  <si>
-    <t>Algunos de los archivos se encuentran duplicados en la carpeta P0054.
-En algunas capas cartográficas la tabla de atributos no tiene muchos detalles sobre las áreas de inundación, en otros la información está a escala nacional
-Las infografías presentan de manera gráfica, concisa y sencilla información útil. No obstante, carecen de un análisis o interpretación detallada de los hallazgos, lo que podría limitar su utilidad en procesos de toma de decisiones más complejos.
-Esta información se generó entre el año 2019 y 2024, es un componente valioso para la comprensión de la dinámica de inundaciones en la región, facilitando el análisis de riesgos y la planificación de estrategias de gestión. La carpeta no pertenece a ningún proyecto o contrato en específico.</t>
-  </si>
-  <si>
-    <t>Aunar esfuerzos técnicos, administrativos y humanos entre El Fondo y La Corporación para elaborar el plan de ordenación y manejo de la Cuenca Hidrográfica del Río Ariporo (código 3601) y ajustar (actualizar) el Plan de Ordenación y Manejo de la Cuenca Hidrográfica del Río Cravo Sur (Código 3521).</t>
-  </si>
-  <si>
-    <t>Aunar esfuerzos técnicos, administrativos y humanos entre “EL FONDO” y “LA CORPORACIÓN” para elaborar el Plan de Ordenación y Manejo de la cuenca hidrográfica de Directos al bajo Magdalena entre El Banco y El Plato (md) (Código 2907). Este plan se enmarca en el proyecto “Incorporación del componente de gestión del riesgo como determinante ambiental del ordenamiento territorial en los procesos de formulación y/o actualización de planes de ordenación y manejo de cuencas hidrográficas afectadas por el fenómeno de la Niña 2010-2011.”</t>
-  </si>
-  <si>
-    <t>La carpeta presenta una gdb con capas cartográficas de amenaza de inundación, profundidades para un periodo de retorno de 100 años para Magangué y San Marcos y una mancha de inundación de 2021 de la Mojana, así como otra carpeta que presenta 3 mapas, Ecorregiones PND a nivel nacional, un mapa de la Mojana y un Mapa de otros territorios a nivel nacional.</t>
-  </si>
-  <si>
-    <t>La carpeta no presenta un contexto de los datos, no se conoce el año real de la mancha de inundación, si esta fue obtenida por un modelo hidrodinámico (no se conocen caudales) o por imágenes satelitales. El componente de toma de decisiones debe ser cuidadoso con esta información debido a su falta de contexto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los documentos son muy relevantes y pertinentes para la toma de decisiones. Algunos documentos carecen de detalles específicos, como la fecha de publicación y el editor, lo que podría afectar su credibilidad y trazabilidad. En algunos casos se enuncian anexos y no se encuentran disponibles. En la carpeta no se relaciona información contractual del convenio, ni hay claridad de cuantos productos se generaron para todo el convenio. </t>
-  </si>
-  <si>
-    <t>P101</t>
-  </si>
-  <si>
-    <t>GDB POMCA Rio Bajo San Jorge</t>
-  </si>
-  <si>
-    <t>2502_01_RioBajo_SanJorge</t>
-  </si>
-  <si>
-    <t>Escala Nacional. Abarca toda Colombia</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0101</t>
-  </si>
-  <si>
-    <t>Cobertura vegetal, edificacion obracivil, entidades territoriales y unidades administrativas, impresion, indice mapas, instalaciones construcciones para transporte, limites, puntos de control, relieve, superficies agua, toponimos, transporte aereo, transporte maritimo fluvial, transporte terrestre, gdb, POMCA, Bajo San Jorge.</t>
-  </si>
-  <si>
-    <t>La geodatabase contiene información geoespacial estructurada en múltiples capas relacionadas con cobertura vegetal, edificación y obra civil, entidades territoriales y unidades administrativas, impresión, instalaciones y construcciones para transporte, límites, puntos de control, relieve, superficies de agua, topónimos, transporte aéreo, transporte marítimo y fluvial, y transporte terrestre. La carpeta incluye dos geodatabases (GDB): “Base_100k”, que contiene información a escala nacional y se presume que fue utilizada en la elaboración del POMCA del Bajo San Jorge, y “Base_100k_Cuenca2502-01.gdb”, la cual presenta errores que impiden su visualización.</t>
-  </si>
-  <si>
-    <t>La carpeta incluye dos geodatabases (GDB): “Base_100k”, que contiene información a escala nacional y se presume que fue utilizada en la elaboración del POMCA del Bajo San Jorge, y “Base_100k_Cuenca2502-01.gdb”, la cual presenta errores que impiden su visualización. No se referencia un informe o reporte que de cuenta del trabajado realizado o diccionario de datos que suministre información adicional.</t>
+    <t>P0101</t>
   </si>
 </sst>
 </file>
@@ -3814,10 +3826,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3928,13 +3936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X86" sqref="X86"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>76</v>
       </c>
@@ -4314,36 +4322,36 @@
         <v>9999</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>975</v>
+        <v>85</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V5" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W5" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>29</v>
@@ -4388,42 +4396,42 @@
         <v>9999</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T6" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U6" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V6" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W6" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>29</v>
@@ -4435,10 +4443,10 @@
         <v>29</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>51</v>
@@ -4450,54 +4458,54 @@
         <v>29</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O7" s="9">
         <v>41275</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7">
         <v>24</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>29</v>
@@ -4509,34 +4517,34 @@
         <v>29</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7">
         <v>9</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>70</v>
@@ -4545,39 +4553,39 @@
         <v>71</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>29</v>
@@ -4586,7 +4594,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K9" s="34" t="s">
         <v>29</v>
@@ -4601,51 +4609,51 @@
         <v>184985747</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="34">
         <v>23</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>976</v>
+        <v>138</v>
       </c>
       <c r="V9" s="34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="W9" s="38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X9" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>29</v>
@@ -4660,7 +4668,7 @@
         <v>64</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>29</v>
@@ -4684,42 +4692,42 @@
         <v>25</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T10" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U10" s="42" t="s">
-        <v>977</v>
+        <v>148</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="W10" s="38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>29</v>
@@ -4734,7 +4742,7 @@
         <v>64</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K11" s="34" t="s">
         <v>51</v>
@@ -4749,51 +4757,51 @@
         <v>742510000</v>
       </c>
       <c r="O11" s="36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="34">
         <v>6</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S11" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="V11" s="34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W11" s="38" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="X11" s="34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>29</v>
@@ -4808,7 +4816,7 @@
         <v>64</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K12" s="34" t="s">
         <v>51</v>
@@ -4820,7 +4828,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O12" s="36">
         <v>41913</v>
@@ -4832,42 +4840,42 @@
         <v>6</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="T12" s="34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="U12" s="42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V12" s="42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="W12" s="38" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="X12" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>29</v>
@@ -4879,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K13" s="34" t="s">
         <v>51</v>
@@ -4891,7 +4899,7 @@
         <v>51</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N13" s="35">
         <v>2734719994</v>
@@ -4906,57 +4914,57 @@
         <v>7</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T13" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>51</v>
@@ -4971,7 +4979,7 @@
         <v>742510000</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P14" s="22">
         <v>41670</v>
@@ -4980,39 +4988,39 @@
         <v>7</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="S14" s="20" t="s">
         <v>70</v>
       </c>
       <c r="T14" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="V14" s="20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="X14" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>29</v>
@@ -5054,57 +5062,57 @@
         <v>9999</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>978</v>
+        <v>209</v>
       </c>
       <c r="V15" s="34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="W15" s="34" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="X15" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K16" s="34" t="s">
         <v>51</v>
@@ -5122,67 +5130,67 @@
         <v>41610</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="34">
         <f>4*12+7</f>
         <v>55</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="V16" s="34" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="W16" s="34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="X16" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="34" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L17" s="34" t="s">
         <v>51</v>
@@ -5203,42 +5211,42 @@
         <v>9999</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T17" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="V17" s="34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="W17" s="34" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="X17" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>29</v>
@@ -5253,7 +5261,7 @@
         <v>64</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K18" s="34" t="s">
         <v>51</v>
@@ -5265,54 +5273,54 @@
         <v>29</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O18" s="36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="34">
         <v>10</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="U18" s="42" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V18" s="42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="W18" s="34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="X18" s="42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>29</v>
@@ -5327,10 +5335,10 @@
         <v>29</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L19" s="34" t="s">
         <v>51</v>
@@ -5351,39 +5359,39 @@
         <v>24</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T19" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="V19" s="34" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="W19" s="34" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="X19" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>29</v>
@@ -5392,16 +5400,16 @@
         <v>29</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>51</v>
@@ -5419,48 +5427,48 @@
         <v>40787</v>
       </c>
       <c r="P20" s="46" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="44">
         <v>11</v>
       </c>
       <c r="R20" s="44" t="s">
-        <v>979</v>
+        <v>271</v>
       </c>
       <c r="S20" s="44" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="T20" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U20" s="44" t="s">
-        <v>980</v>
+        <v>273</v>
       </c>
       <c r="V20" s="44" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="W20" s="44" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="X20" s="44" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>29</v>
@@ -5472,10 +5480,10 @@
         <v>29</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>51</v>
@@ -5484,7 +5492,7 @@
         <v>51</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N21" s="34" t="s">
         <v>29</v>
@@ -5499,42 +5507,42 @@
         <v>9999</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="S21" s="44" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="T21" s="44" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="U21" s="44" t="s">
-        <v>981</v>
+        <v>287</v>
       </c>
       <c r="V21" s="44" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="W21" s="44" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="X21" s="44" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>29</v>
@@ -5549,7 +5557,7 @@
         <v>64</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K22" s="34" t="s">
         <v>51</v>
@@ -5573,42 +5581,42 @@
         <v>9999</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="U22" s="34" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="V22" s="34" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="W22" s="34" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="X22" s="34" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>29</v>
@@ -5620,10 +5628,10 @@
         <v>29</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K23" s="34" t="s">
         <v>51</v>
@@ -5632,7 +5640,7 @@
         <v>51</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="N23" s="35">
         <v>3846506245</v>
@@ -5647,57 +5655,57 @@
         <v>8</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="V23" s="34" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="W23" s="34" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="X23" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K24" s="34" t="s">
         <v>51</v>
@@ -5722,36 +5730,36 @@
         <v>18</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="S24" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U24" s="34" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="V24" s="34" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="W24" s="34" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="X24" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>51</v>
@@ -5796,33 +5804,33 @@
         <v>9999</v>
       </c>
       <c r="R25" s="46" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T25" s="46" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="U25" s="44" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="V25" s="44" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="W25" s="44" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="X25" s="44" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>51</v>
@@ -5864,63 +5872,63 @@
         <v>9999</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="13">
         <v>9999</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="V26" s="13" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="W26" s="13" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K27" s="44" t="s">
         <v>29</v>
@@ -5938,48 +5946,48 @@
         <v>40552</v>
       </c>
       <c r="P27" s="46" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q27" s="44">
         <v>11</v>
       </c>
       <c r="R27" s="44" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="S27" s="44" t="s">
-        <v>982</v>
+        <v>352</v>
       </c>
       <c r="T27" s="44" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="U27" s="44" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="V27" s="44" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="W27" s="44" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="X27" s="44" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>29</v>
@@ -5988,13 +5996,13 @@
         <v>51</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K28" s="20" t="s">
         <v>51</v>
@@ -6003,10 +6011,10 @@
         <v>51</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="O28" s="22">
         <v>41340</v>
@@ -6018,42 +6026,42 @@
         <v>4</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="S28" s="20" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="V28" s="20" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="X28" s="20" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>29</v>
@@ -6065,10 +6073,10 @@
         <v>29</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K29" s="34" t="s">
         <v>51</v>
@@ -6080,7 +6088,7 @@
         <v>29</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O29" s="36">
         <v>41913</v>
@@ -6092,57 +6100,57 @@
         <v>6</v>
       </c>
       <c r="R29" s="34" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U29" s="34" t="s">
-        <v>983</v>
+        <v>379</v>
       </c>
       <c r="V29" s="34" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="W29" s="34" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>367</v>
-      </c>
       <c r="D30" s="34" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="K30" s="44" t="s">
         <v>29</v>
@@ -6166,42 +6174,42 @@
         <v>12</v>
       </c>
       <c r="R30" s="34" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="S30" s="34" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="T30" s="34" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="U30" s="34" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="V30" s="34" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="W30" s="34" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="X30" s="34" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>29</v>
@@ -6216,7 +6224,7 @@
         <v>64</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="K31" s="34" t="s">
         <v>51</v>
@@ -6225,57 +6233,57 @@
         <v>51</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N31" s="35">
         <v>2734719994</v>
       </c>
       <c r="O31" s="36" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="Q31" s="34">
         <v>7</v>
       </c>
       <c r="R31" s="34" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="S31" s="34" t="s">
         <v>70</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="V31" s="34" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="W31" s="34" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>984</v>
+        <v>410</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>29</v>
@@ -6290,7 +6298,7 @@
         <v>64</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K32" s="44" t="s">
         <v>29</v>
@@ -6314,7 +6322,7 @@
         <v>14</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="S32" s="34" t="s">
         <v>51</v>
@@ -6323,30 +6331,30 @@
         <v>51</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="V32" s="34" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="W32" s="34" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="X32" s="34" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>29</v>
@@ -6364,7 +6372,7 @@
         <v>64</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>51</v>
@@ -6379,31 +6387,31 @@
         <v>20901990031.84</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="Q33" s="7">
         <v>11</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="X33" s="7" t="s">
         <v>29</v>
@@ -6411,19 +6419,19 @@
     </row>
     <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>29</v>
@@ -6438,7 +6446,7 @@
         <v>64</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>51</v>
@@ -6453,31 +6461,31 @@
         <v>135000000</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Q34" s="7">
         <v>10</v>
       </c>
       <c r="R34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="S34" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="S34" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="T34" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="U34" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="U34" s="7" t="s">
-        <v>418</v>
-      </c>
       <c r="V34" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="X34" s="7" t="s">
         <v>29</v>
@@ -6485,19 +6493,19 @@
     </row>
     <row r="35" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>29</v>
@@ -6512,7 +6520,7 @@
         <v>64</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K35" s="34" t="s">
         <v>51</v>
@@ -6527,66 +6535,66 @@
         <v>742510000</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="34">
         <v>6</v>
       </c>
       <c r="R35" s="34" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="S35" s="34" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="T35" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U35" s="34" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="V35" s="34" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="W35" s="34" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="X35" s="34" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K36" s="20" t="s">
         <v>51</v>
@@ -6604,54 +6612,54 @@
         <v>41610</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q36" s="20">
         <v>67</v>
       </c>
       <c r="R36" s="24" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="S36" s="20" t="s">
         <v>70</v>
       </c>
       <c r="T36" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="V36" s="20" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="W36" s="20" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="X36" s="20" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>51</v>
@@ -6660,7 +6668,7 @@
         <v>64</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K37" s="20" t="s">
         <v>51</v>
@@ -6684,36 +6692,36 @@
         <v>15</v>
       </c>
       <c r="R37" s="27" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="S37" s="20" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="T37" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="W37" s="20" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="X37" s="20" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>51</v>
@@ -6758,33 +6766,33 @@
         <v>9999</v>
       </c>
       <c r="R38" s="44" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="S38" s="44" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="T38" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U38" s="44" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="V38" s="44" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="W38" s="44" t="s">
-        <v>969</v>
+        <v>471</v>
       </c>
       <c r="X38" s="44" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>51</v>
@@ -6832,36 +6840,36 @@
         <v>9999</v>
       </c>
       <c r="R39" s="48" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="S39" s="48" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="T39" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U39" s="48" t="s">
-        <v>985</v>
+        <v>476</v>
       </c>
       <c r="V39" s="48" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="W39" s="48" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="X39" s="48" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>51</v>
@@ -6906,7 +6914,7 @@
         <v>9999</v>
       </c>
       <c r="R40" s="34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="S40" s="34" t="s">
         <v>51</v>
@@ -6915,31 +6923,31 @@
         <v>51</v>
       </c>
       <c r="U40" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="V40" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="W40" s="34" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="X40" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="Y40" s="44"/>
     </row>
     <row r="41" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>986</v>
+        <v>489</v>
       </c>
       <c r="E41" s="44" t="s">
         <v>29</v>
@@ -6948,7 +6956,7 @@
         <v>29</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>51</v>
@@ -6957,7 +6965,7 @@
         <v>64</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="K41" s="44" t="s">
         <v>51</v>
@@ -6966,13 +6974,13 @@
         <v>51</v>
       </c>
       <c r="M41" s="44" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="N41" s="45">
         <v>7578039678</v>
       </c>
       <c r="O41" s="46" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="P41" s="46">
         <v>43499</v>
@@ -6981,43 +6989,43 @@
         <v>54</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="S41" s="44" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="T41" s="44" t="s">
         <v>51</v>
       </c>
       <c r="U41" s="44" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="V41" s="44" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="W41" s="44" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="X41" s="44" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Y41" s="39"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>29</v>
@@ -7029,10 +7037,10 @@
         <v>29</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>51</v>
@@ -7047,74 +7055,74 @@
         <v>6471757378</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="Q42" s="13">
         <f>3*12+10</f>
         <v>46</v>
       </c>
       <c r="R42" s="18" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>987</v>
+        <v>518</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="L43" s="34" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="M43" s="44" t="s">
         <v>29</v>
@@ -7132,56 +7140,56 @@
         <v>35</v>
       </c>
       <c r="R43" s="34" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="S43" s="34" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="T43" s="34" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="U43" s="34" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="V43" s="34" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="W43" s="34" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="X43" s="34" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="Y43" s="34"/>
     </row>
     <row r="44" spans="1:25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>51</v>
@@ -7190,58 +7198,58 @@
         <v>51</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="N44" s="8">
         <v>6514587989</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="Q44" s="7">
         <v>60</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="X44" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>29</v>
@@ -7253,66 +7261,66 @@
         <v>29</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L45" s="13" t="s">
         <v>51</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N45" s="16">
         <v>6874244540</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q45" s="13">
         <v>9</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>70</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U45" s="13" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W45" s="13" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="X45" s="13" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="E46" s="34" t="s">
         <v>51</v>
@@ -7321,7 +7329,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>29</v>
@@ -7330,7 +7338,7 @@
         <v>64</v>
       </c>
       <c r="J46" s="34" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="K46" s="34" t="s">
         <v>29</v>
@@ -7354,48 +7362,48 @@
         <v>9999</v>
       </c>
       <c r="R46" s="34" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="S46" s="34" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="T46" s="34" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="U46" s="34" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="V46" s="34" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="W46" s="34" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="X46" s="34" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="H47" s="34" t="s">
         <v>29</v>
@@ -7404,7 +7412,7 @@
         <v>64</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="K47" s="34" t="s">
         <v>29</v>
@@ -7413,7 +7421,7 @@
         <v>29</v>
       </c>
       <c r="M47" s="34" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="N47" s="35">
         <v>1837306186</v>
@@ -7428,48 +7436,48 @@
         <v>16.5</v>
       </c>
       <c r="R47" s="34" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="S47" s="34" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="T47" s="34" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="U47" s="34" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="V47" s="34" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="W47" s="34" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="X47" s="34" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="F48" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>29</v>
@@ -7478,16 +7486,16 @@
         <v>64</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="K48" s="44" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="L48" s="44" t="s">
         <v>51</v>
       </c>
       <c r="M48" s="44" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="N48" s="45">
         <v>2066969459</v>
@@ -7502,39 +7510,39 @@
         <v>15</v>
       </c>
       <c r="R48" s="44" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="S48" s="44" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="T48" s="44" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="U48" s="44" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="V48" s="44" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="W48" s="44" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="X48" s="44" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>51</v>
@@ -7543,7 +7551,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>29</v>
@@ -7552,7 +7560,7 @@
         <v>64</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="K49" s="34" t="s">
         <v>29</v>
@@ -7576,39 +7584,39 @@
         <v>9999</v>
       </c>
       <c r="R49" s="34" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="S49" s="34" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="T49" s="34" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="U49" s="34" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="V49" s="34" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="W49" s="34" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="X49" s="34" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="50" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="E50" s="44" t="s">
         <v>29</v>
@@ -7617,16 +7625,16 @@
         <v>29</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="I50" s="44" t="s">
         <v>64</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="K50" s="44" t="s">
         <v>51</v>
@@ -7650,42 +7658,42 @@
         <v>9999</v>
       </c>
       <c r="R50" s="44" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="S50" s="44" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="T50" s="44" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="U50" s="50" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="V50" s="44" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="W50" s="44" t="s">
-        <v>970</v>
+        <v>612</v>
       </c>
       <c r="X50" s="50" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="F51" s="44" t="s">
         <v>29</v>
@@ -7694,7 +7702,7 @@
         <v>29</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="I51" s="44" t="s">
         <v>64</v>
@@ -7718,48 +7726,48 @@
         <v>29</v>
       </c>
       <c r="P51" s="46" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="Q51" s="44">
         <v>24</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="S51" s="44" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="T51" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U51" s="44" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="V51" s="50" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="W51" s="44" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="X51" s="50" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>29</v>
@@ -7771,10 +7779,10 @@
         <v>9999</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="K52" s="13" t="s">
         <v>51</v>
@@ -7792,48 +7800,48 @@
         <v>43899</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="Q52" s="13">
         <v>36</v>
       </c>
       <c r="R52" s="18" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="S52" s="13" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="V52" s="13" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="W52" s="13" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="X52" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="F53" s="44">
         <v>9999</v>
@@ -7848,7 +7856,7 @@
         <v>64</v>
       </c>
       <c r="J53" s="44" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K53" s="44" t="s">
         <v>51</v>
@@ -7863,72 +7871,72 @@
         <v>135000000</v>
       </c>
       <c r="O53" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P53" s="46" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Q53" s="44">
         <v>10</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="S53" s="44" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="T53" s="44" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="U53" s="44" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="V53" s="44" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="W53" s="44" t="s">
-        <v>971</v>
+        <v>645</v>
       </c>
       <c r="X53" s="44" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="J54" s="13" t="s">
         <v>64</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="M54" s="13" t="s">
         <v>51</v>
@@ -7937,45 +7945,45 @@
         <v>51</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="Q54" s="13">
         <v>18</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="V54" s="13" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="W54" s="13" t="s">
-        <v>972</v>
+        <v>661</v>
       </c>
       <c r="X54" s="13" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>29</v>
@@ -7993,10 +8001,10 @@
         <v>29</v>
       </c>
       <c r="I55" s="44" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="K55" s="44" t="s">
         <v>51</v>
@@ -8020,36 +8028,36 @@
         <v>9999</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="S55" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T55" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U55" s="44" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="V55" s="44" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="W55" s="44" t="s">
-        <v>973</v>
+        <v>667</v>
       </c>
       <c r="X55" s="44" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="D56" s="34" t="s">
         <v>51</v>
@@ -8067,16 +8075,16 @@
         <v>29</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="L56" s="34" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="M56" s="34" t="s">
         <v>29</v>
@@ -8088,42 +8096,42 @@
         <v>40186</v>
       </c>
       <c r="P56" s="36" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="Q56" s="34">
         <v>9999</v>
       </c>
       <c r="R56" s="34" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="S56" s="34" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="T56" s="34" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="U56" s="34" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="V56" s="34" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="W56" s="34" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="X56" s="34" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D57" s="44" t="s">
         <v>29</v>
@@ -8141,7 +8149,7 @@
         <v>29</v>
       </c>
       <c r="I57" s="44" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="J57" s="44" t="s">
         <v>64</v>
@@ -8162,39 +8170,39 @@
         <v>45327</v>
       </c>
       <c r="P57" s="46" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="Q57" s="44">
         <v>1</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="S57" s="44" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="T57" s="44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U57" s="44" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="V57" s="44" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="W57" s="44" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="X57" s="44" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
     </row>
     <row r="58" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="C58" s="44" t="s">
         <v>51</v>
@@ -8242,36 +8250,36 @@
         <v>9999</v>
       </c>
       <c r="R58" s="44" t="s">
-        <v>988</v>
+        <v>694</v>
       </c>
       <c r="S58" s="44" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="T58" s="44" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="U58" s="44" t="s">
-        <v>989</v>
+        <v>695</v>
       </c>
       <c r="V58" s="44" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="W58" s="44" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="X58" s="44" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>51</v>
@@ -8292,7 +8300,7 @@
         <v>51</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>51</v>
@@ -8316,48 +8324,48 @@
         <v>9999</v>
       </c>
       <c r="R59" s="13" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="S59" s="13" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="T59" s="13" t="s">
         <v>51</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="V59" s="13" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="W59" s="13" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="X59" s="13" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="F60" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="H60" s="44">
         <v>9999</v>
@@ -8366,7 +8374,7 @@
         <v>64</v>
       </c>
       <c r="J60" s="44" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="K60" s="44" t="s">
         <v>51</v>
@@ -8378,54 +8386,54 @@
         <v>51</v>
       </c>
       <c r="N60" s="45" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="O60" s="46">
         <v>43625</v>
       </c>
       <c r="P60" s="46" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="Q60" s="44" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="R60" s="44" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="S60" s="44" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="T60" s="44" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="U60" s="44" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="V60" s="44" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="W60" s="44" t="s">
-        <v>974</v>
+        <v>719</v>
       </c>
       <c r="X60" s="44" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>29</v>
@@ -8434,13 +8442,13 @@
         <v>29</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="K61" s="13" t="s">
         <v>51</v>
@@ -8449,7 +8457,7 @@
         <v>51</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="N61" s="16">
         <v>38626862120</v>
@@ -8458,48 +8466,48 @@
         <v>43079</v>
       </c>
       <c r="P61" s="11" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="Q61" s="13">
         <v>15</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="S61" s="13" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="U61" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V61" s="13" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="W61" s="13" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="X61" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>29</v>
@@ -8514,7 +8522,7 @@
         <v>29</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>51</v>
@@ -8523,57 +8531,57 @@
         <v>51</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="N62" s="16">
         <v>22954368529.639999</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="P62" s="11" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="Q62" s="13">
         <v>11</v>
       </c>
       <c r="R62" s="13" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="S62" s="13" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="U62" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V62" s="13" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="W62" s="13" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>29</v>
@@ -8582,13 +8590,13 @@
         <v>29</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="K63" s="13" t="s">
         <v>51</v>
@@ -8597,13 +8605,13 @@
         <v>51</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="N63" s="16">
         <v>10920880573</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="P63" s="11" t="s">
         <v>84</v>
@@ -8612,42 +8620,42 @@
         <v>8</v>
       </c>
       <c r="R63" s="13" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="S63" s="13" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="U63" s="13" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="V63" s="13" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="W63" s="13" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="X63" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>29</v>
@@ -8662,7 +8670,7 @@
         <v>29</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="K64" s="13" t="s">
         <v>51</v>
@@ -8686,42 +8694,42 @@
         <v>9999</v>
       </c>
       <c r="R64" s="13" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="S64" s="13" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="T64" s="13" t="s">
         <v>29</v>
       </c>
       <c r="U64" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V64" s="13" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="W64" s="13" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="X64" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>29</v>
@@ -8730,13 +8738,13 @@
         <v>29</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="K65" s="13" t="s">
         <v>51</v>
@@ -8751,51 +8759,51 @@
         <v>21503897914</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="P65" s="11" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
       <c r="Q65" s="13">
         <v>17.5</v>
       </c>
       <c r="R65" s="13" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="S65" s="13" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="U65" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V65" s="13" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="W65" s="13" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="X65" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>29</v>
@@ -8810,7 +8818,7 @@
         <v>29</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>51</v>
@@ -8825,51 +8833,51 @@
         <v>32455048148</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="P66" s="11" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="Q66" s="13">
         <v>24</v>
       </c>
       <c r="R66" s="13" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="S66" s="13" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="T66" s="13" t="s">
         <v>29</v>
       </c>
       <c r="U66" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V66" s="13" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="W66" s="13" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="X66" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>29</v>
@@ -8884,7 +8892,7 @@
         <v>29</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="K67" s="13" t="s">
         <v>51</v>
@@ -8902,48 +8910,48 @@
         <v>41189</v>
       </c>
       <c r="P67" s="11" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="Q67" s="13">
         <v>13</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>783</v>
+        <v>804</v>
       </c>
       <c r="T67" s="13">
         <v>219</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="W67" s="13" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="X67" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>29</v>
@@ -8958,7 +8966,7 @@
         <v>29</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="K68" s="13" t="s">
         <v>51</v>
@@ -8982,42 +8990,42 @@
         <v>12</v>
       </c>
       <c r="R68" s="13" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="S68" s="13" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="T68" s="13" t="s">
         <v>29</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="W68" s="13" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
       <c r="X68" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>799</v>
+        <v>820</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="F69" s="44" t="s">
         <v>29</v>
@@ -9032,7 +9040,7 @@
         <v>29</v>
       </c>
       <c r="J69" s="44" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="K69" s="44" t="s">
         <v>51</v>
@@ -9041,57 +9049,57 @@
         <v>51</v>
       </c>
       <c r="M69" s="44" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
       <c r="N69" s="45">
         <v>16886338370</v>
       </c>
       <c r="O69" s="46" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="P69" s="46" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="Q69" s="44">
         <v>18</v>
       </c>
       <c r="R69" s="50" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="S69" s="44" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="T69" s="44" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
       <c r="U69" s="44" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V69" s="50" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="W69" s="44" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="X69" s="50" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>809</v>
+        <v>830</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>811</v>
+        <v>832</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>29</v>
@@ -9106,7 +9114,7 @@
         <v>29</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="K70" s="13" t="s">
         <v>51</v>
@@ -9121,51 +9129,51 @@
         <v>16782892881</v>
       </c>
       <c r="O70" s="11" t="s">
-        <v>815</v>
+        <v>836</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>816</v>
+        <v>837</v>
       </c>
       <c r="Q70" s="13">
         <v>15</v>
       </c>
       <c r="R70" s="13" t="s">
-        <v>817</v>
+        <v>838</v>
       </c>
       <c r="S70" s="13" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V70" s="13" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="W70" s="13" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
       <c r="X70" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>824</v>
+        <v>845</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>29</v>
@@ -9180,22 +9188,22 @@
         <v>29</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>827</v>
+        <v>848</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>828</v>
+        <v>849</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>829</v>
+        <v>850</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="N71" s="16">
         <v>16864638530</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="P71" s="11">
         <v>44350</v>
@@ -9204,42 +9212,42 @@
         <v>15</v>
       </c>
       <c r="R71" s="13" t="s">
-        <v>832</v>
+        <v>853</v>
       </c>
       <c r="S71" s="13" t="s">
-        <v>833</v>
+        <v>854</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
       <c r="U71" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V71" s="13" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="W71" s="13" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
       <c r="X71" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>837</v>
+        <v>858</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>838</v>
+        <v>859</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>839</v>
+        <v>860</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>840</v>
+        <v>861</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>841</v>
+        <v>862</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>29</v>
@@ -9254,7 +9262,7 @@
         <v>29</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>51</v>
@@ -9263,13 +9271,13 @@
         <v>51</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>830</v>
+        <v>851</v>
       </c>
       <c r="N72" s="16">
         <v>22270823688</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="P72" s="11">
         <v>44297</v>
@@ -9278,42 +9286,42 @@
         <v>15</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>844</v>
+        <v>865</v>
       </c>
       <c r="S72" s="13" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>845</v>
+        <v>866</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
       <c r="W72" s="13" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="X72" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>850</v>
+        <v>871</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>851</v>
+        <v>872</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>29</v>
@@ -9328,10 +9336,10 @@
         <v>29</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="L73" s="13" t="s">
         <v>51</v>
@@ -9343,48 +9351,48 @@
         <v>12341721000</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>856</v>
+        <v>877</v>
       </c>
       <c r="Q73" s="13">
         <v>15</v>
       </c>
       <c r="R73" s="13" t="s">
-        <v>857</v>
+        <v>878</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="T73" s="13" t="s">
-        <v>858</v>
+        <v>879</v>
       </c>
       <c r="U73" s="13" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="V73" s="13" t="s">
-        <v>846</v>
+        <v>867</v>
       </c>
       <c r="W73" s="13" t="s">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="X73" s="13" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>860</v>
+        <v>881</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>862</v>
+        <v>883</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>863</v>
+        <v>884</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>51</v>
@@ -9426,39 +9434,39 @@
         <v>9999</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>866</v>
+        <v>887</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>869</v>
+        <v>890</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>872</v>
+        <v>893</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>873</v>
+        <v>894</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>51</v>
@@ -9500,33 +9508,33 @@
         <v>9999</v>
       </c>
       <c r="R75" s="13" t="s">
-        <v>874</v>
+        <v>895</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
       <c r="U75" s="13" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
       <c r="V75" s="13" t="s">
-        <v>878</v>
+        <v>899</v>
       </c>
       <c r="W75" s="13" t="s">
-        <v>879</v>
+        <v>900</v>
       </c>
       <c r="X75" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>880</v>
+        <v>901</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>881</v>
+        <v>902</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>51</v>
@@ -9574,39 +9582,39 @@
         <v>9999</v>
       </c>
       <c r="R76" s="13" t="s">
-        <v>882</v>
+        <v>903</v>
       </c>
       <c r="S76" s="13" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="T76" s="13" t="s">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>885</v>
+        <v>906</v>
       </c>
       <c r="V76" s="13" t="s">
-        <v>886</v>
+        <v>907</v>
       </c>
       <c r="W76" s="13" t="s">
-        <v>887</v>
+        <v>908</v>
       </c>
       <c r="X76" s="13" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>888</v>
+        <v>909</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>889</v>
+        <v>910</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>890</v>
+        <v>911</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>891</v>
+        <v>912</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>51</v>
@@ -9615,7 +9623,7 @@
         <v>29</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>29</v>
@@ -9648,33 +9656,33 @@
         <v>9999</v>
       </c>
       <c r="R77" s="13" t="s">
-        <v>893</v>
+        <v>914</v>
       </c>
       <c r="S77" s="13" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="T77" s="13" t="s">
-        <v>895</v>
+        <v>916</v>
       </c>
       <c r="U77" s="13" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
       <c r="V77" s="13" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="W77" s="13" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="X77" s="13" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>51</v>
@@ -9698,7 +9706,7 @@
         <v>51</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="K78" s="28" t="s">
         <v>51</v>
@@ -9722,33 +9730,33 @@
         <v>9999</v>
       </c>
       <c r="R78" s="54" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="S78" s="28" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="T78" s="28" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="U78" s="28" t="s">
-        <v>903</v>
+        <v>924</v>
       </c>
       <c r="V78" s="28" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
       <c r="W78" s="28" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
       <c r="X78" s="28" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>51</v>
@@ -9796,39 +9804,39 @@
         <v>9999</v>
       </c>
       <c r="R79" s="54" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="S79" s="54" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="T79" s="28" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="U79" s="28" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
       <c r="V79" s="28" t="s">
-        <v>911</v>
+        <v>932</v>
       </c>
       <c r="W79" s="28" t="s">
-        <v>912</v>
+        <v>933</v>
       </c>
       <c r="X79" s="28" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>914</v>
+        <v>935</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>915</v>
+        <v>936</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>916</v>
+        <v>937</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>51</v>
@@ -9870,36 +9878,36 @@
         <v>9999</v>
       </c>
       <c r="R80" s="18" t="s">
-        <v>917</v>
+        <v>938</v>
       </c>
       <c r="S80" s="13" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="T80" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U80" s="13" t="s">
-        <v>918</v>
+        <v>939</v>
       </c>
       <c r="V80" s="13" t="s">
-        <v>919</v>
+        <v>940</v>
       </c>
       <c r="W80" s="13" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
       <c r="X80" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>921</v>
+        <v>942</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>51</v>
@@ -9944,48 +9952,48 @@
         <v>9999</v>
       </c>
       <c r="R81" s="18" t="s">
-        <v>924</v>
+        <v>945</v>
       </c>
       <c r="S81" s="13" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="T81" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U81" s="13" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
       <c r="V81" s="13" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="W81" s="13" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="X81" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
       <c r="E82" s="44" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="F82" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G82" s="44" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="H82" s="44" t="s">
         <v>51</v>
@@ -9997,7 +10005,7 @@
         <v>49</v>
       </c>
       <c r="K82" s="44" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="L82" s="44" t="s">
         <v>51</v>
@@ -10018,57 +10026,57 @@
         <v>9999</v>
       </c>
       <c r="R82" s="44" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="S82" s="44" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="T82" s="44" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="U82" s="44" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="V82" s="44" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
       <c r="W82" s="44" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="X82" s="44" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>937</v>
+        <v>958</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>938</v>
+        <v>959</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>939</v>
+        <v>960</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>941</v>
+        <v>962</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>49</v>
@@ -10092,48 +10100,48 @@
         <v>9999</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>942</v>
+        <v>963</v>
       </c>
       <c r="S83" s="13" t="s">
-        <v>894</v>
+        <v>915</v>
       </c>
       <c r="T83" s="13" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="U83" s="13" t="s">
-        <v>943</v>
+        <v>964</v>
       </c>
       <c r="V83" s="13" t="s">
-        <v>944</v>
+        <v>965</v>
       </c>
       <c r="W83" s="13" t="s">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="X83" s="13" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
       <c r="E84" s="44" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="F84" s="44" t="s">
         <v>29</v>
       </c>
       <c r="G84" s="44" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
       <c r="H84" s="44" t="s">
         <v>51</v>
@@ -10142,10 +10150,10 @@
         <v>51</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
       <c r="K84" s="44" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
       <c r="L84" s="44" t="s">
         <v>51</v>
@@ -10166,39 +10174,39 @@
         <v>9999</v>
       </c>
       <c r="R84" s="44" t="s">
-        <v>953</v>
+        <v>974</v>
       </c>
       <c r="S84" s="44" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
       <c r="T84" s="44" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
       <c r="U84" s="44" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="V84" s="44" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
       <c r="W84" s="44" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="X84" s="44" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="39" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>80</v>
@@ -10240,36 +10248,36 @@
         <v>9999</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U85" s="44" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="V85" s="44" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="W85" s="44" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="X85" s="44" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="86" spans="1:24" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>51</v>
@@ -10314,39 +10322,39 @@
         <v>9999</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="S86" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="T86" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="U86" s="44" t="s">
+        <v>991</v>
+      </c>
+      <c r="V86" s="44" t="s">
+        <v>992</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="X86" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="32" t="s">
         <v>994</v>
       </c>
-      <c r="T86" s="7" t="s">
-        <v>994</v>
-      </c>
-      <c r="U86" s="44" t="s">
-        <v>998</v>
-      </c>
-      <c r="V86" s="44" t="s">
-        <v>996</v>
-      </c>
-      <c r="W86" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="X86" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
-        <v>965</v>
-      </c>
       <c r="B87" s="10" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>80</v>
@@ -10388,25 +10396,100 @@
         <v>9999</v>
       </c>
       <c r="R87" s="7" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U87" s="7" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="V87" s="7" t="s">
-        <v>967</v>
+        <v>996</v>
       </c>
       <c r="W87" s="7" t="s">
-        <v>968</v>
+        <v>997</v>
       </c>
       <c r="X87" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
+      </c>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88" s="7">
+        <v>9999</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M88" s="7">
+        <v>9999</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O88" s="15">
+        <v>2018</v>
+      </c>
+      <c r="P88" s="15">
+        <v>2023</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>9999</v>
+      </c>
+      <c r="R88" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="S88" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="T88" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="U88" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="V88" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="W88" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="X88" s="7" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -10422,11 +10505,11 @@
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A87:A88">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:A1048576 A29:A30 A35:A55 B35 A1:A25 A69:A86">
+  <conditionalFormatting sqref="A89:A1048576 A29:A30 A35:A55 B35 A1:A25 A69:A86">
     <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>

--- a/N1-FP-PROYECTO_v01.xlsx
+++ b/N1-FP-PROYECTO_v01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="921" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E065CF35-74D4-4CFB-905F-5F572E1C6765}"/>
+  <xr:revisionPtr revIDLastSave="1079" documentId="13_ncr:1_{2AC714FB-EBE8-4040-AC59-7C8A3337B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB037BE1-9E77-471F-A0B0-9E6A606A1333}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="12870" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1050">
   <si>
     <t>Código de proyecto</t>
   </si>
@@ -3240,6 +3240,9 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0100</t>
   </si>
   <si>
+    <t>P0101</t>
+  </si>
+  <si>
     <t>GDB POMCA Rio Bajo San Jorge</t>
   </si>
   <si>
@@ -3261,6 +3264,69 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0101</t>
   </si>
   <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>PTAR Nechi, 2023</t>
+  </si>
+  <si>
+    <t>Tratamiento de lodos para planta de potabilización en la zona urbana del municipio de Nechí, Antioquia</t>
+  </si>
+  <si>
+    <t>Construcción sistema de tratamiento de lodos para planta de potabilización en la zona urbana del municipio de Nechí, Antioquia</t>
+  </si>
+  <si>
+    <t>LP-005-2023</t>
+  </si>
+  <si>
+    <t>Alcaldía Municipio de Nechí</t>
+  </si>
+  <si>
+    <t>AGUASCOL</t>
+  </si>
+  <si>
+    <t>El proyecto busca optimizar el tratamiento de agua potable y la gestión de lodos en la PTAP de Nechí, Antioquia, mediante el diseño e implementación de lechos de secado, una estación de bombeo (EBAR) y un sistema By-Pass, cumpliendo la Resolución 0330 de 2017. Incluye estudios de diagnóstico, suelos, topografía y modelación hidráulica, garantizando estabilidad estructural y eficiencia operativa bajo normativas como NSR-10 e ICONTEC. Su finalidad es mejorar la infraestructura y la gestión de recursos hídricos del municipio.</t>
+  </si>
+  <si>
+    <t>Nechí</t>
+  </si>
+  <si>
+    <t>El proyecto evalúa las condiciones técnicas de operación de la PTAP de Nechí (2022) para calcular indicadores de mejora, sin abordar el aspecto económico. Proporciona información geotécnica clave sobre nivel freático y capacidad de carga para la cimentación en la zona. El diseño del sistema de tratamiento de lodos se fundamenta en análisis técnicos, económicos y ambientales, aunque presenta limitaciones en la validación de modelos y proyección de demanda. El manual operativo detalla procedimientos para la gestión de lodos, incluyendo bombeo y dosificación de polímeros, asegurando el mantenimiento del sistema. Se realizó un estudio topográfico altimétrico para apoyar el diseño de la infraestructura. A pesar de su claridad y organización, el documento general carece de información sobre la ubicación exacta de las obras y su contexto ambiental, además de depender de normativas externas. La modelación aplicada se enfoca en una estructura puntual de menos de 60 metros, específicamente en la PTAR de Nechí.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104</t>
+  </si>
+  <si>
+    <t>P0106</t>
+  </si>
+  <si>
+    <t>Acueducto Nechí, 2021</t>
+  </si>
+  <si>
+    <t>Alcantarillado del corregimiento colorado en el municipio de Nechí</t>
+  </si>
+  <si>
+    <t>Construcción del sistema de alcantarillado del corregimiento colorado en el municipio de Nechí</t>
+  </si>
+  <si>
+    <t>LP 08-2009</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ANTIOQUIA - FACULTAD INGENIERIA</t>
+  </si>
+  <si>
+    <t>El proyecto tiene como objetivo mejorar la infraestructura de saneamiento y abastecimiento de agua en el corregimiento Colorado, municipio de Nechí, mediante la construcción y optimización de sistemas de alcantarillado, tratamiento de aguas residuales y abastecimiento de agua potable. Se incluyen estudios de diagnóstico y diseño del sistema de alcantarillado, la construcción de una Planta de Tratamiento de Aguas Residuales (PTAR), la evaluación de vertimientos y gestión de riesgos ambientales, así como estudios geotécnicos y de suelos para la cimentación de nuevas estructuras. Además, se contemplan mejoras en la red de bombeo, incluyendo la Estación de Bombeo de Agua Residual (EBAR) y la implementación de un sistema By-Pass para contingencias. El proyecto también evalúa alternativas de tratamiento de lodos, optimización de la red de distribución de agua y estudios de impacto ambiental, asegurando el cumplimiento de normativas y la sostenibilidad del sistema.</t>
+  </si>
+  <si>
+    <t>El documento presenta una modelación específica para la PTAR del municipio de Nechí, aunque los archivos nativos del modelo no pueden visualizarse ni simularse debido a su desarrollo en WaterGEMS, un software con licencia comercial. Además, se elabora un diagnóstico del sistema de manejo de aguas residuales en el corregimiento Colorado, incluyendo la localización de la PTAR y la evaluación del ICACOSU. Se describen las variables clave del diseño, como el caudal de diseño a 25 años (15 L/s) y la población futura beneficiada (2,237 habitantes), aunque los cálculos detallados se presentan en anexos. No se realizan modelos de calidad del agua, sino que se aplican fórmulas de dilución y asimilación. También se incluye un análisis de riesgo ambiental con una evaluación del nivel de riesgo (Tabla 4-18). Se documenta un diagnóstico de campo del pozo en el corregimiento Colorado, identificando variables como diámetro de tuberías, profundidad y amenazas para su funcionamiento. Finalmente, a lo largo del documento se presentan variables adicionales, como límites del suelo, clasificación del suelo y nivel freático.</t>
+  </si>
+  <si>
+    <t>Infraestructura, saneamiento, abastecimiento de agua, corregimiento Colorado, Nechí, alcantarillado, tratamiento de aguas residuales, abastecimiento de agua potable, Planta de Tratamiento de Aguas Residuales (PTAR), evaluación de vertimientos, gestión de riesgos ambientales, estudios geotécnicos, suelos, cimentación, Estación de Bombeo de Agua Residual (EBAR), sistema By-Pass, contingencias, red de bombeo, tratamiento de lodos, optimización, red de distribución de agua, impacto ambiental, normativas, sostenibilidad.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106</t>
+  </si>
+  <si>
     <t>P0102</t>
   </si>
   <si>
@@ -3273,6 +3339,85 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0102</t>
   </si>
   <si>
+    <t>P0103</t>
+  </si>
+  <si>
+    <t>Construcción del sistema de acueducto del corregimientos de Colorado municipio de Nechí</t>
+  </si>
+  <si>
+    <t>Mejorar el sistema de acueducto para el abastecimiento de agua potable en el corregimiento de Colorado Municipio de Nechí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El alcance del proyecto, contempla la realización de estudios y diseños de los del sistema de acueducto del corregimiento de colorado y los sistemas de acueducto y alcantarillado de los corregimientos de bijagual y cargueros propuestos en el objeto del contrato. </t>
+  </si>
+  <si>
+    <t>Departamento de Antioquia y Municipio de Nechí a partir del Sistema General de Participaciones (SGP)</t>
+  </si>
+  <si>
+    <t>Alcaldía de Nechí</t>
+  </si>
+  <si>
+    <t>UT PMAA CORREGIMIENTOS 2019 CONSULTOR</t>
+  </si>
+  <si>
+    <t>17/02/2020</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>El bajo acceso al servicio de agua potable de la comunidad del centro poblado del corregimiento Colorado del Municipio de Nechí debido a que cuenta con un sistema de acueducto en un alto deterioro, por lo que la comunidad se encuentra consumiendo agua inviable sanitariamente. En ese sentido, se propone mejorar la infraestructura del acueducto del corregimiento de Colorado a partir de las siguientes intervenciones: Captación tipo barcaza flotante en acero sobre el río Cauca de medidas 4.5m x 6m, área 27m2. Cuenta con un sistema de bombeo con 2 bombas sumergibles, las cuales trabajan alternadamente, con capacidad para bombear cada una 4.19 l/s, de diámetro de descarga 50 mm, potencia 3 hp, voltaje de operación 220/440, 3 fases, caudal máximo 131 gpm, altura máxima 30 metros, nivel mínimo de sumergencia 120 mm.  Planta de Tratamiento de Agua Potable con capacidad para tratar 3,82 l/s, en material Polietileno reforzado con Fibra de Vidrio PRFV. Construcción del sistema de bombeo para agua tratada, desde el tanque de succión hasta el tanque elevado, con 2 bombas centrífugas que trabajan alternadamente, con motor eléctrico de 3 HP, a 1800 rpm, 3x208-230 vol, para 5.4 l/seg, un HDT de 23 m, con succión en 2 y descarga en 1 ½”. Una Caseta para albergar equipos de bombeo y eléctricos, y químicos, de área 20 m2. Tanque de almacenamiento de succión semienterrado con un volumen útil de 66 m3 en concreto reforzado, de 2.15 m de altura y 5m x 6 m de lado. Tanque de almacenamiento en concreto reforzado elevado a 14 m y capacidad para 55 m3, de dimensiones 5m x 5m y altura 2.5 m, soportado un pórtico en concreto reforzado de 14 m de altura. Red de distribución con longitud de 3.832 m, material PVC, RDE 21, discriminada así: 2472,5 m. Ø2”; 1795,6 m. Ø3” y 16,4m. Ø4”. 2 Macromedidores mecánico tipo WOLTMAN Ø 3”. Incluye: Filtro en Yee de 4" BXB, válvula de compuerta 4" BXB , ventosa roscada de 1/2", unión brida universal por acople universal (2), tubería, pasamuros y niples HD. Se construirán 300 acometidas domiciliarias en tubería PF+UAD PE 80 RDE 9, incluye medidor de velocidad R80 de transmisión magnética, cuerpo de bronce, chorro único, D=1/2" Q3 R160. Incluye los siguientes accesorios de D=1/2": registro de corte sencillo HXH Ø ½" y Registro de corte antifraude para tubería pf+uad 1/2" PE80-RDE9 y unión pf+uad 1/2", registro de incorporación de 1/2".</t>
+  </si>
+  <si>
+    <t>Municipio de Nechí</t>
+  </si>
+  <si>
+    <t>966 personas habitantes del corregimiento Colorado del municipio de Nechí</t>
+  </si>
+  <si>
+    <t>El ejecutor en el acta de inicio es la Alcaldía de Nechí, sin embargo la alcadlía celebra un contrato con la Unión Temporal UT PMAA CORREGIMIENTOS 2019 CONSULTOR</t>
+  </si>
+  <si>
+    <t>Acueducto, alcantarillado, Nechí, Colorado, Antioquia, Planta de tratamiento de aguas, calidad del agua, PTA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103</t>
+  </si>
+  <si>
+    <t>P0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construcción del sistema para manejo de aguas residuales urbanas, etapa II, Nechí - Antioquia </t>
+  </si>
+  <si>
+    <t>Construcción del sistema para manejo de aguas residuales urbanas</t>
+  </si>
+  <si>
+    <t>Prestar el sistema de alcantarillado en el área urbana del municipio de Nechí.</t>
+  </si>
+  <si>
+    <t>15/02/2019</t>
+  </si>
+  <si>
+    <t>15/10/2019</t>
+  </si>
+  <si>
+    <t>Actualmente, no existe ningún sistema de alcantarillado que se encuentre operando eficientemente, la única estación elevadora se encuentra fuera de servicio y las aguas residuales son drenadas directamente sobre la vía pública por medio de canales de concreto o en tierra, estos descoles drenan en diferentes sitios de la población a caños, quebradas y/o zonas de ciénagas existentes en la zona urbana del municipio. Luego del análisis de dos alternativas. Las acciones adelantas en el marco de la alternativa seleccionada son: Construcción Redes de Alcantarillado de Aguas Residuales, Construcción de 323 domiciliarias de alcantarillado, de las cuales 85 corresponden a optimización y 238 son nuevas conexiones en el
+Municipio, Construcción Red de Impulsión de Aguas Residuales, Construcción de Estación de Bombeo de Aguas Residuales.</t>
+  </si>
+  <si>
+    <t>6092 personas habitantes de la zona urbana de Nechí</t>
+  </si>
+  <si>
+    <t>La carpeta contiene los informes de algunos componentes del contrato. Sin embargo, las carpetas de diagnóstico y diseño no tienen informes, solamente las hojas de cálculo de los datos con los que se seleccionó la alternativa.</t>
+  </si>
+  <si>
+    <t>Alcantarillado, aguas residuales, Nechí, Antioquia, Bajo Cauca, alternativas, contaminación</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105</t>
+  </si>
+  <si>
     <t>P0107</t>
   </si>
   <si>
@@ -3283,9 +3428,6 @@
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0107</t>
-  </si>
-  <si>
-    <t>P0101</t>
   </si>
 </sst>
 </file>
@@ -3299,7 +3441,7 @@
     <numFmt numFmtId="166" formatCode="d/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3364,6 +3506,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3449,7 +3597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3607,9 +3755,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -3936,16 +4088,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L72" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="R95" sqref="R95"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
@@ -3971,7 +4123,7 @@
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4045,7 +4197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="39" customFormat="1">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -4120,7 +4272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="18.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -4195,7 +4347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>59</v>
       </c>
@@ -4269,7 +4421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="39" customFormat="1">
       <c r="A5" s="34" t="s">
         <v>76</v>
       </c>
@@ -4343,7 +4495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="39" customFormat="1">
       <c r="A6" s="40" t="s">
         <v>92</v>
       </c>
@@ -4417,7 +4569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="7" t="s">
         <v>100</v>
       </c>
@@ -4491,7 +4643,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="7" t="s">
         <v>113</v>
       </c>
@@ -4565,7 +4717,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="39" customFormat="1">
       <c r="A9" s="34" t="s">
         <v>128</v>
       </c>
@@ -4639,7 +4791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="39" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>141</v>
       </c>
@@ -4713,7 +4865,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="39" customFormat="1">
       <c r="A11" s="34" t="s">
         <v>152</v>
       </c>
@@ -4787,7 +4939,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="34" t="s">
         <v>165</v>
       </c>
@@ -4861,7 +5013,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="39" customFormat="1">
       <c r="A13" s="34" t="s">
         <v>179</v>
       </c>
@@ -4935,7 +5087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>190</v>
       </c>
@@ -5009,7 +5161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="39" customFormat="1">
       <c r="A15" s="34" t="s">
         <v>202</v>
       </c>
@@ -5083,7 +5235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="39" customFormat="1">
       <c r="A16" s="34" t="s">
         <v>212</v>
       </c>
@@ -5158,7 +5310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="39" customFormat="1">
       <c r="A17" s="34" t="s">
         <v>225</v>
       </c>
@@ -5232,7 +5384,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="43" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="43" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="34" t="s">
         <v>237</v>
       </c>
@@ -5306,7 +5458,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="43" customFormat="1">
       <c r="A19" s="34" t="s">
         <v>252</v>
       </c>
@@ -5380,7 +5532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="39" customFormat="1">
       <c r="A20" s="44" t="s">
         <v>263</v>
       </c>
@@ -5454,7 +5606,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>277</v>
       </c>
@@ -5528,7 +5680,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="43" customFormat="1">
       <c r="A22" s="34" t="s">
         <v>291</v>
       </c>
@@ -5602,7 +5754,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="43" customFormat="1">
       <c r="A23" s="34" t="s">
         <v>302</v>
       </c>
@@ -5676,7 +5828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="43" customFormat="1">
       <c r="A24" s="34" t="s">
         <v>315</v>
       </c>
@@ -5751,7 +5903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="43" customFormat="1">
       <c r="A25" s="44" t="s">
         <v>326</v>
       </c>
@@ -5825,7 +5977,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26" s="13" t="s">
         <v>335</v>
       </c>
@@ -5899,7 +6051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="39" customFormat="1">
       <c r="A27" s="44" t="s">
         <v>343</v>
       </c>
@@ -5973,7 +6125,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>358</v>
       </c>
@@ -6047,7 +6199,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="39" customFormat="1">
       <c r="A29" s="34" t="s">
         <v>373</v>
       </c>
@@ -6121,7 +6273,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="39" customFormat="1">
       <c r="A30" s="34" t="s">
         <v>383</v>
       </c>
@@ -6195,7 +6347,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="39" customFormat="1">
       <c r="A31" s="34" t="s">
         <v>398</v>
       </c>
@@ -6269,7 +6421,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="39" customFormat="1">
       <c r="A32" s="34" t="s">
         <v>408</v>
       </c>
@@ -6343,7 +6495,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="15" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>419</v>
       </c>
@@ -6417,7 +6569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="15" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>431</v>
       </c>
@@ -6491,7 +6643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="39" customFormat="1">
       <c r="A35" s="34" t="s">
         <v>441</v>
       </c>
@@ -6565,7 +6717,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>449</v>
       </c>
@@ -6639,7 +6791,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="23" customFormat="1">
       <c r="A37" s="20" t="s">
         <v>457</v>
       </c>
@@ -6713,7 +6865,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="39" customFormat="1">
       <c r="A38" s="44" t="s">
         <v>466</v>
       </c>
@@ -6787,7 +6939,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="39" customFormat="1">
       <c r="A39" s="48" t="s">
         <v>473</v>
       </c>
@@ -6861,7 +7013,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="39" customFormat="1">
       <c r="A40" s="34" t="s">
         <v>479</v>
       </c>
@@ -6936,7 +7088,7 @@
       </c>
       <c r="Y40" s="44"/>
     </row>
-    <row r="41" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="44" t="s">
         <v>486</v>
       </c>
@@ -7011,7 +7163,7 @@
       </c>
       <c r="Y41" s="39"/>
     </row>
-    <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>499</v>
       </c>
@@ -7087,7 +7239,7 @@
       </c>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="34" t="s">
         <v>515</v>
       </c>
@@ -7162,7 +7314,7 @@
       </c>
       <c r="Y43" s="34"/>
     </row>
-    <row r="44" spans="1:25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>530</v>
       </c>
@@ -7235,7 +7387,7 @@
       </c>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
         <v>547</v>
       </c>
@@ -7309,7 +7461,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" s="39" customFormat="1">
       <c r="A46" s="34" t="s">
         <v>555</v>
       </c>
@@ -7383,7 +7535,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" s="39" customFormat="1">
       <c r="A47" s="34" t="s">
         <v>565</v>
       </c>
@@ -7457,7 +7609,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="39" customFormat="1">
       <c r="A48" s="44" t="s">
         <v>576</v>
       </c>
@@ -7531,7 +7683,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="39" customFormat="1">
       <c r="A49" s="34" t="s">
         <v>591</v>
       </c>
@@ -7605,7 +7757,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1">
       <c r="A50" s="44" t="s">
         <v>601</v>
       </c>
@@ -7679,7 +7831,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="39" customFormat="1" ht="18.75" customHeight="1">
       <c r="A51" s="44" t="s">
         <v>614</v>
       </c>
@@ -7753,7 +7905,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>626</v>
       </c>
@@ -7827,7 +7979,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="39" customFormat="1">
       <c r="A53" s="44" t="s">
         <v>637</v>
       </c>
@@ -7901,7 +8053,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="14.25" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>646</v>
       </c>
@@ -7975,7 +8127,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" s="39" customFormat="1">
       <c r="A55" s="44" t="s">
         <v>662</v>
       </c>
@@ -8049,7 +8201,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" s="39" customFormat="1">
       <c r="A56" s="34" t="s">
         <v>668</v>
       </c>
@@ -8123,7 +8275,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" s="39" customFormat="1">
       <c r="A57" s="44" t="s">
         <v>681</v>
       </c>
@@ -8197,7 +8349,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" s="39" customFormat="1">
       <c r="A58" s="44" t="s">
         <v>692</v>
       </c>
@@ -8271,7 +8423,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59" s="13" t="s">
         <v>698</v>
       </c>
@@ -8345,7 +8497,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" s="39" customFormat="1">
       <c r="A60" s="44" t="s">
         <v>706</v>
       </c>
@@ -8419,7 +8571,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61" s="19" t="s">
         <v>720</v>
       </c>
@@ -8493,7 +8645,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" s="13" t="s">
         <v>736</v>
       </c>
@@ -8567,7 +8719,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="15" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>750</v>
       </c>
@@ -8641,7 +8793,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" s="13" t="s">
         <v>761</v>
       </c>
@@ -8715,7 +8867,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24">
       <c r="A65" s="13" t="s">
         <v>771</v>
       </c>
@@ -8789,7 +8941,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24">
       <c r="A66" s="13" t="s">
         <v>785</v>
       </c>
@@ -8863,7 +9015,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24">
       <c r="A67" s="13" t="s">
         <v>796</v>
       </c>
@@ -8937,7 +9089,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24">
       <c r="A68" s="13" t="s">
         <v>807</v>
       </c>
@@ -9011,7 +9163,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="69" spans="1:24" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="44" t="s">
         <v>817</v>
       </c>
@@ -9085,7 +9237,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24">
       <c r="A70" s="13" t="s">
         <v>830</v>
       </c>
@@ -9159,7 +9311,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24">
       <c r="A71" s="13" t="s">
         <v>843</v>
       </c>
@@ -9233,7 +9385,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24">
       <c r="A72" s="13" t="s">
         <v>858</v>
       </c>
@@ -9307,7 +9459,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24">
       <c r="A73" s="13" t="s">
         <v>869</v>
       </c>
@@ -9381,7 +9533,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24">
       <c r="A74" s="13" t="s">
         <v>881</v>
       </c>
@@ -9455,7 +9607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24">
       <c r="A75" s="13" t="s">
         <v>891</v>
       </c>
@@ -9529,7 +9681,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24">
       <c r="A76" s="13" t="s">
         <v>901</v>
       </c>
@@ -9603,7 +9755,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="15" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>909</v>
       </c>
@@ -9677,7 +9829,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="28" t="s">
         <v>920</v>
       </c>
@@ -9751,7 +9903,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="79" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="28" t="s">
         <v>927</v>
       </c>
@@ -9825,7 +9977,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="13" t="s">
         <v>934</v>
       </c>
@@ -9899,7 +10051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="19.5" customHeight="1">
       <c r="A81" s="13" t="s">
         <v>942</v>
       </c>
@@ -9973,7 +10125,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" s="39" customFormat="1">
       <c r="A82" s="44" t="s">
         <v>949</v>
       </c>
@@ -10047,7 +10199,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
         <v>958</v>
       </c>
@@ -10121,7 +10273,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" s="39" customFormat="1">
       <c r="A84" s="44" t="s">
         <v>967</v>
       </c>
@@ -10195,7 +10347,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" s="39" customFormat="1" ht="30">
       <c r="A85" s="44" t="s">
         <v>980</v>
       </c>
@@ -10269,15 +10421,15 @@
         <v>485</v>
       </c>
     </row>
-    <row r="86" spans="1:25" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" s="39" customFormat="1" ht="30">
       <c r="A86" s="44" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>51</v>
@@ -10322,173 +10474,468 @@
         <v>9999</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="U86" s="44" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="V86" s="44" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="W86" s="13" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="X86" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
-        <v>994</v>
+    <row r="87" spans="1:25" s="39" customFormat="1">
+      <c r="A87" s="44" t="s">
+        <v>995</v>
       </c>
       <c r="B87" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="E87" t="s">
+        <v>999</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N87" s="16">
+        <v>1447331306</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P87" s="11">
+        <v>45025</v>
+      </c>
+      <c r="Q87" s="13">
+        <v>9999</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T87" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="U87" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="W87" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X87" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" s="39" customFormat="1">
+      <c r="A88" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F88" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J88" s="56" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N88" s="16">
+        <v>603032923</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P88" s="11">
+        <v>44292</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>9999</v>
+      </c>
+      <c r="R88" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="S88" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T88" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="U88" s="44" t="s">
+        <v>1013</v>
+      </c>
+      <c r="V88" s="44" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W88" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="X88" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" s="39" customFormat="1" ht="30">
+      <c r="A89" s="32" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" s="7" t="s">
+      <c r="F89" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H89" s="7">
         <v>9999</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I89" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J89" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K87" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M87" s="7">
+      <c r="K89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M89" s="7">
         <v>9999</v>
       </c>
-      <c r="N87" s="8" t="s">
+      <c r="N89" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O87" s="15">
+      <c r="O89" s="15">
         <v>2018</v>
       </c>
-      <c r="P87" s="15">
+      <c r="P89" s="15">
         <v>2023</v>
       </c>
-      <c r="Q87" s="7">
+      <c r="Q89" s="7">
         <v>9999</v>
       </c>
-      <c r="R87" s="7" t="s">
+      <c r="R89" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="S87" s="7" t="s">
+      <c r="S89" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="T87" s="7" t="s">
+      <c r="T89" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="U87" s="7" t="s">
-        <v>995</v>
-      </c>
-      <c r="V87" s="7" t="s">
-        <v>996</v>
-      </c>
-      <c r="W87" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="X87" s="7" t="s">
+      <c r="U89" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="V89" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="W89" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="X89" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="Y87" s="1"/>
+      <c r="Y89" s="1"/>
     </row>
-    <row r="88" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
-        <v>998</v>
-      </c>
-      <c r="B88" s="10" t="s">
+    <row r="90" spans="1:25" s="39" customFormat="1">
+      <c r="A90" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N90" s="8">
+        <v>3620593.125</v>
+      </c>
+      <c r="O90" s="15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>8</v>
+      </c>
+      <c r="R90" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="S90" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T90" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U90" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V90" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="W90" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X90" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="1:25" s="39" customFormat="1">
+      <c r="A91" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N91" s="8">
+        <v>5559555.8320000004</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>8</v>
+      </c>
+      <c r="R91" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T91" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="U91" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V91" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="W91" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X91" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y91" s="1"/>
+    </row>
+    <row r="92" spans="1:25" ht="30">
+      <c r="A92" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F88" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" s="7" t="s">
+      <c r="F92" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H92" s="7">
         <v>9999</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K88" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M88" s="7">
+      <c r="K92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M92" s="7">
         <v>9999</v>
       </c>
-      <c r="N88" s="8" t="s">
+      <c r="N92" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O88" s="15">
+      <c r="O92" s="15">
         <v>2018</v>
       </c>
-      <c r="P88" s="15">
+      <c r="P92" s="15">
         <v>2023</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="Q92" s="7">
         <v>9999</v>
       </c>
-      <c r="R88" s="7" t="s">
+      <c r="R92" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="S88" s="7" t="s">
+      <c r="S92" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="T88" s="7" t="s">
+      <c r="T92" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="U88" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="V88" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="W88" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="X88" s="7" t="s">
+      <c r="U92" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V92" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="W92" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="X92" s="7" t="s">
         <v>485</v>
       </c>
     </row>
@@ -10505,11 +10952,11 @@
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:A88">
+  <conditionalFormatting sqref="A89:A92">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89:A1048576 A29:A30 A35:A55 B35 A1:A25 A69:A86">
+  <conditionalFormatting sqref="A93:A1048576 A29:A30 A35:A55 B35 A1:A25 A69:A88">
     <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
